--- a/outputs/enrichment_outputs/vwr_enrichment_output.xlsx
+++ b/outputs/enrichment_outputs/vwr_enrichment_output.xlsx
@@ -1597,7 +1597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM224"/>
+  <dimension ref="A1:AM209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0202026</t>
+          <t>0210000801</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2593,23 +2593,21 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>MP ALUMINA N, NEUTRAL PH, 50 KG</t>
+          <t>ADENOSINE-5'-TRIPHOSPHATE, 1 G</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>MP EcoChromâ„¢ Alumina N is an amphoteric oxide. It is commonly referred to as alumina (Î±-alumina), aloxide, or corundum in its crystalline form, as well as many other names, reflecting its widespread occurrence in nature and industry. An oxide of aluminum, occurring in nature as various minerals such as bauxite, corundum, etc. It is used as an adsorbent, desiccating agent, and catalyst, and in the manufacture of dental cements and refractories.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>MP EcoChromâ„¢ Alumina N is an amphoteric oxide. It is commonly referred to as alumina (Î±-alumina), aloxide, or corundum in its crystalline form, as well as many other names, reflecting its widespread occurrence in nature and industry. An oxide of aluminum, occurring in nature as various minerals such as bauxite, corundum, etc. It is used as an adsorbent, desiccating agent, and catalyst, and in the manufacture of dental cements and refractories.</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Alumina, Thin Layer Chromatography (TLC), Adsorbents for TLC, Adsorbents, Filter Aids and Drying Agents, Alumina &amp; Aluminum Hydroxide TLC Adsorbents, Aluminum, Aluminum Oxide, Analytical/Chromatography, Chemicals, LPLC/TLC/Paper Chromatography, Materials Science, Metal and Ceramic Science, Oxides, Research Essentials</t>
-        </is>
+          <t>(ATP)&lt;br&gt;&lt;B&gt;Disodium Salt&lt;br&gt;Crystalline&lt;/B&gt;&lt;br&gt;&lt;B&gt;Purity: Approx. 99%&lt;/B&gt;</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v/>
       </c>
       <c r="W13" t="n">
         <v/>
@@ -2678,7 +2676,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0202778</t>
+          <t>0210000805</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2726,7 +2724,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>MP SILITECH 18-32 M, 60, 25 KG</t>
+          <t>ADENOSINE-5'-TRIPHOSPHATE, 5 G</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2736,13 +2734,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Materials Science, Metal and Ceramic Science, Oxides, Silicon</t>
-        </is>
+          <t>(ATP)&lt;br&gt;&lt;B&gt;Disodium Salt&lt;br&gt;Crystalline&lt;/B&gt;&lt;br&gt;&lt;B&gt;Purity: Approx. 99%&lt;/B&gt;</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v/>
       </c>
       <c r="W14" t="n">
         <v/>
@@ -2811,7 +2807,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0210000801</t>
+          <t>0210000810</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2859,7 +2855,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>ADENOSINE-5'-TRIPHOSPHATE, 1 G</t>
+          <t>ADENOSINE-5'-TRIPHOSPHATE, 10 G</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -2942,7 +2938,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0210000805</t>
+          <t>02100109.2</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2990,7 +2986,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>ADENOSINE-5'-TRIPHOSPHATE, 5 G</t>
+          <t>N-ACETYL-D-MANNOSAMINE, 250 MG</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -3000,7 +2996,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>(ATP)&lt;br&gt;&lt;B&gt;Disodium Salt&lt;br&gt;Crystalline&lt;/B&gt;&lt;br&gt;&lt;B&gt;Purity: Approx. 99%&lt;/B&gt;</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -3073,7 +3069,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0210000810</t>
+          <t>0210019125</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -3121,21 +3117,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>ADENOSINE-5'-TRIPHOSPHATE, 10 G</t>
+          <t>ADENINE HYDROCHLORIDE, ~ 99%, 25 G</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Adenine Hydrochloride</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>(ATP)&lt;br&gt;&lt;B&gt;Disodium Salt&lt;br&gt;Crystalline&lt;/B&gt;&lt;br&gt;&lt;B&gt;Purity: Approx. 99%&lt;/B&gt;</t>
-        </is>
-      </c>
-      <c r="V17" t="n">
-        <v/>
+          <t>Adenine Hydrochloride</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways Chart, Metabolomics, Nucleotide</t>
+        </is>
       </c>
       <c r="W17" t="n">
         <v/>
@@ -3204,7 +3202,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>02100109.2</t>
+          <t>0210042780</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3252,21 +3250,23 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>N-ACETYL-D-MANNOSAMINE, 250 MG</t>
+          <t>POTASSIUM TELLURITE, 100 G</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Potassium Tellurite</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V18" t="n">
-        <v/>
+          <t>Potassium Tellurite</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Materials Science, Metal and Ceramic Science, Potassium Salts, Salts</t>
+        </is>
       </c>
       <c r="W18" t="n">
         <v/>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0210019125</t>
+          <t>0210082410</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3383,23 +3383,21 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>ADENINE HYDROCHLORIDE, ~ 99%, 25 G</t>
+          <t>DL- LACTIC ACID (LITHIUM SALT), 10 G</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Adenine Hydrochloride</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Adenine Hydrochloride</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways Chart, Metabolomics, Nucleotide</t>
-        </is>
+          <t>Lactic acid is an &amp;alpha; hydroxyl carboxylic acid produced from pyruvate by the enzyme lactate dehydrogenase (LDH). Lactate is one of the main components of Ringer&amp;prime;s lactate or lactated Ringer&amp;prime;s solution. It is a fermentation acid from milk or carbohydrates.</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v/>
       </c>
       <c r="W19" t="n">
         <v/>
@@ -3468,7 +3466,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0210042780</t>
+          <t>0210090450</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -3516,22 +3514,22 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>POTASSIUM TELLURITE, 100 G</t>
+          <t>OLEOYL COENZYME A, DIPOTASSIUM SALT, 50 MG</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Potassium Tellurite</t>
+          <t>Oleoyl Coenzyme A Dipotassium Salt</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Potassium Tellurite</t>
+          <t>Oleoyl Coenzyme A Dipotassium Salt</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Materials Science, Metal and Ceramic Science, Potassium Salts, Salts</t>
+          <t>Biochemicals and Reagents, Cell Biology, Coenzyme A and Other Acyl Transfer Reagents, Cofactors, Enzymes, Inhibitors, and Substrates, Esters, Fatty Acid Metabolism, Fatty Acids and conjugates, Fatty Acyls, Fatty acyl CoAs, Lipid, Lipid Library, Lipids, Metabolic Libraries, Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways Chart, Metabolomics, Unsaturated Fatty Acids and Derivatives</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -3601,7 +3599,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0210082410</t>
+          <t>0210137980</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -3649,21 +3647,23 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>DL- LACTIC ACID (LITHIUM SALT), 10 G</t>
+          <t>CHOLESTERYL HYDROGEN SUCCINATE, 100 G</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Cholesteryl Hydrogen Succinate</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Lactic acid is an &amp;alpha; hydroxyl carboxylic acid produced from pyruvate by the enzyme lactate dehydrogenase (LDH). Lactate is one of the main components of Ringer&amp;prime;s lactate or lactated Ringer&amp;prime;s solution. It is a fermentation acid from milk or carbohydrates.</t>
-        </is>
-      </c>
-      <c r="V21" t="n">
-        <v/>
+          <t>Cholesteryl Hydrogen Succinate</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Cholesteric, Liquid Crystals, Materials Science, Organic and Printed Electronics</t>
+        </is>
       </c>
       <c r="W21" t="n">
         <v/>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0210090450</t>
+          <t>0210192780</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3780,22 +3780,22 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>OLEOYL COENZYME A, DIPOTASSIUM SALT, 50 MG</t>
+          <t>HEPPS, 100 G</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Oleoyl Coenzyme A Dipotassium Salt</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Oleoyl Coenzyme A Dipotassium Salt</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Cell Biology, Coenzyme A and Other Acyl Transfer Reagents, Cofactors, Enzymes, Inhibitors, and Substrates, Esters, Fatty Acid Metabolism, Fatty Acids and conjugates, Fatty Acyls, Fatty acyl CoAs, Lipid, Lipid Library, Lipids, Metabolic Libraries, Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways Chart, Metabolomics, Unsaturated Fatty Acids and Derivatives</t>
+          <t>Biological Buffers, Goodâ€™s Buffers</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0210137980</t>
+          <t>0210192783</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3913,22 +3913,22 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>CHOLESTERYL HYDROGEN SUCCINATE, 100 G</t>
+          <t>HEPPS, 250 G</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Cholesteryl Hydrogen Succinate</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Cholesteryl Hydrogen Succinate</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Cholesteric, Liquid Crystals, Materials Science, Organic and Printed Electronics</t>
+          <t>Biological Buffers, Goodâ€™s Buffers</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0210192780</t>
+          <t>0210192791</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>HEPPS, 100 G</t>
+          <t>HEPPS, 1 KG</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0210192783</t>
+          <t>0210225610</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4179,22 +4179,22 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>HEPPS, 250 G</t>
+          <t>Î±-D-(+)-MELIBIOSE MONOHYDRATE, 10 G</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>Î±-D-(+)-Melibiose Monohydrate</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>Î±-D-(+)-Melibiose Monohydrate</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Biological Buffers, Goodâ€™s Buffers</t>
+          <t>Biochemicals and Reagents, Carbohydrates, Disaccharide, Metabolic Libraries, Metabolomics</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0210192791</t>
+          <t>0210225625</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4312,22 +4312,22 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>HEPPS, 1 KG</t>
+          <t>Î±-D-(+)-MELIBIOSE MONOHYDRATE, 25 G</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>Î±-D-(+)-Melibiose Monohydrate</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>Î±-D-(+)-Melibiose Monohydrate</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Biological Buffers, Goodâ€™s Buffers</t>
+          <t>Biochemicals and Reagents, Carbohydrates, Disaccharide, Metabolic Libraries, Metabolomics</t>
         </is>
       </c>
       <c r="W26" t="n">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0210225610</t>
+          <t>0210226091</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4445,22 +4445,22 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-MELIBIOSE MONOHYDRATE, 10 G</t>
+          <t>MENADIONE SODIUM BISULFITE, TRIHYDRATE, 1 KG</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-Melibiose Monohydrate</t>
+          <t>Menadione Sodium Bisulfite Trihydrate</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-Melibiose Monohydrate</t>
+          <t>Menadione Sodium Bisulfite Trihydrate</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Carbohydrates, Disaccharide, Metabolic Libraries, Metabolomics</t>
+          <t>Antibiotics, Antibiotics A to Z, Antibiotics G-M, Approved Therapeutics/Drug Candidates, Bioactive Small Molecules, Biochemicals and Reagents, Cell Biology, Cell Signaling and Neuroscience, Cell Stress, Eli Lilly, M, Nitric Oxide and Cell Stress, Oxidative Stress Proteins and Reagents</t>
         </is>
       </c>
       <c r="W27" t="n">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0210225625</t>
+          <t>0210237190</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4578,23 +4578,21 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-MELIBIOSE MONOHYDRATE, 25 G</t>
+          <t>MUCIC ACID, 500 G</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-Melibiose Monohydrate</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-Melibiose Monohydrate</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Biochemicals and Reagents, Carbohydrates, Disaccharide, Metabolic Libraries, Metabolomics</t>
-        </is>
+          <t>Purity: 90-95%Sequestrant for metal ions.</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v/>
       </c>
       <c r="W28" t="n">
         <v/>
@@ -4663,7 +4661,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0210226091</t>
+          <t>0210245090</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4711,22 +4709,22 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>MENADIONE SODIUM BISULFITE, TRIHYDRATE, 1 KG</t>
+          <t>NINHYDRIN, MONOHYDRATE, 500 G</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Menadione Sodium Bisulfite Trihydrate</t>
+          <t>Ninhydrin Monohydrate</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Menadione Sodium Bisulfite Trihydrate</t>
+          <t>Ninhydrin Monohydrate</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Antibiotics, Antibiotics A to Z, Antibiotics G-M, Approved Therapeutics/Drug Candidates, Bioactive Small Molecules, Biochemicals and Reagents, Cell Biology, Cell Signaling and Neuroscience, Cell Stress, Eli Lilly, M, Nitric Oxide and Cell Stress, Oxidative Stress Proteins and Reagents</t>
+          <t>Amino Acid Analysis, Biochemicals and Reagents, Detection Products for Amino Acid Analysis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Peptide Analysis and Characterization, Peptides, Reagent Grade, Research Essentials</t>
         </is>
       </c>
       <c r="W29" t="n">
@@ -4796,7 +4794,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0210237190</t>
+          <t>0210280825</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4844,21 +4842,23 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>MUCIC ACID, 500 G</t>
+          <t>RESORCINOL, 25 G</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>Purity: 90-95%Sequestrant for metal ions.</t>
-        </is>
-      </c>
-      <c r="V30" t="n">
-        <v/>
+          <t>Resorcinol</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Building Blocks, Chemical Synthesis, Organic Building Blocks, Oxygen Compounds, Polyols</t>
+        </is>
       </c>
       <c r="W30" t="n">
         <v/>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0210245090</t>
+          <t>0210280890</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4975,22 +4975,22 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>NINHYDRIN, MONOHYDRATE, 500 G</t>
+          <t>RESORCINOL, 500 G</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Ninhydrin Monohydrate</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Ninhydrin Monohydrate</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Amino Acid Analysis, Biochemicals and Reagents, Detection Products for Amino Acid Analysis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Peptide Analysis and Characterization, Peptides, Reagent Grade, Research Essentials</t>
+          <t>Building Blocks, Chemical Synthesis, Organic Building Blocks, Oxygen Compounds, Polyols</t>
         </is>
       </c>
       <c r="W31" t="n">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0210280825</t>
+          <t>02102897.5</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -5108,22 +5108,22 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>RESORCINOL, 25 G</t>
+          <t>CHOLIC ACID, SODIUM SALT, 98.5%, 500 G</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Cholic Acid Sodium Salt</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Cholic Acid Sodium Salt</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Building Blocks, Chemical Synthesis, Organic Building Blocks, Oxygen Compounds, Polyols</t>
+          <t>Anionic Detergents, Antigen-Vaccine Preparation, Bile Salts, Bile acids and Derivatives, Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents by Applications, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Diagnostic Applications, Drug Delivery-Liposomes, Electrophoresis Chromatography, Enzymology, Lipids, Membrane Protein Solubilization, Molecular Biology, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Proteins and Derivatives, Proteomics, Research Essentials, Sterol Lipids</t>
         </is>
       </c>
       <c r="W32" t="n">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0210280890</t>
+          <t>0210301205</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -5241,22 +5241,22 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>RESORCINOL, 500 G</t>
+          <t>TETRACYCLINE, 5 G</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Tetracycline</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Tetracycline</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Building Blocks, Chemical Synthesis, Organic Building Blocks, Oxygen Compounds, Polyols</t>
+          <t>Analytical Standards, Analytical/Chromatography, Antibacterial, Antibiotics, Cell Biology, ,Genetic Marker Selection, Interferes with Protein Synthesis, Mechanism of Action, Method Specific, Neats, Spectrum of Activity, Tetracyclines</t>
         </is>
       </c>
       <c r="W33" t="n">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>02102897.5</t>
+          <t>0210371250</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -5374,22 +5374,22 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>CHOLIC ACID, SODIUM SALT, 98.5%, 500 G</t>
+          <t>ALBUMIN, HUMAN, 30% SOLUTION, 50 ML</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>Cholic Acid Sodium Salt</t>
+          <t>Albumin, 30% Solution</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Cholic Acid Sodium Salt</t>
+          <t>Albumin, 30% Solution</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Anionic Detergents, Antigen-Vaccine Preparation, Bile Salts, Bile acids and Derivatives, Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents by Applications, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Diagnostic Applications, Drug Delivery-Liposomes, Electrophoresis Chromatography, Enzymology, Lipids, Membrane Protein Solubilization, Molecular Biology, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Proteins and Derivatives, Proteomics, Research Essentials, Sterol Lipids</t>
+          <t>Albumin, Biochemicals and Reagents, Human Serum Albumins, Proteins and Derivatives</t>
         </is>
       </c>
       <c r="W34" t="n">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0210301205</t>
+          <t>0210488691</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -5507,22 +5507,22 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>TETRACYCLINE, 5 G</t>
+          <t>IRISH MOSS (CARRAGEENAN), 1 KG</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>Tetracycline</t>
+          <t>Irish Moss (Carrageenan)</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>Tetracycline</t>
+          <t>Irish Moss (Carrageenan)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Analytical Standards, Analytical/Chromatography, Antibacterial, Antibiotics, Cell Biology, ,Genetic Marker Selection, Interferes with Protein Synthesis, Mechanism of Action, Method Specific, Neats, Spectrum of Activity, Tetracyclines</t>
+          <t>Biochemicals and Reagents, Carbohydrates, Fiber and Prebiotics,Functional Foods, Nutrition Research, Polysaccharide, Soluble Fiber, Including Prebiotics</t>
         </is>
       </c>
       <c r="W35" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0210371250</t>
+          <t>0210563301</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -5640,22 +5640,22 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>ALBUMIN, HUMAN, 30% SOLUTION, 50 ML</t>
+          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 1 G</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>Albumin, 30% Solution</t>
+          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>Albumin, 30% Solution</t>
+          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Albumin, Biochemicals and Reagents, Human Serum Albumins, Proteins and Derivatives</t>
+          <t>Biochemicals and Reagents, Fluorescent Indicators and Probes, Fluorescent Probes, Labels, Particles and Stains, Hematology and Histology, Lipophilic and Membrane Probes, Stains &amp; Dyes</t>
         </is>
       </c>
       <c r="W36" t="n">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0210488691</t>
+          <t>0210563310</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -5773,22 +5773,22 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>IRISH MOSS (CARRAGEENAN), 1 KG</t>
+          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 10 G</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>Irish Moss (Carrageenan)</t>
+          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Irish Moss (Carrageenan)</t>
+          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Carbohydrates, Fiber and Prebiotics,Functional Foods, Nutrition Research, Polysaccharide, Soluble Fiber, Including Prebiotics</t>
+          <t>Biochemicals and Reagents, Fluorescent Indicators and Probes, Fluorescent Probes, Labels, Particles and Stains, Hematology and Histology, Lipophilic and Membrane Probes, Stains &amp; Dyes</t>
         </is>
       </c>
       <c r="W37" t="n">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0210563301</t>
+          <t>0210563325</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 1 G</t>
+          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 25 G</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0210563310</t>
+          <t>02150156.5</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -6039,22 +6039,22 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 10 G</t>
+          <t>SODIUM POTASSIUM TARTRATE TETRAHYDRATE, 500 G</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
+          <t>Sodium Potassium Tartrate Tetrahydrate</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
+          <t>Sodium Potassium Tartrate Tetrahydrate</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Fluorescent Indicators and Probes, Fluorescent Probes, Labels, Particles and Stains, Hematology and Histology, Lipophilic and Membrane Probes, Stains &amp; Dyes</t>
+          <t>Biochemicals and Reagents, Chelators</t>
         </is>
       </c>
       <c r="W39" t="n">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0210563325</t>
+          <t>0215047783</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -6172,22 +6172,22 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 25 G</t>
+          <t>BLASTICIDIN S HYDROCHLORIDE, PHYTOPURE;, 250 MG</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
+          <t>CAS Number: 9041-93-4</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
+          <t>Broad spectrum nucleoside antibiotic. Inhibits protein synthesis in prokaryotic and eukaryotic organisms. Suitable for selection of cells carrying plasmids conferring blasticidin resistance.</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Fluorescent Indicators and Probes, Fluorescent Probes, Labels, Particles and Stains, Hematology and Histology, Lipophilic and Membrane Probes, Stains &amp; Dyes</t>
+          <t>9041-93-4, 150477</t>
         </is>
       </c>
       <c r="W40" t="n">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>02150156.5</t>
+          <t>0215082501</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -6305,22 +6305,22 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>SODIUM POTASSIUM TARTRATE TETRAHYDRATE, 500 G</t>
+          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 1 G</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>Sodium Potassium Tartrate Tetrahydrate</t>
+          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>Sodium Potassium Tartrate Tetrahydrate</t>
+          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Chelators</t>
+          <t>Biochemicals and Reagents, Colorimetric, Detection, Detection Substrates, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Immunohistochemistry, Peroxidase, Powders, Stains and Dyes, Western Blotting</t>
         </is>
       </c>
       <c r="W41" t="n">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0215047783</t>
+          <t>0215082505</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -6438,22 +6438,22 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>BLASTICIDIN S HYDROCHLORIDE, PHYTOPURE;, 250 MG</t>
+          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 5 G</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>CAS Number: 9041-93-4</t>
+          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>Broad spectrum nucleoside antibiotic. Inhibits protein synthesis in prokaryotic and eukaryotic organisms. Suitable for selection of cells carrying plasmids conferring blasticidin resistance.</t>
+          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>9041-93-4, 150477</t>
+          <t>Biochemicals and Reagents, Colorimetric, Detection, Detection Substrates, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Immunohistochemistry, Peroxidase, Powders, Stains and Dyes, Western Blotting</t>
         </is>
       </c>
       <c r="W42" t="n">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0215082501</t>
+          <t>0215082510</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 1 G</t>
+          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 10 G</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0215082505</t>
+          <t>02151187.1</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -6704,22 +6704,22 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 5 G</t>
+          <t>GLUCOSE-6-PHOSPHATE DEHYDROGENASE, 400 U/MG SOLID, 100 U</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
+          <t>Glucose-6-Phosphate Dehydrogenase</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
+          <t>Glucose-6-Phosphate Dehydrogenase</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Colorimetric, Detection, Detection Substrates, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Immunohistochemistry, Peroxidase, Powders, Stains and Dyes, Western Blotting</t>
+          <t>Inhibitors and Substrates, Enzymes, Biochemicals, Oxidoreductases</t>
         </is>
       </c>
       <c r="W44" t="n">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0215082510</t>
+          <t>02151187.5</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -6837,22 +6837,22 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 10 G</t>
+          <t>GLUCOSE-6-PHOSPHATE DEHYDROGENASE, 400 U/MG SOLID, 500 KU</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
+          <t>Glucose-6-Phosphate Dehydrogenase</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
+          <t>Glucose-6-Phosphate Dehydrogenase</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Colorimetric, Detection, Detection Substrates, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Immunohistochemistry, Peroxidase, Powders, Stains and Dyes, Western Blotting</t>
+          <t>Inhibitors and Substrates, Enzymes, Biochemicals, Oxidoreductases</t>
         </is>
       </c>
       <c r="W45" t="n">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>02151187.1</t>
+          <t>0215139383</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -6970,22 +6970,22 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>GLUCOSE-6-PHOSPHATE DEHYDROGENASE, 400 U/MG SOLID, 100 U</t>
+          <t>Î±-KETOGLUTARIC ACID, DISODIUM SALT, DIHYDRATE, 250 G</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>Glucose-6-Phosphate Dehydrogenase</t>
+          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>Glucose-6-Phosphate Dehydrogenase</t>
+          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Inhibitors and Substrates, Enzymes, Biochemicals, Oxidoreductases</t>
+          <t>Building Blocks, Carbonyl Compounds, Carboxylic Acid Salts, Chemical Synthesis, Organic Building Blocks</t>
         </is>
       </c>
       <c r="W46" t="n">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>02151187.5</t>
+          <t>0215139390</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -7103,22 +7103,22 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>GLUCOSE-6-PHOSPHATE DEHYDROGENASE, 400 U/MG SOLID, 500 KU</t>
+          <t>Î±-KETOGLUTARIC ACID, DISODIUM SALT, DIHYDRATE, 500 G</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>Glucose-6-Phosphate Dehydrogenase</t>
+          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>Glucose-6-Phosphate Dehydrogenase</t>
+          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Inhibitors and Substrates, Enzymes, Biochemicals, Oxidoreductases</t>
+          <t>Building Blocks, Carbonyl Compounds, Carboxylic Acid Salts, Chemical Synthesis, Organic Building Blocks</t>
         </is>
       </c>
       <c r="W47" t="n">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0215139383</t>
+          <t>0215156180</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -7236,22 +7236,22 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Î±-KETOGLUTARIC ACID, DISODIUM SALT, DIHYDRATE, 250 G</t>
+          <t>LITHIUM BROMIDE, 100 G</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Building Blocks, Carbonyl Compounds, Carboxylic Acid Salts, Chemical Synthesis, Organic Building Blocks</t>
+          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Reagent Plus, Research Essentials</t>
         </is>
       </c>
       <c r="W48" t="n">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0215139390</t>
+          <t>0215156190</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -7369,22 +7369,22 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Î±-KETOGLUTARIC ACID, DISODIUM SALT, DIHYDRATE, 500 G</t>
+          <t>LITHIUM BROMIDE, 500 G</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Building Blocks, Carbonyl Compounds, Carboxylic Acid Salts, Chemical Synthesis, Organic Building Blocks</t>
+          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Reagent Plus, Research Essentials</t>
         </is>
       </c>
       <c r="W49" t="n">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0215156180</t>
+          <t>0215156191</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>LITHIUM BROMIDE, 100 G</t>
+          <t>LITHIUM BROMIDE, 1 KG</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0215156190</t>
+          <t>0215186401</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -7635,22 +7635,22 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>LITHIUM BROMIDE, 500 G</t>
+          <t>PHORBOL-12-MYRISTATE-13-ACETATE, &gt;99%, 1 MG</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>Phorbol-12-Myristate-13-Acetate</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>Phorbol-12-Myristate-13-Acetate</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Reagent Plus, Research Essentials</t>
+          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
         </is>
       </c>
       <c r="W51" t="n">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0215156191</t>
+          <t>0215186405</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -7768,22 +7768,22 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>LITHIUM BROMIDE, 1 KG</t>
+          <t>PHORBOL-12-MYRISTATE-13-ACETATE, &gt;99%, 5 MG</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>Phorbol-12-Myristate-13-Acetate</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>Phorbol-12-Myristate-13-Acetate</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Reagent Plus, Research Essentials</t>
+          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
         </is>
       </c>
       <c r="W52" t="n">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0215186401</t>
+          <t>02151944.2</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -7901,22 +7901,22 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>PHORBOL-12-MYRISTATE-13-ACETATE, &gt;99%, 1 MG</t>
+          <t>POTASSIUM CHLORIDE, &gt;99%, 250 G</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>Phorbol-12-Myristate-13-Acetate</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Phorbol-12-Myristate-13-Acetate</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
+          <t>Biological Buffers</t>
         </is>
       </c>
       <c r="W53" t="n">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0215186405</t>
+          <t>02151944.5</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -8034,22 +8034,22 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>PHORBOL-12-MYRISTATE-13-ACETATE, &gt;99%, 5 MG</t>
+          <t>POTASSIUM CHLORIDE, &gt;99%, 500 G</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>Phorbol-12-Myristate-13-Acetate</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Phorbol-12-Myristate-13-Acetate</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
+          <t>Biological Buffers</t>
         </is>
       </c>
       <c r="W54" t="n">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>02151944.2</t>
+          <t>0215194405</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>POTASSIUM CHLORIDE, &gt;99%, 250 G</t>
+          <t>POTASSIUM CHLORIDE, &gt;99%, 5 KG</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -8252,7 +8252,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>02151944.5</t>
+          <t>0215233591</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -8300,22 +8300,22 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>POTASSIUM CHLORIDE, &gt;99%, 500 G</t>
+          <t>TRANSFERRIN, BOVINE (HOLO), 1 G</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>Bovine Transferrin is chromatographically purified from New Zealand-sourced bovine plasma in an ISO quality system assuring complete traceability and consistent high quality. Transferrin (HOLO) is an iron-rich product supplied as a heat-treated, lyophilised powder.</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>Bovine Transferrin is chromatographically purified from New Zealand-sourced bovine plasma in an ISO quality system assuring complete traceability and consistent high quality. Transferrin (HOLO) is an iron-rich product supplied as a heat-treated, lyophilised powder.</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Biological Buffers</t>
+          <t>Albumins and Transport Proteins, Cell Culture, Reagents and Supplements, Transferrins and Transferrin Replacements</t>
         </is>
       </c>
       <c r="W56" t="n">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0215194405</t>
+          <t>0215245525</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -8433,23 +8433,21 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>POTASSIUM CHLORIDE, &gt;99%, 5 KG</t>
+          <t>MOPSO, SODIUM SALT , 25 G</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Biological Buffers</t>
-        </is>
+          <t>MOPSO sodium salt is a zwitterionic aminosulfonate buffer that is very similar in structure to MOPS (3-morpholinopropanesulfonic acid), differing by the presence of a hydroxyl group on C-2 of the propane moiety.</t>
+        </is>
+      </c>
+      <c r="V57" t="n">
+        <v/>
       </c>
       <c r="W57" t="n">
         <v/>
@@ -8518,7 +8516,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0215233591</t>
+          <t>0215245610</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -8566,22 +8564,22 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>TRANSFERRIN, BOVINE (HOLO), 1 G</t>
+          <t>PIPES SESQUISODIUM SALT, 10 G</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>Bovine Transferrin is chromatographically purified from New Zealand-sourced bovine plasma in an ISO quality system assuring complete traceability and consistent high quality. Transferrin (HOLO) is an iron-rich product supplied as a heat-treated, lyophilised powder.</t>
+          <t>Pipes Sesquisodium Salt</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>Bovine Transferrin is chromatographically purified from New Zealand-sourced bovine plasma in an ISO quality system assuring complete traceability and consistent high quality. Transferrin (HOLO) is an iron-rich product supplied as a heat-treated, lyophilised powder.</t>
+          <t>Pipes Sesquisodium Salt</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Albumins and Transport Proteins, Cell Culture, Reagents and Supplements, Transferrins and Transferrin Replacements</t>
+          <t>Biological Buffers, Goodâ€™s Buffers</t>
         </is>
       </c>
       <c r="W58" t="n">
@@ -8651,7 +8649,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0215245525</t>
+          <t>0215250305</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -8699,7 +8697,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>MOPSO, SODIUM SALT , 25 G</t>
+          <t>BROMOCRESOL GREEN, 5 G</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
@@ -8709,7 +8707,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>MOPSO sodium salt is a zwitterionic aminosulfonate buffer that is very similar in structure to MOPS (3-morpholinopropanesulfonic acid), differing by the presence of a hydroxyl group on C-2 of the propane moiety.</t>
+          <t>Bromocresol Green is a dye of the triphenylmethane family (triarylmethane dyes). It binds quantitatively with human albumin forming an intense blue-green complex with an absorbance maximum at 628 nm.</t>
         </is>
       </c>
       <c r="V59" t="n">
@@ -8782,7 +8780,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0215245610</t>
+          <t>0215250625</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -8830,23 +8828,21 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>PIPES SESQUISODIUM SALT, 10 G</t>
+          <t>BROMOPHENOL BLUE, SODIUM SALT, 25 G</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>Pipes Sesquisodium Salt</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Pipes Sesquisodium Salt</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Biological Buffers, Goodâ€™s Buffers</t>
-        </is>
+          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
+        </is>
+      </c>
+      <c r="V60" t="n">
+        <v/>
       </c>
       <c r="W60" t="n">
         <v/>
@@ -8915,7 +8911,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0215250305</t>
+          <t>0215250650</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -8963,7 +8959,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>BROMOCRESOL GREEN, 5 G</t>
+          <t>BROMOPHENOL BLUE, SODIUM SALT, 50 G</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -8973,7 +8969,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>Bromocresol Green is a dye of the triphenylmethane family (triarylmethane dyes). It binds quantitatively with human albumin forming an intense blue-green complex with an absorbance maximum at 628 nm.</t>
+          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
         </is>
       </c>
       <c r="V61" t="n">
@@ -9046,7 +9042,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0215250625</t>
+          <t>0215252191</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -9094,21 +9090,23 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>BROMOPHENOL BLUE, SODIUM SALT, 25 G</t>
+          <t>ETHYLENEDIAMINE, TETRAACETIC ACID, 1 KG</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Ethylenediamine Tetraacetic Acid</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
-        </is>
-      </c>
-      <c r="V62" t="n">
-        <v/>
+          <t>Ethylenediamine Tetraacetic Acid</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Biochemicals and Reagents, Biological Buffers, Calcium Chelators, Calcium Signaling Research Tools, Cell Biology, Cell Culture, Cell Dissociation, Cell Signaling and Neuroscience, Chelators, Bioreagents, Dissociation, Enzyme Inhibitors, Ethylenediaminetetraacetic acid (EDTA) and EDTA Solutions, Inorganic Salts</t>
+        </is>
       </c>
       <c r="W62" t="n">
         <v/>
@@ -9177,7 +9175,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0215250650</t>
+          <t>0215255280</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -9225,21 +9223,23 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>BROMOPHENOL BLUE, SODIUM SALT, 50 G</t>
+          <t>OXALIC ACID, DIHYDRATE, 100 G</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Oxalic Acid Dihydrate</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
-        </is>
-      </c>
-      <c r="V63" t="n">
-        <v/>
+          <t>Oxalic Acid Dihydrate</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>ACS Grade, Building Blocks, Carbonyl Compounds, Carboxylic Acids, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Organic Building Blocks,</t>
+        </is>
       </c>
       <c r="W63" t="n">
         <v/>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0215252191</t>
+          <t>0215263880</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -9356,22 +9356,22 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>ETHYLENEDIAMINE, TETRAACETIC ACID, 1 KG</t>
+          <t>INDIGO CARMINE, 100 G</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>Ethylenediamine Tetraacetic Acid</t>
+          <t>Indigo Carmine</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Ethylenediamine Tetraacetic Acid</t>
+          <t>Indigo Carmine</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Biological Buffers, Calcium Chelators, Calcium Signaling Research Tools, Cell Biology, Cell Culture, Cell Dissociation, Cell Signaling and Neuroscience, Chelators, Bioreagents, Dissociation, Enzyme Inhibitors, Ethylenediaminetetraacetic acid (EDTA) and EDTA Solutions, Inorganic Salts</t>
+          <t>Hematology and Histology, Stains &amp; Dyes,Stains and Dyes</t>
         </is>
       </c>
       <c r="W64" t="n">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0215255280</t>
+          <t>0215268105</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -9489,23 +9489,21 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>OXALIC ACID, DIHYDRATE, 100 G</t>
+          <t>TEMPO, CATALYTIC OXIDANT, 5 G</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>Oxalic Acid Dihydrate</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Oxalic Acid Dihydrate</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>ACS Grade, Building Blocks, Carbonyl Compounds, Carboxylic Acids, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Organic Building Blocks,</t>
-        </is>
+          <t>TEMPO reacts preferentially with carbon-centered radicals.</t>
+        </is>
+      </c>
+      <c r="V65" t="n">
+        <v/>
       </c>
       <c r="W65" t="n">
         <v/>
@@ -9574,7 +9572,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0215263880</t>
+          <t>0215268125</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -9622,23 +9620,21 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>INDIGO CARMINE, 100 G</t>
+          <t>TEMPO, CATALYTIC OXIDANT, 25 G</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>Indigo Carmine</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Indigo Carmine</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>Hematology and Histology, Stains &amp; Dyes,Stains and Dyes</t>
-        </is>
+          <t>TEMPO reacts preferentially with carbon-centered radicals.</t>
+        </is>
+      </c>
+      <c r="V66" t="n">
+        <v/>
       </c>
       <c r="W66" t="n">
         <v/>
@@ -9707,7 +9703,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0215268105</t>
+          <t>0215269090</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -9755,21 +9751,23 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>TEMPO, CATALYTIC OXIDANT, 5 G</t>
+          <t>POLY-L-LYSINE HYDROBROMIDE, 500 MG</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Poly-L-lysine is a nonspecific attachment factor for cells useful in promoting cell adhesion to solid substrates.</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>TEMPO reacts preferentially with carbon-centered radicals.</t>
-        </is>
-      </c>
-      <c r="V67" t="n">
-        <v/>
+          <t>Poly-L-Lysine Hydrochloride</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Amino Acids, Biochemicals and Reagents, Homopolymers, Polyamino Acids</t>
+        </is>
       </c>
       <c r="W67" t="n">
         <v/>
@@ -9838,7 +9836,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0215268125</t>
+          <t>0215394601</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -9886,17 +9884,17 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>TEMPO, CATALYTIC OXIDANT, 25 G</t>
+          <t>STACHYOSE, TETRAHYDRATE, 1 MG</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Stachyose Tetrahydrate</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>TEMPO reacts preferentially with carbon-centered radicals.</t>
+          <t>Stachyose Tetrahydrate</t>
         </is>
       </c>
       <c r="V68" t="n">
@@ -9969,7 +9967,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0215269090</t>
+          <t>0215394680</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -10017,23 +10015,21 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>POLY-L-LYSINE HYDROBROMIDE, 500 MG</t>
+          <t>STACHYOSE, TETRAHYDRATE, 100 MG</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>Poly-L-lysine is a nonspecific attachment factor for cells useful in promoting cell adhesion to solid substrates.</t>
+          <t>Stachyose Tetrahydrate</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>Poly-L-Lysine Hydrochloride</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>Amino Acids, Biochemicals and Reagents, Homopolymers, Polyamino Acids</t>
-        </is>
+          <t>Stachyose Tetrahydrate</t>
+        </is>
+      </c>
+      <c r="V69" t="n">
+        <v/>
       </c>
       <c r="W69" t="n">
         <v/>
@@ -10102,7 +10098,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0215394601</t>
+          <t>0215394690</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -10150,7 +10146,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>STACHYOSE, TETRAHYDRATE, 1 MG</t>
+          <t>STACHYOSE, TETRAHYDRATE, 500 MG</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -10233,7 +10229,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0215394680</t>
+          <t>0215394691</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -10281,7 +10277,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>STACHYOSE, TETRAHYDRATE, 100 MG</t>
+          <t>STACHYOSE, TETRAHYDRATE, 1 G</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -10364,7 +10360,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0215394690</t>
+          <t>02154263.2</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -10412,21 +10408,23 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>STACHYOSE, TETRAHYDRATE, 500 MG</t>
+          <t>BUMETANIDE, 250 MG</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
+          <t>Bumetanide</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
-        </is>
-      </c>
-      <c r="V72" t="n">
-        <v/>
+          <t>Bumetanide</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Approved Therapeutics/Drug Candidates, B, Bioactive Small Molecules, Cell Biology, Cell Signaling and Neuroscience, Ion Channels, Ion Pump Inhibitors, Monovalent Ion Channels, Roche, Validus, Voltage-gated Ion Channels</t>
+        </is>
       </c>
       <c r="W72" t="n">
         <v/>
@@ -10495,7 +10493,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0215394691</t>
+          <t>0215457180</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -10543,21 +10541,23 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>STACHYOSE, TETRAHYDRATE, 1 G</t>
+          <t>EPIDERMAL GROWTH FACTOR, HUMAN, RECOMBINANT, 98%, 100 G</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
+          <t>Epidermal Growth Factor, Human, Recombinant</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
-        </is>
-      </c>
-      <c r="V73" t="n">
-        <v/>
+          <t>Epidermal Growth Factor, Human, Recombinant</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Cell Biology, Cytokines, Growth Factors and Chemokines for Stem Cell Differentiation, Growth Factors, Embryonic Stem Cell Biology Growth Factors, Mesenchymal Stem Cell Biology, Stem Cell Biology, Stem Cell Differentiation, Stem Cell Expansion</t>
+        </is>
       </c>
       <c r="W73" t="n">
         <v/>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>02154263.2</t>
+          <t>0215485580</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -10674,22 +10674,22 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>BUMETANIDE, 250 MG</t>
+          <t>BIEBRICH SCARLET, 100 G</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>Bumetanide</t>
+          <t>Biebrich Scarlet</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Bumetanide</t>
+          <t>Biebrich Scarlet</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Approved Therapeutics/Drug Candidates, B, Bioactive Small Molecules, Cell Biology, Cell Signaling and Neuroscience, Ion Channels, Ion Pump Inhibitors, Monovalent Ion Channels, Roche, Validus, Voltage-gated Ion Channels</t>
+          <t>Cell Biology, Hematology and Histology, Stains and Dyes</t>
         </is>
       </c>
       <c r="W74" t="n">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0215457180</t>
+          <t>0215624380</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -10807,22 +10807,22 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>EPIDERMAL GROWTH FACTOR, HUMAN, RECOMBINANT, 98%, 100 G</t>
+          <t>PHOSPHOTUNGSTIC ACID, HYDRATE, 100 G</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>Epidermal Growth Factor, Human, Recombinant</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Epidermal Growth Factor, Human, Recombinant</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Cell Biology, Cytokines, Growth Factors and Chemokines for Stem Cell Differentiation, Growth Factors, Embryonic Stem Cell Biology Growth Factors, Mesenchymal Stem Cell Biology, Stem Cell Biology, Stem Cell Differentiation, Stem Cell Expansion</t>
+          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Research Essentials</t>
         </is>
       </c>
       <c r="W75" t="n">
@@ -10892,7 +10892,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0215485580</t>
+          <t>0215624383</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -10940,22 +10940,22 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>BIEBRICH SCARLET, 100 G</t>
+          <t>PHOSPHOTUNGSTIC ACID, HYDRATE, 250 G</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>Biebrich Scarlet</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Biebrich Scarlet</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Cell Biology, Hematology and Histology, Stains and Dyes</t>
+          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Research Essentials</t>
         </is>
       </c>
       <c r="W76" t="n">
@@ -11025,7 +11025,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0215624380</t>
+          <t>0215653480</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -11073,22 +11073,22 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>PHOSPHOTUNGSTIC ACID, HYDRATE, 100 G</t>
+          <t>TRANSFER RIBONUCLEIC ACID, 100 U</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Research Essentials</t>
+          <t>Biochemicals and Reagents, Nucleotides, Oligonucleotides, DNA, and RNA</t>
         </is>
       </c>
       <c r="W77" t="n">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0215624383</t>
+          <t>0215653494</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -11206,22 +11206,22 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>PHOSPHOTUNGSTIC ACID, HYDRATE, 250 G</t>
+          <t>TRANSFER RIBONUCLEIC ACID, 5 KU</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Research Essentials</t>
+          <t>Biochemicals and Reagents, Nucleotides, Oligonucleotides, DNA, and RNA</t>
         </is>
       </c>
       <c r="W78" t="n">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0215653480</t>
+          <t>0215878283</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -11339,22 +11339,22 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>TRANSFER RIBONUCLEIC ACID, 100 U</t>
+          <t>G418 DISULFATE, PHYTOPURE;, 250 MG</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>CAS Number: 108321-42-2</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria, yeast, higher plants, mammalian cells, protozoans and helminths. It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture.</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Nucleotides, Oligonucleotides, DNA, and RNA</t>
+          <t>108321-42-2, 158782</t>
         </is>
       </c>
       <c r="W79" t="n">
@@ -11424,7 +11424,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0215653494</t>
+          <t>0215878291</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -11472,22 +11472,22 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>TRANSFER RIBONUCLEIC ACID, 5 KU</t>
+          <t>G418 DISULFATE, PHYTOPURE;,  1 G</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>CAS Number: 108321-42-2</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria, yeast, higher plants, mammalian cells, protozoans and helminths. It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture.</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Nucleotides, Oligonucleotides, DNA, and RNA</t>
+          <t>108321-42-2, 158782</t>
         </is>
       </c>
       <c r="W80" t="n">
@@ -11557,7 +11557,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0215878283</t>
+          <t>0215878294</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>G418 DISULFATE, PHYTOPURE;, 250 MG</t>
+          <t>G418 DISULFATE, PHYTOPURE;, 5 G</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
@@ -11690,7 +11690,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0215878291</t>
+          <t>0215985925</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -11738,22 +11738,22 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>G418 DISULFATE, PHYTOPURE;,  1 G</t>
+          <t>ALDOLASE, 25 MG</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>CAS Number: 108321-42-2</t>
+          <t>Aldolase</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria, yeast, higher plants, mammalian cells, protozoans and helminths. It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture.</t>
+          <t>Aldolase</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>108321-42-2, 158782</t>
+          <t>Lyases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, Glycolysis, Glycolysis Enzymes, Metabolic Pathways, Metabolomics, Organic Synthesis</t>
         </is>
       </c>
       <c r="W82" t="n">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0215878294</t>
+          <t>0219014505</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -11871,22 +11871,22 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>G418 DISULFATE, PHYTOPURE;, 5 G</t>
+          <t>AMOXICILLIN, 5 G</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>CAS Number: 108321-42-2</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria, yeast, higher plants, mammalian cells, protozoans and helminths. It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture.</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>108321-42-2, 158782</t>
+          <t>Antibacterial, Antibiotics,Chemical Structure Class, Interferes with Cell Wall Synthesis, Mechanism of Action, Penicillins and Cephalosporins (beta-Lactams), Spectrum of Activity</t>
         </is>
       </c>
       <c r="W83" t="n">
@@ -11956,7 +11956,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0215985925</t>
+          <t>0219014510</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -12004,22 +12004,22 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>ALDOLASE, 25 MG</t>
+          <t>AMOXICILLIN, 10 G</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>Aldolase</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Aldolase</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Lyases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, Glycolysis, Glycolysis Enzymes, Metabolic Pathways, Metabolomics, Organic Synthesis</t>
+          <t>Antibacterial, Antibiotics,Chemical Structure Class, Interferes with Cell Wall Synthesis, Mechanism of Action, Penicillins and Cephalosporins (beta-Lactams), Spectrum of Activity</t>
         </is>
       </c>
       <c r="W84" t="n">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0219014505</t>
+          <t>0219021605</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -12137,22 +12137,22 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>AMOXICILLIN, 5 G</t>
+          <t>IBUPROFEN, 5 G</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Ibuprofen</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Ibuprofen</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Antibacterial, Antibiotics,Chemical Structure Class, Interferes with Cell Wall Synthesis, Mechanism of Action, Penicillins and Cephalosporins (beta-Lactams), Spectrum of Activity</t>
+          <t>Bioactive Small Molecules, Cell Biology, Bioreagents, Enzyme Inhibitors, Pharmacopoeia, Research Essentials</t>
         </is>
       </c>
       <c r="W85" t="n">
@@ -12222,7 +12222,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0219014510</t>
+          <t>0219023791</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -12270,22 +12270,22 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>AMOXICILLIN, 10 G</t>
+          <t>D-(+)-MALTOSE MONOHYDRATE, ~99%, 1 KG</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>D-(+)-Maltose Monohydrate</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>D-(+)-Maltose Monohydrate</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Antibacterial, Antibiotics,Chemical Structure Class, Interferes with Cell Wall Synthesis, Mechanism of Action, Penicillins and Cephalosporins (beta-Lactams), Spectrum of Activity</t>
+          <t>Carbohydrates, Bioreagents, Metabolic Libraries, Metabolomics, Research Essentials</t>
         </is>
       </c>
       <c r="W86" t="n">
@@ -12355,7 +12355,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0219021605</t>
+          <t>02190277.1</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -12403,22 +12403,22 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>IBUPROFEN, 5 G</t>
+          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 100 MG</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>Ibuprofen</t>
+          <t>3,3',5,5'-Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>Ibuprofen</t>
+          <t>3,3',5,5'-Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Bioactive Small Molecules, Cell Biology, Bioreagents, Enzyme Inhibitors, Pharmacopoeia, Research Essentials</t>
+          <t>Amines, Building Blocks, Nitrogen Compounds, Organic Building Blocks</t>
         </is>
       </c>
       <c r="W87" t="n">
@@ -12488,7 +12488,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0219023791</t>
+          <t>0219027701</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -12536,22 +12536,22 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>D-(+)-MALTOSE MONOHYDRATE, ~99%, 1 KG</t>
+          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 1 G</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>D-(+)-Maltose Monohydrate</t>
+          <t>3,3',5,5'-Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>D-(+)-Maltose Monohydrate</t>
+          <t>3,3',5,5'-Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Carbohydrates, Bioreagents, Metabolic Libraries, Metabolomics, Research Essentials</t>
+          <t>Amines, Building Blocks, Nitrogen Compounds, Organic Building Blocks</t>
         </is>
       </c>
       <c r="W88" t="n">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>02190277.1</t>
+          <t>0219027705</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -12669,7 +12669,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 100 MG</t>
+          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 5 G</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -12754,7 +12754,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0219027701</t>
+          <t>0219028425</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -12802,22 +12802,22 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 1 G</t>
+          <t>2-THIOBARBITURIC ACID, 25 G</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine</t>
+          <t>2-Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine</t>
+          <t>2-Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Amines, Building Blocks, Nitrogen Compounds, Organic Building Blocks</t>
+          <t>Reagent, Pyrimidines, Quantitate lipopolysaccharides,Determination of N-acetylneuraminic acid</t>
         </is>
       </c>
       <c r="W90" t="n">
@@ -12887,7 +12887,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0219027705</t>
+          <t>0219028480</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -12935,22 +12935,22 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 5 G</t>
+          <t>2-THIOBARBITURIC ACID, 100 G</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine</t>
+          <t>2-Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine</t>
+          <t>2-Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Amines, Building Blocks, Nitrogen Compounds, Organic Building Blocks</t>
+          <t>Reagent, Pyrimidines, Quantitate lipopolysaccharides,Determination of N-acetylneuraminic acid</t>
         </is>
       </c>
       <c r="W91" t="n">
@@ -13020,7 +13020,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0219028425</t>
+          <t>0219028483</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -13068,7 +13068,7 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>2-THIOBARBITURIC ACID, 25 G</t>
+          <t>2-THIOBARBITURIC ACID, 250 G</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
@@ -13153,7 +13153,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0219028480</t>
+          <t>0219028490</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>2-THIOBARBITURIC ACID, 100 G</t>
+          <t>2-THIOBARBITURIC ACID, 500 G</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
@@ -13286,7 +13286,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0219028483</t>
+          <t>0219052001</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -13334,22 +13334,22 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>2-THIOBARBITURIC ACID, 250 G</t>
+          <t>AZURE B, 1 G</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric Acid</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric Acid</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Reagent, Pyrimidines, Quantitate lipopolysaccharides,Determination of N-acetylneuraminic acid</t>
+          <t>Biochemicals and Reagents, Hematology and Histology, Luminescent compounds/Detection, Stains &amp; Dyes</t>
         </is>
       </c>
       <c r="W94" t="n">
@@ -13419,7 +13419,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0219028490</t>
+          <t>0219052005</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -13467,22 +13467,22 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>2-THIOBARBITURIC ACID, 500 G</t>
+          <t>AZURE B, 5 G</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric Acid</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric Acid</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>Reagent, Pyrimidines, Quantitate lipopolysaccharides,Determination of N-acetylneuraminic acid</t>
+          <t>Biochemicals and Reagents, Hematology and Histology, Luminescent compounds/Detection, Stains &amp; Dyes</t>
         </is>
       </c>
       <c r="W95" t="n">
@@ -13552,7 +13552,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0219052001</t>
+          <t>0219151490</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -13600,22 +13600,22 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>AZURE B, 1 G</t>
+          <t>RICINOLEIC ACID, 500 MG</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>Ricinoleic Acid</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>Ricinoleic Acid</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Hematology and Histology, Luminescent compounds/Detection, Stains &amp; Dyes</t>
+          <t>Biochemicals and Reagents, Fatty Acids and conjugates, Unsaturated Fatty Acids and Derivatives</t>
         </is>
       </c>
       <c r="W96" t="n">
@@ -13685,7 +13685,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0219052005</t>
+          <t>0219397180</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -13733,22 +13733,22 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>AZURE B, 5 G</t>
+          <t>TRITON X-114, 100 ML</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>Triton X-114</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>Triton X-114</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Hematology and Histology, Luminescent compounds/Detection, Stains &amp; Dyes</t>
+          <t>Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Electrophoresis Chromatography, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Non-Ionic Detergents, Proteins and Derivatives, Proteomics, Research Essentials</t>
         </is>
       </c>
       <c r="W97" t="n">
@@ -13818,7 +13818,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0219151490</t>
+          <t>0219397183</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -13866,22 +13866,22 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>RICINOLEIC ACID, 500 MG</t>
+          <t>TRITON X-114, 250 ML</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>Ricinoleic Acid</t>
+          <t>Triton X-114</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>Ricinoleic Acid</t>
+          <t>Triton X-114</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Fatty Acids and conjugates, Unsaturated Fatty Acids and Derivatives</t>
+          <t>Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Electrophoresis Chromatography, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Non-Ionic Detergents, Proteins and Derivatives, Proteomics, Research Essentials</t>
         </is>
       </c>
       <c r="W98" t="n">
@@ -13951,7 +13951,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0219397180</t>
+          <t>0219397191</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -13999,7 +13999,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>TRITON X-114, 100 ML</t>
+          <t>TRITON X-114, 1 L</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0219397183</t>
+          <t>0219398880</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -14132,22 +14132,22 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>TRITON X-114, 250 ML</t>
+          <t>AMMONIUM PERSULFATE, MOLECULAR BIOLOGY REAGENT</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>Triton X-114</t>
+          <t>Polymerization catalyst used with TEMED for polyacrylamide gel formation.</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>Triton X-114</t>
+          <t>Ammonium Persulfate</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Electrophoresis Chromatography, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Non-Ionic Detergents, Proteins and Derivatives, Proteomics, Research Essentials</t>
+          <t>Acrylamide, Automated Sequencing, Biochemicals, Chemical Synthesis, Gel Solutions and Reagents, Molecular Biology, Molecular Biology Reagents, Nucleic Acid Electrophoresis, Oxidizing Agents, Sulfur-Based, Synthetic Reagents</t>
         </is>
       </c>
       <c r="W100" t="n">
@@ -14217,7 +14217,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0219397191</t>
+          <t>0219401283</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -14265,23 +14265,21 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>TRITON X-114, 1 L</t>
+          <t>SODIUM ACETATE, 250 G</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>Triton X-114</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>Triton X-114</t>
-        </is>
-      </c>
-      <c r="V101" t="inlineStr">
-        <is>
-          <t>Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Electrophoresis Chromatography, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Non-Ionic Detergents, Proteins and Derivatives, Proteomics, Research Essentials</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V101" t="n">
+        <v/>
       </c>
       <c r="W101" t="n">
         <v/>
@@ -14350,7 +14348,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0219398880</t>
+          <t>0219401291</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -14398,23 +14396,21 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>AMMONIUM PERSULFATE, MOLECULAR BIOLOGY REAGENT</t>
+          <t>SODIUM ACETATE, 1 KG</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>Polymerization catalyst used with TEMED for polyacrylamide gel formation.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>Ammonium Persulfate</t>
-        </is>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>Acrylamide, Automated Sequencing, Biochemicals, Chemical Synthesis, Gel Solutions and Reagents, Molecular Biology, Molecular Biology Reagents, Nucleic Acid Electrophoresis, Oxidizing Agents, Sulfur-Based, Synthetic Reagents</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V102" t="n">
+        <v/>
       </c>
       <c r="W102" t="n">
         <v/>
@@ -14483,7 +14479,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0219401283</t>
+          <t>0219405780</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -14531,21 +14527,23 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>SODIUM ACETATE, 250 G</t>
+          <t>HYDROGEN PEROXIDE, 100 ML</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Hydrogen Peroxide</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V103" t="n">
-        <v/>
+          <t>Hydrogen Peroxide</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>ACS Grade, Acids &amp; Bases, Bioactive Small Molecules, Blocking Sera and Reagents, Cell Biology, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Life Science Reagents for Immunohistochemistry (IHC), Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Western Blotting, Oxidizing Agents, Peroxides, Research Essentials, Synthetic Reagents</t>
+        </is>
       </c>
       <c r="W103" t="n">
         <v/>
@@ -14614,7 +14612,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0219401291</t>
+          <t>0219405790</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -14662,21 +14660,23 @@
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>SODIUM ACETATE, 1 KG</t>
+          <t>HYDROGEN PEROXIDE, 500 ML</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Hydrogen Peroxide</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V104" t="n">
-        <v/>
+          <t>Hydrogen Peroxide</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>ACS Grade, Acids &amp; Bases, Bioactive Small Molecules, Blocking Sera and Reagents, Cell Biology, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Life Science Reagents for Immunohistochemistry (IHC), Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Western Blotting, Oxidizing Agents, Peroxides, Research Essentials, Synthetic Reagents</t>
+        </is>
       </c>
       <c r="W104" t="n">
         <v/>
@@ -14745,7 +14745,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0219405780</t>
+          <t>0219455794</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -14793,22 +14793,22 @@
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>HYDROGEN PEROXIDE, 100 ML</t>
+          <t>TRIS, CELL CULTURE REAGENT, 99.95%, 5 KG</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide</t>
+          <t>Tris</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide</t>
+          <t>Tris</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>ACS Grade, Acids &amp; Bases, Bioactive Small Molecules, Blocking Sera and Reagents, Cell Biology, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Life Science Reagents for Immunohistochemistry (IHC), Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Western Blotting, Oxidizing Agents, Peroxides, Research Essentials, Synthetic Reagents</t>
+          <t>BioReagent Buffers, Buffer Salts, Buffered Salt Solutions, BBuffers Salts, Buffers A to Z, Bioreagents, Goodâ€™s Buffers, Life Science Reagents for Cell Culture, Life Science Reagents for Cloning, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Research Essentials</t>
         </is>
       </c>
       <c r="W105" t="n">
@@ -14878,7 +14878,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0219405790</t>
+          <t>0219455891</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -14926,22 +14926,22 @@
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>HYDROGEN PEROXIDE, 500 ML</t>
+          <t>TRIS HYDROCHLORIDE, CELL CULTURE REAGENT, 99%, 1 KG</t>
         </is>
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide</t>
+          <t>Tris Hydrochloride</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide</t>
+          <t>Tris Hydrochloride</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>ACS Grade, Acids &amp; Bases, Bioactive Small Molecules, Blocking Sera and Reagents, Cell Biology, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Life Science Reagents for Immunohistochemistry (IHC), Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Western Blotting, Oxidizing Agents, Peroxides, Research Essentials, Synthetic Reagents</t>
+          <t>Apoptosis and Cell Cycle, BioReagent Buffers, Biological Buffers, Buffer Salts, Buffered Salt Solutions, Cell Biology, Cell Signaling and Neuroscience, Bioreagents, Goodâ€™s Buffers, Life Science Reagents for Cell Culture, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Other Apoptosis Related Reagents, Research Essentials</t>
         </is>
       </c>
       <c r="W106" t="n">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0219455794</t>
+          <t>0219464180</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -15059,23 +15059,21 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>TRIS, CELL CULTURE REAGENT, 99.95%, 5 KG</t>
+          <t>CITRIC ACID, 100 G</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>Tris</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>Tris</t>
-        </is>
-      </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>BioReagent Buffers, Buffer Salts, Buffered Salt Solutions, BBuffers Salts, Buffers A to Z, Bioreagents, Goodâ€™s Buffers, Life Science Reagents for Cell Culture, Life Science Reagents for Cloning, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Research Essentials</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V107" t="n">
+        <v/>
       </c>
       <c r="W107" t="n">
         <v/>
@@ -15144,7 +15142,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0219455891</t>
+          <t>0219467925</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -15192,22 +15190,22 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>TRIS HYDROCHLORIDE, CELL CULTURE REAGENT, 99%, 1 KG</t>
+          <t>GLUTATHIONE REDUCED, CELL CULTURE REAGENT, 98%, 25 G</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>Tris Hydrochloride</t>
+          <t>Glutathione Reduced</t>
         </is>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>Tris Hydrochloride</t>
+          <t>Glutathione Reduced</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>Apoptosis and Cell Cycle, BioReagent Buffers, Biological Buffers, Buffer Salts, Buffered Salt Solutions, Cell Biology, Cell Signaling and Neuroscience, Bioreagents, Goodâ€™s Buffers, Life Science Reagents for Cell Culture, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Other Apoptosis Related Reagents, Research Essentials</t>
+          <t>Substrates, Oxidative Stress Proteins, Nutrition Research, Metabolites and cofactors on metabolic pathways chart, Functional foods, Enzymes, Inhibitors, Enzymes, Cell Biology, Application Index, Amino Acids, Allium Sativum.</t>
         </is>
       </c>
       <c r="W108" t="n">
@@ -15277,7 +15275,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0219464180</t>
+          <t>0219468105</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -15325,21 +15323,23 @@
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>CITRIC ACID, 100 G</t>
+          <t>GLYCINE, CELL CULTURE REAGENT, 5 KG</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Glycine</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V109" t="n">
-        <v/>
+          <t>Glycine</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>Reagents, Cell culture, Biochemicals, Amino Acids, Vitamins</t>
+        </is>
       </c>
       <c r="W109" t="n">
         <v/>
@@ -15408,7 +15408,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0219467925</t>
+          <t>0219468901</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -15456,22 +15456,22 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>GLUTATHIONE REDUCED, CELL CULTURE REAGENT, 98%, 25 G</t>
+          <t>L-ISOLEUCINE, 1 G</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>Glutathione Reduced</t>
+          <t>L-Isoleucine</t>
         </is>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>Glutathione Reduced</t>
+          <t>L-Isoleucine</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>Substrates, Oxidative Stress Proteins, Nutrition Research, Metabolites and cofactors on metabolic pathways chart, Functional foods, Enzymes, Inhibitors, Enzymes, Cell Biology, Application Index, Amino Acids, Allium Sativum.</t>
+          <t>Aloe Vera, Amino Acid Derivatives, Amino Acid Library,Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Culture, Chemical Biology, Chemical Synthesis, Life Science Reagents for Cell Culture, Peptide Chemistry, Pharmacopoeial Amino Acids, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, SILAC, Stable Isotopes, Unlabeled Amino Acids</t>
         </is>
       </c>
       <c r="W110" t="n">
@@ -15541,7 +15541,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0219468105</t>
+          <t>0219468925</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -15589,22 +15589,22 @@
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>GLYCINE, CELL CULTURE REAGENT, 5 KG</t>
+          <t>L-ISOLEUCINE, 25 G</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>Glycine</t>
+          <t>L-Isoleucine</t>
         </is>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>Glycine</t>
+          <t>L-Isoleucine</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>Reagents, Cell culture, Biochemicals, Amino Acids, Vitamins</t>
+          <t>Aloe Vera, Amino Acid Derivatives, Amino Acid Library,Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Culture, Chemical Biology, Chemical Synthesis, Life Science Reagents for Cell Culture, Peptide Chemistry, Pharmacopoeial Amino Acids, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, SILAC, Stable Isotopes, Unlabeled Amino Acids</t>
         </is>
       </c>
       <c r="W111" t="n">
@@ -15674,7 +15674,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0219468901</t>
+          <t>0219468980</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -15722,7 +15722,7 @@
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>L-ISOLEUCINE, 1 G</t>
+          <t>L-ISOLEUCINE, 100 G</t>
         </is>
       </c>
       <c r="T112" t="inlineStr">
@@ -15807,7 +15807,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0219468925</t>
+          <t>0219472891</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -15855,22 +15855,22 @@
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>L-ISOLEUCINE, 25 G</t>
+          <t>L-PROLINE, CELL CULTURE REAGENT, 99%, 1 KG</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>L-Isoleucine</t>
+          <t>L-Proline</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>L-Isoleucine</t>
+          <t>L-Proline</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>Aloe Vera, Amino Acid Derivatives, Amino Acid Library,Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Culture, Chemical Biology, Chemical Synthesis, Life Science Reagents for Cell Culture, Peptide Chemistry, Pharmacopoeial Amino Acids, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, SILAC, Stable Isotopes, Unlabeled Amino Acids</t>
+          <t>Allium cepa (Onion), Allium sativum (Garlic), Aloe Vera, Amino Acid, Amino Acid Derivatives, Chemical Synthesis, Cichorium intybus (Chicory), Functional Foods, Ginkgo biloba, Humulus lupulus (Hops), Linum usitatissimum (Flax), Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways, Metabolomics, Nutrition Research, Panax ginseng, Peptide Chemistry, Phenylalanine, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, Research Essentials, Zingiber officinale (Ginger)</t>
         </is>
       </c>
       <c r="W113" t="n">
@@ -15940,7 +15940,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0219468980</t>
+          <t>0219474190</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -15988,22 +15988,22 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>L-ISOLEUCINE, 100 G</t>
+          <t>SODIUM SELENITE, 500 G</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>L-Isoleucine</t>
+          <t>Sodium Selenite</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>L-Isoleucine</t>
+          <t>Sodium Selenite</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>Aloe Vera, Amino Acid Derivatives, Amino Acid Library,Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Culture, Chemical Biology, Chemical Synthesis, Life Science Reagents for Cell Culture, Peptide Chemistry, Pharmacopoeial Amino Acids, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, SILAC, Stable Isotopes, Unlabeled Amino Acids</t>
+          <t>Antioxidant, Chemical Synthesis, Functional Foods, Inorganic Salts, Nutrition Research, Sodium, Synthetic Reagents</t>
         </is>
       </c>
       <c r="W114" t="n">
@@ -16073,7 +16073,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0219472891</t>
+          <t>02194742.5</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -16121,22 +16121,22 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>L-PROLINE, CELL CULTURE REAGENT, 99%, 1 KG</t>
+          <t>D-SORBITOL, ANHYDROUS, CELL CULTURE REAGENT, 98%, 500 G</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>L-Proline</t>
+          <t>D-Sorbitol</t>
         </is>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>L-Proline</t>
+          <t>D-Sorbitol</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>Allium cepa (Onion), Allium sativum (Garlic), Aloe Vera, Amino Acid, Amino Acid Derivatives, Chemical Synthesis, Cichorium intybus (Chicory), Functional Foods, Ginkgo biloba, Humulus lupulus (Hops), Linum usitatissimum (Flax), Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways, Metabolomics, Nutrition Research, Panax ginseng, Peptide Chemistry, Phenylalanine, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, Research Essentials, Zingiber officinale (Ginger)</t>
+          <t>Carbohydrate Chemistry, Carbohydrate Derivatives, Carbohydrates, Cell Biology, Chemical Biology, Chemical Synthesis, Core Bioreagents, Functional Foods, Nutrition Research, Research Essentials, Simple sugars</t>
         </is>
       </c>
       <c r="W115" t="n">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0219474190</t>
+          <t>0219480425</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -16254,22 +16254,22 @@
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>SODIUM SELENITE, 500 G</t>
+          <t>PHORBOL 12-MYRISTATE 13-ACETATE, MOLECULAR BIOLOGY REAGENT, ~99%, 25 MG</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>Sodium Selenite</t>
+          <t>Phorbol 12-Myristate 13-Acetate</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>Sodium Selenite</t>
+          <t>Phorbol 12-Myristate 13-Acetate</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>Antioxidant, Chemical Synthesis, Functional Foods, Inorganic Salts, Nutrition Research, Sodium, Synthetic Reagents</t>
+          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
         </is>
       </c>
       <c r="W116" t="n">
@@ -16339,7 +16339,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>02194742.5</t>
+          <t>0219485102</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -16387,7 +16387,7 @@
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>D-SORBITOL, ANHYDROUS, CELL CULTURE REAGENT, 98%, 500 G</t>
+          <t>D-SORBITOL, MOLECULAR BIOLOGY REAGENT, 98%, 2 KG</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
@@ -16402,7 +16402,7 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>Carbohydrate Chemistry, Carbohydrate Derivatives, Carbohydrates, Cell Biology, Chemical Biology, Chemical Synthesis, Core Bioreagents, Functional Foods, Nutrition Research, Research Essentials, Simple sugars</t>
+          <t>Biochemicals, Biochemicals and Reagents, Carbohydrate Chemistry, Carbohydrate Derivatives, Carbohydrates,Carbohydrates A to Z, Carbohydrates D-F, Cell Biology, Chemical Biology, Chemical Synthesis, Core Bioreagents, Density Gradient Media, General Reagents, Hematology and Histology, Life Science Reagents for Cloning, Life Science Reagents for PCR, Molecular Biology, Molecular Biology Reagents, Monosaccharide, Polyhydric alcohols, Research Essentials</t>
         </is>
       </c>
       <c r="W117" t="n">
@@ -16472,7 +16472,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0219480425</t>
+          <t>02195074.1</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -16520,22 +16520,22 @@
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>PHORBOL 12-MYRISTATE 13-ACETATE, MOLECULAR BIOLOGY REAGENT, ~99%, 25 MG</t>
+          <t>BORIC ACID, 100 G</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>Phorbol 12-Myristate 13-Acetate</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>Phorbol 12-Myristate 13-Acetate</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
+          <t>Biochemicals, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffer salts, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Expression and Purification, Molecular Biology, Molecular Biology Reagents, Research Essentials</t>
         </is>
       </c>
       <c r="W118" t="n">
@@ -16605,7 +16605,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0219485102</t>
+          <t>0219507401</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -16653,22 +16653,22 @@
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>D-SORBITOL, MOLECULAR BIOLOGY REAGENT, 98%, 2 KG</t>
+          <t>BORIC ACID, 1 KG</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>D-Sorbitol</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>D-Sorbitol</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>Biochemicals, Biochemicals and Reagents, Carbohydrate Chemistry, Carbohydrate Derivatives, Carbohydrates,Carbohydrates A to Z, Carbohydrates D-F, Cell Biology, Chemical Biology, Chemical Synthesis, Core Bioreagents, Density Gradient Media, General Reagents, Hematology and Histology, Life Science Reagents for Cloning, Life Science Reagents for PCR, Molecular Biology, Molecular Biology Reagents, Monosaccharide, Polyhydric alcohols, Research Essentials</t>
+          <t>Biochemicals, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffer salts, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Expression and Purification, Molecular Biology, Molecular Biology Reagents, Research Essentials</t>
         </is>
       </c>
       <c r="W119" t="n">
@@ -16738,7 +16738,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>02195074.1</t>
+          <t>0219507405</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -16786,7 +16786,7 @@
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>BORIC ACID, 100 G</t>
+          <t>BORIC ACID, 5 KG</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
@@ -16871,7 +16871,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>0219507401</t>
+          <t>0219519901</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -16919,22 +16919,22 @@
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>BORIC ACID, 1 KG</t>
+          <t>GLUTARALDEHYDE, 25% AQUEOUS SOLUTION, 1 ML</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>Glutaraldehyde Solution</t>
         </is>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>Glutaraldehyde Solution</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>Biochemicals, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffer salts, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Expression and Purification, Molecular Biology, Molecular Biology Reagents, Research Essentials</t>
+          <t>Aldehydes, Biochemicals and Reagents, Building Blocks, Carbohydrates, Carbonyl Compounds, Chemical Synthesis, Core Bioreagents, Fixatives, Hematology and Histology, Life Science Reagents for Immunohistochemistry (IHC), Monosaccharide, Organic Building Blocks, Research Essentials, Tissue Processing</t>
         </is>
       </c>
       <c r="W121" t="n">
@@ -17004,7 +17004,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>0219507405</t>
+          <t>0219521380</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -17052,22 +17052,22 @@
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>BORIC ACID, 5 KG</t>
+          <t>GUANOSINE-5€²-TRIPHOSPHATE DISODIUM SALT,95%, 100 MG</t>
         </is>
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>Guanosine-5â€²-Triphosphate Disodium Salt</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>Guanosine-5â€²-Triphosphate Disodium Salt</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>Biochemicals, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffer salts, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Expression and Purification, Molecular Biology, Molecular Biology Reagents, Research Essentials</t>
+          <t>Substrates by Enzyme, Reagents, Nucleoside phosphate donors, Metabolic Pathways, G Proteins and Cyclic nucleotides, Inhibitors and Substrates, Cofactors, Cell Signaling and Neuroscience, Cell Biology, Biochemicals</t>
         </is>
       </c>
       <c r="W122" t="n">
@@ -17137,7 +17137,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0219519901</t>
+          <t>0219525410</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -17185,22 +17185,22 @@
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>GLUTARALDEHYDE, 25% AQUEOUS SOLUTION, 1 ML</t>
+          <t>SEPHADEX G-26, 10 G</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>Glutaraldehyde Solution</t>
+          <t>Sephadex G-25</t>
         </is>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>Glutaraldehyde Solution</t>
+          <t>Sephadex G-25</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>Aldehydes, Biochemicals and Reagents, Building Blocks, Carbohydrates, Carbonyl Compounds, Chemical Synthesis, Core Bioreagents, Fixatives, Hematology and Histology, Life Science Reagents for Immunohistochemistry (IHC), Monosaccharide, Organic Building Blocks, Research Essentials, Tissue Processing</t>
+          <t>195254; 02195254</t>
         </is>
       </c>
       <c r="W123" t="n">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>0219521380</t>
+          <t>0219525412</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -17306,35 +17306,23 @@
       <c r="P124" t="n">
         <v/>
       </c>
-      <c r="Q124" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>GUANOSINE-5€²-TRIPHOSPHATE DISODIUM SALT,95%, 100 MG</t>
-        </is>
-      </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>Guanosine-5â€²-Triphosphate Disodium Salt</t>
-        </is>
-      </c>
-      <c r="U124" t="inlineStr">
-        <is>
-          <t>Guanosine-5â€²-Triphosphate Disodium Salt</t>
-        </is>
-      </c>
-      <c r="V124" t="inlineStr">
-        <is>
-          <t>Substrates by Enzyme, Reagents, Nucleoside phosphate donors, Metabolic Pathways, G Proteins and Cyclic nucleotides, Inhibitors and Substrates, Cofactors, Cell Signaling and Neuroscience, Cell Biology, Biochemicals</t>
-        </is>
+      <c r="Q124" t="n">
+        <v/>
+      </c>
+      <c r="R124" t="n">
+        <v/>
+      </c>
+      <c r="S124" t="n">
+        <v/>
+      </c>
+      <c r="T124" t="n">
+        <v/>
+      </c>
+      <c r="U124" t="n">
+        <v/>
+      </c>
+      <c r="V124" t="n">
+        <v/>
       </c>
       <c r="W124" t="n">
         <v/>
@@ -17403,7 +17391,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0219525410</t>
+          <t>0219525450</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -17451,7 +17439,7 @@
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>SEPHADEX G-26, 10 G</t>
+          <t>SEPHADEX G-27, 50 G</t>
         </is>
       </c>
       <c r="T125" t="inlineStr">
@@ -17536,7 +17524,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0219525412</t>
+          <t>0219941001</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -17572,23 +17560,35 @@
       <c r="P126" t="n">
         <v/>
       </c>
-      <c r="Q126" t="n">
-        <v/>
-      </c>
-      <c r="R126" t="n">
-        <v/>
-      </c>
-      <c r="S126" t="n">
-        <v/>
-      </c>
-      <c r="T126" t="n">
-        <v/>
-      </c>
-      <c r="U126" t="n">
-        <v/>
-      </c>
-      <c r="V126" t="n">
-        <v/>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 1 G</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>Alkaline Phosphatase, Biochemicals and Reagents, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Substrates by Enzyme</t>
+        </is>
       </c>
       <c r="W126" t="n">
         <v/>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0219525450</t>
+          <t>0219941005</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -17705,22 +17705,22 @@
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>SEPHADEX G-27, 50 G</t>
+          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 5 G</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>Sephadex G-25</t>
+          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>Sephadex G-25</t>
+          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>195254; 02195254</t>
+          <t>Alkaline Phosphatase, Biochemicals and Reagents, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Substrates by Enzyme</t>
         </is>
       </c>
       <c r="W127" t="n">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0219941001</t>
+          <t>0219941010</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -17838,7 +17838,7 @@
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 1 G</t>
+          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 10 G</t>
         </is>
       </c>
       <c r="T128" t="inlineStr">
@@ -17923,7 +17923,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0219941005</t>
+          <t>0219951805</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -17971,22 +17971,22 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 5 G</t>
+          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 5 UNITS</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>Alkaline Phosphatase, Biochemicals and Reagents, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Substrates by Enzyme</t>
+          <t>Oxidoreductases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, General Metabolic Enzymes, Metabolomics, Nucleic Acid Metabolism</t>
         </is>
       </c>
       <c r="W129" t="n">
@@ -18056,7 +18056,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0219941010</t>
+          <t>0219951825</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -18104,22 +18104,22 @@
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 10 G</t>
+          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 25 UNITS</t>
         </is>
       </c>
       <c r="T130" t="inlineStr">
         <is>
-          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>Alkaline Phosphatase, Biochemicals and Reagents, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Substrates by Enzyme</t>
+          <t>Oxidoreductases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, General Metabolic Enzymes, Metabolomics, Nucleic Acid Metabolism</t>
         </is>
       </c>
       <c r="W130" t="n">
@@ -18189,7 +18189,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0219951805</t>
+          <t>0219951850</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -18237,7 +18237,7 @@
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 5 UNITS</t>
+          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 50 UNITS</t>
         </is>
       </c>
       <c r="T131" t="inlineStr">
@@ -18322,7 +18322,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0219951825</t>
+          <t>0219960880</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -18370,22 +18370,22 @@
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 25 UNITS</t>
+          <t>L-GLUTAMINE, USP, 100 G</t>
         </is>
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>L-Glutamine</t>
         </is>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>L-Glutamine</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>Oxidoreductases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, General Metabolic Enzymes, Metabolomics, Nucleic Acid Metabolism</t>
+          <t>Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Amino acids, Bioactives/Supplements, Biochemicals and Reagents, Cell Biology, Cell Culture, Functional Foods, G, General Reagents, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Libraries, Metabolomics, Nutrition Research, Reagents and Supplements, Research Essentials, Stem Cell Biology, Stem Cell Isolation</t>
         </is>
       </c>
       <c r="W132" t="n">
@@ -18455,7 +18455,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0219951850</t>
+          <t>0219960890</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -18503,22 +18503,22 @@
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 50 UNITS</t>
+          <t>L-GLUTAMINE, USP, 500 G</t>
         </is>
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>L-Glutamine</t>
         </is>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>L-Glutamine</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>Oxidoreductases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, General Metabolic Enzymes, Metabolomics, Nucleic Acid Metabolism</t>
+          <t>Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Amino acids, Bioactives/Supplements, Biochemicals and Reagents, Cell Biology, Cell Culture, Functional Foods, G, General Reagents, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Libraries, Metabolomics, Nutrition Research, Reagents and Supplements, Research Essentials, Stem Cell Biology, Stem Cell Isolation</t>
         </is>
       </c>
       <c r="W133" t="n">
@@ -18588,7 +18588,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0219960880</t>
+          <t>0219960891</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -18636,7 +18636,7 @@
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>L-GLUTAMINE, USP, 100 G</t>
+          <t>L-GLUTAMINE, USP, 1 KG</t>
         </is>
       </c>
       <c r="T134" t="inlineStr">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0219960890</t>
+          <t>0230008406</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -18769,22 +18769,22 @@
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>L-GLUTAMINE, USP, 500 G</t>
+          <t>ETHYL ACETATE, 6 X 1 L</t>
         </is>
       </c>
       <c r="T135" t="inlineStr">
         <is>
-          <t>L-Glutamine</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>L-Glutamine</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Amino acids, Bioactives/Supplements, Biochemicals and Reagents, Cell Biology, Cell Culture, Functional Foods, G, General Reagents, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Libraries, Metabolomics, Nutrition Research, Reagents and Supplements, Research Essentials, Stem Cell Biology, Stem Cell Isolation</t>
+          <t>Analytical Reagents, Analytical/Chromatography, Chromatography Reagents &amp; Solvents, Ethyl Acetate, Solvents</t>
         </is>
       </c>
       <c r="W135" t="n">
@@ -18854,7 +18854,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0219960891</t>
+          <t>0230008416</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -18902,22 +18902,22 @@
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>L-GLUTAMINE, USP, 1 KG</t>
+          <t>ETHYL ACETATE, 4 X 4 L</t>
         </is>
       </c>
       <c r="T136" t="inlineStr">
         <is>
-          <t>L-Glutamine</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>L-Glutamine</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Amino acids, Bioactives/Supplements, Biochemicals and Reagents, Cell Biology, Cell Culture, Functional Foods, G, General Reagents, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Libraries, Metabolomics, Nutrition Research, Reagents and Supplements, Research Essentials, Stem Cell Biology, Stem Cell Isolation</t>
+          <t>Analytical Reagents, Analytical/Chromatography, Chromatography Reagents &amp; Solvents, Ethyl Acetate, Solvents</t>
         </is>
       </c>
       <c r="W136" t="n">
@@ -18987,7 +18987,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>0230008406</t>
+          <t>03AFC13805</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -19035,22 +19035,22 @@
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>ETHYL ACETATE, 6 X 1 L</t>
+          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 5 MG</t>
         </is>
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
         </is>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>Analytical Reagents, Analytical/Chromatography, Chromatography Reagents &amp; Solvents, Ethyl Acetate, Solvents</t>
+          <t>Substrate, Caspase-3, CPP-32, Assay of caspase-3,7</t>
         </is>
       </c>
       <c r="W137" t="n">
@@ -19120,7 +19120,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>0230008416</t>
+          <t>03AFC13810</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -19168,22 +19168,22 @@
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>ETHYL ACETATE, 4 X 4 L</t>
+          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 10 MG</t>
         </is>
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
         </is>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>Analytical Reagents, Analytical/Chromatography, Chromatography Reagents &amp; Solvents, Ethyl Acetate, Solvents</t>
+          <t>Substrate, Caspase-3, CPP-32, Assay of caspase-3,7</t>
         </is>
       </c>
       <c r="W138" t="n">
@@ -19253,7 +19253,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>03AFC13805</t>
+          <t>03AFC13825</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -19301,7 +19301,7 @@
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 5 MG</t>
+          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 25 MG</t>
         </is>
       </c>
       <c r="T139" t="inlineStr">
@@ -19386,7 +19386,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>03AFC13810</t>
+          <t>03AFC15605</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -19434,23 +19434,21 @@
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 10 MG</t>
+          <t>AC-TRP-GLU-HIS-ASP-7-AMINO-4-T, 5 MG</t>
         </is>
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
-        </is>
-      </c>
-      <c r="V140" t="inlineStr">
-        <is>
-          <t>Substrate, Caspase-3, CPP-32, Assay of caspase-3,7</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V140" t="n">
+        <v/>
       </c>
       <c r="W140" t="n">
         <v/>
@@ -19519,7 +19517,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>03AFC13825</t>
+          <t>03SB00705</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -19567,23 +19565,21 @@
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 25 MG</t>
+          <t>Z-GLY-ARG-THIOBENZYL ESTER, 5 MG</t>
         </is>
       </c>
       <c r="T141" t="inlineStr">
         <is>
-          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
+          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
         </is>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
-        </is>
-      </c>
-      <c r="V141" t="inlineStr">
-        <is>
-          <t>Substrate, Caspase-3, CPP-32, Assay of caspase-3,7</t>
-        </is>
+          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
+        </is>
+      </c>
+      <c r="V141" t="n">
+        <v/>
       </c>
       <c r="W141" t="n">
         <v/>
@@ -19652,7 +19648,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>03AFC15605</t>
+          <t>03SB00710</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -19700,17 +19696,17 @@
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>AC-TRP-GLU-HIS-ASP-7-AMINO-4-T, 5 MG</t>
+          <t>Z-GLY-ARG-THIOBENZYL ESTER, 10 MG</t>
         </is>
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
         </is>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
         </is>
       </c>
       <c r="V142" t="n">
@@ -19783,7 +19779,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>03SB00705</t>
+          <t>04800681</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -19831,21 +19827,23 @@
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>Z-GLY-ARG-THIOBENZYL ESTER, 5 MG</t>
+          <t>CITRIC ACID, 1 KG</t>
         </is>
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
+          <t>Citric Acid</t>
         </is>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
-        </is>
-      </c>
-      <c r="V143" t="n">
-        <v/>
+          <t>Citric Acid</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>Allium cepa (Onion), Berberis sp., Bioactive Small Molecules, Biochemicals and Reagents, Biological Buffers, Cell Biology, Cell Culture, Chelators, Cichorium intybus (Chicory), Citrus aurantium (Seville orange), Euphorbia sp, Ginkgo biloba, Nutrition Research, Other Biochemical, Panax ginseng, Phytochemicals by Chemical Classification, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, Sambucus nigra (Elderberry), Vaccinium macrocarpon (Cranberry), Vaccinium myrtillus (Bilberry)</t>
+        </is>
       </c>
       <c r="W143" t="n">
         <v/>
@@ -19914,7 +19912,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>03SB00710</t>
+          <t>04805732</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -19962,17 +19960,17 @@
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>Z-GLY-ARG-THIOBENZYL ESTER, 10 MG</t>
+          <t>BROMOPHENOL BLUE, SODIUM SALT, 10 G</t>
         </is>
       </c>
       <c r="T144" t="inlineStr">
         <is>
-          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
+          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
         </is>
       </c>
       <c r="V144" t="n">
@@ -20045,7 +20043,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>04800681</t>
+          <t>04806443</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -20093,23 +20091,21 @@
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>CITRIC ACID, 1 KG</t>
+          <t>2-MERCAPTOETHANOL, ELECTROPHORESIS GRADE,  25 G</t>
         </is>
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t>Citric Acid</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>Citric Acid</t>
-        </is>
-      </c>
-      <c r="V145" t="inlineStr">
-        <is>
-          <t>Allium cepa (Onion), Berberis sp., Bioactive Small Molecules, Biochemicals and Reagents, Biological Buffers, Cell Biology, Cell Culture, Chelators, Cichorium intybus (Chicory), Citrus aurantium (Seville orange), Euphorbia sp, Ginkgo biloba, Nutrition Research, Other Biochemical, Panax ginseng, Phytochemicals by Chemical Classification, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, Sambucus nigra (Elderberry), Vaccinium macrocarpon (Cranberry), Vaccinium myrtillus (Bilberry)</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V145" t="n">
+        <v/>
       </c>
       <c r="W145" t="n">
         <v/>
@@ -20178,7 +20174,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>04805732</t>
+          <t>04807410</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -20226,21 +20222,23 @@
       </c>
       <c r="S146" t="inlineStr">
         <is>
-          <t>BROMOPHENOL BLUE, SODIUM SALT, 10 G</t>
+          <t>TRICINE, 25 G</t>
         </is>
       </c>
       <c r="T146" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tricine</t>
         </is>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
-        </is>
-      </c>
-      <c r="V146" t="n">
-        <v/>
+          <t>Tricine</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>BioReagent Buffers, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffers Salts, Goodâ€™s Buffers, Life Science Reagents for PCR, Life Science Reagents for Western Blotting, Research Essentials</t>
+        </is>
       </c>
       <c r="W146" t="n">
         <v/>
@@ -20309,7 +20307,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>04806443</t>
+          <t>04821616</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -20357,21 +20355,23 @@
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>2-MERCAPTOETHANOL, ELECTROPHORESIS GRADE,  25 G</t>
+          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 25 G</t>
         </is>
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
         </is>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V147" t="n">
-        <v/>
+          <t>Coomassie Brilliant Blue R-250</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
+        </is>
       </c>
       <c r="W147" t="n">
         <v/>
@@ -20440,7 +20440,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>04807410</t>
+          <t>04821624</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -20488,22 +20488,22 @@
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>TRICINE, 25 G</t>
+          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 10 G</t>
         </is>
       </c>
       <c r="T148" t="inlineStr">
         <is>
-          <t>Tricine</t>
+          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
         </is>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>Tricine</t>
+          <t>Coomassie Brilliant Blue R-250</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>BioReagent Buffers, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffers Salts, Goodâ€™s Buffers, Life Science Reagents for PCR, Life Science Reagents for Western Blotting, Research Essentials</t>
+          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
         </is>
       </c>
       <c r="W148" t="n">
@@ -20573,7 +20573,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>04808873</t>
+          <t>04821636</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -20621,22 +20621,22 @@
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>GLYCINE, ELECTROPHORESIS GRADE, 250 G</t>
+          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 100 G</t>
         </is>
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>Glycine for use in electrophresis buffers.</t>
+          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
         </is>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>Glycine</t>
+          <t>Coomassie Brilliant Blue R-250</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>Protein Electrophoresis, Proteomics, Research Essentials,SDS-PAGE, Western Blotting, Amino Acids, Bioactive Small Molecules, Buffers,Buffers and Reagents, Buffers, Reagents, &amp; Stains,Cell Biology, General Reagents,Life Science Reagents for Protein Electrophoresis,Life Science Reagents for Western Blotting,</t>
+          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
         </is>
       </c>
       <c r="W149" t="n">
@@ -20706,7 +20706,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>04821616</t>
+          <t>04821915</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -20754,23 +20754,21 @@
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 25 G</t>
+          <t>WATER, DNASE, RNASE-FREE, 1 L</t>
         </is>
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250</t>
-        </is>
-      </c>
-      <c r="V150" t="inlineStr">
-        <is>
-          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
-        </is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="V150" t="n">
+        <v/>
       </c>
       <c r="W150" t="n">
         <v/>
@@ -20839,7 +20837,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>04821624</t>
+          <t>04821932</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -20887,22 +20885,22 @@
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 10 G</t>
+          <t>WATER, DNASE, RNASE-FREE, 500 ML</t>
         </is>
       </c>
       <c r="T151" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
+          <t>Biochemicals, Biochemicals and Reagents, Biological Buffers, Buffers A to Z, Bioreagents, Gene Expression &amp; Analysis, General Reagents, Life Science Reagents for Cloning, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Molecular Biology, Molecular Biology Reagents, Plant Biotechnology, Plant Molecular Biology, Plant Nucleic Acid Purification, Reagents, Research Essentials, Solvent by Type, Solvents, Water and Water Solutions, cDNA Labeling</t>
         </is>
       </c>
       <c r="W151" t="n">
@@ -20972,7 +20970,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>04821636</t>
+          <t>04822521</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -21020,23 +21018,21 @@
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 100 G</t>
+          <t>TRIS-GLYCINE NATIVE RUNNING BUFFER, 1 L</t>
         </is>
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
+          <t>Running buffer for protein electophoresis.</t>
         </is>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250</t>
-        </is>
-      </c>
-      <c r="V152" t="inlineStr">
-        <is>
-          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
-        </is>
+          <t>Premixed liquid 10X concentrate. Contains 0.25M TRIS base, 1.92M Glycine, pH 8.5. Provides excellent separation of native large molecular weight proteins on TRIS-glycine polyacrylamide gels.</t>
+        </is>
+      </c>
+      <c r="V152" t="n">
+        <v/>
       </c>
       <c r="W152" t="n">
         <v/>
@@ -21105,7 +21101,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>04821915</t>
+          <t>07WS1075</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -21153,17 +21149,17 @@
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>WATER, DNASE, RNASE-FREE, 1 L</t>
+          <t>POSITIVE DISPLACEMENT PIPETTE, 10-100 ΜL</t>
         </is>
       </c>
       <c r="T153" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Pipettes well suited for liquids with high densities, viscosities or vapor pressures. To be used with Positive displacement pipette tips, 10-100 µL (catalog number 07DP1035)</t>
         </is>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Problem-free pipetting of problem Liquids: it specially suited for liquids with high densities, viscosities or vapor pressures. Given the disposable capillaries and pistons, positive displacement absolutely eliminates cross-contamination from aerosols, sa</t>
         </is>
       </c>
       <c r="V153" t="n">
@@ -21236,7 +21232,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>04821932</t>
+          <t>08320961</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -21284,22 +21280,22 @@
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>WATER, DNASE, RNASE-FREE, 500 ML</t>
+          <t>CELLULASE Y-C (FROM TRICHODERMA VIRIDE), 10 G</t>
         </is>
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Cellulase Y-C enzyme retains very high filter paper decomposing activity and showed an appreciable amount of hemicellulase. Actually, this enzyme removed cell walls from plant tissues in shorter incubation period without loss of biological activity of the materials.</t>
         </is>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Cellulase Y-C enzyme retains very high filter paper decomposing activity and showed an appreciable amount of hemicellulase. Actually, this enzyme removed cell walls from plant tissues in shorter incubation period without loss of biological activity of the materials.</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>Biochemicals, Biochemicals and Reagents, Biological Buffers, Buffers A to Z, Bioreagents, Gene Expression &amp; Analysis, General Reagents, Life Science Reagents for Cloning, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Molecular Biology, Molecular Biology Reagents, Plant Biotechnology, Plant Molecular Biology, Plant Nucleic Acid Purification, Reagents, Research Essentials, Solvent by Type, Solvents, Water and Water Solutions, cDNA Labeling</t>
+          <t>Biochemicals and Reagents, Carbohydrate Hydrolysis, Carbohydrate hydrolysis PTM analysis, Cellulase, Cellulase, Lyticase, Laminanrinase, Cellulose, &amp;beta;-Glucans and Lichenen, Cellulases with Mixtures of Activities, Cellulose Hydrolysis, Complex Carbohydrate Analysis, Enzymatic Cell Lysis and Protoplast Preparation, Enzymes for Alternative Energy Research, Enzymes for Lignocellulosic Ethanol Research, Enzymes, Inhibitors, and Substrates, Plant</t>
         </is>
       </c>
       <c r="W154" t="n">
@@ -21369,7 +21365,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>04822252</t>
+          <t>0855034</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -21417,17 +21413,17 @@
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>LAEMMLI SDS SAMPLE BUFFER, 4X, 50 ML</t>
+          <t>ANTI-HUMAN COMPLEMENT C4 GOAT IGG FRACTION, 2 ML</t>
         </is>
       </c>
       <c r="T155" t="inlineStr">
         <is>
-          <t>Sample loading buffer for protein gel electrophoresis.</t>
+          <t>Lyophilized goat IgG fraction to human complement C4 and buffer salts.</t>
         </is>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>Premixed liquid 4X concentrate. Contains 250mM TRIS-HCl (pH6.8), 8% SDS, 40% glycerol, and 0.02% bromophenol blue. For protein sample preparation in the Laemmli SDS-PAGE system, without reducing the disulfide linkages.</t>
+          <t>Product is the lyophilized powder of goat IgG fraction to human complement C4 and buffer salts.</t>
         </is>
       </c>
       <c r="V155" t="n">
@@ -21500,7 +21496,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>04822261</t>
+          <t>0855285</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -21548,17 +21544,17 @@
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>LAEMMLI SDS SAMPLE BUFFER, 6X, 25 ML</t>
+          <t>ANTI-BOVINE ALBUMIN RABBIT IGG FRACTION, PEROXIDASE-CONJUGATED, 2 ML</t>
         </is>
       </c>
       <c r="T156" t="inlineStr">
         <is>
-          <t>Sample loading buffer for protein gel electrophoresis.</t>
+          <t>Lyophilized horseradish peroxidase (HRP)-conjugated rabbit IgG fraction to bovine albumin and buffer salts.</t>
         </is>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>Premixed liquid 6X concentrate. Contains 375mM TRIS-HCl (pH6.8), 9% SDS, 50% glycerol, and 0.03% bromophenol blue. For protein sample preparation in the Laemmli SDS-PAGE system, without reducing the disulfide linkages.</t>
+          <t>Product is the lyophilized powder of horseradish peroxidase (HRP)-conjugated rabbit IgG fraction to bovine albumin and buffer salts.</t>
         </is>
       </c>
       <c r="V156" t="n">
@@ -21631,7 +21627,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>04822471</t>
+          <t>0855306</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -21679,17 +21675,17 @@
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>TAE BUFFER (10X), 1 L</t>
+          <t>ANTI-CHICKEN RED BLOOD CELLS RABBIT IGG FRACTION , 5 ML</t>
         </is>
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Lyophilized rabbit IgG fraction to chicken red blood cells and buffer salts.</t>
         </is>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>Premixed liquid 10X concentrate. Contains 0.4M TRIS base, 0.4M Acetate, 10mM EDTA, pH 8.0. Used in agarose electrophoresis for separation of nucleic acids, DNA and RNA. Has lower buffer capacity than TBE but double-stranded DNA runs faster in TAE buffer.</t>
+          <t>Product is the lyophilized powder of rabbit IgG fraction to chicken red blood cells and buffer salts.</t>
         </is>
       </c>
       <c r="V157" t="n">
@@ -21762,7 +21758,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>04822521</t>
+          <t>0855557</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -21810,17 +21806,17 @@
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>TRIS-GLYCINE NATIVE RUNNING BUFFER, 1 L</t>
+          <t>ANTI-MOUSE COMPLEMENT C3 GOAT IGG FRACTION, PEROXIDASE-CONJUGATED , 2 ML</t>
         </is>
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>Running buffer for protein electophoresis.</t>
+          <t>Lyophilized horseradish peroxidase (HRP)-conjugated goat IgG fraction to mouse complement C3 and buffer salts.</t>
         </is>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>Premixed liquid 10X concentrate. Contains 0.25M TRIS base, 1.92M Glycine, pH 8.5. Provides excellent separation of native large molecular weight proteins on TRIS-glycine polyacrylamide gels.</t>
+          <t>Product is the lyophilized powder of horseradish peroxidase (HRP)-conjugated goat IgG fraction to mouse complement C3 and buffer salts.</t>
         </is>
       </c>
       <c r="V158" t="n">
@@ -21893,7 +21889,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>07WS1075</t>
+          <t>0855828</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -21941,21 +21937,23 @@
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>POSITIVE DISPLACEMENT PIPETTE, 10-100 ΜL</t>
+          <t>FREUND'S COMPLETE ADJUVANT, 50 ML</t>
         </is>
       </c>
       <c r="T159" t="inlineStr">
         <is>
-          <t>Pipettes well suited for liquids with high densities, viscosities or vapor pressures. To be used with Positive displacement pipette tips, 10-100 µL (catalog number 07DP1035)</t>
+          <t>Product is a mixture containing mineral oil, Arlacel A, and heat-killed Mycobacterium butyricum: Freund's Complete Adjuvant. Components are thoroughly mixed in controlled proportions and autoclaved prior to being vialed.</t>
         </is>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>Problem-free pipetting of problem Liquids: it specially suited for liquids with high densities, viscosities or vapor pressures. Given the disposable capillaries and pistons, positive displacement absolutely eliminates cross-contamination from aerosols, sa</t>
-        </is>
-      </c>
-      <c r="V159" t="n">
-        <v/>
+          <t>Product is a mixture containing mineral oil, Arlacel A, and heat-killed Mycobacterium butyricum: Freund's Complete Adjuvant. Components are thoroughly mixed in controlled proportions and autoclaved prior to being vialed.</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>Adjuvant emulsions, Adjuvants, Antibodies, Antibody Purification and Characterization, Cell Culture, Supplementary Products, Vaccine Adjuvants, Vaccine Production</t>
+        </is>
       </c>
       <c r="W159" t="n">
         <v/>
@@ -22024,7 +22022,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>08320961</t>
+          <t>0855838</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -22072,23 +22070,21 @@
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>CELLULASE Y-C (FROM TRICHODERMA VIRIDE), 10 G</t>
+          <t>GAMMA GLOBULIN, HUMAN, PURIFIED,  100 MG</t>
         </is>
       </c>
       <c r="T160" t="inlineStr">
         <is>
-          <t>Cellulase Y-C enzyme retains very high filter paper decomposing activity and showed an appreciable amount of hemicellulase. Actually, this enzyme removed cell walls from plant tissues in shorter incubation period without loss of biological activity of the materials.</t>
+          <t>Lyophilized human gamma globulin with buffer salts.</t>
         </is>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>Cellulase Y-C enzyme retains very high filter paper decomposing activity and showed an appreciable amount of hemicellulase. Actually, this enzyme removed cell walls from plant tissues in shorter incubation period without loss of biological activity of the materials.</t>
-        </is>
-      </c>
-      <c r="V160" t="inlineStr">
-        <is>
-          <t>Biochemicals and Reagents, Carbohydrate Hydrolysis, Carbohydrate hydrolysis PTM analysis, Cellulase, Cellulase, Lyticase, Laminanrinase, Cellulose, &amp;beta;-Glucans and Lichenen, Cellulases with Mixtures of Activities, Cellulose Hydrolysis, Complex Carbohydrate Analysis, Enzymatic Cell Lysis and Protoplast Preparation, Enzymes for Alternative Energy Research, Enzymes for Lignocellulosic Ethanol Research, Enzymes, Inhibitors, and Substrates, Plant</t>
-        </is>
+          <t>Product is the lyophilized powder of human gamma globulin and buffer salts.</t>
+        </is>
+      </c>
+      <c r="V160" t="n">
+        <v/>
       </c>
       <c r="W160" t="n">
         <v/>
@@ -22157,7 +22153,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>0855034</t>
+          <t>0856960</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -22205,17 +22201,17 @@
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>ANTI-HUMAN COMPLEMENT C4 GOAT IGG FRACTION, 2 ML</t>
+          <t>ANTI-HUMAN IGM (5FC MU) GOAT AFFINITY-PURIFIED F(AB')2 FRAGMENT, 1 MG</t>
         </is>
       </c>
       <c r="T161" t="inlineStr">
         <is>
-          <t>Lyophilized goat IgG fraction to human complement C4 and buffer salts.</t>
+          <t>Goat affinity purified F(ab')2 fragments to human IgM (5Fc µ) and buffer salts.</t>
         </is>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of goat IgG fraction to human complement C4 and buffer salts.</t>
+          <t>: Product is goat affinity purified F(ab')2 fragments to human IgM (5Fc µ) and buffer salts. The affinity purified F(ab')2 fragment is prepared from the specific goat IgG fraction by limited digestion with pepsin and solid phase absorption. The resulting affinity purified F(ab')2 fragment is dialyzed into 0.02M sodium phosphate, 0.14M sodium chloride, pH 7.3, adjusted to standard titer, filtered through a 0.22 µm filter, and vialed.</t>
         </is>
       </c>
       <c r="V161" t="n">
@@ -22288,7 +22284,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>0855285</t>
+          <t>08649011</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -22336,17 +22332,17 @@
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>ANTI-BOVINE ALBUMIN RABBIT IGG FRACTION, PEROXIDASE-CONJUGATED, 2 ML</t>
+          <t>MOUSE IMMUNOGLOBULIN REFERENCE SERUM, 1 ML</t>
         </is>
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>Lyophilized horseradish peroxidase (HRP)-conjugated rabbit IgG fraction to bovine albumin and buffer salts.</t>
+          <t>This product is pooled from outbred adult male and female ICR/Swiss Webster mice.</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of horseradish peroxidase (HRP)-conjugated rabbit IgG fraction to bovine albumin and buffer salts.</t>
+          <t>This product is pooled from outbred adult male and female ICR/Swiss Webster mice. The immunoglobulin levels, except IgE, are determined by radial immunodiffusion. The IgE level is obtained by addition of monoclonal IgE (Anti-DNP, Code No. 630122).&lt;br&gt;See Rat and Mouse Immunoglobulin Reference Sera in the Immunobiologicals section for immunoglobulin values.</t>
         </is>
       </c>
       <c r="V162" t="n">
@@ -22419,7 +22415,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>0855306</t>
+          <t>08687402</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -22467,17 +22463,17 @@
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>ANTI-CHICKEN RED BLOOD CELLS RABBIT IGG FRACTION , 5 ML</t>
+          <t>ANTI-GFP, MOUSE MONOCLONAL ANTIBODY, WITH BSA, 1 MG</t>
         </is>
       </c>
       <c r="T163" t="inlineStr">
         <is>
-          <t>Lyophilized rabbit IgG fraction to chicken red blood cells and buffer salts.</t>
+          <t>Mouse IgG2a monoclonal antibody (mAb) against GFP (clone 3E6)  that recognizes the native form of the Green Fluorescent Protein (GFP), GFP variants and GFP-fusion proteins.</t>
         </is>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of rabbit IgG fraction to chicken red blood cells and buffer salts.</t>
+          <t>Anti-GFP, Clone 3E6, is a mouse IgG2a monoclonal antibody (mAb) that recognizes the native form of the Green Fluorescent Protein (GFP), GFP variants and GFP-fusion proteins.</t>
         </is>
       </c>
       <c r="V163" t="n">
@@ -22550,7 +22546,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>0855557</t>
+          <t>08691102</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -22598,17 +22594,17 @@
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>ANTI-MOUSE COMPLEMENT C3 GOAT IGG FRACTION, PEROXIDASE-CONJUGATED , 2 ML</t>
+          <t>ANTI-GLIAL FIBRILLARY ACIDIC PROTEIN (GFAP) MOUSE MONOCLONAL ANTIBODY, 0.5 ML</t>
         </is>
       </c>
       <c r="T164" t="inlineStr">
         <is>
-          <t>Lyophilized horseradish peroxidase (HRP)-conjugated goat IgG fraction to mouse complement C3 and buffer salts.</t>
+          <t>Mouse IgG1 monoclonal antibody to glial fibrillary acidic protein.</t>
         </is>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of horseradish peroxidase (HRP)-conjugated goat IgG fraction to mouse complement C3 and buffer salts.</t>
+          <t>Product is a mouse monoclonal antibody, isotype IgG1, that reacts with Glial Fibrillary Acidic Protein.</t>
         </is>
       </c>
       <c r="V164" t="n">
@@ -22681,7 +22677,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>0855828</t>
+          <t>08771121</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -22729,23 +22725,21 @@
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>FREUND'S COMPLETE ADJUVANT, 50 ML</t>
+          <t>TUBULIN, PURIFIED FROM BOVINE BRAIN</t>
         </is>
       </c>
       <c r="T165" t="inlineStr">
         <is>
-          <t>Product is a mixture containing mineral oil, Arlacel A, and heat-killed Mycobacterium butyricum: Freund's Complete Adjuvant. Components are thoroughly mixed in controlled proportions and autoclaved prior to being vialed.</t>
+          <t>A heterodimer composed of &amp;alpha;- and &amp;beta;- tubulin of 55 kDa (molecular weight &amp;#8773;110 kDa).</t>
         </is>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>Product is a mixture containing mineral oil, Arlacel A, and heat-killed Mycobacterium butyricum: Freund's Complete Adjuvant. Components are thoroughly mixed in controlled proportions and autoclaved prior to being vialed.</t>
-        </is>
-      </c>
-      <c r="V165" t="inlineStr">
-        <is>
-          <t>Adjuvant emulsions, Adjuvants, Antibodies, Antibody Purification and Characterization, Cell Culture, Supplementary Products, Vaccine Adjuvants, Vaccine Production</t>
-        </is>
+          <t>Purified bovine brain tubulin protein supplied in liquid form at 10 mg/mL in 80 mM PIPES buffer containing 1 mM EGTA, 1 mM GTP, pH 6.8 and 10% glycerol. It is a heterodimer composed of &amp;alpha;- and &amp;beta;- tubulin of 55 kDa (molecular weight &amp;#8773;110 kDa). Polymerization occurs forming microtubules of 25 nm in diameter and average 1650 heterodimers per &amp;#181;m in length. One unit of tubulin is defined as 5.0 mg of purified protein (as determined by the method of Bradford: Bradford, M., Analytical Biochemistry 72, 248, 1976).</t>
+        </is>
+      </c>
+      <c r="V165" t="n">
+        <v/>
       </c>
       <c r="W165" t="n">
         <v/>
@@ -22814,7 +22808,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>0855838</t>
+          <t>08771151</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -22862,17 +22856,17 @@
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>GAMMA GLOBULIN, HUMAN, PURIFIED,  100 MG</t>
+          <t>TUBULIN, PORCINE, 99% PURE, 1 MG</t>
         </is>
       </c>
       <c r="T166" t="inlineStr">
         <is>
-          <t>Lyophilized human gamma globulin with buffer salts.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of human gamma globulin and buffer salts.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V166" t="n">
@@ -22945,7 +22939,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>0856960</t>
+          <t>08791501</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -22993,21 +22987,23 @@
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>ANTI-HUMAN IGM (5FC MU) GOAT AFFINITY-PURIFIED F(AB')2 FRAGMENT, 1 MG</t>
+          <t>PHYTOHEMAGGLUTININ, PHASEOLUS VULGARIS, 25 MG</t>
         </is>
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>Goat affinity purified F(ab')2 fragments to human IgM (5Fc µ) and buffer salts.</t>
+          <t>Crude Phaseolus vulgaris-P lectin (PHA-P) from the Red Kidney Bean. Phytohemagglutinin PHA agglutinates the erythrocytes of all human blood groups as well as those of rabbit, dog, cat, mouse, sheep, and guinea pig. The optimal amount of PHA required for the agglutination of erythrocytes varies with the blood from different individuals.</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>: Product is goat affinity purified F(ab')2 fragments to human IgM (5Fc µ) and buffer salts. The affinity purified F(ab')2 fragment is prepared from the specific goat IgG fraction by limited digestion with pepsin and solid phase absorption. The resulting affinity purified F(ab')2 fragment is dialyzed into 0.02M sodium phosphate, 0.14M sodium chloride, pH 7.3, adjusted to standard titer, filtered through a 0.22 µm filter, and vialed.</t>
-        </is>
-      </c>
-      <c r="V167" t="n">
-        <v/>
+          <t>Crude Phaseolus vulgaris-P lectin (PHA-P) from the Red Kidney Bean. Phytohemagglutinin PHA agglutinates the erythrocytes of all human blood groups as well as those of rabbit, dog, cat, mouse, sheep, and guinea pig. The optimal amount of PHA required for the agglutination of erythrocytes varies with the blood from different individuals.</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>791501; 08791501</t>
+        </is>
       </c>
       <c r="W167" t="n">
         <v/>
@@ -23076,7 +23072,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>08649011</t>
+          <t>08820361</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -23124,21 +23120,23 @@
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>MOUSE IMMUNOGLOBULIN REFERENCE SERUM, 1 ML</t>
+          <t>THROMBIN, BOVINE, 96.87 NIH U/MG DRY WEIGHT, 5 X 2 KU</t>
         </is>
       </c>
       <c r="T168" t="inlineStr">
         <is>
-          <t>This product is pooled from outbred adult male and female ICR/Swiss Webster mice.</t>
+          <t>Thrombin is the final coagulation protease in regard to hemostasis, promoting both procoagulant and anticoagulant effects.</t>
         </is>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>This product is pooled from outbred adult male and female ICR/Swiss Webster mice. The immunoglobulin levels, except IgE, are determined by radial immunodiffusion. The IgE level is obtained by addition of monoclonal IgE (Anti-DNP, Code No. 630122).&lt;br&gt;See Rat and Mouse Immunoglobulin Reference Sera in the Immunobiologicals section for immunoglobulin values.</t>
-        </is>
-      </c>
-      <c r="V168" t="n">
-        <v/>
+          <t>Thrombin is the final coagulation protease in regard to hemostasis, promoting both procoagulant and anticoagulant effects.</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>Biochemicals and Reagents, Inhibitors, and Substrates, Proteases, Proteases Protein Sequencing, Proteases for Recombinant Protein Fusion Tag Cleavage, Proteolytic Enzymes, Proteolytic Enzymes and Substrates, Selective Proteolytic Enzymes, Serum Proteins and Related Enzymes, Serum Related Enzymes, Thrombin</t>
+        </is>
       </c>
       <c r="W168" t="n">
         <v/>
@@ -23207,7 +23205,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>08687402</t>
+          <t>08840533</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -23255,21 +23253,23 @@
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>ANTI-GFP, MOUSE MONOCLONAL ANTIBODY, WITH BSA, 1 MG</t>
+          <t>ALBUMIN, BOVINE, COHN FRACTION V,&gt; 96%,  100 G</t>
         </is>
       </c>
       <c r="T169" t="inlineStr">
         <is>
-          <t>Mouse IgG2a monoclonal antibody (mAb) against GFP (clone 3E6)  that recognizes the native form of the Green Fluorescent Protein (GFP), GFP variants and GFP-fusion proteins.</t>
+          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
         </is>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>Anti-GFP, Clone 3E6, is a mouse IgG2a monoclonal antibody (mAb) that recognizes the native form of the Green Fluorescent Protein (GFP), GFP variants and GFP-fusion proteins.</t>
-        </is>
-      </c>
-      <c r="V169" t="n">
-        <v/>
+          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>Albumin, Albumins and Transport Proteins, Albumins by Application, Apoptosis and Cell Cycle, Biochemicals and Reagents, Bovine Serum Albumins, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Ethanol Fractionated, For Cell Culture, Life Science Reagents for Cell Culture, Other Apoptosis Related Reagents, Proteins and Derivatives, Proteins and Peptides, Reagents and Supplements</t>
+        </is>
       </c>
       <c r="W169" t="n">
         <v/>
@@ -23338,7 +23338,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>08691102</t>
+          <t>08840533</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -23386,21 +23386,23 @@
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>ANTI-GLIAL FIBRILLARY ACIDIC PROTEIN (GFAP) MOUSE MONOCLONAL ANTIBODY, 0.5 ML</t>
+          <t>ALBUMIN, BOVINE, COHN FRACTION V,&gt; 96%,  100 G</t>
         </is>
       </c>
       <c r="T170" t="inlineStr">
         <is>
-          <t>Mouse IgG1 monoclonal antibody to glial fibrillary acidic protein.</t>
+          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
         </is>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>Product is a mouse monoclonal antibody, isotype IgG1, that reacts with Glial Fibrillary Acidic Protein.</t>
-        </is>
-      </c>
-      <c r="V170" t="n">
-        <v/>
+          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>Albumin, Albumins and Transport Proteins, Albumins by Application, Apoptosis and Cell Cycle, Biochemicals and Reagents, Bovine Serum Albumins, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Ethanol Fractionated, For Cell Culture, Life Science Reagents for Cell Culture, Other Apoptosis Related Reagents, Proteins and Derivatives, Proteins and Peptides, Reagents and Supplements</t>
+        </is>
       </c>
       <c r="W170" t="n">
         <v/>
@@ -23469,7 +23471,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>08771121</t>
+          <t>091003122</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -23517,17 +23519,17 @@
       </c>
       <c r="S171" t="inlineStr">
         <is>
-          <t>TUBULIN, PURIFIED FROM BOVINE BRAIN</t>
+          <t>BASAL MEDIUM EAGLE (MODIFIED) WITH HANK'S SALTS (HBME) WITH L-GLUTAMINE W/O SODIUM CARBONATE, 10 L</t>
         </is>
       </c>
       <c r="T171" t="inlineStr">
         <is>
-          <t>A heterodimer composed of &amp;alpha;- and &amp;beta;- tubulin of 55 kDa (molecular weight &amp;#8773;110 kDa).</t>
+          <t>Basal Medium Eagle (BME) is one of the most commonly used ynthetic basal medium for supporting the growth of many different mammalian cells</t>
         </is>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>Purified bovine brain tubulin protein supplied in liquid form at 10 mg/mL in 80 mM PIPES buffer containing 1 mM EGTA, 1 mM GTP, pH 6.8 and 10% glycerol. It is a heterodimer composed of &amp;alpha;- and &amp;beta;- tubulin of 55 kDa (molecular weight &amp;#8773;110 kDa). Polymerization occurs forming microtubules of 25 nm in diameter and average 1650 heterodimers per &amp;#181;m in length. One unit of tubulin is defined as 5.0 mg of purified protein (as determined by the method of Bradford: Bradford, M., Analytical Biochemistry 72, 248, 1976).</t>
+          <t>Basal Medium Eagle (BME) is one of the most commonly used of all cell culture media. This medium is the result of numerous studies from the late 1950's analyzing the nutrient requirements and other components essential for the growth of cells in culture. Traditionally, BME has been used in studies to measure the growth response of normal (WI-38) and transformed (HeLa) cells in monolayer culture. BME may be used for a broad variety of cell lines when properly supplemented.</t>
         </is>
       </c>
       <c r="V171" t="n">
@@ -23600,7 +23602,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>08771151</t>
+          <t>091005360</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -23648,17 +23650,17 @@
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t>TUBULIN, PORCINE, 99% PURE, 1 MG</t>
+          <t>LB BROTH, MILLER, 1 KG</t>
         </is>
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
         </is>
       </c>
       <c r="V172" t="n">
@@ -23731,7 +23733,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>08791501</t>
+          <t>091005361</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -23779,23 +23781,21 @@
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>PHYTOHEMAGGLUTININ, PHASEOLUS VULGARIS, 25 MG</t>
+          <t>LB BROTH, MILLER, 5 KG</t>
         </is>
       </c>
       <c r="T173" t="inlineStr">
         <is>
-          <t>Crude Phaseolus vulgaris-P lectin (PHA-P) from the Red Kidney Bean. Phytohemagglutinin PHA agglutinates the erythrocytes of all human blood groups as well as those of rabbit, dog, cat, mouse, sheep, and guinea pig. The optimal amount of PHA required for the agglutination of erythrocytes varies with the blood from different individuals.</t>
+          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
         </is>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>Crude Phaseolus vulgaris-P lectin (PHA-P) from the Red Kidney Bean. Phytohemagglutinin PHA agglutinates the erythrocytes of all human blood groups as well as those of rabbit, dog, cat, mouse, sheep, and guinea pig. The optimal amount of PHA required for the agglutination of erythrocytes varies with the blood from different individuals.</t>
-        </is>
-      </c>
-      <c r="V173" t="inlineStr">
-        <is>
-          <t>791501; 08791501</t>
-        </is>
+          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
+        </is>
+      </c>
+      <c r="V173" t="n">
+        <v/>
       </c>
       <c r="W173" t="n">
         <v/>
@@ -23864,7 +23864,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>08820361</t>
+          <t>091006017</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -23912,23 +23912,21 @@
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>THROMBIN, BOVINE, 96.87 NIH U/MG DRY WEIGHT, 5 X 2 KU</t>
+          <t>MACCONKEY AGAR, 500 G</t>
         </is>
       </c>
       <c r="T174" t="inlineStr">
         <is>
-          <t>Thrombin is the final coagulation protease in regard to hemostasis, promoting both procoagulant and anticoagulant effects.</t>
+          <t>Medium used  for the isolation of enteric bacilli based on the fermentation of lactose.</t>
         </is>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>Thrombin is the final coagulation protease in regard to hemostasis, promoting both procoagulant and anticoagulant effects.</t>
-        </is>
-      </c>
-      <c r="V174" t="inlineStr">
-        <is>
-          <t>Biochemicals and Reagents, Inhibitors, and Substrates, Proteases, Proteases Protein Sequencing, Proteases for Recombinant Protein Fusion Tag Cleavage, Proteolytic Enzymes, Proteolytic Enzymes and Substrates, Selective Proteolytic Enzymes, Serum Proteins and Related Enzymes, Serum Related Enzymes, Thrombin</t>
-        </is>
+          <t>A preparation for the isolation of enteric bacilli based on the fermentation of lactose.</t>
+        </is>
+      </c>
+      <c r="V174" t="n">
+        <v/>
       </c>
       <c r="W174" t="n">
         <v/>
@@ -23997,7 +23995,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>08840533</t>
+          <t>091006817</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -24045,22 +24043,22 @@
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>ALBUMIN, BOVINE, COHN FRACTION V,&gt; 96%,  100 G</t>
+          <t>MALT EXTRACT AGAR (MEA), 500 G</t>
         </is>
       </c>
       <c r="T175" t="inlineStr">
         <is>
-          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
+          <t>General purpose growth media to isolate and cultivate yeasts and molds from a wide range of sample sources.</t>
         </is>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
+          <t>Malt Extract Agar has been used for years to cultivate fungi and yeast cultures in the sugar industry, in the manufacturing of syrups, soft drinks, and other drinks. It is also recommended in conjunction with other specific media which are included in this manual. A medium for the isolation and enumeration of yeasts and molds. It can be used in cultivation of the strains for microbiological vitamin assays.</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>Albumin, Albumins and Transport Proteins, Albumins by Application, Apoptosis and Cell Cycle, Biochemicals and Reagents, Bovine Serum Albumins, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Ethanol Fractionated, For Cell Culture, Life Science Reagents for Cell Culture, Other Apoptosis Related Reagents, Proteins and Derivatives, Proteins and Peptides, Reagents and Supplements</t>
+          <t>All Dairy Media (alphabetical), All Food Control Media (alphabetical), All Solid Media/Agars, Aspergillus, Candida, Clinical Media, Dairy Culture Media for Yeasts and Molds, Media, Media by Application, Media by Microorganism, Media for Dairy Industry, Media for Food Control, Media for Fruits and Vegetable, Media for Sour Vegetables, Vinegar, Media for Water Control, Media for Water Control (General), Microbiology, Molds Yeasts (General Media), Selective by Low pH, Selective by low pH, Soil/Agriculture/Environmental Media, Zygosaccharmyces</t>
         </is>
       </c>
       <c r="W175" t="n">
@@ -24130,7 +24128,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>08840533</t>
+          <t>091020122</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -24178,23 +24176,21 @@
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>ALBUMIN, BOVINE, COHN FRACTION V,&gt; 96%,  100 G</t>
+          <t>MEDIUM 199 WITH EARLE'S SALT (E199), POWDER, WITH L-GLUTAMINE, W/O SODIUM BICARBONATE, 10 L</t>
         </is>
       </c>
       <c r="T176" t="inlineStr">
         <is>
-          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
+          <t>Completely defined nutritional source for cell culture. Medium 199 is available in either Earle's or Hanks' salts.</t>
         </is>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
-        </is>
-      </c>
-      <c r="V176" t="inlineStr">
-        <is>
-          <t>Albumin, Albumins and Transport Proteins, Albumins by Application, Apoptosis and Cell Cycle, Biochemicals and Reagents, Bovine Serum Albumins, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Ethanol Fractionated, For Cell Culture, Life Science Reagents for Cell Culture, Other Apoptosis Related Reagents, Proteins and Derivatives, Proteins and Peptides, Reagents and Supplements</t>
-        </is>
+          <t>Medium 199, originally described by Morgan and his colleagues (1950), is a completely defined nutritional source for cell culture. Their investigations demonstrated that cell growth could be measured in this medium. It has broad species applicability including the culturing of non-transformed cell types. It may be used for vaccine production and the in vitro cultivation of rat lens tissues and primary mouse pancreatic epithelial explants. It is available in either Earle's or Hanks' salts.</t>
+        </is>
+      </c>
+      <c r="V176" t="n">
+        <v/>
       </c>
       <c r="W176" t="n">
         <v/>
@@ -24263,7 +24259,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>091003122</t>
+          <t>091213454</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -24311,17 +24307,17 @@
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>BASAL MEDIUM EAGLE (MODIFIED) WITH HANK'S SALTS (HBME) WITH L-GLUTAMINE W/O SODIUM CARBONATE, 10 L</t>
+          <t>MINIMUM ESSENTIAL MEDIUM EAGLE (MODIFIED) (1X) WITH HANK'S SALTS, 20 MM HEPES, W/O L-GLUTAMINE, SODIUM BICARBONATE, 500 ML</t>
         </is>
       </c>
       <c r="T177" t="inlineStr">
         <is>
-          <t>Basal Medium Eagle (BME) is one of the most commonly used ynthetic basal medium for supporting the growth of many different mammalian cells</t>
+          <t>Cell culture media. MP Bio offers MEM with either Earle's or Hanks' salts.</t>
         </is>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>Basal Medium Eagle (BME) is one of the most commonly used of all cell culture media. This medium is the result of numerous studies from the late 1950's analyzing the nutrient requirements and other components essential for the growth of cells in culture. Traditionally, BME has been used in studies to measure the growth response of normal (WI-38) and transformed (HeLa) cells in monolayer culture. BME may be used for a broad variety of cell lines when properly supplemented.</t>
+          <t>MEM, originally prepared by Harry Eagle, is one of the most popular cell culture media. Upon his attempts to cultivate normal mammalian fibroblasts and certain HeLa cell subtypes, it was revealed that the nutritional needs of these cell types could not be met by BME. Further studies led to the development of MEM incorporating specific modifications such as higher amino acid concentrations for the cultivation of fastidious cells. MP's MEM may be used to support the growth of cells in monolayers, in suspension and wide variety of other cell types with proper supplementation. MP offers MEM with either Earle's or Hanks' salts.</t>
         </is>
       </c>
       <c r="V177" t="n">
@@ -24394,7 +24390,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>091005360</t>
+          <t>091233454</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -24442,21 +24438,23 @@
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>LB BROTH, MILLER, 1 KG</t>
+          <t>DULBECCO'S MODIFIED EAGLE'S MEDIUM (DMEM) (1X SOLUTION) WITH 20 MM HEPES, W/O L-GLUTAMINE OR SODIUM BICARBONATE, 500 ML</t>
         </is>
       </c>
       <c r="T178" t="inlineStr">
         <is>
-          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
+          <t>Also known as DME, Dulbecco's Modified Eagle's Medium is the most widely used modification of Eagle's Basal Medium (BME).</t>
         </is>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
-        </is>
-      </c>
-      <c r="V178" t="n">
-        <v/>
+          <t>Also known as DME, Dulbecco's Modified Eagle's Medium is the most widely used modification of Eagle's Basal Medium (BME). DMEM contains four times greater concentration of amino acids, vitamins and supplementary components. The original formulation calls for 1000 mg/L of glucose, which was first employed to support the polyoma virus in primary and secondary embryonic mouse cultures. For optimal culturing of other cell types, a modification of 4500 mg/L glucose is available from MP.</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>Cell Biology, Cell Culture, Classic Media and Salts, Classical Media, Culture, Dulbecco&amp;rsquo;s Media, Dulbecco&amp;rsquo;s Modified Eagle&amp;rsquo;s Medium (DMEM), General Stem Cell Biology, Stem Cell Biology, Stem Cell Expansion, Stem Cell Isolation</t>
+        </is>
       </c>
       <c r="W178" t="n">
         <v/>
@@ -24525,7 +24523,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>091005361</t>
+          <t>091670246</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -24573,21 +24571,23 @@
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>LB BROTH, MILLER, 5 KG</t>
+          <t>PEN-STREP (10000 IU/ML, 10 MG/ML), 20 ML</t>
         </is>
       </c>
       <c r="T179" t="inlineStr">
         <is>
-          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
+          <t>Double antibiotic solution containing 10,000 units/mL of penicillin and 10,000 µg/mL of streptomycin.</t>
         </is>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
-        </is>
-      </c>
-      <c r="V179" t="n">
-        <v/>
+          <t>The antibiotics penicillin and streptomycin are used to prevent bacterial contamination of cell cultures due to their effective combined action against gram-positive and gram-negative bacteria. This solution contains 10,000 units/mL of penicillin and 10,000 µg/mL of streptomycin.</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>Antibacterial, Antibiotic Solutions, Antibiotics, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Biology, Cell Culture, Core Bioreagents, Culture, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Labeling, Reagents and Supplements, Research Essentials, Spectrum of Activity, Stable Isotopes, Stem Cell Biology, Stem Cell Differentiation, Stem Cell Expansion</t>
+        </is>
       </c>
       <c r="W179" t="n">
         <v/>
@@ -24656,7 +24656,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>091006017</t>
+          <t>091676245</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -24704,21 +24704,23 @@
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>MACCONKEY AGAR, 500 G</t>
+          <t>GENTAMICIN SULFATE, 50 MG/ML, 10 ML</t>
         </is>
       </c>
       <c r="T180" t="inlineStr">
         <is>
-          <t>Medium used  for the isolation of enteric bacilli based on the fermentation of lactose.</t>
+          <t>Gentamicin is an aminoglycoside antibiotic complex that&amp;nbsp;inhibits the growth of a wide variety of Gram-positive and Gram-negative microorganisms, including strains resistant to tetracycline, chloramphenicol, kanamycin, and colistin, particularly strains of Pseudomonas, Proteus, Staphylococcus, and Streptococcus. It is effective against mycoplasma as well.</t>
         </is>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>A preparation for the isolation of enteric bacilli based on the fermentation of lactose.</t>
-        </is>
-      </c>
-      <c r="V180" t="n">
-        <v/>
+          <t>Gentamicin Reagent Solution is effective against gram-positive and gram-negative bacteria, as well as mycoplasma.</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>A - K, Aminoglycosides, Analytical/Chromatography, Antibacterial, Antibiotic powders, Antibiotics, Antibiotics A to Z, Antibiotics G-M, Antibiotics by Application, Bioactive Small Molecules, Biochemicals and Reagents, Cell Biology, Cell Culture, Chemical Structure Class, Core Bioreagents, G, Genetic Marker Selection, Interferes with Protein Synthesis, Mechanism of Action, Pharmacopoeia, Pharmacopoeia A-Z, Pharmacopoeial Antibiotics, Reagents and Supplements, Research Essentials, Spectrum of Activity</t>
+        </is>
       </c>
       <c r="W180" t="n">
         <v/>
@@ -24787,7 +24789,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>091006817</t>
+          <t>092001344</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -24835,23 +24837,21 @@
       </c>
       <c r="S181" t="inlineStr">
         <is>
-          <t>MALT EXTRACT AGAR (MEA), 500 G</t>
+          <t>ITS PREMIX SOLUTION, 5 ML</t>
         </is>
       </c>
       <c r="T181" t="inlineStr">
         <is>
-          <t>General purpose growth media to isolate and cultivate yeasts and molds from a wide range of sample sources.</t>
+          <t>ITS Premix stimulates cell proliferation while decreasing substantially the serum requirements for culture of many cell types. Contains 0.5 mg/ml insulin from bovine pancreas, 0.5 mg/ml human transferrin (substantially iron-free) and 0.5 µg/ml sodium selenite. Prepared in Earle's balanced Salt Solution (EBSS) without phenol red. Sterile-filtered.</t>
         </is>
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>Malt Extract Agar has been used for years to cultivate fungi and yeast cultures in the sugar industry, in the manufacturing of syrups, soft drinks, and other drinks. It is also recommended in conjunction with other specific media which are included in this manual. A medium for the isolation and enumeration of yeasts and molds. It can be used in cultivation of the strains for microbiological vitamin assays.</t>
-        </is>
-      </c>
-      <c r="V181" t="inlineStr">
-        <is>
-          <t>All Dairy Media (alphabetical), All Food Control Media (alphabetical), All Solid Media/Agars, Aspergillus, Candida, Clinical Media, Dairy Culture Media for Yeasts and Molds, Media, Media by Application, Media by Microorganism, Media for Dairy Industry, Media for Food Control, Media for Fruits and Vegetable, Media for Sour Vegetables, Vinegar, Media for Water Control, Media for Water Control (General), Microbiology, Molds Yeasts (General Media), Selective by Low pH, Selective by low pH, Soil/Agriculture/Environmental Media, Zygosaccharmyces</t>
-        </is>
+          <t>ITS Premix will stimulate cell proliferation while decreasing substantially the serum requirements for culture of many cell types as diverse, for example, as contractile rat heart cells and human colon mucosal epithelial cells. Basal media supplemented with ITS Premix and as little as 2% Fetal Bovine Serum support proliferation of many diploid and heteroploid cell lines at rates equivalent to those obtained with 10% serum. Contains 0.5 mg/ml insulin from bovine pancreas, 0.5 mg/ml human transferrin (substantially iron-free) and 0.5 ug/ml sodium selenite. Prepared in Earle's balanced Salt Solution (EBSS) without phenol red. Sterile-filtered.</t>
+        </is>
+      </c>
+      <c r="V181" t="n">
+        <v/>
       </c>
       <c r="W181" t="n">
         <v/>
@@ -24920,7 +24920,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>091020122</t>
+          <t>092633020</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -24968,17 +24968,17 @@
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>MEDIUM 199 WITH EARLE'S SALT (E199), POWDER, WITH L-GLUTAMINE, W/O SODIUM BICARBONATE, 10 L</t>
+          <t>MURASHIGE AND SKOOG PLANT SALT MIXTURE W/O AGAR, 10 X 1 L</t>
         </is>
       </c>
       <c r="T182" t="inlineStr">
         <is>
-          <t>Completely defined nutritional source for cell culture. Medium 199 is available in either Earle's or Hanks' salts.</t>
+          <t>Murashige and Skoog basal salt medium for plants growth and plant tissue culture.</t>
         </is>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>Medium 199, originally described by Morgan and his colleagues (1950), is a completely defined nutritional source for cell culture. Their investigations demonstrated that cell growth could be measured in this medium. It has broad species applicability including the culturing of non-transformed cell types. It may be used for vaccine production and the in vitro cultivation of rat lens tissues and primary mouse pancreatic epithelial explants. It is available in either Earle's or Hanks' salts.</t>
+          <t>Murashige and Skoog Medium contains Murashige and Skoog salts, as well as a mixture of vitamins. This modification of the original formula does not contain agar. Murashige and Skoog Medium is widely used plant tissue culture growth medium. It has been proven effective in the culture of tissue derived from moncotyledons and dicotyledons. This medium, originally formulated to support tobacco callus, has been used to support callus initiation and growth, the growth of cells in suspension culture and the regeneration of shoots and plantlets from explants. More recently, it has been used for micropropagation of ornamental, vegetable and fruit plants in research and commercial enterprises.</t>
         </is>
       </c>
       <c r="V182" t="n">
@@ -25051,7 +25051,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>091213454</t>
+          <t>092910154</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -25099,21 +25099,23 @@
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>MINIMUM ESSENTIAL MEDIUM EAGLE (MODIFIED) (1X) WITH HANK'S SALTS, 20 MM HEPES, W/O L-GLUTAMINE, SODIUM BICARBONATE, 500 ML</t>
+          <t>FETAL BOVINE SERUM (FBS), SOUTH-AMERICAN ORIGIN, 500 ML</t>
         </is>
       </c>
       <c r="T183" t="inlineStr">
         <is>
-          <t>Cell culture media. MP Bio offers MEM with either Earle's or Hanks' salts.</t>
+          <t>Fetal Bovine Serum (FBS) is produced to the highest standards to ensure product performance and safety with minimal risk and lot-to-lot variability. MP Biomedicals system of vertical integration provides certainty of the South American origin and traceability of this FBS.</t>
         </is>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>MEM, originally prepared by Harry Eagle, is one of the most popular cell culture media. Upon his attempts to cultivate normal mammalian fibroblasts and certain HeLa cell subtypes, it was revealed that the nutritional needs of these cell types could not be met by BME. Further studies led to the development of MEM incorporating specific modifications such as higher amino acid concentrations for the cultivation of fastidious cells. MP's MEM may be used to support the growth of cells in monolayers, in suspension and wide variety of other cell types with proper supplementation. MP offers MEM with either Earle's or Hanks' salts.</t>
-        </is>
-      </c>
-      <c r="V183" t="n">
-        <v/>
+          <t>Fetal Bovine Serum (FBS) is the growth supplement of choice for cell culture due to its high level of nutrients. Most cell types and cell culture systems will benefit from the inclusion of FBS in growth media. It is produced to the highest standards to ensure product performance and safety with minimal risk and lot-to-lot variability. MP Biomedicals system of vertical integration provides certainty of the South American origin and traceability of this FBS.&lt;/p&gt;&lt;br&gt;&lt;p&gt;Final Filter Size: 0.1&amp;micro;m x 3&lt;/p&gt;&lt;br&gt;&lt;p&gt;Sterility: All sera are tested for the absence of aerobic and anaerobic bacteria, fungi, yeast and Mycoplasma absence&lt;/p&gt;&lt;br&gt;&lt;p&gt;Virus Tested: Bovine Viral Diarrhoea (BVD); Cytopathogenic agents, e.g. Infectious Bovine Rhinotracheitis (IBR) / BHV-1; Hemadsorbing agents, e.g. Parainfluenza Type 3 (P13)&lt;/p&gt;&lt;br&gt;&lt;p&gt;Endotoxin: &lt; 30 EU/mL&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>apoptosis and cell cycle,cell biology,cell culture,cell signaling,neuroscience,core bioreagents,fetal bovine serum,fbs,animal sera,general reagents,reagents,reagents for transfection,apoptosis related reagents,serum</t>
+        </is>
       </c>
       <c r="W183" t="n">
         <v/>
@@ -25182,7 +25184,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>091233454</t>
+          <t>092916749</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -25230,22 +25232,22 @@
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>DULBECCO'S MODIFIED EAGLE'S MEDIUM (DMEM) (1X SOLUTION) WITH 20 MM HEPES, W/O L-GLUTAMINE OR SODIUM BICARBONATE, 500 ML</t>
+          <t>CELLECT FETAL BOVINE SERUM, GOLD, US ORIGIN, 100 ML</t>
         </is>
       </c>
       <c r="T184" t="inlineStr">
         <is>
-          <t>Also known as DME, Dulbecco's Modified Eagle's Medium is the most widely used modification of Eagle's Basal Medium (BME).</t>
+          <t>Superior fetal bovine serum for hybridoma cloning. Sterilized via filtration through multiple 0.1 micron filters.</t>
         </is>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>Also known as DME, Dulbecco's Modified Eagle's Medium is the most widely used modification of Eagle's Basal Medium (BME). DMEM contains four times greater concentration of amino acids, vitamins and supplementary components. The original formulation calls for 1000 mg/L of glucose, which was first employed to support the polyoma virus in primary and secondary embryonic mouse cultures. For optimal culturing of other cell types, a modification of 4500 mg/L glucose is available from MP.</t>
+          <t>CELLect&amp;trade; Gold is collected from a U.S.D.A. regulated and monitored abattoir by technicians who work "on-site" where the fetal blood is aseptically collected via cardiac puncture. This raw material is transported to the production facility where it undergoes sterilization via filtration through multiple 0.1 micron filters. The care and diligence taken in handling the fetal serum minimizes cell lysis and other detrimental factors thereby reducing possible lysozyme and hemoglobin contamination. This translates into increased performance in the final product. It is superior for hybridoma cloning. It is supplied sterile, with no detectable mycoplasma or viral infection. Serum is an extremely complex mixture of many small and large biomolecules with different, physiologically balanced growth-promoting and growth inhibiting activities.</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>Cell Biology, Cell Culture, Classic Media and Salts, Classical Media, Culture, Dulbecco&amp;rsquo;s Media, Dulbecco&amp;rsquo;s Modified Eagle&amp;rsquo;s Medium (DMEM), General Stem Cell Biology, Stem Cell Biology, Stem Cell Expansion, Stem Cell Isolation</t>
+          <t>Apoptosis and Cell Cycle, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Core Bioreagents, Fetal Bovine Serum (FBS), Fetal Bovine Serum (FBS) and Other Animal Sera, General Reagents, Hybridoma Platform, Hybridoma Sera and Sera Substitutes, Life Science Reagents for Cell Culture, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Media / Serum, Other Apoptosis Related Reagents, Research Essentials, Serum, Serum-free Media</t>
         </is>
       </c>
       <c r="W184" t="n">
@@ -25315,7 +25317,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>091670246</t>
+          <t>092916754</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -25363,22 +25365,22 @@
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t>PEN-STREP (10000 IU/ML, 10 MG/ML), 20 ML</t>
+          <t>CELLECT FETAL BOVINE SERUM, GOLD, US ORIGIN, 500 ML</t>
         </is>
       </c>
       <c r="T185" t="inlineStr">
         <is>
-          <t>Double antibiotic solution containing 10,000 units/mL of penicillin and 10,000 µg/mL of streptomycin.</t>
+          <t>Superior fetal bovine serum for hybridoma cloning. Sterilized via filtration through multiple 0.1 micron filters.</t>
         </is>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>The antibiotics penicillin and streptomycin are used to prevent bacterial contamination of cell cultures due to their effective combined action against gram-positive and gram-negative bacteria. This solution contains 10,000 units/mL of penicillin and 10,000 µg/mL of streptomycin.</t>
+          <t>CELLect&amp;trade; Gold is collected from a U.S.D.A. regulated and monitored abattoir by technicians who work "on-site" where the fetal blood is aseptically collected via cardiac puncture. This raw material is transported to the production facility where it undergoes sterilization via filtration through multiple 0.1 micron filters. The care and diligence taken in handling the fetal serum minimizes cell lysis and other detrimental factors thereby reducing possible lysozyme and hemoglobin contamination. This translates into increased performance in the final product. It is superior for hybridoma cloning. It is supplied sterile, with no detectable mycoplasma or viral infection. Serum is an extremely complex mixture of many small and large biomolecules with different, physiologically balanced growth-promoting and growth inhibiting activities.</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>Antibacterial, Antibiotic Solutions, Antibiotics, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Biology, Cell Culture, Core Bioreagents, Culture, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Labeling, Reagents and Supplements, Research Essentials, Spectrum of Activity, Stable Isotopes, Stem Cell Biology, Stem Cell Differentiation, Stem Cell Expansion</t>
+          <t>Apoptosis and Cell Cycle, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Core Bioreagents, Fetal Bovine Serum (FBS), Fetal Bovine Serum (FBS) and Other Animal Sera, General Reagents, Hybridoma Platform, Hybridoma Sera and Sera Substitutes, Life Science Reagents for Cell Culture, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Media / Serum, Other Apoptosis Related Reagents, Research Essentials, Serum, Serum-free Media</t>
         </is>
       </c>
       <c r="W185" t="n">
@@ -25448,7 +25450,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>091676245</t>
+          <t>092917654</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -25496,23 +25498,21 @@
       </c>
       <c r="S186" t="inlineStr">
         <is>
-          <t>GENTAMICIN SULFATE, 50 MG/ML, 10 ML</t>
+          <t>CELLMAXX; FETAL BOVINE SERUM, NEW ZEALAND ORIGIN, 500 ML</t>
         </is>
       </c>
       <c r="T186" t="inlineStr">
         <is>
-          <t>Gentamicin is an aminoglycoside antibiotic complex that&amp;nbsp;inhibits the growth of a wide variety of Gram-positive and Gram-negative microorganisms, including strains resistant to tetracycline, chloramphenicol, kanamycin, and colistin, particularly strains of Pseudomonas, Proteus, Staphylococcus, and Streptococcus. It is effective against mycoplasma as well.</t>
+          <t>CellMaxx FBS comes from the pristine grasslands of New Zealand where the cattle are tracked throughout their life and has never had BSE or FMD meaning it has the lowest possible viral risk.</t>
         </is>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>Gentamicin Reagent Solution is effective against gram-positive and gram-negative bacteria, as well as mycoplasma.</t>
-        </is>
-      </c>
-      <c r="V186" t="inlineStr">
-        <is>
-          <t>A - K, Aminoglycosides, Analytical/Chromatography, Antibacterial, Antibiotic powders, Antibiotics, Antibiotics A to Z, Antibiotics G-M, Antibiotics by Application, Bioactive Small Molecules, Biochemicals and Reagents, Cell Biology, Cell Culture, Chemical Structure Class, Core Bioreagents, G, Genetic Marker Selection, Interferes with Protein Synthesis, Mechanism of Action, Pharmacopoeia, Pharmacopoeia A-Z, Pharmacopoeial Antibiotics, Reagents and Supplements, Research Essentials, Spectrum of Activity</t>
-        </is>
+          <t>&lt;p&gt;Fetal Bovine Serum (FBS) is the growth supplement of choice in cell culture due to its high level of nutrients. This CellMaxx FBS comes from the pristine grasslands of New Zealand where the cattle are tracked throughout their life and has never had BSE or FMD meaning it has the lowest possible viral risk. It is produced to the highest standards to ensure product performance and viral safety while maintaining minimal lot-to-lot variability. Each lot is tested in MBDK, hybridoma, MRC-5 and Vero cell lines for growth promotion. The absence of ten viruses is confirmed according to 9CFR.&lt;br&gt;Endotoxin: 5IU/ mL&lt;br&gt;IgG: 400 mg/ L&lt;br&gt;Hemoglobin: &lt;18 mg/ mL&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="V186" t="n">
+        <v/>
       </c>
       <c r="W186" t="n">
         <v/>
@@ -25581,7 +25581,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>092001344</t>
+          <t>113066132</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -25629,17 +25629,17 @@
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>ITS PREMIX SOLUTION, 5 ML</t>
+          <t>CASEIN PEPTONE, 1 KG</t>
         </is>
       </c>
       <c r="T187" t="inlineStr">
         <is>
-          <t>ITS Premix stimulates cell proliferation while decreasing substantially the serum requirements for culture of many cell types. Contains 0.5 mg/ml insulin from bovine pancreas, 0.5 mg/ml human transferrin (substantially iron-free) and 0.5 µg/ml sodium selenite. Prepared in Earle's balanced Salt Solution (EBSS) without phenol red. Sterile-filtered.</t>
+          <t>Casein Peptone, Type I. Casein Peptone is supplemented to microbiological growth media.</t>
         </is>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>ITS Premix will stimulate cell proliferation while decreasing substantially the serum requirements for culture of many cell types as diverse, for example, as contractile rat heart cells and human colon mucosal epithelial cells. Basal media supplemented with ITS Premix and as little as 2% Fetal Bovine Serum support proliferation of many diploid and heteroploid cell lines at rates equivalent to those obtained with 10% serum. Contains 0.5 mg/ml insulin from bovine pancreas, 0.5 mg/ml human transferrin (substantially iron-free) and 0.5 ug/ml sodium selenite. Prepared in Earle's balanced Salt Solution (EBSS) without phenol red. Sterile-filtered.</t>
+          <t>Casein Peptone, Type I.</t>
         </is>
       </c>
       <c r="V187" t="n">
@@ -25712,7 +25712,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>092633020</t>
+          <t>113070044</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -25760,17 +25760,17 @@
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>MURASHIGE AND SKOOG PLANT SALT MIXTURE W/O AGAR, 10 X 1 L</t>
+          <t>SM BUFFER (STERILE SOLUTION), 500 ML</t>
         </is>
       </c>
       <c r="T188" t="inlineStr">
         <is>
-          <t>Murashige and Skoog basal salt medium for plants growth and plant tissue culture.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>Murashige and Skoog Medium contains Murashige and Skoog salts, as well as a mixture of vitamins. This modification of the original formula does not contain agar. Murashige and Skoog Medium is widely used plant tissue culture growth medium. It has been proven effective in the culture of tissue derived from moncotyledons and dicotyledons. This medium, originally formulated to support tobacco callus, has been used to support callus initiation and growth, the growth of cells in suspension culture and the regeneration of shoots and plantlets from explants. More recently, it has been used for micropropagation of ornamental, vegetable and fruit plants in research and commercial enterprises.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V188" t="n">
@@ -25843,7 +25843,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>092910154</t>
+          <t>113100132</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -25891,23 +25891,21 @@
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>FETAL BOVINE SERUM (FBS), SOUTH-AMERICAN ORIGIN, 500 ML</t>
+          <t>CIRCLEGROW AGAR, 908 G</t>
         </is>
       </c>
       <c r="T189" t="inlineStr">
         <is>
-          <t>Fetal Bovine Serum (FBS) is produced to the highest standards to ensure product performance and safety with minimal risk and lot-to-lot variability. MP Biomedicals system of vertical integration provides certainty of the South American origin and traceability of this FBS.</t>
+          <t>Circlegrow agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
         </is>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>Fetal Bovine Serum (FBS) is the growth supplement of choice for cell culture due to its high level of nutrients. Most cell types and cell culture systems will benefit from the inclusion of FBS in growth media. It is produced to the highest standards to ensure product performance and safety with minimal risk and lot-to-lot variability. MP Biomedicals system of vertical integration provides certainty of the South American origin and traceability of this FBS.&lt;/p&gt;&lt;br&gt;&lt;p&gt;Final Filter Size: 0.1&amp;micro;m x 3&lt;/p&gt;&lt;br&gt;&lt;p&gt;Sterility: All sera are tested for the absence of aerobic and anaerobic bacteria, fungi, yeast and Mycoplasma absence&lt;/p&gt;&lt;br&gt;&lt;p&gt;Virus Tested: Bovine Viral Diarrhoea (BVD); Cytopathogenic agents, e.g. Infectious Bovine Rhinotracheitis (IBR) / BHV-1; Hemadsorbing agents, e.g. Parainfluenza Type 3 (P13)&lt;/p&gt;&lt;br&gt;&lt;p&gt;Endotoxin: &lt; 30 EU/mL&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="V189" t="inlineStr">
-        <is>
-          <t>apoptosis and cell cycle,cell biology,cell culture,cell signaling,neuroscience,core bioreagents,fetal bovine serum,fbs,animal sera,general reagents,reagents,reagents for transfection,apoptosis related reagents,serum</t>
-        </is>
+          <t>CIRCLEGROWâ„¢ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
+        </is>
+      </c>
+      <c r="V189" t="n">
+        <v/>
       </c>
       <c r="W189" t="n">
         <v/>
@@ -25976,7 +25974,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>092916749</t>
+          <t>113100142</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -26024,23 +26022,21 @@
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>CELLECT FETAL BOVINE SERUM, GOLD, US ORIGIN, 100 ML</t>
+          <t>CIRCLEGROW AGAR, 2.3 KG</t>
         </is>
       </c>
       <c r="T190" t="inlineStr">
         <is>
-          <t>Superior fetal bovine serum for hybridoma cloning. Sterilized via filtration through multiple 0.1 micron filters.</t>
+          <t>Circlegrow agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
         </is>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>CELLect&amp;trade; Gold is collected from a U.S.D.A. regulated and monitored abattoir by technicians who work "on-site" where the fetal blood is aseptically collected via cardiac puncture. This raw material is transported to the production facility where it undergoes sterilization via filtration through multiple 0.1 micron filters. The care and diligence taken in handling the fetal serum minimizes cell lysis and other detrimental factors thereby reducing possible lysozyme and hemoglobin contamination. This translates into increased performance in the final product. It is superior for hybridoma cloning. It is supplied sterile, with no detectable mycoplasma or viral infection. Serum is an extremely complex mixture of many small and large biomolecules with different, physiologically balanced growth-promoting and growth inhibiting activities.</t>
-        </is>
-      </c>
-      <c r="V190" t="inlineStr">
-        <is>
-          <t>Apoptosis and Cell Cycle, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Core Bioreagents, Fetal Bovine Serum (FBS), Fetal Bovine Serum (FBS) and Other Animal Sera, General Reagents, Hybridoma Platform, Hybridoma Sera and Sera Substitutes, Life Science Reagents for Cell Culture, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Media / Serum, Other Apoptosis Related Reagents, Research Essentials, Serum, Serum-free Media</t>
-        </is>
+          <t>CIRCLEGROWâ„¢ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
+        </is>
+      </c>
+      <c r="V190" t="n">
+        <v/>
       </c>
       <c r="W190" t="n">
         <v/>
@@ -26109,7 +26105,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>092916754</t>
+          <t>113301100</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -26157,23 +26153,21 @@
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t>CELLECT FETAL BOVINE SERUM, GOLD, US ORIGIN, 500 ML</t>
+          <t>AGROBACTERIUM TRANSFORMATION KIT, 25 PREPS</t>
         </is>
       </c>
       <c r="T191" t="inlineStr">
         <is>
-          <t>Superior fetal bovine serum for hybridoma cloning. Sterilized via filtration through multiple 0.1 micron filters.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>CELLect&amp;trade; Gold is collected from a U.S.D.A. regulated and monitored abattoir by technicians who work "on-site" where the fetal blood is aseptically collected via cardiac puncture. This raw material is transported to the production facility where it undergoes sterilization via filtration through multiple 0.1 micron filters. The care and diligence taken in handling the fetal serum minimizes cell lysis and other detrimental factors thereby reducing possible lysozyme and hemoglobin contamination. This translates into increased performance in the final product. It is superior for hybridoma cloning. It is supplied sterile, with no detectable mycoplasma or viral infection. Serum is an extremely complex mixture of many small and large biomolecules with different, physiologically balanced growth-promoting and growth inhibiting activities.</t>
-        </is>
-      </c>
-      <c r="V191" t="inlineStr">
-        <is>
-          <t>Apoptosis and Cell Cycle, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Core Bioreagents, Fetal Bovine Serum (FBS), Fetal Bovine Serum (FBS) and Other Animal Sera, General Reagents, Hybridoma Platform, Hybridoma Sera and Sera Substitutes, Life Science Reagents for Cell Culture, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Media / Serum, Other Apoptosis Related Reagents, Research Essentials, Serum, Serum-free Media</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V191" t="n">
+        <v/>
       </c>
       <c r="W191" t="n">
         <v/>
@@ -26242,7 +26236,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>092917654</t>
+          <t>114026932</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -26290,17 +26284,17 @@
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>CELLMAXX; FETAL BOVINE SERUM, NEW ZEALAND ORIGIN, 500 ML</t>
+          <t>DOBA WITH 2% GALACTOSE, 1% RAFFINOSE, 1 KG</t>
         </is>
       </c>
       <c r="T192" t="inlineStr">
         <is>
-          <t>CellMaxx FBS comes from the pristine grasslands of New Zealand where the cattle are tracked throughout their life and has never had BSE or FMD meaning it has the lowest possible viral risk.</t>
+          <t>DOB 2% Galactose, 1% Raffinose allows for preparation of a custom synthetic defined yeast media and includes a complete yeast nitrogen base (YNB) composed of buffering salts, vitamins and trace elements, with Galactose and Raffinose as the carbon source and Agar.</t>
         </is>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Fetal Bovine Serum (FBS) is the growth supplement of choice in cell culture due to its high level of nutrients. This CellMaxx FBS comes from the pristine grasslands of New Zealand where the cattle are tracked throughout their life and has never had BSE or FMD meaning it has the lowest possible viral risk. It is produced to the highest standards to ensure product performance and viral safety while maintaining minimal lot-to-lot variability. Each lot is tested in MBDK, hybridoma, MRC-5 and Vero cell lines for growth promotion. The absence of ten viruses is confirmed according to 9CFR.&lt;br&gt;Endotoxin: 5IU/ mL&lt;br&gt;IgG: 400 mg/ L&lt;br&gt;Hemoglobin: &lt;18 mg/ mL&lt;/p&gt;</t>
+          <t>DOB 2% Galactose, 1% Raffinose allows for preparation of a custom synthetic defined yeast media and includes a complete yeast nitrogen base (YNB) composed of buffering salts, vitamins and trace elements, with Galactose and Raffinose as the carbon source and Agar.</t>
         </is>
       </c>
       <c r="V192" t="n">
@@ -26373,7 +26367,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>113066132</t>
+          <t>114029622</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -26421,17 +26415,17 @@
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>CASEIN PEPTONE, 1 KG</t>
+          <t>YNB W/O AMMONIUM SULFATE, W/O POTASSIUM PHOSPHATE, 454 G</t>
         </is>
       </c>
       <c r="T193" t="inlineStr">
         <is>
-          <t>Casein Peptone, Type I. Casein Peptone is supplemented to microbiological growth media.</t>
+          <t>Yeast Nitrogen Base is available with or without ammonium sulfate. YNB is composed of salts, vitamins and trace elements. Some component dropouts are available. To make your own synthetic defined yeast media, start with the YNB of your choice, add a carbon source, the appropriate amino acids, and agar if necessary. Bulk powder, easily weighed to make custom batch sizes</t>
         </is>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>Casein Peptone, Type I.</t>
+          <t>YNB is available with or without ammonium sulfate. YNB is composed of salts, vitamins and trace elements. Some component dropouts are available. To make your own synthetic defined yeast media, start with the YNB of your choice, add a carbon source, the appropriate amino acids, and agar if necessary.</t>
         </is>
       </c>
       <c r="V193" t="n">
@@ -26504,7 +26498,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>113070044</t>
+          <t>114420122</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -26552,17 +26546,17 @@
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>SM BUFFER (STERILE SOLUTION), 500 ML</t>
+          <t>SC-TRP-URA, 30 G</t>
         </is>
       </c>
       <c r="T194" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Dropout SC aminoacid mixture formulation (without L-Tryptophan, Uracil) for S. cerevisiae growth media. Also known as Hopkins Mixture and is available in complete and dropout formulations.</t>
         </is>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Double dropout formulation (without L-Tryptophan and Uracil) of Synthetic Complete Supplement Mixture (SC) of amino acids for S. cerevisiae growth media. Also known as Hopkins Mixture and is available in complete and dropout formulations.</t>
         </is>
       </c>
       <c r="V194" t="n">
@@ -26635,7 +26629,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>113100132</t>
+          <t>116002554</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -26683,17 +26677,17 @@
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>CIRCLEGROW AGAR, 908 G</t>
+          <t>SPRING FOR FP24</t>
         </is>
       </c>
       <c r="T195" t="inlineStr">
         <is>
-          <t>Circlegrow agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
+          <t>FastPrep-24 parts and accessories.</t>
         </is>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>CIRCLEGROWâ„¢ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V195" t="n">
@@ -26766,7 +26760,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>113100142</t>
+          <t>116550900</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -26814,17 +26808,17 @@
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>CIRCLEGROW AGAR, 2.3 KG</t>
+          <t>FASTGLYCOPROTEIN ISOLATION KIT, WGA RESIN, 1 KIT, 10 PREPS</t>
         </is>
       </c>
       <c r="T196" t="inlineStr">
         <is>
-          <t>Circlegrow agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
+          <t>Kit for the isolation of glycoprotein from complex protein mixtures including animal and plant tissue, cultured cells as well as microbe and insect, using the lectin Wheat Germ Agglutinin (WGA) immobilized on agarose.</t>
         </is>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>CIRCLEGROWâ„¢ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V196" t="n">
@@ -26897,7 +26891,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>113301100</t>
+          <t>116914801</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -26945,7 +26939,7 @@
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>AGROBACTERIUM TRANSFORMATION KIT, 25 PREPS</t>
+          <t>4MM GLASS BEADS</t>
         </is>
       </c>
       <c r="T197" t="inlineStr">
@@ -27028,7 +27022,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>114026932</t>
+          <t>116950000</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -27076,17 +27070,17 @@
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>DOBA WITH 2% GALACTOSE, 1% RAFFINOSE, 1 KG</t>
+          <t>50 ML CONICAL TUBES, PACK OF 25</t>
         </is>
       </c>
       <c r="T198" t="inlineStr">
         <is>
-          <t>DOB 2% Galactose, 1% Raffinose allows for preparation of a custom synthetic defined yeast media and includes a complete yeast nitrogen base (YNB) composed of buffering salts, vitamins and trace elements, with Galactose and Raffinose as the carbon source and Agar.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>DOB 2% Galactose, 1% Raffinose allows for preparation of a custom synthetic defined yeast media and includes a complete yeast nitrogen base (YNB) composed of buffering salts, vitamins and trace elements, with Galactose and Raffinose as the carbon source and Agar.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V198" t="n">
@@ -27159,7 +27153,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>114029622</t>
+          <t>116954100</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -27207,21 +27201,23 @@
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t>YNB W/O AMMONIUM SULFATE, W/O POTASSIUM PHOSPHATE, 454 G</t>
+          <t>BIGPREP;; LYSING MATRIX E, PACK OF 100</t>
         </is>
       </c>
       <c r="T199" t="inlineStr">
         <is>
-          <t>Yeast Nitrogen Base is available with or without ammonium sulfate. YNB is composed of salts, vitamins and trace elements. Some component dropouts are available. To make your own synthetic defined yeast media, start with the YNB of your choice, add a carbon source, the appropriate amino acids, and agar if necessary. Bulk powder, easily weighed to make custom batch sizes</t>
+          <t>Primarily used for environmental samples such as soil, sludge, wastewater and feces.</t>
         </is>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>YNB is available with or without ammonium sulfate. YNB is composed of salts, vitamins and trace elements. Some component dropouts are available. To make your own synthetic defined yeast media, start with the YNB of your choice, add a carbon source, the appropriate amino acids, and agar if necessary.</t>
-        </is>
-      </c>
-      <c r="V199" t="n">
-        <v/>
+          <t>Lysing Matrix E 50 mL Tube contains 1.4 ceramic spheres, 0.1 mm silica spheres and 25, 4 mm glass beads. Will not bind nucleic acids. Ideal for use on FastPrep&amp;reg; Instruments and any other homogenizer, grinder or bead-beating device.</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>extraction, purification, sample preparation, 50 mL tubes, ceramic beads, zirconium oxide spheres, glass spheres, silica spheres, dna purification, rna purification, plant tissue, soil, environmental samples, sludge, wastewater, feces</t>
+        </is>
       </c>
       <c r="W199" t="n">
         <v/>
@@ -27290,7 +27286,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>114420122</t>
+          <t>116990100</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -27338,21 +27334,23 @@
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>SC-TRP-URA, 30 G</t>
+          <t>REPLACEMENT O-RINGS FOR METAL LYSING TUBE, 2 ML, 50 EACH</t>
         </is>
       </c>
       <c r="T200" t="inlineStr">
         <is>
-          <t>Dropout SC aminoacid mixture formulation (without L-Tryptophan, Uracil) for S. cerevisiae growth media. Also known as Hopkins Mixture and is available in complete and dropout formulations.</t>
+          <t>Replacement teflon o-ring used in the cap of a SS Lysing Matrix tube to provide a leak-proof closure.</t>
         </is>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>Double dropout formulation (without L-Tryptophan and Uracil) of Synthetic Complete Supplement Mixture (SC) of amino acids for S. cerevisiae growth media. Also known as Hopkins Mixture and is available in complete and dropout formulations.</t>
-        </is>
-      </c>
-      <c r="V200" t="n">
-        <v/>
+          <t>Replacement o-rings made of teflon designed to be inserted in the cap of the metal Lysing Matrix tubes to provide a leak-proof closure.</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>plastic o-ring, lysing tube o-ring</t>
+        </is>
       </c>
       <c r="W200" t="n">
         <v/>
@@ -27421,7 +27419,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>115065010</t>
+          <t>11AGAH0100</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -27469,21 +27467,23 @@
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>SCREW CAP, BLUE, FOR 2 ML LYSING MATRIX TUBES, PACK OF 5000</t>
+          <t>AGAROSE, MOLECULAR BIOLOGY GRADE, 100 G</t>
         </is>
       </c>
       <c r="T201" t="inlineStr">
         <is>
-          <t>Caps for 2 mL screw cap tubes. For use on FastPrep instruments or any bead beater.</t>
+          <t>Agarose optimal for analytical and preparative purpose. It is a very low electroendosmosis agarose. Provides superior separation. Ideal for plasmide preparation, PCR fragment analysis as well as cloning.</t>
         </is>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>Blue Caps fit 2 mL screw cap tubes and are ideal for high-speed sample preparation instruments.</t>
-        </is>
-      </c>
-      <c r="V201" t="n">
-        <v/>
+          <t>Standard agarose is a purified linear galactan hydrocolloid isolated from agar or agar-bearing marine algae with an Electroendoosmosis (EEO) value of 0.12 making it an essential component in chemical separation techniques.</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>CMV,Cytomegalovirus,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
+        </is>
       </c>
       <c r="W201" t="n">
         <v/>
@@ -27552,7 +27552,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>115067010</t>
+          <t>11BIAC2902</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -27600,21 +27600,23 @@
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>SCREW CAP, GREEN, FOR 2 ML LYSING MATRIX TUBES, PACK OF 5000</t>
+          <t>40% (W/V) ACRYLAMIDE-BIS-ACRYL 29:1 SOLUTION, 1 L</t>
         </is>
       </c>
       <c r="T202" t="inlineStr">
         <is>
-          <t>Caps for 2 mL screw cap tubes. For use on FastPrep instruments or any bead beater.</t>
+          <t>Convenient ready-to-use solutions of 4X high quality acrylamide for molecular biology, and NN&amp;rsquo;-methylenebisacrylamide in deonised water. Concentration is based on the total weight of both the acrylamide and bis-acrylamide.</t>
         </is>
       </c>
       <c r="U202" t="inlineStr">
         <is>
-          <t>Green Caps fit 2 mL screw cap tubes and are ideal for high-speed sample preparation instruments.</t>
-        </is>
-      </c>
-      <c r="V202" t="n">
-        <v/>
+          <t>Acrylamide/Bis-acrylamide 29:1 is convenient ready-to-use solutions of 4X crystalized high quality acrylamide for molecular biology, and NN&amp;rsquo;-Methylenebisacrylamide in deonised water. Premixed 19:1 liquid solution eliminates the need to weigh toxic acrylamide and bis-acrylamide. The concentration is based on the total weight of both the acrylamide and bis-acrylamide.</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>Bordetella Pertussis,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
+        </is>
       </c>
       <c r="W202" t="n">
         <v/>
@@ -27683,7 +27685,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>116002505</t>
+          <t>11EPHSP025</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -27731,17 +27733,17 @@
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>BOWL, 1 EACH</t>
+          <t>SUREPRIME DNA POLYMERASE, 250 U</t>
         </is>
       </c>
       <c r="T203" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Chemically modified hot-start Taq DNA polymerase that delivers highly specific amplification.</t>
         </is>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SurePRIMEâ„¢ DNA Polymerase is a thermostable polymerase that is suitable for all PCR applications requiring â€œhot startâ€ conditions.</t>
         </is>
       </c>
       <c r="V203" t="n">
@@ -27814,7 +27816,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>116002509</t>
+          <t>11FORMD002</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -27862,21 +27864,23 @@
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>LOCK PINS FOR DOME LOCKING</t>
+          <t>FORMAMIDE DEIONIZED, 500 ML</t>
         </is>
       </c>
       <c r="T204" t="inlineStr">
         <is>
-          <t>Replacement locking pins  for FastPrep-24 Classic dome.</t>
+          <t>Deionized Formamide for use in molecular biology and as a denaturing agent for nucleic acids in gel electrophoresis or hybridization experiments.</t>
         </is>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V204" t="n">
-        <v/>
+          <t>Deionized Formamide is used in molecular biology and a denaturing agent for nucleic acids in gel electrophoresis orr hybridization experiments. In the latter case the role of formamide is to decrease the temperature necessary for the reassociation of complementary nucleic acids.</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>hsCRP,High Sensitivity C-reactive Protein,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
+        </is>
       </c>
       <c r="W204" t="n">
         <v/>
@@ -27945,7 +27949,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>116002515</t>
+          <t>11NTATP100</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -27993,12 +27997,12 @@
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>RUBBER SHOE</t>
+          <t>DATP (25 ΜM)</t>
         </is>
       </c>
       <c r="T205" t="inlineStr">
         <is>
-          <t>Replacement part for FastPrep-24.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U205" t="inlineStr">
@@ -28076,7 +28080,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>116002516</t>
+          <t>11NTCTP100</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -28124,7 +28128,7 @@
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>FUSE 6.3 AMP-UL, PACK OF 4</t>
+          <t>DCTP (25 ΜM)</t>
         </is>
       </c>
       <c r="T206" t="inlineStr">
@@ -28207,7 +28211,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>116002519</t>
+          <t>11NTGTP100</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -28255,7 +28259,7 @@
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>3-PIN FLAT AC CORD-FOR USA</t>
+          <t>DGTP (25 ΜM)</t>
         </is>
       </c>
       <c r="T207" t="inlineStr">
@@ -28338,7 +28342,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>116002554</t>
+          <t>11NTTTP100</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -28386,12 +28390,12 @@
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>SPRING FOR FP24</t>
+          <t>DTTP (25 M)</t>
         </is>
       </c>
       <c r="T208" t="inlineStr">
         <is>
-          <t>FastPrep-24 parts and accessories.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U208" t="inlineStr">
@@ -28469,7 +28473,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>116550900</t>
+          <t>11RIST1373</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -28517,12 +28521,12 @@
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>FASTGLYCOPROTEIN ISOLATION KIT, WGA RESIN, 1 KIT, 10 PREPS</t>
+          <t>PROTEINASE K, &gt;30 MANSON U/MG, 100 MG</t>
         </is>
       </c>
       <c r="T209" t="inlineStr">
         <is>
-          <t>Kit for the isolation of glycoprotein from complex protein mixtures including animal and plant tissue, cultured cells as well as microbe and insect, using the lectin Wheat Germ Agglutinin (WGA) immobilized on agarose.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U209" t="inlineStr">
@@ -28530,8 +28534,10 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="V209" t="n">
-        <v/>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>Toxoplasma gondii,Toxoplasmosis,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
+        </is>
       </c>
       <c r="W209" t="n">
         <v/>
@@ -28582,1985 +28588,6 @@
         <v/>
       </c>
       <c r="AM209" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v/>
-      </c>
-      <c r="B210" t="n">
-        <v/>
-      </c>
-      <c r="C210" t="n">
-        <v/>
-      </c>
-      <c r="D210" t="n">
-        <v/>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>116914801</t>
-        </is>
-      </c>
-      <c r="F210" t="n">
-        <v/>
-      </c>
-      <c r="G210" t="n">
-        <v/>
-      </c>
-      <c r="H210" t="n">
-        <v/>
-      </c>
-      <c r="I210" t="n">
-        <v/>
-      </c>
-      <c r="J210" t="n">
-        <v/>
-      </c>
-      <c r="K210" t="n">
-        <v/>
-      </c>
-      <c r="L210" t="n">
-        <v/>
-      </c>
-      <c r="M210" t="n">
-        <v/>
-      </c>
-      <c r="N210" t="n">
-        <v/>
-      </c>
-      <c r="O210" t="n">
-        <v/>
-      </c>
-      <c r="P210" t="n">
-        <v/>
-      </c>
-      <c r="Q210" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R210" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S210" t="inlineStr">
-        <is>
-          <t>4MM GLASS BEADS</t>
-        </is>
-      </c>
-      <c r="T210" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U210" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V210" t="n">
-        <v/>
-      </c>
-      <c r="W210" t="n">
-        <v/>
-      </c>
-      <c r="X210" t="n">
-        <v/>
-      </c>
-      <c r="Y210" t="n">
-        <v/>
-      </c>
-      <c r="Z210" t="n">
-        <v/>
-      </c>
-      <c r="AA210" t="n">
-        <v/>
-      </c>
-      <c r="AB210" t="n">
-        <v/>
-      </c>
-      <c r="AC210" t="n">
-        <v/>
-      </c>
-      <c r="AD210" t="n">
-        <v/>
-      </c>
-      <c r="AE210" t="n">
-        <v/>
-      </c>
-      <c r="AF210" t="n">
-        <v/>
-      </c>
-      <c r="AG210" t="n">
-        <v/>
-      </c>
-      <c r="AH210" t="n">
-        <v/>
-      </c>
-      <c r="AI210" t="n">
-        <v/>
-      </c>
-      <c r="AJ210" t="n">
-        <v/>
-      </c>
-      <c r="AK210" t="n">
-        <v/>
-      </c>
-      <c r="AL210" t="n">
-        <v/>
-      </c>
-      <c r="AM210" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v/>
-      </c>
-      <c r="B211" t="n">
-        <v/>
-      </c>
-      <c r="C211" t="n">
-        <v/>
-      </c>
-      <c r="D211" t="n">
-        <v/>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>116950000</t>
-        </is>
-      </c>
-      <c r="F211" t="n">
-        <v/>
-      </c>
-      <c r="G211" t="n">
-        <v/>
-      </c>
-      <c r="H211" t="n">
-        <v/>
-      </c>
-      <c r="I211" t="n">
-        <v/>
-      </c>
-      <c r="J211" t="n">
-        <v/>
-      </c>
-      <c r="K211" t="n">
-        <v/>
-      </c>
-      <c r="L211" t="n">
-        <v/>
-      </c>
-      <c r="M211" t="n">
-        <v/>
-      </c>
-      <c r="N211" t="n">
-        <v/>
-      </c>
-      <c r="O211" t="n">
-        <v/>
-      </c>
-      <c r="P211" t="n">
-        <v/>
-      </c>
-      <c r="Q211" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R211" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S211" t="inlineStr">
-        <is>
-          <t>50 ML CONICAL TUBES, PACK OF 25</t>
-        </is>
-      </c>
-      <c r="T211" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U211" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V211" t="n">
-        <v/>
-      </c>
-      <c r="W211" t="n">
-        <v/>
-      </c>
-      <c r="X211" t="n">
-        <v/>
-      </c>
-      <c r="Y211" t="n">
-        <v/>
-      </c>
-      <c r="Z211" t="n">
-        <v/>
-      </c>
-      <c r="AA211" t="n">
-        <v/>
-      </c>
-      <c r="AB211" t="n">
-        <v/>
-      </c>
-      <c r="AC211" t="n">
-        <v/>
-      </c>
-      <c r="AD211" t="n">
-        <v/>
-      </c>
-      <c r="AE211" t="n">
-        <v/>
-      </c>
-      <c r="AF211" t="n">
-        <v/>
-      </c>
-      <c r="AG211" t="n">
-        <v/>
-      </c>
-      <c r="AH211" t="n">
-        <v/>
-      </c>
-      <c r="AI211" t="n">
-        <v/>
-      </c>
-      <c r="AJ211" t="n">
-        <v/>
-      </c>
-      <c r="AK211" t="n">
-        <v/>
-      </c>
-      <c r="AL211" t="n">
-        <v/>
-      </c>
-      <c r="AM211" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v/>
-      </c>
-      <c r="B212" t="n">
-        <v/>
-      </c>
-      <c r="C212" t="n">
-        <v/>
-      </c>
-      <c r="D212" t="n">
-        <v/>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>116954100</t>
-        </is>
-      </c>
-      <c r="F212" t="n">
-        <v/>
-      </c>
-      <c r="G212" t="n">
-        <v/>
-      </c>
-      <c r="H212" t="n">
-        <v/>
-      </c>
-      <c r="I212" t="n">
-        <v/>
-      </c>
-      <c r="J212" t="n">
-        <v/>
-      </c>
-      <c r="K212" t="n">
-        <v/>
-      </c>
-      <c r="L212" t="n">
-        <v/>
-      </c>
-      <c r="M212" t="n">
-        <v/>
-      </c>
-      <c r="N212" t="n">
-        <v/>
-      </c>
-      <c r="O212" t="n">
-        <v/>
-      </c>
-      <c r="P212" t="n">
-        <v/>
-      </c>
-      <c r="Q212" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R212" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S212" t="inlineStr">
-        <is>
-          <t>BIGPREP;; LYSING MATRIX E, PACK OF 100</t>
-        </is>
-      </c>
-      <c r="T212" t="inlineStr">
-        <is>
-          <t>Primarily used for environmental samples such as soil, sludge, wastewater and feces.</t>
-        </is>
-      </c>
-      <c r="U212" t="inlineStr">
-        <is>
-          <t>Lysing Matrix E 50 mL Tube contains 1.4 ceramic spheres, 0.1 mm silica spheres and 25, 4 mm glass beads. Will not bind nucleic acids. Ideal for use on FastPrep&amp;reg; Instruments and any other homogenizer, grinder or bead-beating device.</t>
-        </is>
-      </c>
-      <c r="V212" t="inlineStr">
-        <is>
-          <t>extraction, purification, sample preparation, 50 mL tubes, ceramic beads, zirconium oxide spheres, glass spheres, silica spheres, dna purification, rna purification, plant tissue, soil, environmental samples, sludge, wastewater, feces</t>
-        </is>
-      </c>
-      <c r="W212" t="n">
-        <v/>
-      </c>
-      <c r="X212" t="n">
-        <v/>
-      </c>
-      <c r="Y212" t="n">
-        <v/>
-      </c>
-      <c r="Z212" t="n">
-        <v/>
-      </c>
-      <c r="AA212" t="n">
-        <v/>
-      </c>
-      <c r="AB212" t="n">
-        <v/>
-      </c>
-      <c r="AC212" t="n">
-        <v/>
-      </c>
-      <c r="AD212" t="n">
-        <v/>
-      </c>
-      <c r="AE212" t="n">
-        <v/>
-      </c>
-      <c r="AF212" t="n">
-        <v/>
-      </c>
-      <c r="AG212" t="n">
-        <v/>
-      </c>
-      <c r="AH212" t="n">
-        <v/>
-      </c>
-      <c r="AI212" t="n">
-        <v/>
-      </c>
-      <c r="AJ212" t="n">
-        <v/>
-      </c>
-      <c r="AK212" t="n">
-        <v/>
-      </c>
-      <c r="AL212" t="n">
-        <v/>
-      </c>
-      <c r="AM212" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v/>
-      </c>
-      <c r="B213" t="n">
-        <v/>
-      </c>
-      <c r="C213" t="n">
-        <v/>
-      </c>
-      <c r="D213" t="n">
-        <v/>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>116990100</t>
-        </is>
-      </c>
-      <c r="F213" t="n">
-        <v/>
-      </c>
-      <c r="G213" t="n">
-        <v/>
-      </c>
-      <c r="H213" t="n">
-        <v/>
-      </c>
-      <c r="I213" t="n">
-        <v/>
-      </c>
-      <c r="J213" t="n">
-        <v/>
-      </c>
-      <c r="K213" t="n">
-        <v/>
-      </c>
-      <c r="L213" t="n">
-        <v/>
-      </c>
-      <c r="M213" t="n">
-        <v/>
-      </c>
-      <c r="N213" t="n">
-        <v/>
-      </c>
-      <c r="O213" t="n">
-        <v/>
-      </c>
-      <c r="P213" t="n">
-        <v/>
-      </c>
-      <c r="Q213" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R213" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S213" t="inlineStr">
-        <is>
-          <t>REPLACEMENT O-RINGS FOR METAL LYSING TUBE, 2 ML, 50 EACH</t>
-        </is>
-      </c>
-      <c r="T213" t="inlineStr">
-        <is>
-          <t>Replacement teflon o-ring used in the cap of a SS Lysing Matrix tube to provide a leak-proof closure.</t>
-        </is>
-      </c>
-      <c r="U213" t="inlineStr">
-        <is>
-          <t>Replacement o-rings made of teflon designed to be inserted in the cap of the metal Lysing Matrix tubes to provide a leak-proof closure.</t>
-        </is>
-      </c>
-      <c r="V213" t="inlineStr">
-        <is>
-          <t>plastic o-ring, lysing tube o-ring</t>
-        </is>
-      </c>
-      <c r="W213" t="n">
-        <v/>
-      </c>
-      <c r="X213" t="n">
-        <v/>
-      </c>
-      <c r="Y213" t="n">
-        <v/>
-      </c>
-      <c r="Z213" t="n">
-        <v/>
-      </c>
-      <c r="AA213" t="n">
-        <v/>
-      </c>
-      <c r="AB213" t="n">
-        <v/>
-      </c>
-      <c r="AC213" t="n">
-        <v/>
-      </c>
-      <c r="AD213" t="n">
-        <v/>
-      </c>
-      <c r="AE213" t="n">
-        <v/>
-      </c>
-      <c r="AF213" t="n">
-        <v/>
-      </c>
-      <c r="AG213" t="n">
-        <v/>
-      </c>
-      <c r="AH213" t="n">
-        <v/>
-      </c>
-      <c r="AI213" t="n">
-        <v/>
-      </c>
-      <c r="AJ213" t="n">
-        <v/>
-      </c>
-      <c r="AK213" t="n">
-        <v/>
-      </c>
-      <c r="AL213" t="n">
-        <v/>
-      </c>
-      <c r="AM213" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v/>
-      </c>
-      <c r="B214" t="n">
-        <v/>
-      </c>
-      <c r="C214" t="n">
-        <v/>
-      </c>
-      <c r="D214" t="n">
-        <v/>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>11AGAH0100</t>
-        </is>
-      </c>
-      <c r="F214" t="n">
-        <v/>
-      </c>
-      <c r="G214" t="n">
-        <v/>
-      </c>
-      <c r="H214" t="n">
-        <v/>
-      </c>
-      <c r="I214" t="n">
-        <v/>
-      </c>
-      <c r="J214" t="n">
-        <v/>
-      </c>
-      <c r="K214" t="n">
-        <v/>
-      </c>
-      <c r="L214" t="n">
-        <v/>
-      </c>
-      <c r="M214" t="n">
-        <v/>
-      </c>
-      <c r="N214" t="n">
-        <v/>
-      </c>
-      <c r="O214" t="n">
-        <v/>
-      </c>
-      <c r="P214" t="n">
-        <v/>
-      </c>
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R214" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t>AGAROSE, MOLECULAR BIOLOGY GRADE, 100 G</t>
-        </is>
-      </c>
-      <c r="T214" t="inlineStr">
-        <is>
-          <t>Agarose optimal for analytical and preparative purpose. It is a very low electroendosmosis agarose. Provides superior separation. Ideal for plasmide preparation, PCR fragment analysis as well as cloning.</t>
-        </is>
-      </c>
-      <c r="U214" t="inlineStr">
-        <is>
-          <t>Standard agarose is a purified linear galactan hydrocolloid isolated from agar or agar-bearing marine algae with an Electroendoosmosis (EEO) value of 0.12 making it an essential component in chemical separation techniques.</t>
-        </is>
-      </c>
-      <c r="V214" t="inlineStr">
-        <is>
-          <t>CMV,Cytomegalovirus,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
-        </is>
-      </c>
-      <c r="W214" t="n">
-        <v/>
-      </c>
-      <c r="X214" t="n">
-        <v/>
-      </c>
-      <c r="Y214" t="n">
-        <v/>
-      </c>
-      <c r="Z214" t="n">
-        <v/>
-      </c>
-      <c r="AA214" t="n">
-        <v/>
-      </c>
-      <c r="AB214" t="n">
-        <v/>
-      </c>
-      <c r="AC214" t="n">
-        <v/>
-      </c>
-      <c r="AD214" t="n">
-        <v/>
-      </c>
-      <c r="AE214" t="n">
-        <v/>
-      </c>
-      <c r="AF214" t="n">
-        <v/>
-      </c>
-      <c r="AG214" t="n">
-        <v/>
-      </c>
-      <c r="AH214" t="n">
-        <v/>
-      </c>
-      <c r="AI214" t="n">
-        <v/>
-      </c>
-      <c r="AJ214" t="n">
-        <v/>
-      </c>
-      <c r="AK214" t="n">
-        <v/>
-      </c>
-      <c r="AL214" t="n">
-        <v/>
-      </c>
-      <c r="AM214" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v/>
-      </c>
-      <c r="B215" t="n">
-        <v/>
-      </c>
-      <c r="C215" t="n">
-        <v/>
-      </c>
-      <c r="D215" t="n">
-        <v/>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>11BIAC2902</t>
-        </is>
-      </c>
-      <c r="F215" t="n">
-        <v/>
-      </c>
-      <c r="G215" t="n">
-        <v/>
-      </c>
-      <c r="H215" t="n">
-        <v/>
-      </c>
-      <c r="I215" t="n">
-        <v/>
-      </c>
-      <c r="J215" t="n">
-        <v/>
-      </c>
-      <c r="K215" t="n">
-        <v/>
-      </c>
-      <c r="L215" t="n">
-        <v/>
-      </c>
-      <c r="M215" t="n">
-        <v/>
-      </c>
-      <c r="N215" t="n">
-        <v/>
-      </c>
-      <c r="O215" t="n">
-        <v/>
-      </c>
-      <c r="P215" t="n">
-        <v/>
-      </c>
-      <c r="Q215" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R215" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t>40% (W/V) ACRYLAMIDE-BIS-ACRYL 29:1 SOLUTION, 1 L</t>
-        </is>
-      </c>
-      <c r="T215" t="inlineStr">
-        <is>
-          <t>Convenient ready-to-use solutions of 4X high quality acrylamide for molecular biology, and NN&amp;rsquo;-methylenebisacrylamide in deonised water. Concentration is based on the total weight of both the acrylamide and bis-acrylamide.</t>
-        </is>
-      </c>
-      <c r="U215" t="inlineStr">
-        <is>
-          <t>Acrylamide/Bis-acrylamide 29:1 is convenient ready-to-use solutions of 4X crystalized high quality acrylamide for molecular biology, and NN&amp;rsquo;-Methylenebisacrylamide in deonised water. Premixed 19:1 liquid solution eliminates the need to weigh toxic acrylamide and bis-acrylamide. The concentration is based on the total weight of both the acrylamide and bis-acrylamide.</t>
-        </is>
-      </c>
-      <c r="V215" t="inlineStr">
-        <is>
-          <t>Bordetella Pertussis,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
-        </is>
-      </c>
-      <c r="W215" t="n">
-        <v/>
-      </c>
-      <c r="X215" t="n">
-        <v/>
-      </c>
-      <c r="Y215" t="n">
-        <v/>
-      </c>
-      <c r="Z215" t="n">
-        <v/>
-      </c>
-      <c r="AA215" t="n">
-        <v/>
-      </c>
-      <c r="AB215" t="n">
-        <v/>
-      </c>
-      <c r="AC215" t="n">
-        <v/>
-      </c>
-      <c r="AD215" t="n">
-        <v/>
-      </c>
-      <c r="AE215" t="n">
-        <v/>
-      </c>
-      <c r="AF215" t="n">
-        <v/>
-      </c>
-      <c r="AG215" t="n">
-        <v/>
-      </c>
-      <c r="AH215" t="n">
-        <v/>
-      </c>
-      <c r="AI215" t="n">
-        <v/>
-      </c>
-      <c r="AJ215" t="n">
-        <v/>
-      </c>
-      <c r="AK215" t="n">
-        <v/>
-      </c>
-      <c r="AL215" t="n">
-        <v/>
-      </c>
-      <c r="AM215" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v/>
-      </c>
-      <c r="B216" t="n">
-        <v/>
-      </c>
-      <c r="C216" t="n">
-        <v/>
-      </c>
-      <c r="D216" t="n">
-        <v/>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>11EPHSP025</t>
-        </is>
-      </c>
-      <c r="F216" t="n">
-        <v/>
-      </c>
-      <c r="G216" t="n">
-        <v/>
-      </c>
-      <c r="H216" t="n">
-        <v/>
-      </c>
-      <c r="I216" t="n">
-        <v/>
-      </c>
-      <c r="J216" t="n">
-        <v/>
-      </c>
-      <c r="K216" t="n">
-        <v/>
-      </c>
-      <c r="L216" t="n">
-        <v/>
-      </c>
-      <c r="M216" t="n">
-        <v/>
-      </c>
-      <c r="N216" t="n">
-        <v/>
-      </c>
-      <c r="O216" t="n">
-        <v/>
-      </c>
-      <c r="P216" t="n">
-        <v/>
-      </c>
-      <c r="Q216" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R216" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S216" t="inlineStr">
-        <is>
-          <t>SUREPRIME DNA POLYMERASE, 250 U</t>
-        </is>
-      </c>
-      <c r="T216" t="inlineStr">
-        <is>
-          <t>Chemically modified hot-start Taq DNA polymerase that delivers highly specific amplification.</t>
-        </is>
-      </c>
-      <c r="U216" t="inlineStr">
-        <is>
-          <t>SurePRIMEâ„¢ DNA Polymerase is a thermostable polymerase that is suitable for all PCR applications requiring â€œhot startâ€ conditions.</t>
-        </is>
-      </c>
-      <c r="V216" t="n">
-        <v/>
-      </c>
-      <c r="W216" t="n">
-        <v/>
-      </c>
-      <c r="X216" t="n">
-        <v/>
-      </c>
-      <c r="Y216" t="n">
-        <v/>
-      </c>
-      <c r="Z216" t="n">
-        <v/>
-      </c>
-      <c r="AA216" t="n">
-        <v/>
-      </c>
-      <c r="AB216" t="n">
-        <v/>
-      </c>
-      <c r="AC216" t="n">
-        <v/>
-      </c>
-      <c r="AD216" t="n">
-        <v/>
-      </c>
-      <c r="AE216" t="n">
-        <v/>
-      </c>
-      <c r="AF216" t="n">
-        <v/>
-      </c>
-      <c r="AG216" t="n">
-        <v/>
-      </c>
-      <c r="AH216" t="n">
-        <v/>
-      </c>
-      <c r="AI216" t="n">
-        <v/>
-      </c>
-      <c r="AJ216" t="n">
-        <v/>
-      </c>
-      <c r="AK216" t="n">
-        <v/>
-      </c>
-      <c r="AL216" t="n">
-        <v/>
-      </c>
-      <c r="AM216" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v/>
-      </c>
-      <c r="B217" t="n">
-        <v/>
-      </c>
-      <c r="C217" t="n">
-        <v/>
-      </c>
-      <c r="D217" t="n">
-        <v/>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>11FORMD002</t>
-        </is>
-      </c>
-      <c r="F217" t="n">
-        <v/>
-      </c>
-      <c r="G217" t="n">
-        <v/>
-      </c>
-      <c r="H217" t="n">
-        <v/>
-      </c>
-      <c r="I217" t="n">
-        <v/>
-      </c>
-      <c r="J217" t="n">
-        <v/>
-      </c>
-      <c r="K217" t="n">
-        <v/>
-      </c>
-      <c r="L217" t="n">
-        <v/>
-      </c>
-      <c r="M217" t="n">
-        <v/>
-      </c>
-      <c r="N217" t="n">
-        <v/>
-      </c>
-      <c r="O217" t="n">
-        <v/>
-      </c>
-      <c r="P217" t="n">
-        <v/>
-      </c>
-      <c r="Q217" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R217" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S217" t="inlineStr">
-        <is>
-          <t>FORMAMIDE DEIONIZED, 500 ML</t>
-        </is>
-      </c>
-      <c r="T217" t="inlineStr">
-        <is>
-          <t>Deionized Formamide for use in molecular biology and as a denaturing agent for nucleic acids in gel electrophoresis or hybridization experiments.</t>
-        </is>
-      </c>
-      <c r="U217" t="inlineStr">
-        <is>
-          <t>Deionized Formamide is used in molecular biology and a denaturing agent for nucleic acids in gel electrophoresis orr hybridization experiments. In the latter case the role of formamide is to decrease the temperature necessary for the reassociation of complementary nucleic acids.</t>
-        </is>
-      </c>
-      <c r="V217" t="inlineStr">
-        <is>
-          <t>hsCRP,High Sensitivity C-reactive Protein,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
-        </is>
-      </c>
-      <c r="W217" t="n">
-        <v/>
-      </c>
-      <c r="X217" t="n">
-        <v/>
-      </c>
-      <c r="Y217" t="n">
-        <v/>
-      </c>
-      <c r="Z217" t="n">
-        <v/>
-      </c>
-      <c r="AA217" t="n">
-        <v/>
-      </c>
-      <c r="AB217" t="n">
-        <v/>
-      </c>
-      <c r="AC217" t="n">
-        <v/>
-      </c>
-      <c r="AD217" t="n">
-        <v/>
-      </c>
-      <c r="AE217" t="n">
-        <v/>
-      </c>
-      <c r="AF217" t="n">
-        <v/>
-      </c>
-      <c r="AG217" t="n">
-        <v/>
-      </c>
-      <c r="AH217" t="n">
-        <v/>
-      </c>
-      <c r="AI217" t="n">
-        <v/>
-      </c>
-      <c r="AJ217" t="n">
-        <v/>
-      </c>
-      <c r="AK217" t="n">
-        <v/>
-      </c>
-      <c r="AL217" t="n">
-        <v/>
-      </c>
-      <c r="AM217" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v/>
-      </c>
-      <c r="B218" t="n">
-        <v/>
-      </c>
-      <c r="C218" t="n">
-        <v/>
-      </c>
-      <c r="D218" t="n">
-        <v/>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>11INSC0106</t>
-        </is>
-      </c>
-      <c r="F218" t="n">
-        <v/>
-      </c>
-      <c r="G218" t="n">
-        <v/>
-      </c>
-      <c r="H218" t="n">
-        <v/>
-      </c>
-      <c r="I218" t="n">
-        <v/>
-      </c>
-      <c r="J218" t="n">
-        <v/>
-      </c>
-      <c r="K218" t="n">
-        <v/>
-      </c>
-      <c r="L218" t="n">
-        <v/>
-      </c>
-      <c r="M218" t="n">
-        <v/>
-      </c>
-      <c r="N218" t="n">
-        <v/>
-      </c>
-      <c r="O218" t="n">
-        <v/>
-      </c>
-      <c r="P218" t="n">
-        <v/>
-      </c>
-      <c r="Q218" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R218" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S218" t="inlineStr">
-        <is>
-          <t>AUTORADIOGRAPHY CASSETTE, 35 X 43, 14 X 17 CM</t>
-        </is>
-      </c>
-      <c r="T218" t="inlineStr">
-        <is>
-          <t>Specially designed for Southern and Northern applications. MP Bio cassettes can be used at temperatures as low as -80°C. The high quality materials used in manufacturing these cassettes insure outstanding durability.</t>
-        </is>
-      </c>
-      <c r="U218" t="inlineStr">
-        <is>
-          <t>Specially selected for molecular biology applications. MP Bio cassettes are designed for use at temperatures as low as -80°C. The high quality materials used in manufacturing these cassettes insure outsatnading durability.</t>
-        </is>
-      </c>
-      <c r="V218" t="inlineStr">
-        <is>
-          <t>Cortisol,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
-        </is>
-      </c>
-      <c r="W218" t="n">
-        <v/>
-      </c>
-      <c r="X218" t="n">
-        <v/>
-      </c>
-      <c r="Y218" t="n">
-        <v/>
-      </c>
-      <c r="Z218" t="n">
-        <v/>
-      </c>
-      <c r="AA218" t="n">
-        <v/>
-      </c>
-      <c r="AB218" t="n">
-        <v/>
-      </c>
-      <c r="AC218" t="n">
-        <v/>
-      </c>
-      <c r="AD218" t="n">
-        <v/>
-      </c>
-      <c r="AE218" t="n">
-        <v/>
-      </c>
-      <c r="AF218" t="n">
-        <v/>
-      </c>
-      <c r="AG218" t="n">
-        <v/>
-      </c>
-      <c r="AH218" t="n">
-        <v/>
-      </c>
-      <c r="AI218" t="n">
-        <v/>
-      </c>
-      <c r="AJ218" t="n">
-        <v/>
-      </c>
-      <c r="AK218" t="n">
-        <v/>
-      </c>
-      <c r="AL218" t="n">
-        <v/>
-      </c>
-      <c r="AM218" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v/>
-      </c>
-      <c r="B219" t="n">
-        <v/>
-      </c>
-      <c r="C219" t="n">
-        <v/>
-      </c>
-      <c r="D219" t="n">
-        <v/>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>11INSI6301</t>
-        </is>
-      </c>
-      <c r="F219" t="n">
-        <v/>
-      </c>
-      <c r="G219" t="n">
-        <v/>
-      </c>
-      <c r="H219" t="n">
-        <v/>
-      </c>
-      <c r="I219" t="n">
-        <v/>
-      </c>
-      <c r="J219" t="n">
-        <v/>
-      </c>
-      <c r="K219" t="n">
-        <v/>
-      </c>
-      <c r="L219" t="n">
-        <v/>
-      </c>
-      <c r="M219" t="n">
-        <v/>
-      </c>
-      <c r="N219" t="n">
-        <v/>
-      </c>
-      <c r="O219" t="n">
-        <v/>
-      </c>
-      <c r="P219" t="n">
-        <v/>
-      </c>
-      <c r="Q219" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R219" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S219" t="inlineStr">
-        <is>
-          <t>THERMAL PAPER STANDARD, 5 ROLLS</t>
-        </is>
-      </c>
-      <c r="T219" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U219" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V219" t="n">
-        <v/>
-      </c>
-      <c r="W219" t="n">
-        <v/>
-      </c>
-      <c r="X219" t="n">
-        <v/>
-      </c>
-      <c r="Y219" t="n">
-        <v/>
-      </c>
-      <c r="Z219" t="n">
-        <v/>
-      </c>
-      <c r="AA219" t="n">
-        <v/>
-      </c>
-      <c r="AB219" t="n">
-        <v/>
-      </c>
-      <c r="AC219" t="n">
-        <v/>
-      </c>
-      <c r="AD219" t="n">
-        <v/>
-      </c>
-      <c r="AE219" t="n">
-        <v/>
-      </c>
-      <c r="AF219" t="n">
-        <v/>
-      </c>
-      <c r="AG219" t="n">
-        <v/>
-      </c>
-      <c r="AH219" t="n">
-        <v/>
-      </c>
-      <c r="AI219" t="n">
-        <v/>
-      </c>
-      <c r="AJ219" t="n">
-        <v/>
-      </c>
-      <c r="AK219" t="n">
-        <v/>
-      </c>
-      <c r="AL219" t="n">
-        <v/>
-      </c>
-      <c r="AM219" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v/>
-      </c>
-      <c r="B220" t="n">
-        <v/>
-      </c>
-      <c r="C220" t="n">
-        <v/>
-      </c>
-      <c r="D220" t="n">
-        <v/>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>11NTATP100</t>
-        </is>
-      </c>
-      <c r="F220" t="n">
-        <v/>
-      </c>
-      <c r="G220" t="n">
-        <v/>
-      </c>
-      <c r="H220" t="n">
-        <v/>
-      </c>
-      <c r="I220" t="n">
-        <v/>
-      </c>
-      <c r="J220" t="n">
-        <v/>
-      </c>
-      <c r="K220" t="n">
-        <v/>
-      </c>
-      <c r="L220" t="n">
-        <v/>
-      </c>
-      <c r="M220" t="n">
-        <v/>
-      </c>
-      <c r="N220" t="n">
-        <v/>
-      </c>
-      <c r="O220" t="n">
-        <v/>
-      </c>
-      <c r="P220" t="n">
-        <v/>
-      </c>
-      <c r="Q220" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R220" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S220" t="inlineStr">
-        <is>
-          <t>DATP (25 ΜM)</t>
-        </is>
-      </c>
-      <c r="T220" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U220" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V220" t="n">
-        <v/>
-      </c>
-      <c r="W220" t="n">
-        <v/>
-      </c>
-      <c r="X220" t="n">
-        <v/>
-      </c>
-      <c r="Y220" t="n">
-        <v/>
-      </c>
-      <c r="Z220" t="n">
-        <v/>
-      </c>
-      <c r="AA220" t="n">
-        <v/>
-      </c>
-      <c r="AB220" t="n">
-        <v/>
-      </c>
-      <c r="AC220" t="n">
-        <v/>
-      </c>
-      <c r="AD220" t="n">
-        <v/>
-      </c>
-      <c r="AE220" t="n">
-        <v/>
-      </c>
-      <c r="AF220" t="n">
-        <v/>
-      </c>
-      <c r="AG220" t="n">
-        <v/>
-      </c>
-      <c r="AH220" t="n">
-        <v/>
-      </c>
-      <c r="AI220" t="n">
-        <v/>
-      </c>
-      <c r="AJ220" t="n">
-        <v/>
-      </c>
-      <c r="AK220" t="n">
-        <v/>
-      </c>
-      <c r="AL220" t="n">
-        <v/>
-      </c>
-      <c r="AM220" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v/>
-      </c>
-      <c r="B221" t="n">
-        <v/>
-      </c>
-      <c r="C221" t="n">
-        <v/>
-      </c>
-      <c r="D221" t="n">
-        <v/>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>11NTCTP100</t>
-        </is>
-      </c>
-      <c r="F221" t="n">
-        <v/>
-      </c>
-      <c r="G221" t="n">
-        <v/>
-      </c>
-      <c r="H221" t="n">
-        <v/>
-      </c>
-      <c r="I221" t="n">
-        <v/>
-      </c>
-      <c r="J221" t="n">
-        <v/>
-      </c>
-      <c r="K221" t="n">
-        <v/>
-      </c>
-      <c r="L221" t="n">
-        <v/>
-      </c>
-      <c r="M221" t="n">
-        <v/>
-      </c>
-      <c r="N221" t="n">
-        <v/>
-      </c>
-      <c r="O221" t="n">
-        <v/>
-      </c>
-      <c r="P221" t="n">
-        <v/>
-      </c>
-      <c r="Q221" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R221" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S221" t="inlineStr">
-        <is>
-          <t>DCTP (25 ΜM)</t>
-        </is>
-      </c>
-      <c r="T221" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U221" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V221" t="n">
-        <v/>
-      </c>
-      <c r="W221" t="n">
-        <v/>
-      </c>
-      <c r="X221" t="n">
-        <v/>
-      </c>
-      <c r="Y221" t="n">
-        <v/>
-      </c>
-      <c r="Z221" t="n">
-        <v/>
-      </c>
-      <c r="AA221" t="n">
-        <v/>
-      </c>
-      <c r="AB221" t="n">
-        <v/>
-      </c>
-      <c r="AC221" t="n">
-        <v/>
-      </c>
-      <c r="AD221" t="n">
-        <v/>
-      </c>
-      <c r="AE221" t="n">
-        <v/>
-      </c>
-      <c r="AF221" t="n">
-        <v/>
-      </c>
-      <c r="AG221" t="n">
-        <v/>
-      </c>
-      <c r="AH221" t="n">
-        <v/>
-      </c>
-      <c r="AI221" t="n">
-        <v/>
-      </c>
-      <c r="AJ221" t="n">
-        <v/>
-      </c>
-      <c r="AK221" t="n">
-        <v/>
-      </c>
-      <c r="AL221" t="n">
-        <v/>
-      </c>
-      <c r="AM221" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v/>
-      </c>
-      <c r="B222" t="n">
-        <v/>
-      </c>
-      <c r="C222" t="n">
-        <v/>
-      </c>
-      <c r="D222" t="n">
-        <v/>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>11NTGTP100</t>
-        </is>
-      </c>
-      <c r="F222" t="n">
-        <v/>
-      </c>
-      <c r="G222" t="n">
-        <v/>
-      </c>
-      <c r="H222" t="n">
-        <v/>
-      </c>
-      <c r="I222" t="n">
-        <v/>
-      </c>
-      <c r="J222" t="n">
-        <v/>
-      </c>
-      <c r="K222" t="n">
-        <v/>
-      </c>
-      <c r="L222" t="n">
-        <v/>
-      </c>
-      <c r="M222" t="n">
-        <v/>
-      </c>
-      <c r="N222" t="n">
-        <v/>
-      </c>
-      <c r="O222" t="n">
-        <v/>
-      </c>
-      <c r="P222" t="n">
-        <v/>
-      </c>
-      <c r="Q222" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R222" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S222" t="inlineStr">
-        <is>
-          <t>DGTP (25 ΜM)</t>
-        </is>
-      </c>
-      <c r="T222" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U222" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V222" t="n">
-        <v/>
-      </c>
-      <c r="W222" t="n">
-        <v/>
-      </c>
-      <c r="X222" t="n">
-        <v/>
-      </c>
-      <c r="Y222" t="n">
-        <v/>
-      </c>
-      <c r="Z222" t="n">
-        <v/>
-      </c>
-      <c r="AA222" t="n">
-        <v/>
-      </c>
-      <c r="AB222" t="n">
-        <v/>
-      </c>
-      <c r="AC222" t="n">
-        <v/>
-      </c>
-      <c r="AD222" t="n">
-        <v/>
-      </c>
-      <c r="AE222" t="n">
-        <v/>
-      </c>
-      <c r="AF222" t="n">
-        <v/>
-      </c>
-      <c r="AG222" t="n">
-        <v/>
-      </c>
-      <c r="AH222" t="n">
-        <v/>
-      </c>
-      <c r="AI222" t="n">
-        <v/>
-      </c>
-      <c r="AJ222" t="n">
-        <v/>
-      </c>
-      <c r="AK222" t="n">
-        <v/>
-      </c>
-      <c r="AL222" t="n">
-        <v/>
-      </c>
-      <c r="AM222" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v/>
-      </c>
-      <c r="B223" t="n">
-        <v/>
-      </c>
-      <c r="C223" t="n">
-        <v/>
-      </c>
-      <c r="D223" t="n">
-        <v/>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>11NTTTP100</t>
-        </is>
-      </c>
-      <c r="F223" t="n">
-        <v/>
-      </c>
-      <c r="G223" t="n">
-        <v/>
-      </c>
-      <c r="H223" t="n">
-        <v/>
-      </c>
-      <c r="I223" t="n">
-        <v/>
-      </c>
-      <c r="J223" t="n">
-        <v/>
-      </c>
-      <c r="K223" t="n">
-        <v/>
-      </c>
-      <c r="L223" t="n">
-        <v/>
-      </c>
-      <c r="M223" t="n">
-        <v/>
-      </c>
-      <c r="N223" t="n">
-        <v/>
-      </c>
-      <c r="O223" t="n">
-        <v/>
-      </c>
-      <c r="P223" t="n">
-        <v/>
-      </c>
-      <c r="Q223" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R223" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S223" t="inlineStr">
-        <is>
-          <t>DTTP (25 M)</t>
-        </is>
-      </c>
-      <c r="T223" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U223" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V223" t="n">
-        <v/>
-      </c>
-      <c r="W223" t="n">
-        <v/>
-      </c>
-      <c r="X223" t="n">
-        <v/>
-      </c>
-      <c r="Y223" t="n">
-        <v/>
-      </c>
-      <c r="Z223" t="n">
-        <v/>
-      </c>
-      <c r="AA223" t="n">
-        <v/>
-      </c>
-      <c r="AB223" t="n">
-        <v/>
-      </c>
-      <c r="AC223" t="n">
-        <v/>
-      </c>
-      <c r="AD223" t="n">
-        <v/>
-      </c>
-      <c r="AE223" t="n">
-        <v/>
-      </c>
-      <c r="AF223" t="n">
-        <v/>
-      </c>
-      <c r="AG223" t="n">
-        <v/>
-      </c>
-      <c r="AH223" t="n">
-        <v/>
-      </c>
-      <c r="AI223" t="n">
-        <v/>
-      </c>
-      <c r="AJ223" t="n">
-        <v/>
-      </c>
-      <c r="AK223" t="n">
-        <v/>
-      </c>
-      <c r="AL223" t="n">
-        <v/>
-      </c>
-      <c r="AM223" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v/>
-      </c>
-      <c r="B224" t="n">
-        <v/>
-      </c>
-      <c r="C224" t="n">
-        <v/>
-      </c>
-      <c r="D224" t="n">
-        <v/>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>11RIST1373</t>
-        </is>
-      </c>
-      <c r="F224" t="n">
-        <v/>
-      </c>
-      <c r="G224" t="n">
-        <v/>
-      </c>
-      <c r="H224" t="n">
-        <v/>
-      </c>
-      <c r="I224" t="n">
-        <v/>
-      </c>
-      <c r="J224" t="n">
-        <v/>
-      </c>
-      <c r="K224" t="n">
-        <v/>
-      </c>
-      <c r="L224" t="n">
-        <v/>
-      </c>
-      <c r="M224" t="n">
-        <v/>
-      </c>
-      <c r="N224" t="n">
-        <v/>
-      </c>
-      <c r="O224" t="n">
-        <v/>
-      </c>
-      <c r="P224" t="n">
-        <v/>
-      </c>
-      <c r="Q224" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R224" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S224" t="inlineStr">
-        <is>
-          <t>PROTEINASE K, &gt;30 MANSON U/MG, 100 MG</t>
-        </is>
-      </c>
-      <c r="T224" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U224" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V224" t="inlineStr">
-        <is>
-          <t>Toxoplasma gondii,Toxoplasmosis,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
-        </is>
-      </c>
-      <c r="W224" t="n">
-        <v/>
-      </c>
-      <c r="X224" t="n">
-        <v/>
-      </c>
-      <c r="Y224" t="n">
-        <v/>
-      </c>
-      <c r="Z224" t="n">
-        <v/>
-      </c>
-      <c r="AA224" t="n">
-        <v/>
-      </c>
-      <c r="AB224" t="n">
-        <v/>
-      </c>
-      <c r="AC224" t="n">
-        <v/>
-      </c>
-      <c r="AD224" t="n">
-        <v/>
-      </c>
-      <c r="AE224" t="n">
-        <v/>
-      </c>
-      <c r="AF224" t="n">
-        <v/>
-      </c>
-      <c r="AG224" t="n">
-        <v/>
-      </c>
-      <c r="AH224" t="n">
-        <v/>
-      </c>
-      <c r="AI224" t="n">
-        <v/>
-      </c>
-      <c r="AJ224" t="n">
-        <v/>
-      </c>
-      <c r="AK224" t="n">
-        <v/>
-      </c>
-      <c r="AL224" t="n">
-        <v/>
-      </c>
-      <c r="AM224" t="n">
         <v/>
       </c>
     </row>

--- a/outputs/enrichment_outputs/vwr_enrichment_output.xlsx
+++ b/outputs/enrichment_outputs/vwr_enrichment_output.xlsx
@@ -1597,7 +1597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM209"/>
+  <dimension ref="A1:AM224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0210000801</t>
+          <t>0202026</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2593,21 +2593,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>ADENOSINE-5'-TRIPHOSPHATE, 1 G</t>
+          <t>MP ALUMINA N, NEUTRAL PH, 50 KG</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>MP EcoChromâ„¢ Alumina N is an amphoteric oxide. It is commonly referred to as alumina (Î±-alumina), aloxide, or corundum in its crystalline form, as well as many other names, reflecting its widespread occurrence in nature and industry. An oxide of aluminum, occurring in nature as various minerals such as bauxite, corundum, etc. It is used as an adsorbent, desiccating agent, and catalyst, and in the manufacture of dental cements and refractories.</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>(ATP)&lt;br&gt;&lt;B&gt;Disodium Salt&lt;br&gt;Crystalline&lt;/B&gt;&lt;br&gt;&lt;B&gt;Purity: Approx. 99%&lt;/B&gt;</t>
-        </is>
-      </c>
-      <c r="V13" t="n">
-        <v/>
+          <t>MP EcoChromâ„¢ Alumina N is an amphoteric oxide. It is commonly referred to as alumina (Î±-alumina), aloxide, or corundum in its crystalline form, as well as many other names, reflecting its widespread occurrence in nature and industry. An oxide of aluminum, occurring in nature as various minerals such as bauxite, corundum, etc. It is used as an adsorbent, desiccating agent, and catalyst, and in the manufacture of dental cements and refractories.</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Alumina, Thin Layer Chromatography (TLC), Adsorbents for TLC, Adsorbents, Filter Aids and Drying Agents, Alumina &amp; Aluminum Hydroxide TLC Adsorbents, Aluminum, Aluminum Oxide, Analytical/Chromatography, Chemicals, LPLC/TLC/Paper Chromatography, Materials Science, Metal and Ceramic Science, Oxides, Research Essentials</t>
+        </is>
       </c>
       <c r="W13" t="n">
         <v/>
@@ -2676,7 +2678,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0210000805</t>
+          <t>0202778</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2724,7 +2726,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>ADENOSINE-5'-TRIPHOSPHATE, 5 G</t>
+          <t>MP SILITECH 18-32 M, 60, 25 KG</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2734,11 +2736,13 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>(ATP)&lt;br&gt;&lt;B&gt;Disodium Salt&lt;br&gt;Crystalline&lt;/B&gt;&lt;br&gt;&lt;B&gt;Purity: Approx. 99%&lt;/B&gt;</t>
-        </is>
-      </c>
-      <c r="V14" t="n">
-        <v/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Materials Science, Metal and Ceramic Science, Oxides, Silicon</t>
+        </is>
       </c>
       <c r="W14" t="n">
         <v/>
@@ -2807,7 +2811,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0210000810</t>
+          <t>0210000801</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2855,7 +2859,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>ADENOSINE-5'-TRIPHOSPHATE, 10 G</t>
+          <t>ADENOSINE-5'-TRIPHOSPHATE, 1 G</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -2938,7 +2942,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>02100109.2</t>
+          <t>0210000805</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2986,7 +2990,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>N-ACETYL-D-MANNOSAMINE, 250 MG</t>
+          <t>ADENOSINE-5'-TRIPHOSPHATE, 5 G</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -2996,7 +3000,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>(ATP)&lt;br&gt;&lt;B&gt;Disodium Salt&lt;br&gt;Crystalline&lt;/B&gt;&lt;br&gt;&lt;B&gt;Purity: Approx. 99%&lt;/B&gt;</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -3069,7 +3073,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0210019125</t>
+          <t>0210000810</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -3117,23 +3121,21 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>ADENINE HYDROCHLORIDE, ~ 99%, 25 G</t>
+          <t>ADENOSINE-5'-TRIPHOSPHATE, 10 G</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Adenine Hydrochloride</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Adenine Hydrochloride</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways Chart, Metabolomics, Nucleotide</t>
-        </is>
+          <t>(ATP)&lt;br&gt;&lt;B&gt;Disodium Salt&lt;br&gt;Crystalline&lt;/B&gt;&lt;br&gt;&lt;B&gt;Purity: Approx. 99%&lt;/B&gt;</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v/>
       </c>
       <c r="W17" t="n">
         <v/>
@@ -3202,7 +3204,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0210042780</t>
+          <t>02100109.2</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3250,23 +3252,21 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>POTASSIUM TELLURITE, 100 G</t>
+          <t>N-ACETYL-D-MANNOSAMINE, 250 MG</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Potassium Tellurite</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Potassium Tellurite</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>Materials Science, Metal and Ceramic Science, Potassium Salts, Salts</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v/>
       </c>
       <c r="W18" t="n">
         <v/>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0210082410</t>
+          <t>0210019125</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3383,21 +3383,23 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>DL- LACTIC ACID (LITHIUM SALT), 10 G</t>
+          <t>ADENINE HYDROCHLORIDE, ~ 99%, 25 G</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Adenine Hydrochloride</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Lactic acid is an &amp;alpha; hydroxyl carboxylic acid produced from pyruvate by the enzyme lactate dehydrogenase (LDH). Lactate is one of the main components of Ringer&amp;prime;s lactate or lactated Ringer&amp;prime;s solution. It is a fermentation acid from milk or carbohydrates.</t>
-        </is>
-      </c>
-      <c r="V19" t="n">
-        <v/>
+          <t>Adenine Hydrochloride</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways Chart, Metabolomics, Nucleotide</t>
+        </is>
       </c>
       <c r="W19" t="n">
         <v/>
@@ -3466,7 +3468,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0210090450</t>
+          <t>0210042780</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -3514,22 +3516,22 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>OLEOYL COENZYME A, DIPOTASSIUM SALT, 50 MG</t>
+          <t>POTASSIUM TELLURITE, 100 G</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Oleoyl Coenzyme A Dipotassium Salt</t>
+          <t>Potassium Tellurite</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Oleoyl Coenzyme A Dipotassium Salt</t>
+          <t>Potassium Tellurite</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Cell Biology, Coenzyme A and Other Acyl Transfer Reagents, Cofactors, Enzymes, Inhibitors, and Substrates, Esters, Fatty Acid Metabolism, Fatty Acids and conjugates, Fatty Acyls, Fatty acyl CoAs, Lipid, Lipid Library, Lipids, Metabolic Libraries, Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways Chart, Metabolomics, Unsaturated Fatty Acids and Derivatives</t>
+          <t>Materials Science, Metal and Ceramic Science, Potassium Salts, Salts</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -3599,7 +3601,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0210137980</t>
+          <t>0210082410</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -3647,23 +3649,21 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>CHOLESTERYL HYDROGEN SUCCINATE, 100 G</t>
+          <t>DL- LACTIC ACID (LITHIUM SALT), 10 G</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Cholesteryl Hydrogen Succinate</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Cholesteryl Hydrogen Succinate</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>Cholesteric, Liquid Crystals, Materials Science, Organic and Printed Electronics</t>
-        </is>
+          <t>Lactic acid is an &amp;alpha; hydroxyl carboxylic acid produced from pyruvate by the enzyme lactate dehydrogenase (LDH). Lactate is one of the main components of Ringer&amp;prime;s lactate or lactated Ringer&amp;prime;s solution. It is a fermentation acid from milk or carbohydrates.</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v/>
       </c>
       <c r="W21" t="n">
         <v/>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0210192780</t>
+          <t>0210090450</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3780,22 +3780,22 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>HEPPS, 100 G</t>
+          <t>OLEOYL COENZYME A, DIPOTASSIUM SALT, 50 MG</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>Oleoyl Coenzyme A Dipotassium Salt</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>Oleoyl Coenzyme A Dipotassium Salt</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Biological Buffers, Goodâ€™s Buffers</t>
+          <t>Biochemicals and Reagents, Cell Biology, Coenzyme A and Other Acyl Transfer Reagents, Cofactors, Enzymes, Inhibitors, and Substrates, Esters, Fatty Acid Metabolism, Fatty Acids and conjugates, Fatty Acyls, Fatty acyl CoAs, Lipid, Lipid Library, Lipids, Metabolic Libraries, Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways Chart, Metabolomics, Unsaturated Fatty Acids and Derivatives</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0210192783</t>
+          <t>0210137980</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3913,22 +3913,22 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>HEPPS, 250 G</t>
+          <t>CHOLESTERYL HYDROGEN SUCCINATE, 100 G</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>Cholesteryl Hydrogen Succinate</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>Cholesteryl Hydrogen Succinate</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Biological Buffers, Goodâ€™s Buffers</t>
+          <t>Cholesteric, Liquid Crystals, Materials Science, Organic and Printed Electronics</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0210192791</t>
+          <t>0210192780</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>HEPPS, 1 KG</t>
+          <t>HEPPS, 100 G</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0210225610</t>
+          <t>0210192783</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4179,22 +4179,22 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-MELIBIOSE MONOHYDRATE, 10 G</t>
+          <t>HEPPS, 250 G</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-Melibiose Monohydrate</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-Melibiose Monohydrate</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Carbohydrates, Disaccharide, Metabolic Libraries, Metabolomics</t>
+          <t>Biological Buffers, Goodâ€™s Buffers</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0210225625</t>
+          <t>0210192791</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4312,22 +4312,22 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-MELIBIOSE MONOHYDRATE, 25 G</t>
+          <t>HEPPS, 1 KG</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-Melibiose Monohydrate</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-Melibiose Monohydrate</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Carbohydrates, Disaccharide, Metabolic Libraries, Metabolomics</t>
+          <t>Biological Buffers, Goodâ€™s Buffers</t>
         </is>
       </c>
       <c r="W26" t="n">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0210226091</t>
+          <t>0210225610</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4445,22 +4445,22 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>MENADIONE SODIUM BISULFITE, TRIHYDRATE, 1 KG</t>
+          <t>Î±-D-(+)-MELIBIOSE MONOHYDRATE, 10 G</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Menadione Sodium Bisulfite Trihydrate</t>
+          <t>Î±-D-(+)-Melibiose Monohydrate</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Menadione Sodium Bisulfite Trihydrate</t>
+          <t>Î±-D-(+)-Melibiose Monohydrate</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Antibiotics, Antibiotics A to Z, Antibiotics G-M, Approved Therapeutics/Drug Candidates, Bioactive Small Molecules, Biochemicals and Reagents, Cell Biology, Cell Signaling and Neuroscience, Cell Stress, Eli Lilly, M, Nitric Oxide and Cell Stress, Oxidative Stress Proteins and Reagents</t>
+          <t>Biochemicals and Reagents, Carbohydrates, Disaccharide, Metabolic Libraries, Metabolomics</t>
         </is>
       </c>
       <c r="W27" t="n">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0210237190</t>
+          <t>0210225625</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4578,21 +4578,23 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>MUCIC ACID, 500 G</t>
+          <t>Î±-D-(+)-MELIBIOSE MONOHYDRATE, 25 G</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Î±-D-(+)-Melibiose Monohydrate</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>Purity: 90-95%Sequestrant for metal ions.</t>
-        </is>
-      </c>
-      <c r="V28" t="n">
-        <v/>
+          <t>Î±-D-(+)-Melibiose Monohydrate</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Biochemicals and Reagents, Carbohydrates, Disaccharide, Metabolic Libraries, Metabolomics</t>
+        </is>
       </c>
       <c r="W28" t="n">
         <v/>
@@ -4661,7 +4663,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0210245090</t>
+          <t>0210226091</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4709,22 +4711,22 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>NINHYDRIN, MONOHYDRATE, 500 G</t>
+          <t>MENADIONE SODIUM BISULFITE, TRIHYDRATE, 1 KG</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Ninhydrin Monohydrate</t>
+          <t>Menadione Sodium Bisulfite Trihydrate</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Ninhydrin Monohydrate</t>
+          <t>Menadione Sodium Bisulfite Trihydrate</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Amino Acid Analysis, Biochemicals and Reagents, Detection Products for Amino Acid Analysis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Peptide Analysis and Characterization, Peptides, Reagent Grade, Research Essentials</t>
+          <t>Antibiotics, Antibiotics A to Z, Antibiotics G-M, Approved Therapeutics/Drug Candidates, Bioactive Small Molecules, Biochemicals and Reagents, Cell Biology, Cell Signaling and Neuroscience, Cell Stress, Eli Lilly, M, Nitric Oxide and Cell Stress, Oxidative Stress Proteins and Reagents</t>
         </is>
       </c>
       <c r="W29" t="n">
@@ -4794,7 +4796,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0210280825</t>
+          <t>0210237190</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4842,23 +4844,21 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>RESORCINOL, 25 G</t>
+          <t>MUCIC ACID, 500 G</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Building Blocks, Chemical Synthesis, Organic Building Blocks, Oxygen Compounds, Polyols</t>
-        </is>
+          <t>Purity: 90-95%Sequestrant for metal ions.</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v/>
       </c>
       <c r="W30" t="n">
         <v/>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0210280890</t>
+          <t>0210245090</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4975,22 +4975,22 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>RESORCINOL, 500 G</t>
+          <t>NINHYDRIN, MONOHYDRATE, 500 G</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Ninhydrin Monohydrate</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Ninhydrin Monohydrate</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Building Blocks, Chemical Synthesis, Organic Building Blocks, Oxygen Compounds, Polyols</t>
+          <t>Amino Acid Analysis, Biochemicals and Reagents, Detection Products for Amino Acid Analysis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Peptide Analysis and Characterization, Peptides, Reagent Grade, Research Essentials</t>
         </is>
       </c>
       <c r="W31" t="n">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>02102897.5</t>
+          <t>0210280825</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -5108,22 +5108,22 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>CHOLIC ACID, SODIUM SALT, 98.5%, 500 G</t>
+          <t>RESORCINOL, 25 G</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Cholic Acid Sodium Salt</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Cholic Acid Sodium Salt</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Anionic Detergents, Antigen-Vaccine Preparation, Bile Salts, Bile acids and Derivatives, Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents by Applications, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Diagnostic Applications, Drug Delivery-Liposomes, Electrophoresis Chromatography, Enzymology, Lipids, Membrane Protein Solubilization, Molecular Biology, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Proteins and Derivatives, Proteomics, Research Essentials, Sterol Lipids</t>
+          <t>Building Blocks, Chemical Synthesis, Organic Building Blocks, Oxygen Compounds, Polyols</t>
         </is>
       </c>
       <c r="W32" t="n">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0210301205</t>
+          <t>0210280890</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -5241,22 +5241,22 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>TETRACYCLINE, 5 G</t>
+          <t>RESORCINOL, 500 G</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>Tetracycline</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Tetracycline</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Analytical Standards, Analytical/Chromatography, Antibacterial, Antibiotics, Cell Biology, ,Genetic Marker Selection, Interferes with Protein Synthesis, Mechanism of Action, Method Specific, Neats, Spectrum of Activity, Tetracyclines</t>
+          <t>Building Blocks, Chemical Synthesis, Organic Building Blocks, Oxygen Compounds, Polyols</t>
         </is>
       </c>
       <c r="W33" t="n">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0210371250</t>
+          <t>02102897.5</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -5374,22 +5374,22 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>ALBUMIN, HUMAN, 30% SOLUTION, 50 ML</t>
+          <t>CHOLIC ACID, SODIUM SALT, 98.5%, 500 G</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>Albumin, 30% Solution</t>
+          <t>Cholic Acid Sodium Salt</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Albumin, 30% Solution</t>
+          <t>Cholic Acid Sodium Salt</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Albumin, Biochemicals and Reagents, Human Serum Albumins, Proteins and Derivatives</t>
+          <t>Anionic Detergents, Antigen-Vaccine Preparation, Bile Salts, Bile acids and Derivatives, Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents by Applications, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Diagnostic Applications, Drug Delivery-Liposomes, Electrophoresis Chromatography, Enzymology, Lipids, Membrane Protein Solubilization, Molecular Biology, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Proteins and Derivatives, Proteomics, Research Essentials, Sterol Lipids</t>
         </is>
       </c>
       <c r="W34" t="n">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0210488691</t>
+          <t>0210301205</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -5507,22 +5507,22 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>IRISH MOSS (CARRAGEENAN), 1 KG</t>
+          <t>TETRACYCLINE, 5 G</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>Irish Moss (Carrageenan)</t>
+          <t>Tetracycline</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>Irish Moss (Carrageenan)</t>
+          <t>Tetracycline</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Carbohydrates, Fiber and Prebiotics,Functional Foods, Nutrition Research, Polysaccharide, Soluble Fiber, Including Prebiotics</t>
+          <t>Analytical Standards, Analytical/Chromatography, Antibacterial, Antibiotics, Cell Biology, ,Genetic Marker Selection, Interferes with Protein Synthesis, Mechanism of Action, Method Specific, Neats, Spectrum of Activity, Tetracyclines</t>
         </is>
       </c>
       <c r="W35" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0210563301</t>
+          <t>0210371250</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -5640,22 +5640,22 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 1 G</t>
+          <t>ALBUMIN, HUMAN, 30% SOLUTION, 50 ML</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
+          <t>Albumin, 30% Solution</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
+          <t>Albumin, 30% Solution</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Fluorescent Indicators and Probes, Fluorescent Probes, Labels, Particles and Stains, Hematology and Histology, Lipophilic and Membrane Probes, Stains &amp; Dyes</t>
+          <t>Albumin, Biochemicals and Reagents, Human Serum Albumins, Proteins and Derivatives</t>
         </is>
       </c>
       <c r="W36" t="n">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0210563310</t>
+          <t>0210488691</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -5773,22 +5773,22 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 10 G</t>
+          <t>IRISH MOSS (CARRAGEENAN), 1 KG</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
+          <t>Irish Moss (Carrageenan)</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
+          <t>Irish Moss (Carrageenan)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Fluorescent Indicators and Probes, Fluorescent Probes, Labels, Particles and Stains, Hematology and Histology, Lipophilic and Membrane Probes, Stains &amp; Dyes</t>
+          <t>Biochemicals and Reagents, Carbohydrates, Fiber and Prebiotics,Functional Foods, Nutrition Research, Polysaccharide, Soluble Fiber, Including Prebiotics</t>
         </is>
       </c>
       <c r="W37" t="n">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0210563325</t>
+          <t>0210563301</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 25 G</t>
+          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 1 G</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>02150156.5</t>
+          <t>0210563310</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -6039,22 +6039,22 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>SODIUM POTASSIUM TARTRATE TETRAHYDRATE, 500 G</t>
+          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 10 G</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>Sodium Potassium Tartrate Tetrahydrate</t>
+          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>Sodium Potassium Tartrate Tetrahydrate</t>
+          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Chelators</t>
+          <t>Biochemicals and Reagents, Fluorescent Indicators and Probes, Fluorescent Probes, Labels, Particles and Stains, Hematology and Histology, Lipophilic and Membrane Probes, Stains &amp; Dyes</t>
         </is>
       </c>
       <c r="W39" t="n">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0215047783</t>
+          <t>0210563325</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -6172,22 +6172,22 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>BLASTICIDIN S HYDROCHLORIDE, PHYTOPURE;, 250 MG</t>
+          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 25 G</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>CAS Number: 9041-93-4</t>
+          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>Broad spectrum nucleoside antibiotic. Inhibits protein synthesis in prokaryotic and eukaryotic organisms. Suitable for selection of cells carrying plasmids conferring blasticidin resistance.</t>
+          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>9041-93-4, 150477</t>
+          <t>Biochemicals and Reagents, Fluorescent Indicators and Probes, Fluorescent Probes, Labels, Particles and Stains, Hematology and Histology, Lipophilic and Membrane Probes, Stains &amp; Dyes</t>
         </is>
       </c>
       <c r="W40" t="n">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0215082501</t>
+          <t>02150156.5</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -6305,22 +6305,22 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 1 G</t>
+          <t>SODIUM POTASSIUM TARTRATE TETRAHYDRATE, 500 G</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
+          <t>Sodium Potassium Tartrate Tetrahydrate</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
+          <t>Sodium Potassium Tartrate Tetrahydrate</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Colorimetric, Detection, Detection Substrates, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Immunohistochemistry, Peroxidase, Powders, Stains and Dyes, Western Blotting</t>
+          <t>Biochemicals and Reagents, Chelators</t>
         </is>
       </c>
       <c r="W41" t="n">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0215082505</t>
+          <t>0215047783</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -6438,22 +6438,22 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 5 G</t>
+          <t>BLASTICIDIN S HYDROCHLORIDE, PHYTOPURE;, 250 MG</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
+          <t>CAS Number: 9041-93-4</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
+          <t>Broad spectrum nucleoside antibiotic. Inhibits protein synthesis in prokaryotic and eukaryotic organisms. Suitable for selection of cells carrying plasmids conferring blasticidin resistance.</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Colorimetric, Detection, Detection Substrates, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Immunohistochemistry, Peroxidase, Powders, Stains and Dyes, Western Blotting</t>
+          <t>9041-93-4, 150477</t>
         </is>
       </c>
       <c r="W42" t="n">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0215082510</t>
+          <t>0215082501</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 10 G</t>
+          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 1 G</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>02151187.1</t>
+          <t>0215082505</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -6704,22 +6704,22 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>GLUCOSE-6-PHOSPHATE DEHYDROGENASE, 400 U/MG SOLID, 100 U</t>
+          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 5 G</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>Glucose-6-Phosphate Dehydrogenase</t>
+          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Glucose-6-Phosphate Dehydrogenase</t>
+          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Inhibitors and Substrates, Enzymes, Biochemicals, Oxidoreductases</t>
+          <t>Biochemicals and Reagents, Colorimetric, Detection, Detection Substrates, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Immunohistochemistry, Peroxidase, Powders, Stains and Dyes, Western Blotting</t>
         </is>
       </c>
       <c r="W44" t="n">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>02151187.5</t>
+          <t>0215082510</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -6837,22 +6837,22 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>GLUCOSE-6-PHOSPHATE DEHYDROGENASE, 400 U/MG SOLID, 500 KU</t>
+          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 10 G</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>Glucose-6-Phosphate Dehydrogenase</t>
+          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Glucose-6-Phosphate Dehydrogenase</t>
+          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Inhibitors and Substrates, Enzymes, Biochemicals, Oxidoreductases</t>
+          <t>Biochemicals and Reagents, Colorimetric, Detection, Detection Substrates, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Immunohistochemistry, Peroxidase, Powders, Stains and Dyes, Western Blotting</t>
         </is>
       </c>
       <c r="W45" t="n">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0215139383</t>
+          <t>02151187.1</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -6970,22 +6970,22 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Î±-KETOGLUTARIC ACID, DISODIUM SALT, DIHYDRATE, 250 G</t>
+          <t>GLUCOSE-6-PHOSPHATE DEHYDROGENASE, 400 U/MG SOLID, 100 U</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Glucose-6-Phosphate Dehydrogenase</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Glucose-6-Phosphate Dehydrogenase</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Building Blocks, Carbonyl Compounds, Carboxylic Acid Salts, Chemical Synthesis, Organic Building Blocks</t>
+          <t>Inhibitors and Substrates, Enzymes, Biochemicals, Oxidoreductases</t>
         </is>
       </c>
       <c r="W46" t="n">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0215139390</t>
+          <t>02151187.5</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -7103,22 +7103,22 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Î±-KETOGLUTARIC ACID, DISODIUM SALT, DIHYDRATE, 500 G</t>
+          <t>GLUCOSE-6-PHOSPHATE DEHYDROGENASE, 400 U/MG SOLID, 500 KU</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Glucose-6-Phosphate Dehydrogenase</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Glucose-6-Phosphate Dehydrogenase</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Building Blocks, Carbonyl Compounds, Carboxylic Acid Salts, Chemical Synthesis, Organic Building Blocks</t>
+          <t>Inhibitors and Substrates, Enzymes, Biochemicals, Oxidoreductases</t>
         </is>
       </c>
       <c r="W47" t="n">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0215156180</t>
+          <t>0215139383</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -7236,22 +7236,22 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>LITHIUM BROMIDE, 100 G</t>
+          <t>Î±-KETOGLUTARIC ACID, DISODIUM SALT, DIHYDRATE, 250 G</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Reagent Plus, Research Essentials</t>
+          <t>Building Blocks, Carbonyl Compounds, Carboxylic Acid Salts, Chemical Synthesis, Organic Building Blocks</t>
         </is>
       </c>
       <c r="W48" t="n">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0215156190</t>
+          <t>0215139390</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -7369,22 +7369,22 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>LITHIUM BROMIDE, 500 G</t>
+          <t>Î±-KETOGLUTARIC ACID, DISODIUM SALT, DIHYDRATE, 500 G</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Reagent Plus, Research Essentials</t>
+          <t>Building Blocks, Carbonyl Compounds, Carboxylic Acid Salts, Chemical Synthesis, Organic Building Blocks</t>
         </is>
       </c>
       <c r="W49" t="n">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0215156191</t>
+          <t>0215156180</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>LITHIUM BROMIDE, 1 KG</t>
+          <t>LITHIUM BROMIDE, 100 G</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0215186401</t>
+          <t>0215156190</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -7635,22 +7635,22 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>PHORBOL-12-MYRISTATE-13-ACETATE, &gt;99%, 1 MG</t>
+          <t>LITHIUM BROMIDE, 500 G</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>Phorbol-12-Myristate-13-Acetate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Phorbol-12-Myristate-13-Acetate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
+          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Reagent Plus, Research Essentials</t>
         </is>
       </c>
       <c r="W51" t="n">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0215186405</t>
+          <t>0215156191</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -7768,22 +7768,22 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>PHORBOL-12-MYRISTATE-13-ACETATE, &gt;99%, 5 MG</t>
+          <t>LITHIUM BROMIDE, 1 KG</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>Phorbol-12-Myristate-13-Acetate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Phorbol-12-Myristate-13-Acetate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
+          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Reagent Plus, Research Essentials</t>
         </is>
       </c>
       <c r="W52" t="n">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>02151944.2</t>
+          <t>0215186401</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -7901,22 +7901,22 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>POTASSIUM CHLORIDE, &gt;99%, 250 G</t>
+          <t>PHORBOL-12-MYRISTATE-13-ACETATE, &gt;99%, 1 MG</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>Phorbol-12-Myristate-13-Acetate</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>Phorbol-12-Myristate-13-Acetate</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Biological Buffers</t>
+          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
         </is>
       </c>
       <c r="W53" t="n">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>02151944.5</t>
+          <t>0215186405</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -8034,22 +8034,22 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>POTASSIUM CHLORIDE, &gt;99%, 500 G</t>
+          <t>PHORBOL-12-MYRISTATE-13-ACETATE, &gt;99%, 5 MG</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>Phorbol-12-Myristate-13-Acetate</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>Phorbol-12-Myristate-13-Acetate</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Biological Buffers</t>
+          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
         </is>
       </c>
       <c r="W54" t="n">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0215194405</t>
+          <t>02151944.2</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>POTASSIUM CHLORIDE, &gt;99%, 5 KG</t>
+          <t>POTASSIUM CHLORIDE, &gt;99%, 250 G</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -8252,7 +8252,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0215233591</t>
+          <t>02151944.5</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -8300,22 +8300,22 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>TRANSFERRIN, BOVINE (HOLO), 1 G</t>
+          <t>POTASSIUM CHLORIDE, &gt;99%, 500 G</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>Bovine Transferrin is chromatographically purified from New Zealand-sourced bovine plasma in an ISO quality system assuring complete traceability and consistent high quality. Transferrin (HOLO) is an iron-rich product supplied as a heat-treated, lyophilised powder.</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Bovine Transferrin is chromatographically purified from New Zealand-sourced bovine plasma in an ISO quality system assuring complete traceability and consistent high quality. Transferrin (HOLO) is an iron-rich product supplied as a heat-treated, lyophilised powder.</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Albumins and Transport Proteins, Cell Culture, Reagents and Supplements, Transferrins and Transferrin Replacements</t>
+          <t>Biological Buffers</t>
         </is>
       </c>
       <c r="W56" t="n">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0215245525</t>
+          <t>0215194405</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -8433,21 +8433,23 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>MOPSO, SODIUM SALT , 25 G</t>
+          <t>POTASSIUM CHLORIDE, &gt;99%, 5 KG</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>MOPSO sodium salt is a zwitterionic aminosulfonate buffer that is very similar in structure to MOPS (3-morpholinopropanesulfonic acid), differing by the presence of a hydroxyl group on C-2 of the propane moiety.</t>
-        </is>
-      </c>
-      <c r="V57" t="n">
-        <v/>
+          <t>Potassium Chloride</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Biological Buffers</t>
+        </is>
       </c>
       <c r="W57" t="n">
         <v/>
@@ -8516,7 +8518,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0215245610</t>
+          <t>0215233591</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -8564,22 +8566,22 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>PIPES SESQUISODIUM SALT, 10 G</t>
+          <t>TRANSFERRIN, BOVINE (HOLO), 1 G</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>Pipes Sesquisodium Salt</t>
+          <t>Bovine Transferrin is chromatographically purified from New Zealand-sourced bovine plasma in an ISO quality system assuring complete traceability and consistent high quality. Transferrin (HOLO) is an iron-rich product supplied as a heat-treated, lyophilised powder.</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>Pipes Sesquisodium Salt</t>
+          <t>Bovine Transferrin is chromatographically purified from New Zealand-sourced bovine plasma in an ISO quality system assuring complete traceability and consistent high quality. Transferrin (HOLO) is an iron-rich product supplied as a heat-treated, lyophilised powder.</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Biological Buffers, Goodâ€™s Buffers</t>
+          <t>Albumins and Transport Proteins, Cell Culture, Reagents and Supplements, Transferrins and Transferrin Replacements</t>
         </is>
       </c>
       <c r="W58" t="n">
@@ -8649,7 +8651,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0215250305</t>
+          <t>0215245525</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -8697,7 +8699,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>BROMOCRESOL GREEN, 5 G</t>
+          <t>MOPSO, SODIUM SALT , 25 G</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
@@ -8707,7 +8709,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>Bromocresol Green is a dye of the triphenylmethane family (triarylmethane dyes). It binds quantitatively with human albumin forming an intense blue-green complex with an absorbance maximum at 628 nm.</t>
+          <t>MOPSO sodium salt is a zwitterionic aminosulfonate buffer that is very similar in structure to MOPS (3-morpholinopropanesulfonic acid), differing by the presence of a hydroxyl group on C-2 of the propane moiety.</t>
         </is>
       </c>
       <c r="V59" t="n">
@@ -8780,7 +8782,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0215250625</t>
+          <t>0215245610</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -8828,21 +8830,23 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>BROMOPHENOL BLUE, SODIUM SALT, 25 G</t>
+          <t>PIPES SESQUISODIUM SALT, 10 G</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Pipes Sesquisodium Salt</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
-        </is>
-      </c>
-      <c r="V60" t="n">
-        <v/>
+          <t>Pipes Sesquisodium Salt</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Biological Buffers, Goodâ€™s Buffers</t>
+        </is>
       </c>
       <c r="W60" t="n">
         <v/>
@@ -8911,7 +8915,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0215250650</t>
+          <t>0215250305</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -8959,7 +8963,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>BROMOPHENOL BLUE, SODIUM SALT, 50 G</t>
+          <t>BROMOCRESOL GREEN, 5 G</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -8969,7 +8973,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
+          <t>Bromocresol Green is a dye of the triphenylmethane family (triarylmethane dyes). It binds quantitatively with human albumin forming an intense blue-green complex with an absorbance maximum at 628 nm.</t>
         </is>
       </c>
       <c r="V61" t="n">
@@ -9042,7 +9046,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0215252191</t>
+          <t>0215250625</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -9090,23 +9094,21 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>ETHYLENEDIAMINE, TETRAACETIC ACID, 1 KG</t>
+          <t>BROMOPHENOL BLUE, SODIUM SALT, 25 G</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>Ethylenediamine Tetraacetic Acid</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Ethylenediamine Tetraacetic Acid</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Biochemicals and Reagents, Biological Buffers, Calcium Chelators, Calcium Signaling Research Tools, Cell Biology, Cell Culture, Cell Dissociation, Cell Signaling and Neuroscience, Chelators, Bioreagents, Dissociation, Enzyme Inhibitors, Ethylenediaminetetraacetic acid (EDTA) and EDTA Solutions, Inorganic Salts</t>
-        </is>
+          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
+        </is>
+      </c>
+      <c r="V62" t="n">
+        <v/>
       </c>
       <c r="W62" t="n">
         <v/>
@@ -9175,7 +9177,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0215255280</t>
+          <t>0215250650</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -9223,23 +9225,21 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>OXALIC ACID, DIHYDRATE, 100 G</t>
+          <t>BROMOPHENOL BLUE, SODIUM SALT, 50 G</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>Oxalic Acid Dihydrate</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Oxalic Acid Dihydrate</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>ACS Grade, Building Blocks, Carbonyl Compounds, Carboxylic Acids, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Organic Building Blocks,</t>
-        </is>
+          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
+        </is>
+      </c>
+      <c r="V63" t="n">
+        <v/>
       </c>
       <c r="W63" t="n">
         <v/>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0215263880</t>
+          <t>0215252191</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -9356,22 +9356,22 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>INDIGO CARMINE, 100 G</t>
+          <t>ETHYLENEDIAMINE, TETRAACETIC ACID, 1 KG</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>Indigo Carmine</t>
+          <t>Ethylenediamine Tetraacetic Acid</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Indigo Carmine</t>
+          <t>Ethylenediamine Tetraacetic Acid</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Hematology and Histology, Stains &amp; Dyes,Stains and Dyes</t>
+          <t>Biochemicals and Reagents, Biological Buffers, Calcium Chelators, Calcium Signaling Research Tools, Cell Biology, Cell Culture, Cell Dissociation, Cell Signaling and Neuroscience, Chelators, Bioreagents, Dissociation, Enzyme Inhibitors, Ethylenediaminetetraacetic acid (EDTA) and EDTA Solutions, Inorganic Salts</t>
         </is>
       </c>
       <c r="W64" t="n">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0215268105</t>
+          <t>0215255280</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -9489,21 +9489,23 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>TEMPO, CATALYTIC OXIDANT, 5 G</t>
+          <t>OXALIC ACID, DIHYDRATE, 100 G</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Oxalic Acid Dihydrate</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>TEMPO reacts preferentially with carbon-centered radicals.</t>
-        </is>
-      </c>
-      <c r="V65" t="n">
-        <v/>
+          <t>Oxalic Acid Dihydrate</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>ACS Grade, Building Blocks, Carbonyl Compounds, Carboxylic Acids, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Organic Building Blocks,</t>
+        </is>
       </c>
       <c r="W65" t="n">
         <v/>
@@ -9572,7 +9574,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0215268125</t>
+          <t>0215263880</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -9620,21 +9622,23 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>TEMPO, CATALYTIC OXIDANT, 25 G</t>
+          <t>INDIGO CARMINE, 100 G</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Indigo Carmine</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>TEMPO reacts preferentially with carbon-centered radicals.</t>
-        </is>
-      </c>
-      <c r="V66" t="n">
-        <v/>
+          <t>Indigo Carmine</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Hematology and Histology, Stains &amp; Dyes,Stains and Dyes</t>
+        </is>
       </c>
       <c r="W66" t="n">
         <v/>
@@ -9703,7 +9707,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0215269090</t>
+          <t>0215268105</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -9751,23 +9755,21 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>POLY-L-LYSINE HYDROBROMIDE, 500 MG</t>
+          <t>TEMPO, CATALYTIC OXIDANT, 5 G</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>Poly-L-lysine is a nonspecific attachment factor for cells useful in promoting cell adhesion to solid substrates.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Poly-L-Lysine Hydrochloride</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>Amino Acids, Biochemicals and Reagents, Homopolymers, Polyamino Acids</t>
-        </is>
+          <t>TEMPO reacts preferentially with carbon-centered radicals.</t>
+        </is>
+      </c>
+      <c r="V67" t="n">
+        <v/>
       </c>
       <c r="W67" t="n">
         <v/>
@@ -9836,7 +9838,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0215394601</t>
+          <t>0215268125</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -9884,17 +9886,17 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>STACHYOSE, TETRAHYDRATE, 1 MG</t>
+          <t>TEMPO, CATALYTIC OXIDANT, 25 G</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
+          <t>TEMPO reacts preferentially with carbon-centered radicals.</t>
         </is>
       </c>
       <c r="V68" t="n">
@@ -9967,7 +9969,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0215394680</t>
+          <t>0215269090</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -10015,21 +10017,23 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>STACHYOSE, TETRAHYDRATE, 100 MG</t>
+          <t>POLY-L-LYSINE HYDROBROMIDE, 500 MG</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
+          <t>Poly-L-lysine is a nonspecific attachment factor for cells useful in promoting cell adhesion to solid substrates.</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
-        </is>
-      </c>
-      <c r="V69" t="n">
-        <v/>
+          <t>Poly-L-Lysine Hydrochloride</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Amino Acids, Biochemicals and Reagents, Homopolymers, Polyamino Acids</t>
+        </is>
       </c>
       <c r="W69" t="n">
         <v/>
@@ -10098,7 +10102,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0215394690</t>
+          <t>0215394601</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -10146,7 +10150,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>STACHYOSE, TETRAHYDRATE, 500 MG</t>
+          <t>STACHYOSE, TETRAHYDRATE, 1 MG</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -10229,7 +10233,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0215394691</t>
+          <t>0215394680</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -10277,7 +10281,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>STACHYOSE, TETRAHYDRATE, 1 G</t>
+          <t>STACHYOSE, TETRAHYDRATE, 100 MG</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -10360,7 +10364,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>02154263.2</t>
+          <t>0215394690</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -10408,23 +10412,21 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>BUMETANIDE, 250 MG</t>
+          <t>STACHYOSE, TETRAHYDRATE, 500 MG</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>Bumetanide</t>
+          <t>Stachyose Tetrahydrate</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>Bumetanide</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>Approved Therapeutics/Drug Candidates, B, Bioactive Small Molecules, Cell Biology, Cell Signaling and Neuroscience, Ion Channels, Ion Pump Inhibitors, Monovalent Ion Channels, Roche, Validus, Voltage-gated Ion Channels</t>
-        </is>
+          <t>Stachyose Tetrahydrate</t>
+        </is>
+      </c>
+      <c r="V72" t="n">
+        <v/>
       </c>
       <c r="W72" t="n">
         <v/>
@@ -10493,7 +10495,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0215457180</t>
+          <t>0215394691</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -10541,23 +10543,21 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>EPIDERMAL GROWTH FACTOR, HUMAN, RECOMBINANT, 98%, 100 G</t>
+          <t>STACHYOSE, TETRAHYDRATE, 1 G</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>Epidermal Growth Factor, Human, Recombinant</t>
+          <t>Stachyose Tetrahydrate</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Epidermal Growth Factor, Human, Recombinant</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>Cell Biology, Cytokines, Growth Factors and Chemokines for Stem Cell Differentiation, Growth Factors, Embryonic Stem Cell Biology Growth Factors, Mesenchymal Stem Cell Biology, Stem Cell Biology, Stem Cell Differentiation, Stem Cell Expansion</t>
-        </is>
+          <t>Stachyose Tetrahydrate</t>
+        </is>
+      </c>
+      <c r="V73" t="n">
+        <v/>
       </c>
       <c r="W73" t="n">
         <v/>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0215485580</t>
+          <t>02154263.2</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -10674,22 +10674,22 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>BIEBRICH SCARLET, 100 G</t>
+          <t>BUMETANIDE, 250 MG</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>Biebrich Scarlet</t>
+          <t>Bumetanide</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Biebrich Scarlet</t>
+          <t>Bumetanide</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Cell Biology, Hematology and Histology, Stains and Dyes</t>
+          <t>Approved Therapeutics/Drug Candidates, B, Bioactive Small Molecules, Cell Biology, Cell Signaling and Neuroscience, Ion Channels, Ion Pump Inhibitors, Monovalent Ion Channels, Roche, Validus, Voltage-gated Ion Channels</t>
         </is>
       </c>
       <c r="W74" t="n">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0215624380</t>
+          <t>0215457180</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -10807,22 +10807,22 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>PHOSPHOTUNGSTIC ACID, HYDRATE, 100 G</t>
+          <t>EPIDERMAL GROWTH FACTOR, HUMAN, RECOMBINANT, 98%, 100 G</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Epidermal Growth Factor, Human, Recombinant</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Epidermal Growth Factor, Human, Recombinant</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Research Essentials</t>
+          <t>Cell Biology, Cytokines, Growth Factors and Chemokines for Stem Cell Differentiation, Growth Factors, Embryonic Stem Cell Biology Growth Factors, Mesenchymal Stem Cell Biology, Stem Cell Biology, Stem Cell Differentiation, Stem Cell Expansion</t>
         </is>
       </c>
       <c r="W75" t="n">
@@ -10892,7 +10892,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0215624383</t>
+          <t>0215485580</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -10940,22 +10940,22 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>PHOSPHOTUNGSTIC ACID, HYDRATE, 250 G</t>
+          <t>BIEBRICH SCARLET, 100 G</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Biebrich Scarlet</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Biebrich Scarlet</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Research Essentials</t>
+          <t>Cell Biology, Hematology and Histology, Stains and Dyes</t>
         </is>
       </c>
       <c r="W76" t="n">
@@ -11025,7 +11025,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0215653480</t>
+          <t>0215624380</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -11073,22 +11073,22 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>TRANSFER RIBONUCLEIC ACID, 100 U</t>
+          <t>PHOSPHOTUNGSTIC ACID, HYDRATE, 100 G</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Nucleotides, Oligonucleotides, DNA, and RNA</t>
+          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Research Essentials</t>
         </is>
       </c>
       <c r="W77" t="n">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0215653494</t>
+          <t>0215624383</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -11206,22 +11206,22 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>TRANSFER RIBONUCLEIC ACID, 5 KU</t>
+          <t>PHOSPHOTUNGSTIC ACID, HYDRATE, 250 G</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Nucleotides, Oligonucleotides, DNA, and RNA</t>
+          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Research Essentials</t>
         </is>
       </c>
       <c r="W78" t="n">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0215878283</t>
+          <t>0215653480</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -11339,22 +11339,22 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>G418 DISULFATE, PHYTOPURE;, 250 MG</t>
+          <t>TRANSFER RIBONUCLEIC ACID, 100 U</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>CAS Number: 108321-42-2</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria, yeast, higher plants, mammalian cells, protozoans and helminths. It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture.</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>108321-42-2, 158782</t>
+          <t>Biochemicals and Reagents, Nucleotides, Oligonucleotides, DNA, and RNA</t>
         </is>
       </c>
       <c r="W79" t="n">
@@ -11424,7 +11424,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0215878291</t>
+          <t>0215653494</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -11472,22 +11472,22 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>G418 DISULFATE, PHYTOPURE;,  1 G</t>
+          <t>TRANSFER RIBONUCLEIC ACID, 5 KU</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>CAS Number: 108321-42-2</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria, yeast, higher plants, mammalian cells, protozoans and helminths. It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture.</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>108321-42-2, 158782</t>
+          <t>Biochemicals and Reagents, Nucleotides, Oligonucleotides, DNA, and RNA</t>
         </is>
       </c>
       <c r="W80" t="n">
@@ -11557,7 +11557,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0215878294</t>
+          <t>0215878283</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>G418 DISULFATE, PHYTOPURE;, 5 G</t>
+          <t>G418 DISULFATE, PHYTOPURE;, 250 MG</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
@@ -11690,7 +11690,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0215985925</t>
+          <t>0215878291</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -11738,22 +11738,22 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>ALDOLASE, 25 MG</t>
+          <t>G418 DISULFATE, PHYTOPURE;,  1 G</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>Aldolase</t>
+          <t>CAS Number: 108321-42-2</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>Aldolase</t>
+          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria, yeast, higher plants, mammalian cells, protozoans and helminths. It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture.</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Lyases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, Glycolysis, Glycolysis Enzymes, Metabolic Pathways, Metabolomics, Organic Synthesis</t>
+          <t>108321-42-2, 158782</t>
         </is>
       </c>
       <c r="W82" t="n">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0219014505</t>
+          <t>0215878294</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -11871,22 +11871,22 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>AMOXICILLIN, 5 G</t>
+          <t>G418 DISULFATE, PHYTOPURE;, 5 G</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>CAS Number: 108321-42-2</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria, yeast, higher plants, mammalian cells, protozoans and helminths. It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture.</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Antibacterial, Antibiotics,Chemical Structure Class, Interferes with Cell Wall Synthesis, Mechanism of Action, Penicillins and Cephalosporins (beta-Lactams), Spectrum of Activity</t>
+          <t>108321-42-2, 158782</t>
         </is>
       </c>
       <c r="W83" t="n">
@@ -11956,7 +11956,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0219014510</t>
+          <t>0215985925</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -12004,22 +12004,22 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>AMOXICILLIN, 10 G</t>
+          <t>ALDOLASE, 25 MG</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Aldolase</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Aldolase</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Antibacterial, Antibiotics,Chemical Structure Class, Interferes with Cell Wall Synthesis, Mechanism of Action, Penicillins and Cephalosporins (beta-Lactams), Spectrum of Activity</t>
+          <t>Lyases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, Glycolysis, Glycolysis Enzymes, Metabolic Pathways, Metabolomics, Organic Synthesis</t>
         </is>
       </c>
       <c r="W84" t="n">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0219021605</t>
+          <t>0219014505</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -12137,22 +12137,22 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>IBUPROFEN, 5 G</t>
+          <t>AMOXICILLIN, 5 G</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>Ibuprofen</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>Ibuprofen</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Bioactive Small Molecules, Cell Biology, Bioreagents, Enzyme Inhibitors, Pharmacopoeia, Research Essentials</t>
+          <t>Antibacterial, Antibiotics,Chemical Structure Class, Interferes with Cell Wall Synthesis, Mechanism of Action, Penicillins and Cephalosporins (beta-Lactams), Spectrum of Activity</t>
         </is>
       </c>
       <c r="W85" t="n">
@@ -12222,7 +12222,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0219023791</t>
+          <t>0219014510</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -12270,22 +12270,22 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>D-(+)-MALTOSE MONOHYDRATE, ~99%, 1 KG</t>
+          <t>AMOXICILLIN, 10 G</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>D-(+)-Maltose Monohydrate</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>D-(+)-Maltose Monohydrate</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Carbohydrates, Bioreagents, Metabolic Libraries, Metabolomics, Research Essentials</t>
+          <t>Antibacterial, Antibiotics,Chemical Structure Class, Interferes with Cell Wall Synthesis, Mechanism of Action, Penicillins and Cephalosporins (beta-Lactams), Spectrum of Activity</t>
         </is>
       </c>
       <c r="W86" t="n">
@@ -12355,7 +12355,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>02190277.1</t>
+          <t>0219021605</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -12403,22 +12403,22 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 100 MG</t>
+          <t>IBUPROFEN, 5 G</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine</t>
+          <t>Ibuprofen</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine</t>
+          <t>Ibuprofen</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Amines, Building Blocks, Nitrogen Compounds, Organic Building Blocks</t>
+          <t>Bioactive Small Molecules, Cell Biology, Bioreagents, Enzyme Inhibitors, Pharmacopoeia, Research Essentials</t>
         </is>
       </c>
       <c r="W87" t="n">
@@ -12488,7 +12488,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0219027701</t>
+          <t>0219023791</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -12536,22 +12536,22 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 1 G</t>
+          <t>D-(+)-MALTOSE MONOHYDRATE, ~99%, 1 KG</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine</t>
+          <t>D-(+)-Maltose Monohydrate</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine</t>
+          <t>D-(+)-Maltose Monohydrate</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Amines, Building Blocks, Nitrogen Compounds, Organic Building Blocks</t>
+          <t>Carbohydrates, Bioreagents, Metabolic Libraries, Metabolomics, Research Essentials</t>
         </is>
       </c>
       <c r="W88" t="n">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0219027705</t>
+          <t>02190277.1</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -12669,7 +12669,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 5 G</t>
+          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 100 MG</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -12754,7 +12754,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0219028425</t>
+          <t>0219027701</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -12802,22 +12802,22 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>2-THIOBARBITURIC ACID, 25 G</t>
+          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 1 G</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric Acid</t>
+          <t>3,3',5,5'-Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric Acid</t>
+          <t>3,3',5,5'-Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Reagent, Pyrimidines, Quantitate lipopolysaccharides,Determination of N-acetylneuraminic acid</t>
+          <t>Amines, Building Blocks, Nitrogen Compounds, Organic Building Blocks</t>
         </is>
       </c>
       <c r="W90" t="n">
@@ -12887,7 +12887,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0219028480</t>
+          <t>0219027705</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -12935,22 +12935,22 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>2-THIOBARBITURIC ACID, 100 G</t>
+          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 5 G</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric Acid</t>
+          <t>3,3',5,5'-Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric Acid</t>
+          <t>3,3',5,5'-Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Reagent, Pyrimidines, Quantitate lipopolysaccharides,Determination of N-acetylneuraminic acid</t>
+          <t>Amines, Building Blocks, Nitrogen Compounds, Organic Building Blocks</t>
         </is>
       </c>
       <c r="W91" t="n">
@@ -13020,7 +13020,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0219028483</t>
+          <t>0219028425</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -13068,7 +13068,7 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>2-THIOBARBITURIC ACID, 250 G</t>
+          <t>2-THIOBARBITURIC ACID, 25 G</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
@@ -13153,7 +13153,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0219028490</t>
+          <t>0219028480</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>2-THIOBARBITURIC ACID, 500 G</t>
+          <t>2-THIOBARBITURIC ACID, 100 G</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
@@ -13286,7 +13286,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0219052001</t>
+          <t>0219028483</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -13334,22 +13334,22 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>AZURE B, 1 G</t>
+          <t>2-THIOBARBITURIC ACID, 250 G</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>2-Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>2-Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Hematology and Histology, Luminescent compounds/Detection, Stains &amp; Dyes</t>
+          <t>Reagent, Pyrimidines, Quantitate lipopolysaccharides,Determination of N-acetylneuraminic acid</t>
         </is>
       </c>
       <c r="W94" t="n">
@@ -13419,7 +13419,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0219052005</t>
+          <t>0219028490</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -13467,22 +13467,22 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>AZURE B, 5 G</t>
+          <t>2-THIOBARBITURIC ACID, 500 G</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>2-Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>2-Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Hematology and Histology, Luminescent compounds/Detection, Stains &amp; Dyes</t>
+          <t>Reagent, Pyrimidines, Quantitate lipopolysaccharides,Determination of N-acetylneuraminic acid</t>
         </is>
       </c>
       <c r="W95" t="n">
@@ -13552,7 +13552,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0219151490</t>
+          <t>0219052001</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -13600,22 +13600,22 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>RICINOLEIC ACID, 500 MG</t>
+          <t>AZURE B, 1 G</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>Ricinoleic Acid</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Ricinoleic Acid</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Fatty Acids and conjugates, Unsaturated Fatty Acids and Derivatives</t>
+          <t>Biochemicals and Reagents, Hematology and Histology, Luminescent compounds/Detection, Stains &amp; Dyes</t>
         </is>
       </c>
       <c r="W96" t="n">
@@ -13685,7 +13685,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0219397180</t>
+          <t>0219052005</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -13733,22 +13733,22 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>TRITON X-114, 100 ML</t>
+          <t>AZURE B, 5 G</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>Triton X-114</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Triton X-114</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Electrophoresis Chromatography, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Non-Ionic Detergents, Proteins and Derivatives, Proteomics, Research Essentials</t>
+          <t>Biochemicals and Reagents, Hematology and Histology, Luminescent compounds/Detection, Stains &amp; Dyes</t>
         </is>
       </c>
       <c r="W97" t="n">
@@ -13818,7 +13818,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0219397183</t>
+          <t>0219151490</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -13866,22 +13866,22 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>TRITON X-114, 250 ML</t>
+          <t>RICINOLEIC ACID, 500 MG</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>Triton X-114</t>
+          <t>Ricinoleic Acid</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>Triton X-114</t>
+          <t>Ricinoleic Acid</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Electrophoresis Chromatography, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Non-Ionic Detergents, Proteins and Derivatives, Proteomics, Research Essentials</t>
+          <t>Biochemicals and Reagents, Fatty Acids and conjugates, Unsaturated Fatty Acids and Derivatives</t>
         </is>
       </c>
       <c r="W98" t="n">
@@ -13951,7 +13951,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0219397191</t>
+          <t>0219397180</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -13999,7 +13999,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>TRITON X-114, 1 L</t>
+          <t>TRITON X-114, 100 ML</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0219398880</t>
+          <t>0219397183</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -14132,22 +14132,22 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>AMMONIUM PERSULFATE, MOLECULAR BIOLOGY REAGENT</t>
+          <t>TRITON X-114, 250 ML</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>Polymerization catalyst used with TEMED for polyacrylamide gel formation.</t>
+          <t>Triton X-114</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>Ammonium Persulfate</t>
+          <t>Triton X-114</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>Acrylamide, Automated Sequencing, Biochemicals, Chemical Synthesis, Gel Solutions and Reagents, Molecular Biology, Molecular Biology Reagents, Nucleic Acid Electrophoresis, Oxidizing Agents, Sulfur-Based, Synthetic Reagents</t>
+          <t>Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Electrophoresis Chromatography, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Non-Ionic Detergents, Proteins and Derivatives, Proteomics, Research Essentials</t>
         </is>
       </c>
       <c r="W100" t="n">
@@ -14217,7 +14217,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0219401283</t>
+          <t>0219397191</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -14265,21 +14265,23 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>SODIUM ACETATE, 250 G</t>
+          <t>TRITON X-114, 1 L</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Triton X-114</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V101" t="n">
-        <v/>
+          <t>Triton X-114</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Electrophoresis Chromatography, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Non-Ionic Detergents, Proteins and Derivatives, Proteomics, Research Essentials</t>
+        </is>
       </c>
       <c r="W101" t="n">
         <v/>
@@ -14348,7 +14350,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0219401291</t>
+          <t>0219398880</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -14396,21 +14398,23 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>SODIUM ACETATE, 1 KG</t>
+          <t>AMMONIUM PERSULFATE, MOLECULAR BIOLOGY REAGENT</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Polymerization catalyst used with TEMED for polyacrylamide gel formation.</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V102" t="n">
-        <v/>
+          <t>Ammonium Persulfate</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>Acrylamide, Automated Sequencing, Biochemicals, Chemical Synthesis, Gel Solutions and Reagents, Molecular Biology, Molecular Biology Reagents, Nucleic Acid Electrophoresis, Oxidizing Agents, Sulfur-Based, Synthetic Reagents</t>
+        </is>
       </c>
       <c r="W102" t="n">
         <v/>
@@ -14479,7 +14483,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0219405780</t>
+          <t>0219401283</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -14527,23 +14531,21 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>HYDROGEN PEROXIDE, 100 ML</t>
+          <t>SODIUM ACETATE, 250 G</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide</t>
-        </is>
-      </c>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>ACS Grade, Acids &amp; Bases, Bioactive Small Molecules, Blocking Sera and Reagents, Cell Biology, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Life Science Reagents for Immunohistochemistry (IHC), Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Western Blotting, Oxidizing Agents, Peroxides, Research Essentials, Synthetic Reagents</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V103" t="n">
+        <v/>
       </c>
       <c r="W103" t="n">
         <v/>
@@ -14612,7 +14614,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0219405790</t>
+          <t>0219401291</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -14660,23 +14662,21 @@
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>HYDROGEN PEROXIDE, 500 ML</t>
+          <t>SODIUM ACETATE, 1 KG</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide</t>
-        </is>
-      </c>
-      <c r="V104" t="inlineStr">
-        <is>
-          <t>ACS Grade, Acids &amp; Bases, Bioactive Small Molecules, Blocking Sera and Reagents, Cell Biology, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Life Science Reagents for Immunohistochemistry (IHC), Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Western Blotting, Oxidizing Agents, Peroxides, Research Essentials, Synthetic Reagents</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V104" t="n">
+        <v/>
       </c>
       <c r="W104" t="n">
         <v/>
@@ -14745,7 +14745,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0219455794</t>
+          <t>0219405780</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -14793,22 +14793,22 @@
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>TRIS, CELL CULTURE REAGENT, 99.95%, 5 KG</t>
+          <t>HYDROGEN PEROXIDE, 100 ML</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>Tris</t>
+          <t>Hydrogen Peroxide</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Tris</t>
+          <t>Hydrogen Peroxide</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>BioReagent Buffers, Buffer Salts, Buffered Salt Solutions, BBuffers Salts, Buffers A to Z, Bioreagents, Goodâ€™s Buffers, Life Science Reagents for Cell Culture, Life Science Reagents for Cloning, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Research Essentials</t>
+          <t>ACS Grade, Acids &amp; Bases, Bioactive Small Molecules, Blocking Sera and Reagents, Cell Biology, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Life Science Reagents for Immunohistochemistry (IHC), Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Western Blotting, Oxidizing Agents, Peroxides, Research Essentials, Synthetic Reagents</t>
         </is>
       </c>
       <c r="W105" t="n">
@@ -14878,7 +14878,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0219455891</t>
+          <t>0219405790</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -14926,22 +14926,22 @@
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>TRIS HYDROCHLORIDE, CELL CULTURE REAGENT, 99%, 1 KG</t>
+          <t>HYDROGEN PEROXIDE, 500 ML</t>
         </is>
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>Tris Hydrochloride</t>
+          <t>Hydrogen Peroxide</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>Tris Hydrochloride</t>
+          <t>Hydrogen Peroxide</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>Apoptosis and Cell Cycle, BioReagent Buffers, Biological Buffers, Buffer Salts, Buffered Salt Solutions, Cell Biology, Cell Signaling and Neuroscience, Bioreagents, Goodâ€™s Buffers, Life Science Reagents for Cell Culture, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Other Apoptosis Related Reagents, Research Essentials</t>
+          <t>ACS Grade, Acids &amp; Bases, Bioactive Small Molecules, Blocking Sera and Reagents, Cell Biology, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Life Science Reagents for Immunohistochemistry (IHC), Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Western Blotting, Oxidizing Agents, Peroxides, Research Essentials, Synthetic Reagents</t>
         </is>
       </c>
       <c r="W106" t="n">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0219464180</t>
+          <t>0219455794</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -15059,21 +15059,23 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>CITRIC ACID, 100 G</t>
+          <t>TRIS, CELL CULTURE REAGENT, 99.95%, 5 KG</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tris</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V107" t="n">
-        <v/>
+          <t>Tris</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>BioReagent Buffers, Buffer Salts, Buffered Salt Solutions, BBuffers Salts, Buffers A to Z, Bioreagents, Goodâ€™s Buffers, Life Science Reagents for Cell Culture, Life Science Reagents for Cloning, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Research Essentials</t>
+        </is>
       </c>
       <c r="W107" t="n">
         <v/>
@@ -15142,7 +15144,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0219467925</t>
+          <t>0219455891</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -15190,22 +15192,22 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>GLUTATHIONE REDUCED, CELL CULTURE REAGENT, 98%, 25 G</t>
+          <t>TRIS HYDROCHLORIDE, CELL CULTURE REAGENT, 99%, 1 KG</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>Glutathione Reduced</t>
+          <t>Tris Hydrochloride</t>
         </is>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>Glutathione Reduced</t>
+          <t>Tris Hydrochloride</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>Substrates, Oxidative Stress Proteins, Nutrition Research, Metabolites and cofactors on metabolic pathways chart, Functional foods, Enzymes, Inhibitors, Enzymes, Cell Biology, Application Index, Amino Acids, Allium Sativum.</t>
+          <t>Apoptosis and Cell Cycle, BioReagent Buffers, Biological Buffers, Buffer Salts, Buffered Salt Solutions, Cell Biology, Cell Signaling and Neuroscience, Bioreagents, Goodâ€™s Buffers, Life Science Reagents for Cell Culture, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Other Apoptosis Related Reagents, Research Essentials</t>
         </is>
       </c>
       <c r="W108" t="n">
@@ -15275,7 +15277,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0219468105</t>
+          <t>0219464180</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -15323,23 +15325,21 @@
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>GLYCINE, CELL CULTURE REAGENT, 5 KG</t>
+          <t>CITRIC ACID, 100 G</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>Glycine</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>Glycine</t>
-        </is>
-      </c>
-      <c r="V109" t="inlineStr">
-        <is>
-          <t>Reagents, Cell culture, Biochemicals, Amino Acids, Vitamins</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V109" t="n">
+        <v/>
       </c>
       <c r="W109" t="n">
         <v/>
@@ -15408,7 +15408,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0219468901</t>
+          <t>0219467925</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -15456,22 +15456,22 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>L-ISOLEUCINE, 1 G</t>
+          <t>GLUTATHIONE REDUCED, CELL CULTURE REAGENT, 98%, 25 G</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>L-Isoleucine</t>
+          <t>Glutathione Reduced</t>
         </is>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>L-Isoleucine</t>
+          <t>Glutathione Reduced</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>Aloe Vera, Amino Acid Derivatives, Amino Acid Library,Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Culture, Chemical Biology, Chemical Synthesis, Life Science Reagents for Cell Culture, Peptide Chemistry, Pharmacopoeial Amino Acids, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, SILAC, Stable Isotopes, Unlabeled Amino Acids</t>
+          <t>Substrates, Oxidative Stress Proteins, Nutrition Research, Metabolites and cofactors on metabolic pathways chart, Functional foods, Enzymes, Inhibitors, Enzymes, Cell Biology, Application Index, Amino Acids, Allium Sativum.</t>
         </is>
       </c>
       <c r="W110" t="n">
@@ -15541,7 +15541,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0219468925</t>
+          <t>0219468105</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -15589,22 +15589,22 @@
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>L-ISOLEUCINE, 25 G</t>
+          <t>GLYCINE, CELL CULTURE REAGENT, 5 KG</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>L-Isoleucine</t>
+          <t>Glycine</t>
         </is>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>L-Isoleucine</t>
+          <t>Glycine</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>Aloe Vera, Amino Acid Derivatives, Amino Acid Library,Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Culture, Chemical Biology, Chemical Synthesis, Life Science Reagents for Cell Culture, Peptide Chemistry, Pharmacopoeial Amino Acids, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, SILAC, Stable Isotopes, Unlabeled Amino Acids</t>
+          <t>Reagents, Cell culture, Biochemicals, Amino Acids, Vitamins</t>
         </is>
       </c>
       <c r="W111" t="n">
@@ -15674,7 +15674,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0219468980</t>
+          <t>0219468901</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -15722,7 +15722,7 @@
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>L-ISOLEUCINE, 100 G</t>
+          <t>L-ISOLEUCINE, 1 G</t>
         </is>
       </c>
       <c r="T112" t="inlineStr">
@@ -15807,7 +15807,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0219472891</t>
+          <t>0219468925</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -15855,22 +15855,22 @@
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>L-PROLINE, CELL CULTURE REAGENT, 99%, 1 KG</t>
+          <t>L-ISOLEUCINE, 25 G</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>L-Proline</t>
+          <t>L-Isoleucine</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>L-Proline</t>
+          <t>L-Isoleucine</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>Allium cepa (Onion), Allium sativum (Garlic), Aloe Vera, Amino Acid, Amino Acid Derivatives, Chemical Synthesis, Cichorium intybus (Chicory), Functional Foods, Ginkgo biloba, Humulus lupulus (Hops), Linum usitatissimum (Flax), Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways, Metabolomics, Nutrition Research, Panax ginseng, Peptide Chemistry, Phenylalanine, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, Research Essentials, Zingiber officinale (Ginger)</t>
+          <t>Aloe Vera, Amino Acid Derivatives, Amino Acid Library,Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Culture, Chemical Biology, Chemical Synthesis, Life Science Reagents for Cell Culture, Peptide Chemistry, Pharmacopoeial Amino Acids, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, SILAC, Stable Isotopes, Unlabeled Amino Acids</t>
         </is>
       </c>
       <c r="W113" t="n">
@@ -15940,7 +15940,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0219474190</t>
+          <t>0219468980</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -15988,22 +15988,22 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>SODIUM SELENITE, 500 G</t>
+          <t>L-ISOLEUCINE, 100 G</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>Sodium Selenite</t>
+          <t>L-Isoleucine</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>Sodium Selenite</t>
+          <t>L-Isoleucine</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>Antioxidant, Chemical Synthesis, Functional Foods, Inorganic Salts, Nutrition Research, Sodium, Synthetic Reagents</t>
+          <t>Aloe Vera, Amino Acid Derivatives, Amino Acid Library,Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Culture, Chemical Biology, Chemical Synthesis, Life Science Reagents for Cell Culture, Peptide Chemistry, Pharmacopoeial Amino Acids, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, SILAC, Stable Isotopes, Unlabeled Amino Acids</t>
         </is>
       </c>
       <c r="W114" t="n">
@@ -16073,7 +16073,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>02194742.5</t>
+          <t>0219472891</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -16121,22 +16121,22 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>D-SORBITOL, ANHYDROUS, CELL CULTURE REAGENT, 98%, 500 G</t>
+          <t>L-PROLINE, CELL CULTURE REAGENT, 99%, 1 KG</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>D-Sorbitol</t>
+          <t>L-Proline</t>
         </is>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>D-Sorbitol</t>
+          <t>L-Proline</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>Carbohydrate Chemistry, Carbohydrate Derivatives, Carbohydrates, Cell Biology, Chemical Biology, Chemical Synthesis, Core Bioreagents, Functional Foods, Nutrition Research, Research Essentials, Simple sugars</t>
+          <t>Allium cepa (Onion), Allium sativum (Garlic), Aloe Vera, Amino Acid, Amino Acid Derivatives, Chemical Synthesis, Cichorium intybus (Chicory), Functional Foods, Ginkgo biloba, Humulus lupulus (Hops), Linum usitatissimum (Flax), Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways, Metabolomics, Nutrition Research, Panax ginseng, Peptide Chemistry, Phenylalanine, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, Research Essentials, Zingiber officinale (Ginger)</t>
         </is>
       </c>
       <c r="W115" t="n">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0219480425</t>
+          <t>0219474190</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -16254,22 +16254,22 @@
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>PHORBOL 12-MYRISTATE 13-ACETATE, MOLECULAR BIOLOGY REAGENT, ~99%, 25 MG</t>
+          <t>SODIUM SELENITE, 500 G</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>Phorbol 12-Myristate 13-Acetate</t>
+          <t>Sodium Selenite</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>Phorbol 12-Myristate 13-Acetate</t>
+          <t>Sodium Selenite</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
+          <t>Antioxidant, Chemical Synthesis, Functional Foods, Inorganic Salts, Nutrition Research, Sodium, Synthetic Reagents</t>
         </is>
       </c>
       <c r="W116" t="n">
@@ -16339,7 +16339,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0219485102</t>
+          <t>02194742.5</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -16387,7 +16387,7 @@
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>D-SORBITOL, MOLECULAR BIOLOGY REAGENT, 98%, 2 KG</t>
+          <t>D-SORBITOL, ANHYDROUS, CELL CULTURE REAGENT, 98%, 500 G</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
@@ -16402,7 +16402,7 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>Biochemicals, Biochemicals and Reagents, Carbohydrate Chemistry, Carbohydrate Derivatives, Carbohydrates,Carbohydrates A to Z, Carbohydrates D-F, Cell Biology, Chemical Biology, Chemical Synthesis, Core Bioreagents, Density Gradient Media, General Reagents, Hematology and Histology, Life Science Reagents for Cloning, Life Science Reagents for PCR, Molecular Biology, Molecular Biology Reagents, Monosaccharide, Polyhydric alcohols, Research Essentials</t>
+          <t>Carbohydrate Chemistry, Carbohydrate Derivatives, Carbohydrates, Cell Biology, Chemical Biology, Chemical Synthesis, Core Bioreagents, Functional Foods, Nutrition Research, Research Essentials, Simple sugars</t>
         </is>
       </c>
       <c r="W117" t="n">
@@ -16472,7 +16472,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>02195074.1</t>
+          <t>0219480425</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -16520,22 +16520,22 @@
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>BORIC ACID, 100 G</t>
+          <t>PHORBOL 12-MYRISTATE 13-ACETATE, MOLECULAR BIOLOGY REAGENT, ~99%, 25 MG</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>Phorbol 12-Myristate 13-Acetate</t>
         </is>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>Phorbol 12-Myristate 13-Acetate</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>Biochemicals, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffer salts, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Expression and Purification, Molecular Biology, Molecular Biology Reagents, Research Essentials</t>
+          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
         </is>
       </c>
       <c r="W118" t="n">
@@ -16605,7 +16605,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0219507401</t>
+          <t>0219485102</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -16653,22 +16653,22 @@
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>BORIC ACID, 1 KG</t>
+          <t>D-SORBITOL, MOLECULAR BIOLOGY REAGENT, 98%, 2 KG</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>D-Sorbitol</t>
         </is>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>D-Sorbitol</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>Biochemicals, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffer salts, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Expression and Purification, Molecular Biology, Molecular Biology Reagents, Research Essentials</t>
+          <t>Biochemicals, Biochemicals and Reagents, Carbohydrate Chemistry, Carbohydrate Derivatives, Carbohydrates,Carbohydrates A to Z, Carbohydrates D-F, Cell Biology, Chemical Biology, Chemical Synthesis, Core Bioreagents, Density Gradient Media, General Reagents, Hematology and Histology, Life Science Reagents for Cloning, Life Science Reagents for PCR, Molecular Biology, Molecular Biology Reagents, Monosaccharide, Polyhydric alcohols, Research Essentials</t>
         </is>
       </c>
       <c r="W119" t="n">
@@ -16738,7 +16738,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>0219507405</t>
+          <t>02195074.1</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -16786,7 +16786,7 @@
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>BORIC ACID, 5 KG</t>
+          <t>BORIC ACID, 100 G</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
@@ -16871,7 +16871,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>0219519901</t>
+          <t>0219507401</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -16919,22 +16919,22 @@
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>GLUTARALDEHYDE, 25% AQUEOUS SOLUTION, 1 ML</t>
+          <t>BORIC ACID, 1 KG</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>Glutaraldehyde Solution</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>Glutaraldehyde Solution</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>Aldehydes, Biochemicals and Reagents, Building Blocks, Carbohydrates, Carbonyl Compounds, Chemical Synthesis, Core Bioreagents, Fixatives, Hematology and Histology, Life Science Reagents for Immunohistochemistry (IHC), Monosaccharide, Organic Building Blocks, Research Essentials, Tissue Processing</t>
+          <t>Biochemicals, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffer salts, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Expression and Purification, Molecular Biology, Molecular Biology Reagents, Research Essentials</t>
         </is>
       </c>
       <c r="W121" t="n">
@@ -17004,7 +17004,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>0219521380</t>
+          <t>0219507405</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -17052,22 +17052,22 @@
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>GUANOSINE-5€²-TRIPHOSPHATE DISODIUM SALT,95%, 100 MG</t>
+          <t>BORIC ACID, 5 KG</t>
         </is>
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>Guanosine-5â€²-Triphosphate Disodium Salt</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>Guanosine-5â€²-Triphosphate Disodium Salt</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>Substrates by Enzyme, Reagents, Nucleoside phosphate donors, Metabolic Pathways, G Proteins and Cyclic nucleotides, Inhibitors and Substrates, Cofactors, Cell Signaling and Neuroscience, Cell Biology, Biochemicals</t>
+          <t>Biochemicals, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffer salts, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Expression and Purification, Molecular Biology, Molecular Biology Reagents, Research Essentials</t>
         </is>
       </c>
       <c r="W122" t="n">
@@ -17137,7 +17137,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0219525410</t>
+          <t>0219519901</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -17185,22 +17185,22 @@
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>SEPHADEX G-26, 10 G</t>
+          <t>GLUTARALDEHYDE, 25% AQUEOUS SOLUTION, 1 ML</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>Sephadex G-25</t>
+          <t>Glutaraldehyde Solution</t>
         </is>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>Sephadex G-25</t>
+          <t>Glutaraldehyde Solution</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>195254; 02195254</t>
+          <t>Aldehydes, Biochemicals and Reagents, Building Blocks, Carbohydrates, Carbonyl Compounds, Chemical Synthesis, Core Bioreagents, Fixatives, Hematology and Histology, Life Science Reagents for Immunohistochemistry (IHC), Monosaccharide, Organic Building Blocks, Research Essentials, Tissue Processing</t>
         </is>
       </c>
       <c r="W123" t="n">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>0219525412</t>
+          <t>0219521380</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -17306,23 +17306,35 @@
       <c r="P124" t="n">
         <v/>
       </c>
-      <c r="Q124" t="n">
-        <v/>
-      </c>
-      <c r="R124" t="n">
-        <v/>
-      </c>
-      <c r="S124" t="n">
-        <v/>
-      </c>
-      <c r="T124" t="n">
-        <v/>
-      </c>
-      <c r="U124" t="n">
-        <v/>
-      </c>
-      <c r="V124" t="n">
-        <v/>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>GUANOSINE-5€²-TRIPHOSPHATE DISODIUM SALT,95%, 100 MG</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>Guanosine-5â€²-Triphosphate Disodium Salt</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>Guanosine-5â€²-Triphosphate Disodium Salt</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>Substrates by Enzyme, Reagents, Nucleoside phosphate donors, Metabolic Pathways, G Proteins and Cyclic nucleotides, Inhibitors and Substrates, Cofactors, Cell Signaling and Neuroscience, Cell Biology, Biochemicals</t>
+        </is>
       </c>
       <c r="W124" t="n">
         <v/>
@@ -17391,7 +17403,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0219525450</t>
+          <t>0219525410</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -17439,7 +17451,7 @@
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>SEPHADEX G-27, 50 G</t>
+          <t>SEPHADEX G-26, 10 G</t>
         </is>
       </c>
       <c r="T125" t="inlineStr">
@@ -17524,7 +17536,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0219941001</t>
+          <t>0219525412</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -17560,35 +17572,23 @@
       <c r="P126" t="n">
         <v/>
       </c>
-      <c r="Q126" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 1 G</t>
-        </is>
-      </c>
-      <c r="T126" t="inlineStr">
-        <is>
-          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
-        </is>
-      </c>
-      <c r="U126" t="inlineStr">
-        <is>
-          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
-        </is>
-      </c>
-      <c r="V126" t="inlineStr">
-        <is>
-          <t>Alkaline Phosphatase, Biochemicals and Reagents, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Substrates by Enzyme</t>
-        </is>
+      <c r="Q126" t="n">
+        <v/>
+      </c>
+      <c r="R126" t="n">
+        <v/>
+      </c>
+      <c r="S126" t="n">
+        <v/>
+      </c>
+      <c r="T126" t="n">
+        <v/>
+      </c>
+      <c r="U126" t="n">
+        <v/>
+      </c>
+      <c r="V126" t="n">
+        <v/>
       </c>
       <c r="W126" t="n">
         <v/>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0219941005</t>
+          <t>0219525450</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -17705,22 +17705,22 @@
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 5 G</t>
+          <t>SEPHADEX G-27, 50 G</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+          <t>Sephadex G-25</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+          <t>Sephadex G-25</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>Alkaline Phosphatase, Biochemicals and Reagents, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Substrates by Enzyme</t>
+          <t>195254; 02195254</t>
         </is>
       </c>
       <c r="W127" t="n">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0219941010</t>
+          <t>0219941001</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -17838,7 +17838,7 @@
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 10 G</t>
+          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 1 G</t>
         </is>
       </c>
       <c r="T128" t="inlineStr">
@@ -17923,7 +17923,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0219951805</t>
+          <t>0219941005</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -17971,22 +17971,22 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 5 UNITS</t>
+          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 5 G</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
         </is>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>Oxidoreductases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, General Metabolic Enzymes, Metabolomics, Nucleic Acid Metabolism</t>
+          <t>Alkaline Phosphatase, Biochemicals and Reagents, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Substrates by Enzyme</t>
         </is>
       </c>
       <c r="W129" t="n">
@@ -18056,7 +18056,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0219951825</t>
+          <t>0219941010</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -18104,22 +18104,22 @@
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 25 UNITS</t>
+          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 10 G</t>
         </is>
       </c>
       <c r="T130" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
         </is>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>Oxidoreductases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, General Metabolic Enzymes, Metabolomics, Nucleic Acid Metabolism</t>
+          <t>Alkaline Phosphatase, Biochemicals and Reagents, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Substrates by Enzyme</t>
         </is>
       </c>
       <c r="W130" t="n">
@@ -18189,7 +18189,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0219951850</t>
+          <t>0219951805</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -18237,7 +18237,7 @@
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 50 UNITS</t>
+          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 5 UNITS</t>
         </is>
       </c>
       <c r="T131" t="inlineStr">
@@ -18322,7 +18322,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0219960880</t>
+          <t>0219951825</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -18370,22 +18370,22 @@
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>L-GLUTAMINE, USP, 100 G</t>
+          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 25 UNITS</t>
         </is>
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>L-Glutamine</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>L-Glutamine</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Amino acids, Bioactives/Supplements, Biochemicals and Reagents, Cell Biology, Cell Culture, Functional Foods, G, General Reagents, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Libraries, Metabolomics, Nutrition Research, Reagents and Supplements, Research Essentials, Stem Cell Biology, Stem Cell Isolation</t>
+          <t>Oxidoreductases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, General Metabolic Enzymes, Metabolomics, Nucleic Acid Metabolism</t>
         </is>
       </c>
       <c r="W132" t="n">
@@ -18455,7 +18455,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0219960890</t>
+          <t>0219951850</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -18503,22 +18503,22 @@
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>L-GLUTAMINE, USP, 500 G</t>
+          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 50 UNITS</t>
         </is>
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t>L-Glutamine</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>L-Glutamine</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Amino acids, Bioactives/Supplements, Biochemicals and Reagents, Cell Biology, Cell Culture, Functional Foods, G, General Reagents, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Libraries, Metabolomics, Nutrition Research, Reagents and Supplements, Research Essentials, Stem Cell Biology, Stem Cell Isolation</t>
+          <t>Oxidoreductases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, General Metabolic Enzymes, Metabolomics, Nucleic Acid Metabolism</t>
         </is>
       </c>
       <c r="W133" t="n">
@@ -18588,7 +18588,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0219960891</t>
+          <t>0219960880</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -18636,7 +18636,7 @@
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>L-GLUTAMINE, USP, 1 KG</t>
+          <t>L-GLUTAMINE, USP, 100 G</t>
         </is>
       </c>
       <c r="T134" t="inlineStr">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0230008406</t>
+          <t>0219960890</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -18769,22 +18769,22 @@
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>ETHYL ACETATE, 6 X 1 L</t>
+          <t>L-GLUTAMINE, USP, 500 G</t>
         </is>
       </c>
       <c r="T135" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>L-Glutamine</t>
         </is>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>L-Glutamine</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>Analytical Reagents, Analytical/Chromatography, Chromatography Reagents &amp; Solvents, Ethyl Acetate, Solvents</t>
+          <t>Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Amino acids, Bioactives/Supplements, Biochemicals and Reagents, Cell Biology, Cell Culture, Functional Foods, G, General Reagents, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Libraries, Metabolomics, Nutrition Research, Reagents and Supplements, Research Essentials, Stem Cell Biology, Stem Cell Isolation</t>
         </is>
       </c>
       <c r="W135" t="n">
@@ -18854,7 +18854,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0230008416</t>
+          <t>0219960891</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -18902,22 +18902,22 @@
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>ETHYL ACETATE, 4 X 4 L</t>
+          <t>L-GLUTAMINE, USP, 1 KG</t>
         </is>
       </c>
       <c r="T136" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>L-Glutamine</t>
         </is>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>L-Glutamine</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>Analytical Reagents, Analytical/Chromatography, Chromatography Reagents &amp; Solvents, Ethyl Acetate, Solvents</t>
+          <t>Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Amino acids, Bioactives/Supplements, Biochemicals and Reagents, Cell Biology, Cell Culture, Functional Foods, G, General Reagents, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Libraries, Metabolomics, Nutrition Research, Reagents and Supplements, Research Essentials, Stem Cell Biology, Stem Cell Isolation</t>
         </is>
       </c>
       <c r="W136" t="n">
@@ -18987,7 +18987,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>03AFC13805</t>
+          <t>0230008406</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -19035,22 +19035,22 @@
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 5 MG</t>
+          <t>ETHYL ACETATE, 6 X 1 L</t>
         </is>
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>Substrate, Caspase-3, CPP-32, Assay of caspase-3,7</t>
+          <t>Analytical Reagents, Analytical/Chromatography, Chromatography Reagents &amp; Solvents, Ethyl Acetate, Solvents</t>
         </is>
       </c>
       <c r="W137" t="n">
@@ -19120,7 +19120,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>03AFC13810</t>
+          <t>0230008416</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -19168,22 +19168,22 @@
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 10 MG</t>
+          <t>ETHYL ACETATE, 4 X 4 L</t>
         </is>
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>Substrate, Caspase-3, CPP-32, Assay of caspase-3,7</t>
+          <t>Analytical Reagents, Analytical/Chromatography, Chromatography Reagents &amp; Solvents, Ethyl Acetate, Solvents</t>
         </is>
       </c>
       <c r="W138" t="n">
@@ -19253,7 +19253,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>03AFC13825</t>
+          <t>03AFC13805</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -19301,7 +19301,7 @@
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 25 MG</t>
+          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 5 MG</t>
         </is>
       </c>
       <c r="T139" t="inlineStr">
@@ -19386,7 +19386,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>03AFC15605</t>
+          <t>03AFC13810</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -19434,21 +19434,23 @@
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>AC-TRP-GLU-HIS-ASP-7-AMINO-4-T, 5 MG</t>
+          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 10 MG</t>
         </is>
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
         </is>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V140" t="n">
-        <v/>
+          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>Substrate, Caspase-3, CPP-32, Assay of caspase-3,7</t>
+        </is>
       </c>
       <c r="W140" t="n">
         <v/>
@@ -19517,7 +19519,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>03SB00705</t>
+          <t>03AFC13825</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -19565,21 +19567,23 @@
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>Z-GLY-ARG-THIOBENZYL ESTER, 5 MG</t>
+          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 25 MG</t>
         </is>
       </c>
       <c r="T141" t="inlineStr">
         <is>
-          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
+          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
         </is>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
-        </is>
-      </c>
-      <c r="V141" t="n">
-        <v/>
+          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>Substrate, Caspase-3, CPP-32, Assay of caspase-3,7</t>
+        </is>
       </c>
       <c r="W141" t="n">
         <v/>
@@ -19648,7 +19652,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>03SB00710</t>
+          <t>03AFC15605</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -19696,17 +19700,17 @@
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>Z-GLY-ARG-THIOBENZYL ESTER, 10 MG</t>
+          <t>AC-TRP-GLU-HIS-ASP-7-AMINO-4-T, 5 MG</t>
         </is>
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V142" t="n">
@@ -19779,7 +19783,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>04800681</t>
+          <t>03SB00705</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -19827,23 +19831,21 @@
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>CITRIC ACID, 1 KG</t>
+          <t>Z-GLY-ARG-THIOBENZYL ESTER, 5 MG</t>
         </is>
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>Citric Acid</t>
+          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
         </is>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>Citric Acid</t>
-        </is>
-      </c>
-      <c r="V143" t="inlineStr">
-        <is>
-          <t>Allium cepa (Onion), Berberis sp., Bioactive Small Molecules, Biochemicals and Reagents, Biological Buffers, Cell Biology, Cell Culture, Chelators, Cichorium intybus (Chicory), Citrus aurantium (Seville orange), Euphorbia sp, Ginkgo biloba, Nutrition Research, Other Biochemical, Panax ginseng, Phytochemicals by Chemical Classification, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, Sambucus nigra (Elderberry), Vaccinium macrocarpon (Cranberry), Vaccinium myrtillus (Bilberry)</t>
-        </is>
+          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
+        </is>
+      </c>
+      <c r="V143" t="n">
+        <v/>
       </c>
       <c r="W143" t="n">
         <v/>
@@ -19912,7 +19914,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>04805732</t>
+          <t>03SB00710</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -19960,17 +19962,17 @@
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>BROMOPHENOL BLUE, SODIUM SALT, 10 G</t>
+          <t>Z-GLY-ARG-THIOBENZYL ESTER, 10 MG</t>
         </is>
       </c>
       <c r="T144" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
         </is>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
+          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
         </is>
       </c>
       <c r="V144" t="n">
@@ -20043,7 +20045,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>04806443</t>
+          <t>04800681</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -20091,21 +20093,23 @@
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>2-MERCAPTOETHANOL, ELECTROPHORESIS GRADE,  25 G</t>
+          <t>CITRIC ACID, 1 KG</t>
         </is>
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Citric Acid</t>
         </is>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V145" t="n">
-        <v/>
+          <t>Citric Acid</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>Allium cepa (Onion), Berberis sp., Bioactive Small Molecules, Biochemicals and Reagents, Biological Buffers, Cell Biology, Cell Culture, Chelators, Cichorium intybus (Chicory), Citrus aurantium (Seville orange), Euphorbia sp, Ginkgo biloba, Nutrition Research, Other Biochemical, Panax ginseng, Phytochemicals by Chemical Classification, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, Sambucus nigra (Elderberry), Vaccinium macrocarpon (Cranberry), Vaccinium myrtillus (Bilberry)</t>
+        </is>
       </c>
       <c r="W145" t="n">
         <v/>
@@ -20174,7 +20178,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>04807410</t>
+          <t>04805732</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -20222,23 +20226,21 @@
       </c>
       <c r="S146" t="inlineStr">
         <is>
-          <t>TRICINE, 25 G</t>
+          <t>BROMOPHENOL BLUE, SODIUM SALT, 10 G</t>
         </is>
       </c>
       <c r="T146" t="inlineStr">
         <is>
-          <t>Tricine</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>Tricine</t>
-        </is>
-      </c>
-      <c r="V146" t="inlineStr">
-        <is>
-          <t>BioReagent Buffers, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffers Salts, Goodâ€™s Buffers, Life Science Reagents for PCR, Life Science Reagents for Western Blotting, Research Essentials</t>
-        </is>
+          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
+        </is>
+      </c>
+      <c r="V146" t="n">
+        <v/>
       </c>
       <c r="W146" t="n">
         <v/>
@@ -20307,7 +20309,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>04821616</t>
+          <t>04806443</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -20355,23 +20357,21 @@
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 25 G</t>
+          <t>2-MERCAPTOETHANOL, ELECTROPHORESIS GRADE,  25 G</t>
         </is>
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250</t>
-        </is>
-      </c>
-      <c r="V147" t="inlineStr">
-        <is>
-          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V147" t="n">
+        <v/>
       </c>
       <c r="W147" t="n">
         <v/>
@@ -20440,7 +20440,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>04821624</t>
+          <t>04807410</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -20488,22 +20488,22 @@
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 10 G</t>
+          <t>TRICINE, 25 G</t>
         </is>
       </c>
       <c r="T148" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
+          <t>Tricine</t>
         </is>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250</t>
+          <t>Tricine</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
+          <t>BioReagent Buffers, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffers Salts, Goodâ€™s Buffers, Life Science Reagents for PCR, Life Science Reagents for Western Blotting, Research Essentials</t>
         </is>
       </c>
       <c r="W148" t="n">
@@ -20573,7 +20573,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>04821636</t>
+          <t>04808873</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -20621,22 +20621,22 @@
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 100 G</t>
+          <t>GLYCINE, ELECTROPHORESIS GRADE, 250 G</t>
         </is>
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
+          <t>Glycine for use in electrophresis buffers.</t>
         </is>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250</t>
+          <t>Glycine</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
+          <t>Protein Electrophoresis, Proteomics, Research Essentials,SDS-PAGE, Western Blotting, Amino Acids, Bioactive Small Molecules, Buffers,Buffers and Reagents, Buffers, Reagents, &amp; Stains,Cell Biology, General Reagents,Life Science Reagents for Protein Electrophoresis,Life Science Reagents for Western Blotting,</t>
         </is>
       </c>
       <c r="W149" t="n">
@@ -20706,7 +20706,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>04821915</t>
+          <t>04821616</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -20754,21 +20754,23 @@
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>WATER, DNASE, RNASE-FREE, 1 L</t>
+          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 25 G</t>
         </is>
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
         </is>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="V150" t="n">
-        <v/>
+          <t>Coomassie Brilliant Blue R-250</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
+        </is>
       </c>
       <c r="W150" t="n">
         <v/>
@@ -20837,7 +20839,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>04821932</t>
+          <t>04821624</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -20885,22 +20887,22 @@
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>WATER, DNASE, RNASE-FREE, 500 ML</t>
+          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 10 G</t>
         </is>
       </c>
       <c r="T151" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
         </is>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Coomassie Brilliant Blue R-250</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>Biochemicals, Biochemicals and Reagents, Biological Buffers, Buffers A to Z, Bioreagents, Gene Expression &amp; Analysis, General Reagents, Life Science Reagents for Cloning, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Molecular Biology, Molecular Biology Reagents, Plant Biotechnology, Plant Molecular Biology, Plant Nucleic Acid Purification, Reagents, Research Essentials, Solvent by Type, Solvents, Water and Water Solutions, cDNA Labeling</t>
+          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
         </is>
       </c>
       <c r="W151" t="n">
@@ -20970,7 +20972,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>04822521</t>
+          <t>04821636</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -21018,21 +21020,23 @@
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>TRIS-GLYCINE NATIVE RUNNING BUFFER, 1 L</t>
+          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 100 G</t>
         </is>
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>Running buffer for protein electophoresis.</t>
+          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
         </is>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>Premixed liquid 10X concentrate. Contains 0.25M TRIS base, 1.92M Glycine, pH 8.5. Provides excellent separation of native large molecular weight proteins on TRIS-glycine polyacrylamide gels.</t>
-        </is>
-      </c>
-      <c r="V152" t="n">
-        <v/>
+          <t>Coomassie Brilliant Blue R-250</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
+        </is>
       </c>
       <c r="W152" t="n">
         <v/>
@@ -21101,7 +21105,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>07WS1075</t>
+          <t>04821915</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -21149,17 +21153,17 @@
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>POSITIVE DISPLACEMENT PIPETTE, 10-100 ΜL</t>
+          <t>WATER, DNASE, RNASE-FREE, 1 L</t>
         </is>
       </c>
       <c r="T153" t="inlineStr">
         <is>
-          <t>Pipettes well suited for liquids with high densities, viscosities or vapor pressures. To be used with Positive displacement pipette tips, 10-100 µL (catalog number 07DP1035)</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>Problem-free pipetting of problem Liquids: it specially suited for liquids with high densities, viscosities or vapor pressures. Given the disposable capillaries and pistons, positive displacement absolutely eliminates cross-contamination from aerosols, sa</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="V153" t="n">
@@ -21232,7 +21236,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>08320961</t>
+          <t>04821932</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -21280,22 +21284,22 @@
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>CELLULASE Y-C (FROM TRICHODERMA VIRIDE), 10 G</t>
+          <t>WATER, DNASE, RNASE-FREE, 500 ML</t>
         </is>
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t>Cellulase Y-C enzyme retains very high filter paper decomposing activity and showed an appreciable amount of hemicellulase. Actually, this enzyme removed cell walls from plant tissues in shorter incubation period without loss of biological activity of the materials.</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>Cellulase Y-C enzyme retains very high filter paper decomposing activity and showed an appreciable amount of hemicellulase. Actually, this enzyme removed cell walls from plant tissues in shorter incubation period without loss of biological activity of the materials.</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Carbohydrate Hydrolysis, Carbohydrate hydrolysis PTM analysis, Cellulase, Cellulase, Lyticase, Laminanrinase, Cellulose, &amp;beta;-Glucans and Lichenen, Cellulases with Mixtures of Activities, Cellulose Hydrolysis, Complex Carbohydrate Analysis, Enzymatic Cell Lysis and Protoplast Preparation, Enzymes for Alternative Energy Research, Enzymes for Lignocellulosic Ethanol Research, Enzymes, Inhibitors, and Substrates, Plant</t>
+          <t>Biochemicals, Biochemicals and Reagents, Biological Buffers, Buffers A to Z, Bioreagents, Gene Expression &amp; Analysis, General Reagents, Life Science Reagents for Cloning, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Molecular Biology, Molecular Biology Reagents, Plant Biotechnology, Plant Molecular Biology, Plant Nucleic Acid Purification, Reagents, Research Essentials, Solvent by Type, Solvents, Water and Water Solutions, cDNA Labeling</t>
         </is>
       </c>
       <c r="W154" t="n">
@@ -21365,7 +21369,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>0855034</t>
+          <t>04822252</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -21413,17 +21417,17 @@
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>ANTI-HUMAN COMPLEMENT C4 GOAT IGG FRACTION, 2 ML</t>
+          <t>LAEMMLI SDS SAMPLE BUFFER, 4X, 50 ML</t>
         </is>
       </c>
       <c r="T155" t="inlineStr">
         <is>
-          <t>Lyophilized goat IgG fraction to human complement C4 and buffer salts.</t>
+          <t>Sample loading buffer for protein gel electrophoresis.</t>
         </is>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of goat IgG fraction to human complement C4 and buffer salts.</t>
+          <t>Premixed liquid 4X concentrate. Contains 250mM TRIS-HCl (pH6.8), 8% SDS, 40% glycerol, and 0.02% bromophenol blue. For protein sample preparation in the Laemmli SDS-PAGE system, without reducing the disulfide linkages.</t>
         </is>
       </c>
       <c r="V155" t="n">
@@ -21496,7 +21500,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>0855285</t>
+          <t>04822261</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -21544,17 +21548,17 @@
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>ANTI-BOVINE ALBUMIN RABBIT IGG FRACTION, PEROXIDASE-CONJUGATED, 2 ML</t>
+          <t>LAEMMLI SDS SAMPLE BUFFER, 6X, 25 ML</t>
         </is>
       </c>
       <c r="T156" t="inlineStr">
         <is>
-          <t>Lyophilized horseradish peroxidase (HRP)-conjugated rabbit IgG fraction to bovine albumin and buffer salts.</t>
+          <t>Sample loading buffer for protein gel electrophoresis.</t>
         </is>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of horseradish peroxidase (HRP)-conjugated rabbit IgG fraction to bovine albumin and buffer salts.</t>
+          <t>Premixed liquid 6X concentrate. Contains 375mM TRIS-HCl (pH6.8), 9% SDS, 50% glycerol, and 0.03% bromophenol blue. For protein sample preparation in the Laemmli SDS-PAGE system, without reducing the disulfide linkages.</t>
         </is>
       </c>
       <c r="V156" t="n">
@@ -21627,7 +21631,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>0855306</t>
+          <t>04822471</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -21675,17 +21679,17 @@
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>ANTI-CHICKEN RED BLOOD CELLS RABBIT IGG FRACTION , 5 ML</t>
+          <t>TAE BUFFER (10X), 1 L</t>
         </is>
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>Lyophilized rabbit IgG fraction to chicken red blood cells and buffer salts.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of rabbit IgG fraction to chicken red blood cells and buffer salts.</t>
+          <t>Premixed liquid 10X concentrate. Contains 0.4M TRIS base, 0.4M Acetate, 10mM EDTA, pH 8.0. Used in agarose electrophoresis for separation of nucleic acids, DNA and RNA. Has lower buffer capacity than TBE but double-stranded DNA runs faster in TAE buffer.</t>
         </is>
       </c>
       <c r="V157" t="n">
@@ -21758,7 +21762,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>0855557</t>
+          <t>04822521</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -21806,17 +21810,17 @@
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>ANTI-MOUSE COMPLEMENT C3 GOAT IGG FRACTION, PEROXIDASE-CONJUGATED , 2 ML</t>
+          <t>TRIS-GLYCINE NATIVE RUNNING BUFFER, 1 L</t>
         </is>
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>Lyophilized horseradish peroxidase (HRP)-conjugated goat IgG fraction to mouse complement C3 and buffer salts.</t>
+          <t>Running buffer for protein electophoresis.</t>
         </is>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of horseradish peroxidase (HRP)-conjugated goat IgG fraction to mouse complement C3 and buffer salts.</t>
+          <t>Premixed liquid 10X concentrate. Contains 0.25M TRIS base, 1.92M Glycine, pH 8.5. Provides excellent separation of native large molecular weight proteins on TRIS-glycine polyacrylamide gels.</t>
         </is>
       </c>
       <c r="V158" t="n">
@@ -21889,7 +21893,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>0855828</t>
+          <t>07WS1075</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -21937,23 +21941,21 @@
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>FREUND'S COMPLETE ADJUVANT, 50 ML</t>
+          <t>POSITIVE DISPLACEMENT PIPETTE, 10-100 ΜL</t>
         </is>
       </c>
       <c r="T159" t="inlineStr">
         <is>
-          <t>Product is a mixture containing mineral oil, Arlacel A, and heat-killed Mycobacterium butyricum: Freund's Complete Adjuvant. Components are thoroughly mixed in controlled proportions and autoclaved prior to being vialed.</t>
+          <t>Pipettes well suited for liquids with high densities, viscosities or vapor pressures. To be used with Positive displacement pipette tips, 10-100 µL (catalog number 07DP1035)</t>
         </is>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>Product is a mixture containing mineral oil, Arlacel A, and heat-killed Mycobacterium butyricum: Freund's Complete Adjuvant. Components are thoroughly mixed in controlled proportions and autoclaved prior to being vialed.</t>
-        </is>
-      </c>
-      <c r="V159" t="inlineStr">
-        <is>
-          <t>Adjuvant emulsions, Adjuvants, Antibodies, Antibody Purification and Characterization, Cell Culture, Supplementary Products, Vaccine Adjuvants, Vaccine Production</t>
-        </is>
+          <t>Problem-free pipetting of problem Liquids: it specially suited for liquids with high densities, viscosities or vapor pressures. Given the disposable capillaries and pistons, positive displacement absolutely eliminates cross-contamination from aerosols, sa</t>
+        </is>
+      </c>
+      <c r="V159" t="n">
+        <v/>
       </c>
       <c r="W159" t="n">
         <v/>
@@ -22022,7 +22024,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>0855838</t>
+          <t>08320961</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -22070,21 +22072,23 @@
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>GAMMA GLOBULIN, HUMAN, PURIFIED,  100 MG</t>
+          <t>CELLULASE Y-C (FROM TRICHODERMA VIRIDE), 10 G</t>
         </is>
       </c>
       <c r="T160" t="inlineStr">
         <is>
-          <t>Lyophilized human gamma globulin with buffer salts.</t>
+          <t>Cellulase Y-C enzyme retains very high filter paper decomposing activity and showed an appreciable amount of hemicellulase. Actually, this enzyme removed cell walls from plant tissues in shorter incubation period without loss of biological activity of the materials.</t>
         </is>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of human gamma globulin and buffer salts.</t>
-        </is>
-      </c>
-      <c r="V160" t="n">
-        <v/>
+          <t>Cellulase Y-C enzyme retains very high filter paper decomposing activity and showed an appreciable amount of hemicellulase. Actually, this enzyme removed cell walls from plant tissues in shorter incubation period without loss of biological activity of the materials.</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>Biochemicals and Reagents, Carbohydrate Hydrolysis, Carbohydrate hydrolysis PTM analysis, Cellulase, Cellulase, Lyticase, Laminanrinase, Cellulose, &amp;beta;-Glucans and Lichenen, Cellulases with Mixtures of Activities, Cellulose Hydrolysis, Complex Carbohydrate Analysis, Enzymatic Cell Lysis and Protoplast Preparation, Enzymes for Alternative Energy Research, Enzymes for Lignocellulosic Ethanol Research, Enzymes, Inhibitors, and Substrates, Plant</t>
+        </is>
       </c>
       <c r="W160" t="n">
         <v/>
@@ -22153,7 +22157,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>0856960</t>
+          <t>0855034</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -22201,17 +22205,17 @@
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>ANTI-HUMAN IGM (5FC MU) GOAT AFFINITY-PURIFIED F(AB')2 FRAGMENT, 1 MG</t>
+          <t>ANTI-HUMAN COMPLEMENT C4 GOAT IGG FRACTION, 2 ML</t>
         </is>
       </c>
       <c r="T161" t="inlineStr">
         <is>
-          <t>Goat affinity purified F(ab')2 fragments to human IgM (5Fc µ) and buffer salts.</t>
+          <t>Lyophilized goat IgG fraction to human complement C4 and buffer salts.</t>
         </is>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>: Product is goat affinity purified F(ab')2 fragments to human IgM (5Fc µ) and buffer salts. The affinity purified F(ab')2 fragment is prepared from the specific goat IgG fraction by limited digestion with pepsin and solid phase absorption. The resulting affinity purified F(ab')2 fragment is dialyzed into 0.02M sodium phosphate, 0.14M sodium chloride, pH 7.3, adjusted to standard titer, filtered through a 0.22 µm filter, and vialed.</t>
+          <t>Product is the lyophilized powder of goat IgG fraction to human complement C4 and buffer salts.</t>
         </is>
       </c>
       <c r="V161" t="n">
@@ -22284,7 +22288,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>08649011</t>
+          <t>0855285</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -22332,17 +22336,17 @@
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>MOUSE IMMUNOGLOBULIN REFERENCE SERUM, 1 ML</t>
+          <t>ANTI-BOVINE ALBUMIN RABBIT IGG FRACTION, PEROXIDASE-CONJUGATED, 2 ML</t>
         </is>
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>This product is pooled from outbred adult male and female ICR/Swiss Webster mice.</t>
+          <t>Lyophilized horseradish peroxidase (HRP)-conjugated rabbit IgG fraction to bovine albumin and buffer salts.</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>This product is pooled from outbred adult male and female ICR/Swiss Webster mice. The immunoglobulin levels, except IgE, are determined by radial immunodiffusion. The IgE level is obtained by addition of monoclonal IgE (Anti-DNP, Code No. 630122).&lt;br&gt;See Rat and Mouse Immunoglobulin Reference Sera in the Immunobiologicals section for immunoglobulin values.</t>
+          <t>Product is the lyophilized powder of horseradish peroxidase (HRP)-conjugated rabbit IgG fraction to bovine albumin and buffer salts.</t>
         </is>
       </c>
       <c r="V162" t="n">
@@ -22415,7 +22419,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>08687402</t>
+          <t>0855306</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -22463,17 +22467,17 @@
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>ANTI-GFP, MOUSE MONOCLONAL ANTIBODY, WITH BSA, 1 MG</t>
+          <t>ANTI-CHICKEN RED BLOOD CELLS RABBIT IGG FRACTION , 5 ML</t>
         </is>
       </c>
       <c r="T163" t="inlineStr">
         <is>
-          <t>Mouse IgG2a monoclonal antibody (mAb) against GFP (clone 3E6)  that recognizes the native form of the Green Fluorescent Protein (GFP), GFP variants and GFP-fusion proteins.</t>
+          <t>Lyophilized rabbit IgG fraction to chicken red blood cells and buffer salts.</t>
         </is>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>Anti-GFP, Clone 3E6, is a mouse IgG2a monoclonal antibody (mAb) that recognizes the native form of the Green Fluorescent Protein (GFP), GFP variants and GFP-fusion proteins.</t>
+          <t>Product is the lyophilized powder of rabbit IgG fraction to chicken red blood cells and buffer salts.</t>
         </is>
       </c>
       <c r="V163" t="n">
@@ -22546,7 +22550,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>08691102</t>
+          <t>0855557</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -22594,17 +22598,17 @@
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>ANTI-GLIAL FIBRILLARY ACIDIC PROTEIN (GFAP) MOUSE MONOCLONAL ANTIBODY, 0.5 ML</t>
+          <t>ANTI-MOUSE COMPLEMENT C3 GOAT IGG FRACTION, PEROXIDASE-CONJUGATED , 2 ML</t>
         </is>
       </c>
       <c r="T164" t="inlineStr">
         <is>
-          <t>Mouse IgG1 monoclonal antibody to glial fibrillary acidic protein.</t>
+          <t>Lyophilized horseradish peroxidase (HRP)-conjugated goat IgG fraction to mouse complement C3 and buffer salts.</t>
         </is>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>Product is a mouse monoclonal antibody, isotype IgG1, that reacts with Glial Fibrillary Acidic Protein.</t>
+          <t>Product is the lyophilized powder of horseradish peroxidase (HRP)-conjugated goat IgG fraction to mouse complement C3 and buffer salts.</t>
         </is>
       </c>
       <c r="V164" t="n">
@@ -22677,7 +22681,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>08771121</t>
+          <t>0855828</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -22725,21 +22729,23 @@
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>TUBULIN, PURIFIED FROM BOVINE BRAIN</t>
+          <t>FREUND'S COMPLETE ADJUVANT, 50 ML</t>
         </is>
       </c>
       <c r="T165" t="inlineStr">
         <is>
-          <t>A heterodimer composed of &amp;alpha;- and &amp;beta;- tubulin of 55 kDa (molecular weight &amp;#8773;110 kDa).</t>
+          <t>Product is a mixture containing mineral oil, Arlacel A, and heat-killed Mycobacterium butyricum: Freund's Complete Adjuvant. Components are thoroughly mixed in controlled proportions and autoclaved prior to being vialed.</t>
         </is>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>Purified bovine brain tubulin protein supplied in liquid form at 10 mg/mL in 80 mM PIPES buffer containing 1 mM EGTA, 1 mM GTP, pH 6.8 and 10% glycerol. It is a heterodimer composed of &amp;alpha;- and &amp;beta;- tubulin of 55 kDa (molecular weight &amp;#8773;110 kDa). Polymerization occurs forming microtubules of 25 nm in diameter and average 1650 heterodimers per &amp;#181;m in length. One unit of tubulin is defined as 5.0 mg of purified protein (as determined by the method of Bradford: Bradford, M., Analytical Biochemistry 72, 248, 1976).</t>
-        </is>
-      </c>
-      <c r="V165" t="n">
-        <v/>
+          <t>Product is a mixture containing mineral oil, Arlacel A, and heat-killed Mycobacterium butyricum: Freund's Complete Adjuvant. Components are thoroughly mixed in controlled proportions and autoclaved prior to being vialed.</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>Adjuvant emulsions, Adjuvants, Antibodies, Antibody Purification and Characterization, Cell Culture, Supplementary Products, Vaccine Adjuvants, Vaccine Production</t>
+        </is>
       </c>
       <c r="W165" t="n">
         <v/>
@@ -22808,7 +22814,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>08771151</t>
+          <t>0855838</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -22856,17 +22862,17 @@
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>TUBULIN, PORCINE, 99% PURE, 1 MG</t>
+          <t>GAMMA GLOBULIN, HUMAN, PURIFIED,  100 MG</t>
         </is>
       </c>
       <c r="T166" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Lyophilized human gamma globulin with buffer salts.</t>
         </is>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Product is the lyophilized powder of human gamma globulin and buffer salts.</t>
         </is>
       </c>
       <c r="V166" t="n">
@@ -22939,7 +22945,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>08791501</t>
+          <t>0856960</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -22987,23 +22993,21 @@
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>PHYTOHEMAGGLUTININ, PHASEOLUS VULGARIS, 25 MG</t>
+          <t>ANTI-HUMAN IGM (5FC MU) GOAT AFFINITY-PURIFIED F(AB')2 FRAGMENT, 1 MG</t>
         </is>
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>Crude Phaseolus vulgaris-P lectin (PHA-P) from the Red Kidney Bean. Phytohemagglutinin PHA agglutinates the erythrocytes of all human blood groups as well as those of rabbit, dog, cat, mouse, sheep, and guinea pig. The optimal amount of PHA required for the agglutination of erythrocytes varies with the blood from different individuals.</t>
+          <t>Goat affinity purified F(ab')2 fragments to human IgM (5Fc µ) and buffer salts.</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>Crude Phaseolus vulgaris-P lectin (PHA-P) from the Red Kidney Bean. Phytohemagglutinin PHA agglutinates the erythrocytes of all human blood groups as well as those of rabbit, dog, cat, mouse, sheep, and guinea pig. The optimal amount of PHA required for the agglutination of erythrocytes varies with the blood from different individuals.</t>
-        </is>
-      </c>
-      <c r="V167" t="inlineStr">
-        <is>
-          <t>791501; 08791501</t>
-        </is>
+          <t>: Product is goat affinity purified F(ab')2 fragments to human IgM (5Fc µ) and buffer salts. The affinity purified F(ab')2 fragment is prepared from the specific goat IgG fraction by limited digestion with pepsin and solid phase absorption. The resulting affinity purified F(ab')2 fragment is dialyzed into 0.02M sodium phosphate, 0.14M sodium chloride, pH 7.3, adjusted to standard titer, filtered through a 0.22 µm filter, and vialed.</t>
+        </is>
+      </c>
+      <c r="V167" t="n">
+        <v/>
       </c>
       <c r="W167" t="n">
         <v/>
@@ -23072,7 +23076,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>08820361</t>
+          <t>08649011</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -23120,23 +23124,21 @@
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>THROMBIN, BOVINE, 96.87 NIH U/MG DRY WEIGHT, 5 X 2 KU</t>
+          <t>MOUSE IMMUNOGLOBULIN REFERENCE SERUM, 1 ML</t>
         </is>
       </c>
       <c r="T168" t="inlineStr">
         <is>
-          <t>Thrombin is the final coagulation protease in regard to hemostasis, promoting both procoagulant and anticoagulant effects.</t>
+          <t>This product is pooled from outbred adult male and female ICR/Swiss Webster mice.</t>
         </is>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>Thrombin is the final coagulation protease in regard to hemostasis, promoting both procoagulant and anticoagulant effects.</t>
-        </is>
-      </c>
-      <c r="V168" t="inlineStr">
-        <is>
-          <t>Biochemicals and Reagents, Inhibitors, and Substrates, Proteases, Proteases Protein Sequencing, Proteases for Recombinant Protein Fusion Tag Cleavage, Proteolytic Enzymes, Proteolytic Enzymes and Substrates, Selective Proteolytic Enzymes, Serum Proteins and Related Enzymes, Serum Related Enzymes, Thrombin</t>
-        </is>
+          <t>This product is pooled from outbred adult male and female ICR/Swiss Webster mice. The immunoglobulin levels, except IgE, are determined by radial immunodiffusion. The IgE level is obtained by addition of monoclonal IgE (Anti-DNP, Code No. 630122).&lt;br&gt;See Rat and Mouse Immunoglobulin Reference Sera in the Immunobiologicals section for immunoglobulin values.</t>
+        </is>
+      </c>
+      <c r="V168" t="n">
+        <v/>
       </c>
       <c r="W168" t="n">
         <v/>
@@ -23205,7 +23207,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>08840533</t>
+          <t>08687402</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -23253,23 +23255,21 @@
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>ALBUMIN, BOVINE, COHN FRACTION V,&gt; 96%,  100 G</t>
+          <t>ANTI-GFP, MOUSE MONOCLONAL ANTIBODY, WITH BSA, 1 MG</t>
         </is>
       </c>
       <c r="T169" t="inlineStr">
         <is>
-          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
+          <t>Mouse IgG2a monoclonal antibody (mAb) against GFP (clone 3E6)  that recognizes the native form of the Green Fluorescent Protein (GFP), GFP variants and GFP-fusion proteins.</t>
         </is>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
-        </is>
-      </c>
-      <c r="V169" t="inlineStr">
-        <is>
-          <t>Albumin, Albumins and Transport Proteins, Albumins by Application, Apoptosis and Cell Cycle, Biochemicals and Reagents, Bovine Serum Albumins, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Ethanol Fractionated, For Cell Culture, Life Science Reagents for Cell Culture, Other Apoptosis Related Reagents, Proteins and Derivatives, Proteins and Peptides, Reagents and Supplements</t>
-        </is>
+          <t>Anti-GFP, Clone 3E6, is a mouse IgG2a monoclonal antibody (mAb) that recognizes the native form of the Green Fluorescent Protein (GFP), GFP variants and GFP-fusion proteins.</t>
+        </is>
+      </c>
+      <c r="V169" t="n">
+        <v/>
       </c>
       <c r="W169" t="n">
         <v/>
@@ -23338,7 +23338,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>08840533</t>
+          <t>08691102</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -23386,23 +23386,21 @@
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>ALBUMIN, BOVINE, COHN FRACTION V,&gt; 96%,  100 G</t>
+          <t>ANTI-GLIAL FIBRILLARY ACIDIC PROTEIN (GFAP) MOUSE MONOCLONAL ANTIBODY, 0.5 ML</t>
         </is>
       </c>
       <c r="T170" t="inlineStr">
         <is>
-          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
+          <t>Mouse IgG1 monoclonal antibody to glial fibrillary acidic protein.</t>
         </is>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
-        </is>
-      </c>
-      <c r="V170" t="inlineStr">
-        <is>
-          <t>Albumin, Albumins and Transport Proteins, Albumins by Application, Apoptosis and Cell Cycle, Biochemicals and Reagents, Bovine Serum Albumins, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Ethanol Fractionated, For Cell Culture, Life Science Reagents for Cell Culture, Other Apoptosis Related Reagents, Proteins and Derivatives, Proteins and Peptides, Reagents and Supplements</t>
-        </is>
+          <t>Product is a mouse monoclonal antibody, isotype IgG1, that reacts with Glial Fibrillary Acidic Protein.</t>
+        </is>
+      </c>
+      <c r="V170" t="n">
+        <v/>
       </c>
       <c r="W170" t="n">
         <v/>
@@ -23471,7 +23469,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>091003122</t>
+          <t>08771121</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -23519,17 +23517,17 @@
       </c>
       <c r="S171" t="inlineStr">
         <is>
-          <t>BASAL MEDIUM EAGLE (MODIFIED) WITH HANK'S SALTS (HBME) WITH L-GLUTAMINE W/O SODIUM CARBONATE, 10 L</t>
+          <t>TUBULIN, PURIFIED FROM BOVINE BRAIN</t>
         </is>
       </c>
       <c r="T171" t="inlineStr">
         <is>
-          <t>Basal Medium Eagle (BME) is one of the most commonly used ynthetic basal medium for supporting the growth of many different mammalian cells</t>
+          <t>A heterodimer composed of &amp;alpha;- and &amp;beta;- tubulin of 55 kDa (molecular weight &amp;#8773;110 kDa).</t>
         </is>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>Basal Medium Eagle (BME) is one of the most commonly used of all cell culture media. This medium is the result of numerous studies from the late 1950's analyzing the nutrient requirements and other components essential for the growth of cells in culture. Traditionally, BME has been used in studies to measure the growth response of normal (WI-38) and transformed (HeLa) cells in monolayer culture. BME may be used for a broad variety of cell lines when properly supplemented.</t>
+          <t>Purified bovine brain tubulin protein supplied in liquid form at 10 mg/mL in 80 mM PIPES buffer containing 1 mM EGTA, 1 mM GTP, pH 6.8 and 10% glycerol. It is a heterodimer composed of &amp;alpha;- and &amp;beta;- tubulin of 55 kDa (molecular weight &amp;#8773;110 kDa). Polymerization occurs forming microtubules of 25 nm in diameter and average 1650 heterodimers per &amp;#181;m in length. One unit of tubulin is defined as 5.0 mg of purified protein (as determined by the method of Bradford: Bradford, M., Analytical Biochemistry 72, 248, 1976).</t>
         </is>
       </c>
       <c r="V171" t="n">
@@ -23602,7 +23600,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>091005360</t>
+          <t>08771151</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -23650,17 +23648,17 @@
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t>LB BROTH, MILLER, 1 KG</t>
+          <t>TUBULIN, PORCINE, 99% PURE, 1 MG</t>
         </is>
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V172" t="n">
@@ -23733,7 +23731,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>091005361</t>
+          <t>08791501</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -23781,21 +23779,23 @@
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>LB BROTH, MILLER, 5 KG</t>
+          <t>PHYTOHEMAGGLUTININ, PHASEOLUS VULGARIS, 25 MG</t>
         </is>
       </c>
       <c r="T173" t="inlineStr">
         <is>
-          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
+          <t>Crude Phaseolus vulgaris-P lectin (PHA-P) from the Red Kidney Bean. Phytohemagglutinin PHA agglutinates the erythrocytes of all human blood groups as well as those of rabbit, dog, cat, mouse, sheep, and guinea pig. The optimal amount of PHA required for the agglutination of erythrocytes varies with the blood from different individuals.</t>
         </is>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
-        </is>
-      </c>
-      <c r="V173" t="n">
-        <v/>
+          <t>Crude Phaseolus vulgaris-P lectin (PHA-P) from the Red Kidney Bean. Phytohemagglutinin PHA agglutinates the erythrocytes of all human blood groups as well as those of rabbit, dog, cat, mouse, sheep, and guinea pig. The optimal amount of PHA required for the agglutination of erythrocytes varies with the blood from different individuals.</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>791501; 08791501</t>
+        </is>
       </c>
       <c r="W173" t="n">
         <v/>
@@ -23864,7 +23864,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>091006017</t>
+          <t>08820361</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -23912,21 +23912,23 @@
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>MACCONKEY AGAR, 500 G</t>
+          <t>THROMBIN, BOVINE, 96.87 NIH U/MG DRY WEIGHT, 5 X 2 KU</t>
         </is>
       </c>
       <c r="T174" t="inlineStr">
         <is>
-          <t>Medium used  for the isolation of enteric bacilli based on the fermentation of lactose.</t>
+          <t>Thrombin is the final coagulation protease in regard to hemostasis, promoting both procoagulant and anticoagulant effects.</t>
         </is>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>A preparation for the isolation of enteric bacilli based on the fermentation of lactose.</t>
-        </is>
-      </c>
-      <c r="V174" t="n">
-        <v/>
+          <t>Thrombin is the final coagulation protease in regard to hemostasis, promoting both procoagulant and anticoagulant effects.</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>Biochemicals and Reagents, Inhibitors, and Substrates, Proteases, Proteases Protein Sequencing, Proteases for Recombinant Protein Fusion Tag Cleavage, Proteolytic Enzymes, Proteolytic Enzymes and Substrates, Selective Proteolytic Enzymes, Serum Proteins and Related Enzymes, Serum Related Enzymes, Thrombin</t>
+        </is>
       </c>
       <c r="W174" t="n">
         <v/>
@@ -23995,7 +23997,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>091006817</t>
+          <t>08840533</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -24043,22 +24045,22 @@
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>MALT EXTRACT AGAR (MEA), 500 G</t>
+          <t>ALBUMIN, BOVINE, COHN FRACTION V,&gt; 96%,  100 G</t>
         </is>
       </c>
       <c r="T175" t="inlineStr">
         <is>
-          <t>General purpose growth media to isolate and cultivate yeasts and molds from a wide range of sample sources.</t>
+          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
         </is>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>Malt Extract Agar has been used for years to cultivate fungi and yeast cultures in the sugar industry, in the manufacturing of syrups, soft drinks, and other drinks. It is also recommended in conjunction with other specific media which are included in this manual. A medium for the isolation and enumeration of yeasts and molds. It can be used in cultivation of the strains for microbiological vitamin assays.</t>
+          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>All Dairy Media (alphabetical), All Food Control Media (alphabetical), All Solid Media/Agars, Aspergillus, Candida, Clinical Media, Dairy Culture Media for Yeasts and Molds, Media, Media by Application, Media by Microorganism, Media for Dairy Industry, Media for Food Control, Media for Fruits and Vegetable, Media for Sour Vegetables, Vinegar, Media for Water Control, Media for Water Control (General), Microbiology, Molds Yeasts (General Media), Selective by Low pH, Selective by low pH, Soil/Agriculture/Environmental Media, Zygosaccharmyces</t>
+          <t>Albumin, Albumins and Transport Proteins, Albumins by Application, Apoptosis and Cell Cycle, Biochemicals and Reagents, Bovine Serum Albumins, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Ethanol Fractionated, For Cell Culture, Life Science Reagents for Cell Culture, Other Apoptosis Related Reagents, Proteins and Derivatives, Proteins and Peptides, Reagents and Supplements</t>
         </is>
       </c>
       <c r="W175" t="n">
@@ -24128,7 +24130,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>091020122</t>
+          <t>08840533</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -24176,21 +24178,23 @@
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>MEDIUM 199 WITH EARLE'S SALT (E199), POWDER, WITH L-GLUTAMINE, W/O SODIUM BICARBONATE, 10 L</t>
+          <t>ALBUMIN, BOVINE, COHN FRACTION V,&gt; 96%,  100 G</t>
         </is>
       </c>
       <c r="T176" t="inlineStr">
         <is>
-          <t>Completely defined nutritional source for cell culture. Medium 199 is available in either Earle's or Hanks' salts.</t>
+          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
         </is>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>Medium 199, originally described by Morgan and his colleagues (1950), is a completely defined nutritional source for cell culture. Their investigations demonstrated that cell growth could be measured in this medium. It has broad species applicability including the culturing of non-transformed cell types. It may be used for vaccine production and the in vitro cultivation of rat lens tissues and primary mouse pancreatic epithelial explants. It is available in either Earle's or Hanks' salts.</t>
-        </is>
-      </c>
-      <c r="V176" t="n">
-        <v/>
+          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>Albumin, Albumins and Transport Proteins, Albumins by Application, Apoptosis and Cell Cycle, Biochemicals and Reagents, Bovine Serum Albumins, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Ethanol Fractionated, For Cell Culture, Life Science Reagents for Cell Culture, Other Apoptosis Related Reagents, Proteins and Derivatives, Proteins and Peptides, Reagents and Supplements</t>
+        </is>
       </c>
       <c r="W176" t="n">
         <v/>
@@ -24259,7 +24263,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>091213454</t>
+          <t>091003122</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -24307,17 +24311,17 @@
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>MINIMUM ESSENTIAL MEDIUM EAGLE (MODIFIED) (1X) WITH HANK'S SALTS, 20 MM HEPES, W/O L-GLUTAMINE, SODIUM BICARBONATE, 500 ML</t>
+          <t>BASAL MEDIUM EAGLE (MODIFIED) WITH HANK'S SALTS (HBME) WITH L-GLUTAMINE W/O SODIUM CARBONATE, 10 L</t>
         </is>
       </c>
       <c r="T177" t="inlineStr">
         <is>
-          <t>Cell culture media. MP Bio offers MEM with either Earle's or Hanks' salts.</t>
+          <t>Basal Medium Eagle (BME) is one of the most commonly used ynthetic basal medium for supporting the growth of many different mammalian cells</t>
         </is>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>MEM, originally prepared by Harry Eagle, is one of the most popular cell culture media. Upon his attempts to cultivate normal mammalian fibroblasts and certain HeLa cell subtypes, it was revealed that the nutritional needs of these cell types could not be met by BME. Further studies led to the development of MEM incorporating specific modifications such as higher amino acid concentrations for the cultivation of fastidious cells. MP's MEM may be used to support the growth of cells in monolayers, in suspension and wide variety of other cell types with proper supplementation. MP offers MEM with either Earle's or Hanks' salts.</t>
+          <t>Basal Medium Eagle (BME) is one of the most commonly used of all cell culture media. This medium is the result of numerous studies from the late 1950's analyzing the nutrient requirements and other components essential for the growth of cells in culture. Traditionally, BME has been used in studies to measure the growth response of normal (WI-38) and transformed (HeLa) cells in monolayer culture. BME may be used for a broad variety of cell lines when properly supplemented.</t>
         </is>
       </c>
       <c r="V177" t="n">
@@ -24390,7 +24394,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>091233454</t>
+          <t>091005360</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -24438,23 +24442,21 @@
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>DULBECCO'S MODIFIED EAGLE'S MEDIUM (DMEM) (1X SOLUTION) WITH 20 MM HEPES, W/O L-GLUTAMINE OR SODIUM BICARBONATE, 500 ML</t>
+          <t>LB BROTH, MILLER, 1 KG</t>
         </is>
       </c>
       <c r="T178" t="inlineStr">
         <is>
-          <t>Also known as DME, Dulbecco's Modified Eagle's Medium is the most widely used modification of Eagle's Basal Medium (BME).</t>
+          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
         </is>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>Also known as DME, Dulbecco's Modified Eagle's Medium is the most widely used modification of Eagle's Basal Medium (BME). DMEM contains four times greater concentration of amino acids, vitamins and supplementary components. The original formulation calls for 1000 mg/L of glucose, which was first employed to support the polyoma virus in primary and secondary embryonic mouse cultures. For optimal culturing of other cell types, a modification of 4500 mg/L glucose is available from MP.</t>
-        </is>
-      </c>
-      <c r="V178" t="inlineStr">
-        <is>
-          <t>Cell Biology, Cell Culture, Classic Media and Salts, Classical Media, Culture, Dulbecco&amp;rsquo;s Media, Dulbecco&amp;rsquo;s Modified Eagle&amp;rsquo;s Medium (DMEM), General Stem Cell Biology, Stem Cell Biology, Stem Cell Expansion, Stem Cell Isolation</t>
-        </is>
+          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
+        </is>
+      </c>
+      <c r="V178" t="n">
+        <v/>
       </c>
       <c r="W178" t="n">
         <v/>
@@ -24523,7 +24525,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>091670246</t>
+          <t>091005361</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -24571,23 +24573,21 @@
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>PEN-STREP (10000 IU/ML, 10 MG/ML), 20 ML</t>
+          <t>LB BROTH, MILLER, 5 KG</t>
         </is>
       </c>
       <c r="T179" t="inlineStr">
         <is>
-          <t>Double antibiotic solution containing 10,000 units/mL of penicillin and 10,000 µg/mL of streptomycin.</t>
+          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
         </is>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>The antibiotics penicillin and streptomycin are used to prevent bacterial contamination of cell cultures due to their effective combined action against gram-positive and gram-negative bacteria. This solution contains 10,000 units/mL of penicillin and 10,000 µg/mL of streptomycin.</t>
-        </is>
-      </c>
-      <c r="V179" t="inlineStr">
-        <is>
-          <t>Antibacterial, Antibiotic Solutions, Antibiotics, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Biology, Cell Culture, Core Bioreagents, Culture, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Labeling, Reagents and Supplements, Research Essentials, Spectrum of Activity, Stable Isotopes, Stem Cell Biology, Stem Cell Differentiation, Stem Cell Expansion</t>
-        </is>
+          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
+        </is>
+      </c>
+      <c r="V179" t="n">
+        <v/>
       </c>
       <c r="W179" t="n">
         <v/>
@@ -24656,7 +24656,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>091676245</t>
+          <t>091006017</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -24704,23 +24704,21 @@
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>GENTAMICIN SULFATE, 50 MG/ML, 10 ML</t>
+          <t>MACCONKEY AGAR, 500 G</t>
         </is>
       </c>
       <c r="T180" t="inlineStr">
         <is>
-          <t>Gentamicin is an aminoglycoside antibiotic complex that&amp;nbsp;inhibits the growth of a wide variety of Gram-positive and Gram-negative microorganisms, including strains resistant to tetracycline, chloramphenicol, kanamycin, and colistin, particularly strains of Pseudomonas, Proteus, Staphylococcus, and Streptococcus. It is effective against mycoplasma as well.</t>
+          <t>Medium used  for the isolation of enteric bacilli based on the fermentation of lactose.</t>
         </is>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>Gentamicin Reagent Solution is effective against gram-positive and gram-negative bacteria, as well as mycoplasma.</t>
-        </is>
-      </c>
-      <c r="V180" t="inlineStr">
-        <is>
-          <t>A - K, Aminoglycosides, Analytical/Chromatography, Antibacterial, Antibiotic powders, Antibiotics, Antibiotics A to Z, Antibiotics G-M, Antibiotics by Application, Bioactive Small Molecules, Biochemicals and Reagents, Cell Biology, Cell Culture, Chemical Structure Class, Core Bioreagents, G, Genetic Marker Selection, Interferes with Protein Synthesis, Mechanism of Action, Pharmacopoeia, Pharmacopoeia A-Z, Pharmacopoeial Antibiotics, Reagents and Supplements, Research Essentials, Spectrum of Activity</t>
-        </is>
+          <t>A preparation for the isolation of enteric bacilli based on the fermentation of lactose.</t>
+        </is>
+      </c>
+      <c r="V180" t="n">
+        <v/>
       </c>
       <c r="W180" t="n">
         <v/>
@@ -24789,7 +24787,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>092001344</t>
+          <t>091006817</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -24837,21 +24835,23 @@
       </c>
       <c r="S181" t="inlineStr">
         <is>
-          <t>ITS PREMIX SOLUTION, 5 ML</t>
+          <t>MALT EXTRACT AGAR (MEA), 500 G</t>
         </is>
       </c>
       <c r="T181" t="inlineStr">
         <is>
-          <t>ITS Premix stimulates cell proliferation while decreasing substantially the serum requirements for culture of many cell types. Contains 0.5 mg/ml insulin from bovine pancreas, 0.5 mg/ml human transferrin (substantially iron-free) and 0.5 µg/ml sodium selenite. Prepared in Earle's balanced Salt Solution (EBSS) without phenol red. Sterile-filtered.</t>
+          <t>General purpose growth media to isolate and cultivate yeasts and molds from a wide range of sample sources.</t>
         </is>
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>ITS Premix will stimulate cell proliferation while decreasing substantially the serum requirements for culture of many cell types as diverse, for example, as contractile rat heart cells and human colon mucosal epithelial cells. Basal media supplemented with ITS Premix and as little as 2% Fetal Bovine Serum support proliferation of many diploid and heteroploid cell lines at rates equivalent to those obtained with 10% serum. Contains 0.5 mg/ml insulin from bovine pancreas, 0.5 mg/ml human transferrin (substantially iron-free) and 0.5 ug/ml sodium selenite. Prepared in Earle's balanced Salt Solution (EBSS) without phenol red. Sterile-filtered.</t>
-        </is>
-      </c>
-      <c r="V181" t="n">
-        <v/>
+          <t>Malt Extract Agar has been used for years to cultivate fungi and yeast cultures in the sugar industry, in the manufacturing of syrups, soft drinks, and other drinks. It is also recommended in conjunction with other specific media which are included in this manual. A medium for the isolation and enumeration of yeasts and molds. It can be used in cultivation of the strains for microbiological vitamin assays.</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>All Dairy Media (alphabetical), All Food Control Media (alphabetical), All Solid Media/Agars, Aspergillus, Candida, Clinical Media, Dairy Culture Media for Yeasts and Molds, Media, Media by Application, Media by Microorganism, Media for Dairy Industry, Media for Food Control, Media for Fruits and Vegetable, Media for Sour Vegetables, Vinegar, Media for Water Control, Media for Water Control (General), Microbiology, Molds Yeasts (General Media), Selective by Low pH, Selective by low pH, Soil/Agriculture/Environmental Media, Zygosaccharmyces</t>
+        </is>
       </c>
       <c r="W181" t="n">
         <v/>
@@ -24920,7 +24920,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>092633020</t>
+          <t>091020122</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -24968,17 +24968,17 @@
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>MURASHIGE AND SKOOG PLANT SALT MIXTURE W/O AGAR, 10 X 1 L</t>
+          <t>MEDIUM 199 WITH EARLE'S SALT (E199), POWDER, WITH L-GLUTAMINE, W/O SODIUM BICARBONATE, 10 L</t>
         </is>
       </c>
       <c r="T182" t="inlineStr">
         <is>
-          <t>Murashige and Skoog basal salt medium for plants growth and plant tissue culture.</t>
+          <t>Completely defined nutritional source for cell culture. Medium 199 is available in either Earle's or Hanks' salts.</t>
         </is>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>Murashige and Skoog Medium contains Murashige and Skoog salts, as well as a mixture of vitamins. This modification of the original formula does not contain agar. Murashige and Skoog Medium is widely used plant tissue culture growth medium. It has been proven effective in the culture of tissue derived from moncotyledons and dicotyledons. This medium, originally formulated to support tobacco callus, has been used to support callus initiation and growth, the growth of cells in suspension culture and the regeneration of shoots and plantlets from explants. More recently, it has been used for micropropagation of ornamental, vegetable and fruit plants in research and commercial enterprises.</t>
+          <t>Medium 199, originally described by Morgan and his colleagues (1950), is a completely defined nutritional source for cell culture. Their investigations demonstrated that cell growth could be measured in this medium. It has broad species applicability including the culturing of non-transformed cell types. It may be used for vaccine production and the in vitro cultivation of rat lens tissues and primary mouse pancreatic epithelial explants. It is available in either Earle's or Hanks' salts.</t>
         </is>
       </c>
       <c r="V182" t="n">
@@ -25051,7 +25051,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>092910154</t>
+          <t>091213454</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -25099,23 +25099,21 @@
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>FETAL BOVINE SERUM (FBS), SOUTH-AMERICAN ORIGIN, 500 ML</t>
+          <t>MINIMUM ESSENTIAL MEDIUM EAGLE (MODIFIED) (1X) WITH HANK'S SALTS, 20 MM HEPES, W/O L-GLUTAMINE, SODIUM BICARBONATE, 500 ML</t>
         </is>
       </c>
       <c r="T183" t="inlineStr">
         <is>
-          <t>Fetal Bovine Serum (FBS) is produced to the highest standards to ensure product performance and safety with minimal risk and lot-to-lot variability. MP Biomedicals system of vertical integration provides certainty of the South American origin and traceability of this FBS.</t>
+          <t>Cell culture media. MP Bio offers MEM with either Earle's or Hanks' salts.</t>
         </is>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>Fetal Bovine Serum (FBS) is the growth supplement of choice for cell culture due to its high level of nutrients. Most cell types and cell culture systems will benefit from the inclusion of FBS in growth media. It is produced to the highest standards to ensure product performance and safety with minimal risk and lot-to-lot variability. MP Biomedicals system of vertical integration provides certainty of the South American origin and traceability of this FBS.&lt;/p&gt;&lt;br&gt;&lt;p&gt;Final Filter Size: 0.1&amp;micro;m x 3&lt;/p&gt;&lt;br&gt;&lt;p&gt;Sterility: All sera are tested for the absence of aerobic and anaerobic bacteria, fungi, yeast and Mycoplasma absence&lt;/p&gt;&lt;br&gt;&lt;p&gt;Virus Tested: Bovine Viral Diarrhoea (BVD); Cytopathogenic agents, e.g. Infectious Bovine Rhinotracheitis (IBR) / BHV-1; Hemadsorbing agents, e.g. Parainfluenza Type 3 (P13)&lt;/p&gt;&lt;br&gt;&lt;p&gt;Endotoxin: &lt; 30 EU/mL&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="V183" t="inlineStr">
-        <is>
-          <t>apoptosis and cell cycle,cell biology,cell culture,cell signaling,neuroscience,core bioreagents,fetal bovine serum,fbs,animal sera,general reagents,reagents,reagents for transfection,apoptosis related reagents,serum</t>
-        </is>
+          <t>MEM, originally prepared by Harry Eagle, is one of the most popular cell culture media. Upon his attempts to cultivate normal mammalian fibroblasts and certain HeLa cell subtypes, it was revealed that the nutritional needs of these cell types could not be met by BME. Further studies led to the development of MEM incorporating specific modifications such as higher amino acid concentrations for the cultivation of fastidious cells. MP's MEM may be used to support the growth of cells in monolayers, in suspension and wide variety of other cell types with proper supplementation. MP offers MEM with either Earle's or Hanks' salts.</t>
+        </is>
+      </c>
+      <c r="V183" t="n">
+        <v/>
       </c>
       <c r="W183" t="n">
         <v/>
@@ -25184,7 +25182,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>092916749</t>
+          <t>091233454</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -25232,22 +25230,22 @@
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>CELLECT FETAL BOVINE SERUM, GOLD, US ORIGIN, 100 ML</t>
+          <t>DULBECCO'S MODIFIED EAGLE'S MEDIUM (DMEM) (1X SOLUTION) WITH 20 MM HEPES, W/O L-GLUTAMINE OR SODIUM BICARBONATE, 500 ML</t>
         </is>
       </c>
       <c r="T184" t="inlineStr">
         <is>
-          <t>Superior fetal bovine serum for hybridoma cloning. Sterilized via filtration through multiple 0.1 micron filters.</t>
+          <t>Also known as DME, Dulbecco's Modified Eagle's Medium is the most widely used modification of Eagle's Basal Medium (BME).</t>
         </is>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>CELLect&amp;trade; Gold is collected from a U.S.D.A. regulated and monitored abattoir by technicians who work "on-site" where the fetal blood is aseptically collected via cardiac puncture. This raw material is transported to the production facility where it undergoes sterilization via filtration through multiple 0.1 micron filters. The care and diligence taken in handling the fetal serum minimizes cell lysis and other detrimental factors thereby reducing possible lysozyme and hemoglobin contamination. This translates into increased performance in the final product. It is superior for hybridoma cloning. It is supplied sterile, with no detectable mycoplasma or viral infection. Serum is an extremely complex mixture of many small and large biomolecules with different, physiologically balanced growth-promoting and growth inhibiting activities.</t>
+          <t>Also known as DME, Dulbecco's Modified Eagle's Medium is the most widely used modification of Eagle's Basal Medium (BME). DMEM contains four times greater concentration of amino acids, vitamins and supplementary components. The original formulation calls for 1000 mg/L of glucose, which was first employed to support the polyoma virus in primary and secondary embryonic mouse cultures. For optimal culturing of other cell types, a modification of 4500 mg/L glucose is available from MP.</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>Apoptosis and Cell Cycle, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Core Bioreagents, Fetal Bovine Serum (FBS), Fetal Bovine Serum (FBS) and Other Animal Sera, General Reagents, Hybridoma Platform, Hybridoma Sera and Sera Substitutes, Life Science Reagents for Cell Culture, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Media / Serum, Other Apoptosis Related Reagents, Research Essentials, Serum, Serum-free Media</t>
+          <t>Cell Biology, Cell Culture, Classic Media and Salts, Classical Media, Culture, Dulbecco&amp;rsquo;s Media, Dulbecco&amp;rsquo;s Modified Eagle&amp;rsquo;s Medium (DMEM), General Stem Cell Biology, Stem Cell Biology, Stem Cell Expansion, Stem Cell Isolation</t>
         </is>
       </c>
       <c r="W184" t="n">
@@ -25317,7 +25315,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>092916754</t>
+          <t>091670246</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -25365,22 +25363,22 @@
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t>CELLECT FETAL BOVINE SERUM, GOLD, US ORIGIN, 500 ML</t>
+          <t>PEN-STREP (10000 IU/ML, 10 MG/ML), 20 ML</t>
         </is>
       </c>
       <c r="T185" t="inlineStr">
         <is>
-          <t>Superior fetal bovine serum for hybridoma cloning. Sterilized via filtration through multiple 0.1 micron filters.</t>
+          <t>Double antibiotic solution containing 10,000 units/mL of penicillin and 10,000 µg/mL of streptomycin.</t>
         </is>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>CELLect&amp;trade; Gold is collected from a U.S.D.A. regulated and monitored abattoir by technicians who work "on-site" where the fetal blood is aseptically collected via cardiac puncture. This raw material is transported to the production facility where it undergoes sterilization via filtration through multiple 0.1 micron filters. The care and diligence taken in handling the fetal serum minimizes cell lysis and other detrimental factors thereby reducing possible lysozyme and hemoglobin contamination. This translates into increased performance in the final product. It is superior for hybridoma cloning. It is supplied sterile, with no detectable mycoplasma or viral infection. Serum is an extremely complex mixture of many small and large biomolecules with different, physiologically balanced growth-promoting and growth inhibiting activities.</t>
+          <t>The antibiotics penicillin and streptomycin are used to prevent bacterial contamination of cell cultures due to their effective combined action against gram-positive and gram-negative bacteria. This solution contains 10,000 units/mL of penicillin and 10,000 µg/mL of streptomycin.</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>Apoptosis and Cell Cycle, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Core Bioreagents, Fetal Bovine Serum (FBS), Fetal Bovine Serum (FBS) and Other Animal Sera, General Reagents, Hybridoma Platform, Hybridoma Sera and Sera Substitutes, Life Science Reagents for Cell Culture, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Media / Serum, Other Apoptosis Related Reagents, Research Essentials, Serum, Serum-free Media</t>
+          <t>Antibacterial, Antibiotic Solutions, Antibiotics, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Biology, Cell Culture, Core Bioreagents, Culture, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Labeling, Reagents and Supplements, Research Essentials, Spectrum of Activity, Stable Isotopes, Stem Cell Biology, Stem Cell Differentiation, Stem Cell Expansion</t>
         </is>
       </c>
       <c r="W185" t="n">
@@ -25450,7 +25448,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>092917654</t>
+          <t>091676245</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -25498,21 +25496,23 @@
       </c>
       <c r="S186" t="inlineStr">
         <is>
-          <t>CELLMAXX; FETAL BOVINE SERUM, NEW ZEALAND ORIGIN, 500 ML</t>
+          <t>GENTAMICIN SULFATE, 50 MG/ML, 10 ML</t>
         </is>
       </c>
       <c r="T186" t="inlineStr">
         <is>
-          <t>CellMaxx FBS comes from the pristine grasslands of New Zealand where the cattle are tracked throughout their life and has never had BSE or FMD meaning it has the lowest possible viral risk.</t>
+          <t>Gentamicin is an aminoglycoside antibiotic complex that&amp;nbsp;inhibits the growth of a wide variety of Gram-positive and Gram-negative microorganisms, including strains resistant to tetracycline, chloramphenicol, kanamycin, and colistin, particularly strains of Pseudomonas, Proteus, Staphylococcus, and Streptococcus. It is effective against mycoplasma as well.</t>
         </is>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Fetal Bovine Serum (FBS) is the growth supplement of choice in cell culture due to its high level of nutrients. This CellMaxx FBS comes from the pristine grasslands of New Zealand where the cattle are tracked throughout their life and has never had BSE or FMD meaning it has the lowest possible viral risk. It is produced to the highest standards to ensure product performance and viral safety while maintaining minimal lot-to-lot variability. Each lot is tested in MBDK, hybridoma, MRC-5 and Vero cell lines for growth promotion. The absence of ten viruses is confirmed according to 9CFR.&lt;br&gt;Endotoxin: 5IU/ mL&lt;br&gt;IgG: 400 mg/ L&lt;br&gt;Hemoglobin: &lt;18 mg/ mL&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="V186" t="n">
-        <v/>
+          <t>Gentamicin Reagent Solution is effective against gram-positive and gram-negative bacteria, as well as mycoplasma.</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>A - K, Aminoglycosides, Analytical/Chromatography, Antibacterial, Antibiotic powders, Antibiotics, Antibiotics A to Z, Antibiotics G-M, Antibiotics by Application, Bioactive Small Molecules, Biochemicals and Reagents, Cell Biology, Cell Culture, Chemical Structure Class, Core Bioreagents, G, Genetic Marker Selection, Interferes with Protein Synthesis, Mechanism of Action, Pharmacopoeia, Pharmacopoeia A-Z, Pharmacopoeial Antibiotics, Reagents and Supplements, Research Essentials, Spectrum of Activity</t>
+        </is>
       </c>
       <c r="W186" t="n">
         <v/>
@@ -25581,7 +25581,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>113066132</t>
+          <t>092001344</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -25629,17 +25629,17 @@
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>CASEIN PEPTONE, 1 KG</t>
+          <t>ITS PREMIX SOLUTION, 5 ML</t>
         </is>
       </c>
       <c r="T187" t="inlineStr">
         <is>
-          <t>Casein Peptone, Type I. Casein Peptone is supplemented to microbiological growth media.</t>
+          <t>ITS Premix stimulates cell proliferation while decreasing substantially the serum requirements for culture of many cell types. Contains 0.5 mg/ml insulin from bovine pancreas, 0.5 mg/ml human transferrin (substantially iron-free) and 0.5 µg/ml sodium selenite. Prepared in Earle's balanced Salt Solution (EBSS) without phenol red. Sterile-filtered.</t>
         </is>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>Casein Peptone, Type I.</t>
+          <t>ITS Premix will stimulate cell proliferation while decreasing substantially the serum requirements for culture of many cell types as diverse, for example, as contractile rat heart cells and human colon mucosal epithelial cells. Basal media supplemented with ITS Premix and as little as 2% Fetal Bovine Serum support proliferation of many diploid and heteroploid cell lines at rates equivalent to those obtained with 10% serum. Contains 0.5 mg/ml insulin from bovine pancreas, 0.5 mg/ml human transferrin (substantially iron-free) and 0.5 ug/ml sodium selenite. Prepared in Earle's balanced Salt Solution (EBSS) without phenol red. Sterile-filtered.</t>
         </is>
       </c>
       <c r="V187" t="n">
@@ -25712,7 +25712,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>113070044</t>
+          <t>092633020</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -25760,17 +25760,17 @@
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>SM BUFFER (STERILE SOLUTION), 500 ML</t>
+          <t>MURASHIGE AND SKOOG PLANT SALT MIXTURE W/O AGAR, 10 X 1 L</t>
         </is>
       </c>
       <c r="T188" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Murashige and Skoog basal salt medium for plants growth and plant tissue culture.</t>
         </is>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Murashige and Skoog Medium contains Murashige and Skoog salts, as well as a mixture of vitamins. This modification of the original formula does not contain agar. Murashige and Skoog Medium is widely used plant tissue culture growth medium. It has been proven effective in the culture of tissue derived from moncotyledons and dicotyledons. This medium, originally formulated to support tobacco callus, has been used to support callus initiation and growth, the growth of cells in suspension culture and the regeneration of shoots and plantlets from explants. More recently, it has been used for micropropagation of ornamental, vegetable and fruit plants in research and commercial enterprises.</t>
         </is>
       </c>
       <c r="V188" t="n">
@@ -25843,7 +25843,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>113100132</t>
+          <t>092910154</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -25891,21 +25891,23 @@
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>CIRCLEGROW AGAR, 908 G</t>
+          <t>FETAL BOVINE SERUM (FBS), SOUTH-AMERICAN ORIGIN, 500 ML</t>
         </is>
       </c>
       <c r="T189" t="inlineStr">
         <is>
-          <t>Circlegrow agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
+          <t>Fetal Bovine Serum (FBS) is produced to the highest standards to ensure product performance and safety with minimal risk and lot-to-lot variability. MP Biomedicals system of vertical integration provides certainty of the South American origin and traceability of this FBS.</t>
         </is>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>CIRCLEGROWâ„¢ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
-        </is>
-      </c>
-      <c r="V189" t="n">
-        <v/>
+          <t>Fetal Bovine Serum (FBS) is the growth supplement of choice for cell culture due to its high level of nutrients. Most cell types and cell culture systems will benefit from the inclusion of FBS in growth media. It is produced to the highest standards to ensure product performance and safety with minimal risk and lot-to-lot variability. MP Biomedicals system of vertical integration provides certainty of the South American origin and traceability of this FBS.&lt;/p&gt;&lt;br&gt;&lt;p&gt;Final Filter Size: 0.1&amp;micro;m x 3&lt;/p&gt;&lt;br&gt;&lt;p&gt;Sterility: All sera are tested for the absence of aerobic and anaerobic bacteria, fungi, yeast and Mycoplasma absence&lt;/p&gt;&lt;br&gt;&lt;p&gt;Virus Tested: Bovine Viral Diarrhoea (BVD); Cytopathogenic agents, e.g. Infectious Bovine Rhinotracheitis (IBR) / BHV-1; Hemadsorbing agents, e.g. Parainfluenza Type 3 (P13)&lt;/p&gt;&lt;br&gt;&lt;p&gt;Endotoxin: &lt; 30 EU/mL&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>apoptosis and cell cycle,cell biology,cell culture,cell signaling,neuroscience,core bioreagents,fetal bovine serum,fbs,animal sera,general reagents,reagents,reagents for transfection,apoptosis related reagents,serum</t>
+        </is>
       </c>
       <c r="W189" t="n">
         <v/>
@@ -25974,7 +25976,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>113100142</t>
+          <t>092916749</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -26022,21 +26024,23 @@
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>CIRCLEGROW AGAR, 2.3 KG</t>
+          <t>CELLECT FETAL BOVINE SERUM, GOLD, US ORIGIN, 100 ML</t>
         </is>
       </c>
       <c r="T190" t="inlineStr">
         <is>
-          <t>Circlegrow agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
+          <t>Superior fetal bovine serum for hybridoma cloning. Sterilized via filtration through multiple 0.1 micron filters.</t>
         </is>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>CIRCLEGROWâ„¢ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
-        </is>
-      </c>
-      <c r="V190" t="n">
-        <v/>
+          <t>CELLect&amp;trade; Gold is collected from a U.S.D.A. regulated and monitored abattoir by technicians who work "on-site" where the fetal blood is aseptically collected via cardiac puncture. This raw material is transported to the production facility where it undergoes sterilization via filtration through multiple 0.1 micron filters. The care and diligence taken in handling the fetal serum minimizes cell lysis and other detrimental factors thereby reducing possible lysozyme and hemoglobin contamination. This translates into increased performance in the final product. It is superior for hybridoma cloning. It is supplied sterile, with no detectable mycoplasma or viral infection. Serum is an extremely complex mixture of many small and large biomolecules with different, physiologically balanced growth-promoting and growth inhibiting activities.</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>Apoptosis and Cell Cycle, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Core Bioreagents, Fetal Bovine Serum (FBS), Fetal Bovine Serum (FBS) and Other Animal Sera, General Reagents, Hybridoma Platform, Hybridoma Sera and Sera Substitutes, Life Science Reagents for Cell Culture, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Media / Serum, Other Apoptosis Related Reagents, Research Essentials, Serum, Serum-free Media</t>
+        </is>
       </c>
       <c r="W190" t="n">
         <v/>
@@ -26105,7 +26109,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>113301100</t>
+          <t>092916754</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -26153,21 +26157,23 @@
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t>AGROBACTERIUM TRANSFORMATION KIT, 25 PREPS</t>
+          <t>CELLECT FETAL BOVINE SERUM, GOLD, US ORIGIN, 500 ML</t>
         </is>
       </c>
       <c r="T191" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Superior fetal bovine serum for hybridoma cloning. Sterilized via filtration through multiple 0.1 micron filters.</t>
         </is>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V191" t="n">
-        <v/>
+          <t>CELLect&amp;trade; Gold is collected from a U.S.D.A. regulated and monitored abattoir by technicians who work "on-site" where the fetal blood is aseptically collected via cardiac puncture. This raw material is transported to the production facility where it undergoes sterilization via filtration through multiple 0.1 micron filters. The care and diligence taken in handling the fetal serum minimizes cell lysis and other detrimental factors thereby reducing possible lysozyme and hemoglobin contamination. This translates into increased performance in the final product. It is superior for hybridoma cloning. It is supplied sterile, with no detectable mycoplasma or viral infection. Serum is an extremely complex mixture of many small and large biomolecules with different, physiologically balanced growth-promoting and growth inhibiting activities.</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>Apoptosis and Cell Cycle, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Core Bioreagents, Fetal Bovine Serum (FBS), Fetal Bovine Serum (FBS) and Other Animal Sera, General Reagents, Hybridoma Platform, Hybridoma Sera and Sera Substitutes, Life Science Reagents for Cell Culture, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Media / Serum, Other Apoptosis Related Reagents, Research Essentials, Serum, Serum-free Media</t>
+        </is>
       </c>
       <c r="W191" t="n">
         <v/>
@@ -26236,7 +26242,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>114026932</t>
+          <t>092917654</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -26284,17 +26290,17 @@
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>DOBA WITH 2% GALACTOSE, 1% RAFFINOSE, 1 KG</t>
+          <t>CELLMAXX; FETAL BOVINE SERUM, NEW ZEALAND ORIGIN, 500 ML</t>
         </is>
       </c>
       <c r="T192" t="inlineStr">
         <is>
-          <t>DOB 2% Galactose, 1% Raffinose allows for preparation of a custom synthetic defined yeast media and includes a complete yeast nitrogen base (YNB) composed of buffering salts, vitamins and trace elements, with Galactose and Raffinose as the carbon source and Agar.</t>
+          <t>CellMaxx FBS comes from the pristine grasslands of New Zealand where the cattle are tracked throughout their life and has never had BSE or FMD meaning it has the lowest possible viral risk.</t>
         </is>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>DOB 2% Galactose, 1% Raffinose allows for preparation of a custom synthetic defined yeast media and includes a complete yeast nitrogen base (YNB) composed of buffering salts, vitamins and trace elements, with Galactose and Raffinose as the carbon source and Agar.</t>
+          <t>&lt;p&gt;Fetal Bovine Serum (FBS) is the growth supplement of choice in cell culture due to its high level of nutrients. This CellMaxx FBS comes from the pristine grasslands of New Zealand where the cattle are tracked throughout their life and has never had BSE or FMD meaning it has the lowest possible viral risk. It is produced to the highest standards to ensure product performance and viral safety while maintaining minimal lot-to-lot variability. Each lot is tested in MBDK, hybridoma, MRC-5 and Vero cell lines for growth promotion. The absence of ten viruses is confirmed according to 9CFR.&lt;br&gt;Endotoxin: 5IU/ mL&lt;br&gt;IgG: 400 mg/ L&lt;br&gt;Hemoglobin: &lt;18 mg/ mL&lt;/p&gt;</t>
         </is>
       </c>
       <c r="V192" t="n">
@@ -26367,7 +26373,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>114029622</t>
+          <t>113066132</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -26415,17 +26421,17 @@
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>YNB W/O AMMONIUM SULFATE, W/O POTASSIUM PHOSPHATE, 454 G</t>
+          <t>CASEIN PEPTONE, 1 KG</t>
         </is>
       </c>
       <c r="T193" t="inlineStr">
         <is>
-          <t>Yeast Nitrogen Base is available with or without ammonium sulfate. YNB is composed of salts, vitamins and trace elements. Some component dropouts are available. To make your own synthetic defined yeast media, start with the YNB of your choice, add a carbon source, the appropriate amino acids, and agar if necessary. Bulk powder, easily weighed to make custom batch sizes</t>
+          <t>Casein Peptone, Type I. Casein Peptone is supplemented to microbiological growth media.</t>
         </is>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>YNB is available with or without ammonium sulfate. YNB is composed of salts, vitamins and trace elements. Some component dropouts are available. To make your own synthetic defined yeast media, start with the YNB of your choice, add a carbon source, the appropriate amino acids, and agar if necessary.</t>
+          <t>Casein Peptone, Type I.</t>
         </is>
       </c>
       <c r="V193" t="n">
@@ -26498,7 +26504,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>114420122</t>
+          <t>113070044</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -26546,17 +26552,17 @@
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>SC-TRP-URA, 30 G</t>
+          <t>SM BUFFER (STERILE SOLUTION), 500 ML</t>
         </is>
       </c>
       <c r="T194" t="inlineStr">
         <is>
-          <t>Dropout SC aminoacid mixture formulation (without L-Tryptophan, Uracil) for S. cerevisiae growth media. Also known as Hopkins Mixture and is available in complete and dropout formulations.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>Double dropout formulation (without L-Tryptophan and Uracil) of Synthetic Complete Supplement Mixture (SC) of amino acids for S. cerevisiae growth media. Also known as Hopkins Mixture and is available in complete and dropout formulations.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V194" t="n">
@@ -26629,7 +26635,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>116002554</t>
+          <t>113100132</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -26677,17 +26683,17 @@
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>SPRING FOR FP24</t>
+          <t>CIRCLEGROW AGAR, 908 G</t>
         </is>
       </c>
       <c r="T195" t="inlineStr">
         <is>
-          <t>FastPrep-24 parts and accessories.</t>
+          <t>Circlegrow agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
         </is>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>CIRCLEGROWâ„¢ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
         </is>
       </c>
       <c r="V195" t="n">
@@ -26760,7 +26766,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>116550900</t>
+          <t>113100142</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -26808,17 +26814,17 @@
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>FASTGLYCOPROTEIN ISOLATION KIT, WGA RESIN, 1 KIT, 10 PREPS</t>
+          <t>CIRCLEGROW AGAR, 2.3 KG</t>
         </is>
       </c>
       <c r="T196" t="inlineStr">
         <is>
-          <t>Kit for the isolation of glycoprotein from complex protein mixtures including animal and plant tissue, cultured cells as well as microbe and insect, using the lectin Wheat Germ Agglutinin (WGA) immobilized on agarose.</t>
+          <t>Circlegrow agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
         </is>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>CIRCLEGROWâ„¢ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
         </is>
       </c>
       <c r="V196" t="n">
@@ -26891,7 +26897,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>116914801</t>
+          <t>113301100</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -26939,7 +26945,7 @@
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>4MM GLASS BEADS</t>
+          <t>AGROBACTERIUM TRANSFORMATION KIT, 25 PREPS</t>
         </is>
       </c>
       <c r="T197" t="inlineStr">
@@ -27022,7 +27028,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>116950000</t>
+          <t>114026932</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -27070,17 +27076,17 @@
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>50 ML CONICAL TUBES, PACK OF 25</t>
+          <t>DOBA WITH 2% GALACTOSE, 1% RAFFINOSE, 1 KG</t>
         </is>
       </c>
       <c r="T198" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>DOB 2% Galactose, 1% Raffinose allows for preparation of a custom synthetic defined yeast media and includes a complete yeast nitrogen base (YNB) composed of buffering salts, vitamins and trace elements, with Galactose and Raffinose as the carbon source and Agar.</t>
         </is>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>DOB 2% Galactose, 1% Raffinose allows for preparation of a custom synthetic defined yeast media and includes a complete yeast nitrogen base (YNB) composed of buffering salts, vitamins and trace elements, with Galactose and Raffinose as the carbon source and Agar.</t>
         </is>
       </c>
       <c r="V198" t="n">
@@ -27153,7 +27159,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>116954100</t>
+          <t>114029622</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -27201,23 +27207,21 @@
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t>BIGPREP;; LYSING MATRIX E, PACK OF 100</t>
+          <t>YNB W/O AMMONIUM SULFATE, W/O POTASSIUM PHOSPHATE, 454 G</t>
         </is>
       </c>
       <c r="T199" t="inlineStr">
         <is>
-          <t>Primarily used for environmental samples such as soil, sludge, wastewater and feces.</t>
+          <t>Yeast Nitrogen Base is available with or without ammonium sulfate. YNB is composed of salts, vitamins and trace elements. Some component dropouts are available. To make your own synthetic defined yeast media, start with the YNB of your choice, add a carbon source, the appropriate amino acids, and agar if necessary. Bulk powder, easily weighed to make custom batch sizes</t>
         </is>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>Lysing Matrix E 50 mL Tube contains 1.4 ceramic spheres, 0.1 mm silica spheres and 25, 4 mm glass beads. Will not bind nucleic acids. Ideal for use on FastPrep&amp;reg; Instruments and any other homogenizer, grinder or bead-beating device.</t>
-        </is>
-      </c>
-      <c r="V199" t="inlineStr">
-        <is>
-          <t>extraction, purification, sample preparation, 50 mL tubes, ceramic beads, zirconium oxide spheres, glass spheres, silica spheres, dna purification, rna purification, plant tissue, soil, environmental samples, sludge, wastewater, feces</t>
-        </is>
+          <t>YNB is available with or without ammonium sulfate. YNB is composed of salts, vitamins and trace elements. Some component dropouts are available. To make your own synthetic defined yeast media, start with the YNB of your choice, add a carbon source, the appropriate amino acids, and agar if necessary.</t>
+        </is>
+      </c>
+      <c r="V199" t="n">
+        <v/>
       </c>
       <c r="W199" t="n">
         <v/>
@@ -27286,7 +27290,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>116990100</t>
+          <t>114420122</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -27334,23 +27338,21 @@
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>REPLACEMENT O-RINGS FOR METAL LYSING TUBE, 2 ML, 50 EACH</t>
+          <t>SC-TRP-URA, 30 G</t>
         </is>
       </c>
       <c r="T200" t="inlineStr">
         <is>
-          <t>Replacement teflon o-ring used in the cap of a SS Lysing Matrix tube to provide a leak-proof closure.</t>
+          <t>Dropout SC aminoacid mixture formulation (without L-Tryptophan, Uracil) for S. cerevisiae growth media. Also known as Hopkins Mixture and is available in complete and dropout formulations.</t>
         </is>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>Replacement o-rings made of teflon designed to be inserted in the cap of the metal Lysing Matrix tubes to provide a leak-proof closure.</t>
-        </is>
-      </c>
-      <c r="V200" t="inlineStr">
-        <is>
-          <t>plastic o-ring, lysing tube o-ring</t>
-        </is>
+          <t>Double dropout formulation (without L-Tryptophan and Uracil) of Synthetic Complete Supplement Mixture (SC) of amino acids for S. cerevisiae growth media. Also known as Hopkins Mixture and is available in complete and dropout formulations.</t>
+        </is>
+      </c>
+      <c r="V200" t="n">
+        <v/>
       </c>
       <c r="W200" t="n">
         <v/>
@@ -27419,7 +27421,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>11AGAH0100</t>
+          <t>115065010</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -27467,23 +27469,21 @@
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>AGAROSE, MOLECULAR BIOLOGY GRADE, 100 G</t>
+          <t>SCREW CAP, BLUE, FOR 2 ML LYSING MATRIX TUBES, PACK OF 5000</t>
         </is>
       </c>
       <c r="T201" t="inlineStr">
         <is>
-          <t>Agarose optimal for analytical and preparative purpose. It is a very low electroendosmosis agarose. Provides superior separation. Ideal for plasmide preparation, PCR fragment analysis as well as cloning.</t>
+          <t>Caps for 2 mL screw cap tubes. For use on FastPrep instruments or any bead beater.</t>
         </is>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>Standard agarose is a purified linear galactan hydrocolloid isolated from agar or agar-bearing marine algae with an Electroendoosmosis (EEO) value of 0.12 making it an essential component in chemical separation techniques.</t>
-        </is>
-      </c>
-      <c r="V201" t="inlineStr">
-        <is>
-          <t>CMV,Cytomegalovirus,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
-        </is>
+          <t>Blue Caps fit 2 mL screw cap tubes and are ideal for high-speed sample preparation instruments.</t>
+        </is>
+      </c>
+      <c r="V201" t="n">
+        <v/>
       </c>
       <c r="W201" t="n">
         <v/>
@@ -27552,7 +27552,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>11BIAC2902</t>
+          <t>115067010</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -27600,23 +27600,21 @@
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>40% (W/V) ACRYLAMIDE-BIS-ACRYL 29:1 SOLUTION, 1 L</t>
+          <t>SCREW CAP, GREEN, FOR 2 ML LYSING MATRIX TUBES, PACK OF 5000</t>
         </is>
       </c>
       <c r="T202" t="inlineStr">
         <is>
-          <t>Convenient ready-to-use solutions of 4X high quality acrylamide for molecular biology, and NN&amp;rsquo;-methylenebisacrylamide in deonised water. Concentration is based on the total weight of both the acrylamide and bis-acrylamide.</t>
+          <t>Caps for 2 mL screw cap tubes. For use on FastPrep instruments or any bead beater.</t>
         </is>
       </c>
       <c r="U202" t="inlineStr">
         <is>
-          <t>Acrylamide/Bis-acrylamide 29:1 is convenient ready-to-use solutions of 4X crystalized high quality acrylamide for molecular biology, and NN&amp;rsquo;-Methylenebisacrylamide in deonised water. Premixed 19:1 liquid solution eliminates the need to weigh toxic acrylamide and bis-acrylamide. The concentration is based on the total weight of both the acrylamide and bis-acrylamide.</t>
-        </is>
-      </c>
-      <c r="V202" t="inlineStr">
-        <is>
-          <t>Bordetella Pertussis,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
-        </is>
+          <t>Green Caps fit 2 mL screw cap tubes and are ideal for high-speed sample preparation instruments.</t>
+        </is>
+      </c>
+      <c r="V202" t="n">
+        <v/>
       </c>
       <c r="W202" t="n">
         <v/>
@@ -27685,7 +27683,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>11EPHSP025</t>
+          <t>116002505</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -27733,17 +27731,17 @@
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>SUREPRIME DNA POLYMERASE, 250 U</t>
+          <t>BOWL, 1 EACH</t>
         </is>
       </c>
       <c r="T203" t="inlineStr">
         <is>
-          <t>Chemically modified hot-start Taq DNA polymerase that delivers highly specific amplification.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>SurePRIMEâ„¢ DNA Polymerase is a thermostable polymerase that is suitable for all PCR applications requiring â€œhot startâ€ conditions.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V203" t="n">
@@ -27816,7 +27814,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>11FORMD002</t>
+          <t>116002509</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -27864,23 +27862,21 @@
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>FORMAMIDE DEIONIZED, 500 ML</t>
+          <t>LOCK PINS FOR DOME LOCKING</t>
         </is>
       </c>
       <c r="T204" t="inlineStr">
         <is>
-          <t>Deionized Formamide for use in molecular biology and as a denaturing agent for nucleic acids in gel electrophoresis or hybridization experiments.</t>
+          <t>Replacement locking pins  for FastPrep-24 Classic dome.</t>
         </is>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>Deionized Formamide is used in molecular biology and a denaturing agent for nucleic acids in gel electrophoresis orr hybridization experiments. In the latter case the role of formamide is to decrease the temperature necessary for the reassociation of complementary nucleic acids.</t>
-        </is>
-      </c>
-      <c r="V204" t="inlineStr">
-        <is>
-          <t>hsCRP,High Sensitivity C-reactive Protein,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V204" t="n">
+        <v/>
       </c>
       <c r="W204" t="n">
         <v/>
@@ -27949,7 +27945,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>11NTATP100</t>
+          <t>116002515</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -27997,12 +27993,12 @@
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>DATP (25 ΜM)</t>
+          <t>RUBBER SHOE</t>
         </is>
       </c>
       <c r="T205" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Replacement part for FastPrep-24.</t>
         </is>
       </c>
       <c r="U205" t="inlineStr">
@@ -28080,7 +28076,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>11NTCTP100</t>
+          <t>116002516</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -28128,7 +28124,7 @@
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>DCTP (25 ΜM)</t>
+          <t>FUSE 6.3 AMP-UL, PACK OF 4</t>
         </is>
       </c>
       <c r="T206" t="inlineStr">
@@ -28211,7 +28207,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>11NTGTP100</t>
+          <t>116002519</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -28259,7 +28255,7 @@
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>DGTP (25 ΜM)</t>
+          <t>3-PIN FLAT AC CORD-FOR USA</t>
         </is>
       </c>
       <c r="T207" t="inlineStr">
@@ -28342,7 +28338,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>11NTTTP100</t>
+          <t>116002554</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -28390,12 +28386,12 @@
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>DTTP (25 M)</t>
+          <t>SPRING FOR FP24</t>
         </is>
       </c>
       <c r="T208" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>FastPrep-24 parts and accessories.</t>
         </is>
       </c>
       <c r="U208" t="inlineStr">
@@ -28473,121 +28469,2098 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
+          <t>116550900</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v/>
+      </c>
+      <c r="G209" t="n">
+        <v/>
+      </c>
+      <c r="H209" t="n">
+        <v/>
+      </c>
+      <c r="I209" t="n">
+        <v/>
+      </c>
+      <c r="J209" t="n">
+        <v/>
+      </c>
+      <c r="K209" t="n">
+        <v/>
+      </c>
+      <c r="L209" t="n">
+        <v/>
+      </c>
+      <c r="M209" t="n">
+        <v/>
+      </c>
+      <c r="N209" t="n">
+        <v/>
+      </c>
+      <c r="O209" t="n">
+        <v/>
+      </c>
+      <c r="P209" t="n">
+        <v/>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>FASTGLYCOPROTEIN ISOLATION KIT, WGA RESIN, 1 KIT, 10 PREPS</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Kit for the isolation of glycoprotein from complex protein mixtures including animal and plant tissue, cultured cells as well as microbe and insect, using the lectin Wheat Germ Agglutinin (WGA) immobilized on agarose.</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V209" t="n">
+        <v/>
+      </c>
+      <c r="W209" t="n">
+        <v/>
+      </c>
+      <c r="X209" t="n">
+        <v/>
+      </c>
+      <c r="Y209" t="n">
+        <v/>
+      </c>
+      <c r="Z209" t="n">
+        <v/>
+      </c>
+      <c r="AA209" t="n">
+        <v/>
+      </c>
+      <c r="AB209" t="n">
+        <v/>
+      </c>
+      <c r="AC209" t="n">
+        <v/>
+      </c>
+      <c r="AD209" t="n">
+        <v/>
+      </c>
+      <c r="AE209" t="n">
+        <v/>
+      </c>
+      <c r="AF209" t="n">
+        <v/>
+      </c>
+      <c r="AG209" t="n">
+        <v/>
+      </c>
+      <c r="AH209" t="n">
+        <v/>
+      </c>
+      <c r="AI209" t="n">
+        <v/>
+      </c>
+      <c r="AJ209" t="n">
+        <v/>
+      </c>
+      <c r="AK209" t="n">
+        <v/>
+      </c>
+      <c r="AL209" t="n">
+        <v/>
+      </c>
+      <c r="AM209" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v/>
+      </c>
+      <c r="B210" t="n">
+        <v/>
+      </c>
+      <c r="C210" t="n">
+        <v/>
+      </c>
+      <c r="D210" t="n">
+        <v/>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>116914801</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v/>
+      </c>
+      <c r="G210" t="n">
+        <v/>
+      </c>
+      <c r="H210" t="n">
+        <v/>
+      </c>
+      <c r="I210" t="n">
+        <v/>
+      </c>
+      <c r="J210" t="n">
+        <v/>
+      </c>
+      <c r="K210" t="n">
+        <v/>
+      </c>
+      <c r="L210" t="n">
+        <v/>
+      </c>
+      <c r="M210" t="n">
+        <v/>
+      </c>
+      <c r="N210" t="n">
+        <v/>
+      </c>
+      <c r="O210" t="n">
+        <v/>
+      </c>
+      <c r="P210" t="n">
+        <v/>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>4MM GLASS BEADS</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V210" t="n">
+        <v/>
+      </c>
+      <c r="W210" t="n">
+        <v/>
+      </c>
+      <c r="X210" t="n">
+        <v/>
+      </c>
+      <c r="Y210" t="n">
+        <v/>
+      </c>
+      <c r="Z210" t="n">
+        <v/>
+      </c>
+      <c r="AA210" t="n">
+        <v/>
+      </c>
+      <c r="AB210" t="n">
+        <v/>
+      </c>
+      <c r="AC210" t="n">
+        <v/>
+      </c>
+      <c r="AD210" t="n">
+        <v/>
+      </c>
+      <c r="AE210" t="n">
+        <v/>
+      </c>
+      <c r="AF210" t="n">
+        <v/>
+      </c>
+      <c r="AG210" t="n">
+        <v/>
+      </c>
+      <c r="AH210" t="n">
+        <v/>
+      </c>
+      <c r="AI210" t="n">
+        <v/>
+      </c>
+      <c r="AJ210" t="n">
+        <v/>
+      </c>
+      <c r="AK210" t="n">
+        <v/>
+      </c>
+      <c r="AL210" t="n">
+        <v/>
+      </c>
+      <c r="AM210" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v/>
+      </c>
+      <c r="B211" t="n">
+        <v/>
+      </c>
+      <c r="C211" t="n">
+        <v/>
+      </c>
+      <c r="D211" t="n">
+        <v/>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>116950000</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v/>
+      </c>
+      <c r="G211" t="n">
+        <v/>
+      </c>
+      <c r="H211" t="n">
+        <v/>
+      </c>
+      <c r="I211" t="n">
+        <v/>
+      </c>
+      <c r="J211" t="n">
+        <v/>
+      </c>
+      <c r="K211" t="n">
+        <v/>
+      </c>
+      <c r="L211" t="n">
+        <v/>
+      </c>
+      <c r="M211" t="n">
+        <v/>
+      </c>
+      <c r="N211" t="n">
+        <v/>
+      </c>
+      <c r="O211" t="n">
+        <v/>
+      </c>
+      <c r="P211" t="n">
+        <v/>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>50 ML CONICAL TUBES, PACK OF 25</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V211" t="n">
+        <v/>
+      </c>
+      <c r="W211" t="n">
+        <v/>
+      </c>
+      <c r="X211" t="n">
+        <v/>
+      </c>
+      <c r="Y211" t="n">
+        <v/>
+      </c>
+      <c r="Z211" t="n">
+        <v/>
+      </c>
+      <c r="AA211" t="n">
+        <v/>
+      </c>
+      <c r="AB211" t="n">
+        <v/>
+      </c>
+      <c r="AC211" t="n">
+        <v/>
+      </c>
+      <c r="AD211" t="n">
+        <v/>
+      </c>
+      <c r="AE211" t="n">
+        <v/>
+      </c>
+      <c r="AF211" t="n">
+        <v/>
+      </c>
+      <c r="AG211" t="n">
+        <v/>
+      </c>
+      <c r="AH211" t="n">
+        <v/>
+      </c>
+      <c r="AI211" t="n">
+        <v/>
+      </c>
+      <c r="AJ211" t="n">
+        <v/>
+      </c>
+      <c r="AK211" t="n">
+        <v/>
+      </c>
+      <c r="AL211" t="n">
+        <v/>
+      </c>
+      <c r="AM211" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v/>
+      </c>
+      <c r="B212" t="n">
+        <v/>
+      </c>
+      <c r="C212" t="n">
+        <v/>
+      </c>
+      <c r="D212" t="n">
+        <v/>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>116954100</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v/>
+      </c>
+      <c r="G212" t="n">
+        <v/>
+      </c>
+      <c r="H212" t="n">
+        <v/>
+      </c>
+      <c r="I212" t="n">
+        <v/>
+      </c>
+      <c r="J212" t="n">
+        <v/>
+      </c>
+      <c r="K212" t="n">
+        <v/>
+      </c>
+      <c r="L212" t="n">
+        <v/>
+      </c>
+      <c r="M212" t="n">
+        <v/>
+      </c>
+      <c r="N212" t="n">
+        <v/>
+      </c>
+      <c r="O212" t="n">
+        <v/>
+      </c>
+      <c r="P212" t="n">
+        <v/>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>BIGPREP;; LYSING MATRIX E, PACK OF 100</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Primarily used for environmental samples such as soil, sludge, wastewater and feces.</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>Lysing Matrix E 50 mL Tube contains 1.4 ceramic spheres, 0.1 mm silica spheres and 25, 4 mm glass beads. Will not bind nucleic acids. Ideal for use on FastPrep&amp;reg; Instruments and any other homogenizer, grinder or bead-beating device.</t>
+        </is>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>extraction, purification, sample preparation, 50 mL tubes, ceramic beads, zirconium oxide spheres, glass spheres, silica spheres, dna purification, rna purification, plant tissue, soil, environmental samples, sludge, wastewater, feces</t>
+        </is>
+      </c>
+      <c r="W212" t="n">
+        <v/>
+      </c>
+      <c r="X212" t="n">
+        <v/>
+      </c>
+      <c r="Y212" t="n">
+        <v/>
+      </c>
+      <c r="Z212" t="n">
+        <v/>
+      </c>
+      <c r="AA212" t="n">
+        <v/>
+      </c>
+      <c r="AB212" t="n">
+        <v/>
+      </c>
+      <c r="AC212" t="n">
+        <v/>
+      </c>
+      <c r="AD212" t="n">
+        <v/>
+      </c>
+      <c r="AE212" t="n">
+        <v/>
+      </c>
+      <c r="AF212" t="n">
+        <v/>
+      </c>
+      <c r="AG212" t="n">
+        <v/>
+      </c>
+      <c r="AH212" t="n">
+        <v/>
+      </c>
+      <c r="AI212" t="n">
+        <v/>
+      </c>
+      <c r="AJ212" t="n">
+        <v/>
+      </c>
+      <c r="AK212" t="n">
+        <v/>
+      </c>
+      <c r="AL212" t="n">
+        <v/>
+      </c>
+      <c r="AM212" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v/>
+      </c>
+      <c r="B213" t="n">
+        <v/>
+      </c>
+      <c r="C213" t="n">
+        <v/>
+      </c>
+      <c r="D213" t="n">
+        <v/>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>116990100</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v/>
+      </c>
+      <c r="G213" t="n">
+        <v/>
+      </c>
+      <c r="H213" t="n">
+        <v/>
+      </c>
+      <c r="I213" t="n">
+        <v/>
+      </c>
+      <c r="J213" t="n">
+        <v/>
+      </c>
+      <c r="K213" t="n">
+        <v/>
+      </c>
+      <c r="L213" t="n">
+        <v/>
+      </c>
+      <c r="M213" t="n">
+        <v/>
+      </c>
+      <c r="N213" t="n">
+        <v/>
+      </c>
+      <c r="O213" t="n">
+        <v/>
+      </c>
+      <c r="P213" t="n">
+        <v/>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>REPLACEMENT O-RINGS FOR METAL LYSING TUBE, 2 ML, 50 EACH</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Replacement teflon o-ring used in the cap of a SS Lysing Matrix tube to provide a leak-proof closure.</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>Replacement o-rings made of teflon designed to be inserted in the cap of the metal Lysing Matrix tubes to provide a leak-proof closure.</t>
+        </is>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>plastic o-ring, lysing tube o-ring</t>
+        </is>
+      </c>
+      <c r="W213" t="n">
+        <v/>
+      </c>
+      <c r="X213" t="n">
+        <v/>
+      </c>
+      <c r="Y213" t="n">
+        <v/>
+      </c>
+      <c r="Z213" t="n">
+        <v/>
+      </c>
+      <c r="AA213" t="n">
+        <v/>
+      </c>
+      <c r="AB213" t="n">
+        <v/>
+      </c>
+      <c r="AC213" t="n">
+        <v/>
+      </c>
+      <c r="AD213" t="n">
+        <v/>
+      </c>
+      <c r="AE213" t="n">
+        <v/>
+      </c>
+      <c r="AF213" t="n">
+        <v/>
+      </c>
+      <c r="AG213" t="n">
+        <v/>
+      </c>
+      <c r="AH213" t="n">
+        <v/>
+      </c>
+      <c r="AI213" t="n">
+        <v/>
+      </c>
+      <c r="AJ213" t="n">
+        <v/>
+      </c>
+      <c r="AK213" t="n">
+        <v/>
+      </c>
+      <c r="AL213" t="n">
+        <v/>
+      </c>
+      <c r="AM213" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v/>
+      </c>
+      <c r="B214" t="n">
+        <v/>
+      </c>
+      <c r="C214" t="n">
+        <v/>
+      </c>
+      <c r="D214" t="n">
+        <v/>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>11AGAH0100</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v/>
+      </c>
+      <c r="G214" t="n">
+        <v/>
+      </c>
+      <c r="H214" t="n">
+        <v/>
+      </c>
+      <c r="I214" t="n">
+        <v/>
+      </c>
+      <c r="J214" t="n">
+        <v/>
+      </c>
+      <c r="K214" t="n">
+        <v/>
+      </c>
+      <c r="L214" t="n">
+        <v/>
+      </c>
+      <c r="M214" t="n">
+        <v/>
+      </c>
+      <c r="N214" t="n">
+        <v/>
+      </c>
+      <c r="O214" t="n">
+        <v/>
+      </c>
+      <c r="P214" t="n">
+        <v/>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>AGAROSE, MOLECULAR BIOLOGY GRADE, 100 G</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Agarose optimal for analytical and preparative purpose. It is a very low electroendosmosis agarose. Provides superior separation. Ideal for plasmide preparation, PCR fragment analysis as well as cloning.</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>Standard agarose is a purified linear galactan hydrocolloid isolated from agar or agar-bearing marine algae with an Electroendoosmosis (EEO) value of 0.12 making it an essential component in chemical separation techniques.</t>
+        </is>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>CMV,Cytomegalovirus,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
+        </is>
+      </c>
+      <c r="W214" t="n">
+        <v/>
+      </c>
+      <c r="X214" t="n">
+        <v/>
+      </c>
+      <c r="Y214" t="n">
+        <v/>
+      </c>
+      <c r="Z214" t="n">
+        <v/>
+      </c>
+      <c r="AA214" t="n">
+        <v/>
+      </c>
+      <c r="AB214" t="n">
+        <v/>
+      </c>
+      <c r="AC214" t="n">
+        <v/>
+      </c>
+      <c r="AD214" t="n">
+        <v/>
+      </c>
+      <c r="AE214" t="n">
+        <v/>
+      </c>
+      <c r="AF214" t="n">
+        <v/>
+      </c>
+      <c r="AG214" t="n">
+        <v/>
+      </c>
+      <c r="AH214" t="n">
+        <v/>
+      </c>
+      <c r="AI214" t="n">
+        <v/>
+      </c>
+      <c r="AJ214" t="n">
+        <v/>
+      </c>
+      <c r="AK214" t="n">
+        <v/>
+      </c>
+      <c r="AL214" t="n">
+        <v/>
+      </c>
+      <c r="AM214" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v/>
+      </c>
+      <c r="B215" t="n">
+        <v/>
+      </c>
+      <c r="C215" t="n">
+        <v/>
+      </c>
+      <c r="D215" t="n">
+        <v/>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>11BIAC2902</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v/>
+      </c>
+      <c r="G215" t="n">
+        <v/>
+      </c>
+      <c r="H215" t="n">
+        <v/>
+      </c>
+      <c r="I215" t="n">
+        <v/>
+      </c>
+      <c r="J215" t="n">
+        <v/>
+      </c>
+      <c r="K215" t="n">
+        <v/>
+      </c>
+      <c r="L215" t="n">
+        <v/>
+      </c>
+      <c r="M215" t="n">
+        <v/>
+      </c>
+      <c r="N215" t="n">
+        <v/>
+      </c>
+      <c r="O215" t="n">
+        <v/>
+      </c>
+      <c r="P215" t="n">
+        <v/>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>40% (W/V) ACRYLAMIDE-BIS-ACRYL 29:1 SOLUTION, 1 L</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Convenient ready-to-use solutions of 4X high quality acrylamide for molecular biology, and NN&amp;rsquo;-methylenebisacrylamide in deonised water. Concentration is based on the total weight of both the acrylamide and bis-acrylamide.</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>Acrylamide/Bis-acrylamide 29:1 is convenient ready-to-use solutions of 4X crystalized high quality acrylamide for molecular biology, and NN&amp;rsquo;-Methylenebisacrylamide in deonised water. Premixed 19:1 liquid solution eliminates the need to weigh toxic acrylamide and bis-acrylamide. The concentration is based on the total weight of both the acrylamide and bis-acrylamide.</t>
+        </is>
+      </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>Bordetella Pertussis,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
+        </is>
+      </c>
+      <c r="W215" t="n">
+        <v/>
+      </c>
+      <c r="X215" t="n">
+        <v/>
+      </c>
+      <c r="Y215" t="n">
+        <v/>
+      </c>
+      <c r="Z215" t="n">
+        <v/>
+      </c>
+      <c r="AA215" t="n">
+        <v/>
+      </c>
+      <c r="AB215" t="n">
+        <v/>
+      </c>
+      <c r="AC215" t="n">
+        <v/>
+      </c>
+      <c r="AD215" t="n">
+        <v/>
+      </c>
+      <c r="AE215" t="n">
+        <v/>
+      </c>
+      <c r="AF215" t="n">
+        <v/>
+      </c>
+      <c r="AG215" t="n">
+        <v/>
+      </c>
+      <c r="AH215" t="n">
+        <v/>
+      </c>
+      <c r="AI215" t="n">
+        <v/>
+      </c>
+      <c r="AJ215" t="n">
+        <v/>
+      </c>
+      <c r="AK215" t="n">
+        <v/>
+      </c>
+      <c r="AL215" t="n">
+        <v/>
+      </c>
+      <c r="AM215" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v/>
+      </c>
+      <c r="B216" t="n">
+        <v/>
+      </c>
+      <c r="C216" t="n">
+        <v/>
+      </c>
+      <c r="D216" t="n">
+        <v/>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>11EPHSP025</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v/>
+      </c>
+      <c r="G216" t="n">
+        <v/>
+      </c>
+      <c r="H216" t="n">
+        <v/>
+      </c>
+      <c r="I216" t="n">
+        <v/>
+      </c>
+      <c r="J216" t="n">
+        <v/>
+      </c>
+      <c r="K216" t="n">
+        <v/>
+      </c>
+      <c r="L216" t="n">
+        <v/>
+      </c>
+      <c r="M216" t="n">
+        <v/>
+      </c>
+      <c r="N216" t="n">
+        <v/>
+      </c>
+      <c r="O216" t="n">
+        <v/>
+      </c>
+      <c r="P216" t="n">
+        <v/>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>SUREPRIME DNA POLYMERASE, 250 U</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Chemically modified hot-start Taq DNA polymerase that delivers highly specific amplification.</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>SurePRIMEâ„¢ DNA Polymerase is a thermostable polymerase that is suitable for all PCR applications requiring â€œhot startâ€ conditions.</t>
+        </is>
+      </c>
+      <c r="V216" t="n">
+        <v/>
+      </c>
+      <c r="W216" t="n">
+        <v/>
+      </c>
+      <c r="X216" t="n">
+        <v/>
+      </c>
+      <c r="Y216" t="n">
+        <v/>
+      </c>
+      <c r="Z216" t="n">
+        <v/>
+      </c>
+      <c r="AA216" t="n">
+        <v/>
+      </c>
+      <c r="AB216" t="n">
+        <v/>
+      </c>
+      <c r="AC216" t="n">
+        <v/>
+      </c>
+      <c r="AD216" t="n">
+        <v/>
+      </c>
+      <c r="AE216" t="n">
+        <v/>
+      </c>
+      <c r="AF216" t="n">
+        <v/>
+      </c>
+      <c r="AG216" t="n">
+        <v/>
+      </c>
+      <c r="AH216" t="n">
+        <v/>
+      </c>
+      <c r="AI216" t="n">
+        <v/>
+      </c>
+      <c r="AJ216" t="n">
+        <v/>
+      </c>
+      <c r="AK216" t="n">
+        <v/>
+      </c>
+      <c r="AL216" t="n">
+        <v/>
+      </c>
+      <c r="AM216" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v/>
+      </c>
+      <c r="B217" t="n">
+        <v/>
+      </c>
+      <c r="C217" t="n">
+        <v/>
+      </c>
+      <c r="D217" t="n">
+        <v/>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>11FORMD002</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v/>
+      </c>
+      <c r="G217" t="n">
+        <v/>
+      </c>
+      <c r="H217" t="n">
+        <v/>
+      </c>
+      <c r="I217" t="n">
+        <v/>
+      </c>
+      <c r="J217" t="n">
+        <v/>
+      </c>
+      <c r="K217" t="n">
+        <v/>
+      </c>
+      <c r="L217" t="n">
+        <v/>
+      </c>
+      <c r="M217" t="n">
+        <v/>
+      </c>
+      <c r="N217" t="n">
+        <v/>
+      </c>
+      <c r="O217" t="n">
+        <v/>
+      </c>
+      <c r="P217" t="n">
+        <v/>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>FORMAMIDE DEIONIZED, 500 ML</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Deionized Formamide for use in molecular biology and as a denaturing agent for nucleic acids in gel electrophoresis or hybridization experiments.</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>Deionized Formamide is used in molecular biology and a denaturing agent for nucleic acids in gel electrophoresis orr hybridization experiments. In the latter case the role of formamide is to decrease the temperature necessary for the reassociation of complementary nucleic acids.</t>
+        </is>
+      </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>hsCRP,High Sensitivity C-reactive Protein,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
+        </is>
+      </c>
+      <c r="W217" t="n">
+        <v/>
+      </c>
+      <c r="X217" t="n">
+        <v/>
+      </c>
+      <c r="Y217" t="n">
+        <v/>
+      </c>
+      <c r="Z217" t="n">
+        <v/>
+      </c>
+      <c r="AA217" t="n">
+        <v/>
+      </c>
+      <c r="AB217" t="n">
+        <v/>
+      </c>
+      <c r="AC217" t="n">
+        <v/>
+      </c>
+      <c r="AD217" t="n">
+        <v/>
+      </c>
+      <c r="AE217" t="n">
+        <v/>
+      </c>
+      <c r="AF217" t="n">
+        <v/>
+      </c>
+      <c r="AG217" t="n">
+        <v/>
+      </c>
+      <c r="AH217" t="n">
+        <v/>
+      </c>
+      <c r="AI217" t="n">
+        <v/>
+      </c>
+      <c r="AJ217" t="n">
+        <v/>
+      </c>
+      <c r="AK217" t="n">
+        <v/>
+      </c>
+      <c r="AL217" t="n">
+        <v/>
+      </c>
+      <c r="AM217" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v/>
+      </c>
+      <c r="B218" t="n">
+        <v/>
+      </c>
+      <c r="C218" t="n">
+        <v/>
+      </c>
+      <c r="D218" t="n">
+        <v/>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>11INSC0106</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v/>
+      </c>
+      <c r="G218" t="n">
+        <v/>
+      </c>
+      <c r="H218" t="n">
+        <v/>
+      </c>
+      <c r="I218" t="n">
+        <v/>
+      </c>
+      <c r="J218" t="n">
+        <v/>
+      </c>
+      <c r="K218" t="n">
+        <v/>
+      </c>
+      <c r="L218" t="n">
+        <v/>
+      </c>
+      <c r="M218" t="n">
+        <v/>
+      </c>
+      <c r="N218" t="n">
+        <v/>
+      </c>
+      <c r="O218" t="n">
+        <v/>
+      </c>
+      <c r="P218" t="n">
+        <v/>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>AUTORADIOGRAPHY CASSETTE, 35 X 43, 14 X 17 CM</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Specially designed for Southern and Northern applications. MP Bio cassettes can be used at temperatures as low as -80°C. The high quality materials used in manufacturing these cassettes insure outstanding durability.</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>Specially selected for molecular biology applications. MP Bio cassettes are designed for use at temperatures as low as -80°C. The high quality materials used in manufacturing these cassettes insure outsatnading durability.</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>Cortisol,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
+        </is>
+      </c>
+      <c r="W218" t="n">
+        <v/>
+      </c>
+      <c r="X218" t="n">
+        <v/>
+      </c>
+      <c r="Y218" t="n">
+        <v/>
+      </c>
+      <c r="Z218" t="n">
+        <v/>
+      </c>
+      <c r="AA218" t="n">
+        <v/>
+      </c>
+      <c r="AB218" t="n">
+        <v/>
+      </c>
+      <c r="AC218" t="n">
+        <v/>
+      </c>
+      <c r="AD218" t="n">
+        <v/>
+      </c>
+      <c r="AE218" t="n">
+        <v/>
+      </c>
+      <c r="AF218" t="n">
+        <v/>
+      </c>
+      <c r="AG218" t="n">
+        <v/>
+      </c>
+      <c r="AH218" t="n">
+        <v/>
+      </c>
+      <c r="AI218" t="n">
+        <v/>
+      </c>
+      <c r="AJ218" t="n">
+        <v/>
+      </c>
+      <c r="AK218" t="n">
+        <v/>
+      </c>
+      <c r="AL218" t="n">
+        <v/>
+      </c>
+      <c r="AM218" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v/>
+      </c>
+      <c r="B219" t="n">
+        <v/>
+      </c>
+      <c r="C219" t="n">
+        <v/>
+      </c>
+      <c r="D219" t="n">
+        <v/>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>11INSI6301</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v/>
+      </c>
+      <c r="G219" t="n">
+        <v/>
+      </c>
+      <c r="H219" t="n">
+        <v/>
+      </c>
+      <c r="I219" t="n">
+        <v/>
+      </c>
+      <c r="J219" t="n">
+        <v/>
+      </c>
+      <c r="K219" t="n">
+        <v/>
+      </c>
+      <c r="L219" t="n">
+        <v/>
+      </c>
+      <c r="M219" t="n">
+        <v/>
+      </c>
+      <c r="N219" t="n">
+        <v/>
+      </c>
+      <c r="O219" t="n">
+        <v/>
+      </c>
+      <c r="P219" t="n">
+        <v/>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>THERMAL PAPER STANDARD, 5 ROLLS</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V219" t="n">
+        <v/>
+      </c>
+      <c r="W219" t="n">
+        <v/>
+      </c>
+      <c r="X219" t="n">
+        <v/>
+      </c>
+      <c r="Y219" t="n">
+        <v/>
+      </c>
+      <c r="Z219" t="n">
+        <v/>
+      </c>
+      <c r="AA219" t="n">
+        <v/>
+      </c>
+      <c r="AB219" t="n">
+        <v/>
+      </c>
+      <c r="AC219" t="n">
+        <v/>
+      </c>
+      <c r="AD219" t="n">
+        <v/>
+      </c>
+      <c r="AE219" t="n">
+        <v/>
+      </c>
+      <c r="AF219" t="n">
+        <v/>
+      </c>
+      <c r="AG219" t="n">
+        <v/>
+      </c>
+      <c r="AH219" t="n">
+        <v/>
+      </c>
+      <c r="AI219" t="n">
+        <v/>
+      </c>
+      <c r="AJ219" t="n">
+        <v/>
+      </c>
+      <c r="AK219" t="n">
+        <v/>
+      </c>
+      <c r="AL219" t="n">
+        <v/>
+      </c>
+      <c r="AM219" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v/>
+      </c>
+      <c r="B220" t="n">
+        <v/>
+      </c>
+      <c r="C220" t="n">
+        <v/>
+      </c>
+      <c r="D220" t="n">
+        <v/>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>11NTATP100</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v/>
+      </c>
+      <c r="G220" t="n">
+        <v/>
+      </c>
+      <c r="H220" t="n">
+        <v/>
+      </c>
+      <c r="I220" t="n">
+        <v/>
+      </c>
+      <c r="J220" t="n">
+        <v/>
+      </c>
+      <c r="K220" t="n">
+        <v/>
+      </c>
+      <c r="L220" t="n">
+        <v/>
+      </c>
+      <c r="M220" t="n">
+        <v/>
+      </c>
+      <c r="N220" t="n">
+        <v/>
+      </c>
+      <c r="O220" t="n">
+        <v/>
+      </c>
+      <c r="P220" t="n">
+        <v/>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>DATP (25 ΜM)</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V220" t="n">
+        <v/>
+      </c>
+      <c r="W220" t="n">
+        <v/>
+      </c>
+      <c r="X220" t="n">
+        <v/>
+      </c>
+      <c r="Y220" t="n">
+        <v/>
+      </c>
+      <c r="Z220" t="n">
+        <v/>
+      </c>
+      <c r="AA220" t="n">
+        <v/>
+      </c>
+      <c r="AB220" t="n">
+        <v/>
+      </c>
+      <c r="AC220" t="n">
+        <v/>
+      </c>
+      <c r="AD220" t="n">
+        <v/>
+      </c>
+      <c r="AE220" t="n">
+        <v/>
+      </c>
+      <c r="AF220" t="n">
+        <v/>
+      </c>
+      <c r="AG220" t="n">
+        <v/>
+      </c>
+      <c r="AH220" t="n">
+        <v/>
+      </c>
+      <c r="AI220" t="n">
+        <v/>
+      </c>
+      <c r="AJ220" t="n">
+        <v/>
+      </c>
+      <c r="AK220" t="n">
+        <v/>
+      </c>
+      <c r="AL220" t="n">
+        <v/>
+      </c>
+      <c r="AM220" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v/>
+      </c>
+      <c r="B221" t="n">
+        <v/>
+      </c>
+      <c r="C221" t="n">
+        <v/>
+      </c>
+      <c r="D221" t="n">
+        <v/>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>11NTCTP100</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v/>
+      </c>
+      <c r="G221" t="n">
+        <v/>
+      </c>
+      <c r="H221" t="n">
+        <v/>
+      </c>
+      <c r="I221" t="n">
+        <v/>
+      </c>
+      <c r="J221" t="n">
+        <v/>
+      </c>
+      <c r="K221" t="n">
+        <v/>
+      </c>
+      <c r="L221" t="n">
+        <v/>
+      </c>
+      <c r="M221" t="n">
+        <v/>
+      </c>
+      <c r="N221" t="n">
+        <v/>
+      </c>
+      <c r="O221" t="n">
+        <v/>
+      </c>
+      <c r="P221" t="n">
+        <v/>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>DCTP (25 ΜM)</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V221" t="n">
+        <v/>
+      </c>
+      <c r="W221" t="n">
+        <v/>
+      </c>
+      <c r="X221" t="n">
+        <v/>
+      </c>
+      <c r="Y221" t="n">
+        <v/>
+      </c>
+      <c r="Z221" t="n">
+        <v/>
+      </c>
+      <c r="AA221" t="n">
+        <v/>
+      </c>
+      <c r="AB221" t="n">
+        <v/>
+      </c>
+      <c r="AC221" t="n">
+        <v/>
+      </c>
+      <c r="AD221" t="n">
+        <v/>
+      </c>
+      <c r="AE221" t="n">
+        <v/>
+      </c>
+      <c r="AF221" t="n">
+        <v/>
+      </c>
+      <c r="AG221" t="n">
+        <v/>
+      </c>
+      <c r="AH221" t="n">
+        <v/>
+      </c>
+      <c r="AI221" t="n">
+        <v/>
+      </c>
+      <c r="AJ221" t="n">
+        <v/>
+      </c>
+      <c r="AK221" t="n">
+        <v/>
+      </c>
+      <c r="AL221" t="n">
+        <v/>
+      </c>
+      <c r="AM221" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v/>
+      </c>
+      <c r="B222" t="n">
+        <v/>
+      </c>
+      <c r="C222" t="n">
+        <v/>
+      </c>
+      <c r="D222" t="n">
+        <v/>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>11NTGTP100</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v/>
+      </c>
+      <c r="G222" t="n">
+        <v/>
+      </c>
+      <c r="H222" t="n">
+        <v/>
+      </c>
+      <c r="I222" t="n">
+        <v/>
+      </c>
+      <c r="J222" t="n">
+        <v/>
+      </c>
+      <c r="K222" t="n">
+        <v/>
+      </c>
+      <c r="L222" t="n">
+        <v/>
+      </c>
+      <c r="M222" t="n">
+        <v/>
+      </c>
+      <c r="N222" t="n">
+        <v/>
+      </c>
+      <c r="O222" t="n">
+        <v/>
+      </c>
+      <c r="P222" t="n">
+        <v/>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>DGTP (25 ΜM)</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V222" t="n">
+        <v/>
+      </c>
+      <c r="W222" t="n">
+        <v/>
+      </c>
+      <c r="X222" t="n">
+        <v/>
+      </c>
+      <c r="Y222" t="n">
+        <v/>
+      </c>
+      <c r="Z222" t="n">
+        <v/>
+      </c>
+      <c r="AA222" t="n">
+        <v/>
+      </c>
+      <c r="AB222" t="n">
+        <v/>
+      </c>
+      <c r="AC222" t="n">
+        <v/>
+      </c>
+      <c r="AD222" t="n">
+        <v/>
+      </c>
+      <c r="AE222" t="n">
+        <v/>
+      </c>
+      <c r="AF222" t="n">
+        <v/>
+      </c>
+      <c r="AG222" t="n">
+        <v/>
+      </c>
+      <c r="AH222" t="n">
+        <v/>
+      </c>
+      <c r="AI222" t="n">
+        <v/>
+      </c>
+      <c r="AJ222" t="n">
+        <v/>
+      </c>
+      <c r="AK222" t="n">
+        <v/>
+      </c>
+      <c r="AL222" t="n">
+        <v/>
+      </c>
+      <c r="AM222" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v/>
+      </c>
+      <c r="B223" t="n">
+        <v/>
+      </c>
+      <c r="C223" t="n">
+        <v/>
+      </c>
+      <c r="D223" t="n">
+        <v/>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>11NTTTP100</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v/>
+      </c>
+      <c r="G223" t="n">
+        <v/>
+      </c>
+      <c r="H223" t="n">
+        <v/>
+      </c>
+      <c r="I223" t="n">
+        <v/>
+      </c>
+      <c r="J223" t="n">
+        <v/>
+      </c>
+      <c r="K223" t="n">
+        <v/>
+      </c>
+      <c r="L223" t="n">
+        <v/>
+      </c>
+      <c r="M223" t="n">
+        <v/>
+      </c>
+      <c r="N223" t="n">
+        <v/>
+      </c>
+      <c r="O223" t="n">
+        <v/>
+      </c>
+      <c r="P223" t="n">
+        <v/>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>DTTP (25 M)</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V223" t="n">
+        <v/>
+      </c>
+      <c r="W223" t="n">
+        <v/>
+      </c>
+      <c r="X223" t="n">
+        <v/>
+      </c>
+      <c r="Y223" t="n">
+        <v/>
+      </c>
+      <c r="Z223" t="n">
+        <v/>
+      </c>
+      <c r="AA223" t="n">
+        <v/>
+      </c>
+      <c r="AB223" t="n">
+        <v/>
+      </c>
+      <c r="AC223" t="n">
+        <v/>
+      </c>
+      <c r="AD223" t="n">
+        <v/>
+      </c>
+      <c r="AE223" t="n">
+        <v/>
+      </c>
+      <c r="AF223" t="n">
+        <v/>
+      </c>
+      <c r="AG223" t="n">
+        <v/>
+      </c>
+      <c r="AH223" t="n">
+        <v/>
+      </c>
+      <c r="AI223" t="n">
+        <v/>
+      </c>
+      <c r="AJ223" t="n">
+        <v/>
+      </c>
+      <c r="AK223" t="n">
+        <v/>
+      </c>
+      <c r="AL223" t="n">
+        <v/>
+      </c>
+      <c r="AM223" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v/>
+      </c>
+      <c r="B224" t="n">
+        <v/>
+      </c>
+      <c r="C224" t="n">
+        <v/>
+      </c>
+      <c r="D224" t="n">
+        <v/>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
           <t>11RIST1373</t>
         </is>
       </c>
-      <c r="F209" t="n">
-        <v/>
-      </c>
-      <c r="G209" t="n">
-        <v/>
-      </c>
-      <c r="H209" t="n">
-        <v/>
-      </c>
-      <c r="I209" t="n">
-        <v/>
-      </c>
-      <c r="J209" t="n">
-        <v/>
-      </c>
-      <c r="K209" t="n">
-        <v/>
-      </c>
-      <c r="L209" t="n">
-        <v/>
-      </c>
-      <c r="M209" t="n">
-        <v/>
-      </c>
-      <c r="N209" t="n">
-        <v/>
-      </c>
-      <c r="O209" t="n">
-        <v/>
-      </c>
-      <c r="P209" t="n">
-        <v/>
-      </c>
-      <c r="Q209" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R209" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S209" t="inlineStr">
+      <c r="F224" t="n">
+        <v/>
+      </c>
+      <c r="G224" t="n">
+        <v/>
+      </c>
+      <c r="H224" t="n">
+        <v/>
+      </c>
+      <c r="I224" t="n">
+        <v/>
+      </c>
+      <c r="J224" t="n">
+        <v/>
+      </c>
+      <c r="K224" t="n">
+        <v/>
+      </c>
+      <c r="L224" t="n">
+        <v/>
+      </c>
+      <c r="M224" t="n">
+        <v/>
+      </c>
+      <c r="N224" t="n">
+        <v/>
+      </c>
+      <c r="O224" t="n">
+        <v/>
+      </c>
+      <c r="P224" t="n">
+        <v/>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
         <is>
           <t>PROTEINASE K, &gt;30 MANSON U/MG, 100 MG</t>
         </is>
       </c>
-      <c r="T209" t="inlineStr">
+      <c r="T224" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U209" t="inlineStr">
+      <c r="U224" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="V209" t="inlineStr">
+      <c r="V224" t="inlineStr">
         <is>
           <t>Toxoplasma gondii,Toxoplasmosis,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
         </is>
       </c>
-      <c r="W209" t="n">
-        <v/>
-      </c>
-      <c r="X209" t="n">
-        <v/>
-      </c>
-      <c r="Y209" t="n">
-        <v/>
-      </c>
-      <c r="Z209" t="n">
-        <v/>
-      </c>
-      <c r="AA209" t="n">
-        <v/>
-      </c>
-      <c r="AB209" t="n">
-        <v/>
-      </c>
-      <c r="AC209" t="n">
-        <v/>
-      </c>
-      <c r="AD209" t="n">
-        <v/>
-      </c>
-      <c r="AE209" t="n">
-        <v/>
-      </c>
-      <c r="AF209" t="n">
-        <v/>
-      </c>
-      <c r="AG209" t="n">
-        <v/>
-      </c>
-      <c r="AH209" t="n">
-        <v/>
-      </c>
-      <c r="AI209" t="n">
-        <v/>
-      </c>
-      <c r="AJ209" t="n">
-        <v/>
-      </c>
-      <c r="AK209" t="n">
-        <v/>
-      </c>
-      <c r="AL209" t="n">
-        <v/>
-      </c>
-      <c r="AM209" t="n">
+      <c r="W224" t="n">
+        <v/>
+      </c>
+      <c r="X224" t="n">
+        <v/>
+      </c>
+      <c r="Y224" t="n">
+        <v/>
+      </c>
+      <c r="Z224" t="n">
+        <v/>
+      </c>
+      <c r="AA224" t="n">
+        <v/>
+      </c>
+      <c r="AB224" t="n">
+        <v/>
+      </c>
+      <c r="AC224" t="n">
+        <v/>
+      </c>
+      <c r="AD224" t="n">
+        <v/>
+      </c>
+      <c r="AE224" t="n">
+        <v/>
+      </c>
+      <c r="AF224" t="n">
+        <v/>
+      </c>
+      <c r="AG224" t="n">
+        <v/>
+      </c>
+      <c r="AH224" t="n">
+        <v/>
+      </c>
+      <c r="AI224" t="n">
+        <v/>
+      </c>
+      <c r="AJ224" t="n">
+        <v/>
+      </c>
+      <c r="AK224" t="n">
+        <v/>
+      </c>
+      <c r="AL224" t="n">
+        <v/>
+      </c>
+      <c r="AM224" t="n">
         <v/>
       </c>
     </row>

--- a/outputs/enrichment_outputs/vwr_enrichment_output.xlsx
+++ b/outputs/enrichment_outputs/vwr_enrichment_output.xlsx
@@ -1597,7 +1597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM224"/>
+  <dimension ref="A1:AM209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0202026</t>
+          <t>0210000801</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2593,23 +2593,21 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>MP ALUMINA N, NEUTRAL PH, 50 KG</t>
+          <t>ADENOSINE-5'-TRIPHOSPHATE, 1 G</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>MP EcoChromâ„¢ Alumina N is an amphoteric oxide. It is commonly referred to as alumina (Î±-alumina), aloxide, or corundum in its crystalline form, as well as many other names, reflecting its widespread occurrence in nature and industry. An oxide of aluminum, occurring in nature as various minerals such as bauxite, corundum, etc. It is used as an adsorbent, desiccating agent, and catalyst, and in the manufacture of dental cements and refractories.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>MP EcoChromâ„¢ Alumina N is an amphoteric oxide. It is commonly referred to as alumina (Î±-alumina), aloxide, or corundum in its crystalline form, as well as many other names, reflecting its widespread occurrence in nature and industry. An oxide of aluminum, occurring in nature as various minerals such as bauxite, corundum, etc. It is used as an adsorbent, desiccating agent, and catalyst, and in the manufacture of dental cements and refractories.</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Alumina, Thin Layer Chromatography (TLC), Adsorbents for TLC, Adsorbents, Filter Aids and Drying Agents, Alumina &amp; Aluminum Hydroxide TLC Adsorbents, Aluminum, Aluminum Oxide, Analytical/Chromatography, Chemicals, LPLC/TLC/Paper Chromatography, Materials Science, Metal and Ceramic Science, Oxides, Research Essentials</t>
-        </is>
+          <t>(ATP)&lt;br&gt;&lt;B&gt;Disodium Salt&lt;br&gt;Crystalline&lt;/B&gt;&lt;br&gt;&lt;B&gt;Purity: Approx. 99%&lt;/B&gt;</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v/>
       </c>
       <c r="W13" t="n">
         <v/>
@@ -2678,7 +2676,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0202778</t>
+          <t>0210000805</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2726,7 +2724,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>MP SILITECH 18-32 M, 60, 25 KG</t>
+          <t>ADENOSINE-5'-TRIPHOSPHATE, 5 G</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2736,13 +2734,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Materials Science, Metal and Ceramic Science, Oxides, Silicon</t>
-        </is>
+          <t>(ATP)&lt;br&gt;&lt;B&gt;Disodium Salt&lt;br&gt;Crystalline&lt;/B&gt;&lt;br&gt;&lt;B&gt;Purity: Approx. 99%&lt;/B&gt;</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v/>
       </c>
       <c r="W14" t="n">
         <v/>
@@ -2811,7 +2807,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0210000801</t>
+          <t>0210000810</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2859,7 +2855,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>ADENOSINE-5'-TRIPHOSPHATE, 1 G</t>
+          <t>ADENOSINE-5'-TRIPHOSPHATE, 10 G</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -2942,7 +2938,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0210000805</t>
+          <t>02100109.2</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2990,7 +2986,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>ADENOSINE-5'-TRIPHOSPHATE, 5 G</t>
+          <t>N-ACETYL-D-MANNOSAMINE, 250 MG</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -3000,7 +2996,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>(ATP)&lt;br&gt;&lt;B&gt;Disodium Salt&lt;br&gt;Crystalline&lt;/B&gt;&lt;br&gt;&lt;B&gt;Purity: Approx. 99%&lt;/B&gt;</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -3073,7 +3069,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0210000810</t>
+          <t>0210019125</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -3121,21 +3117,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>ADENOSINE-5'-TRIPHOSPHATE, 10 G</t>
+          <t>ADENINE HYDROCHLORIDE, ~ 99%, 25 G</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Adenine Hydrochloride</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>(ATP)&lt;br&gt;&lt;B&gt;Disodium Salt&lt;br&gt;Crystalline&lt;/B&gt;&lt;br&gt;&lt;B&gt;Purity: Approx. 99%&lt;/B&gt;</t>
-        </is>
-      </c>
-      <c r="V17" t="n">
-        <v/>
+          <t>Adenine Hydrochloride</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways Chart, Metabolomics, Nucleotide</t>
+        </is>
       </c>
       <c r="W17" t="n">
         <v/>
@@ -3204,7 +3202,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>02100109.2</t>
+          <t>0210042780</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3252,21 +3250,23 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>N-ACETYL-D-MANNOSAMINE, 250 MG</t>
+          <t>POTASSIUM TELLURITE, 100 G</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Potassium Tellurite</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V18" t="n">
-        <v/>
+          <t>Potassium Tellurite</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Materials Science, Metal and Ceramic Science, Potassium Salts, Salts</t>
+        </is>
       </c>
       <c r="W18" t="n">
         <v/>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0210019125</t>
+          <t>0210082410</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3383,23 +3383,21 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>ADENINE HYDROCHLORIDE, ~ 99%, 25 G</t>
+          <t>DL- LACTIC ACID (LITHIUM SALT), 10 G</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Adenine Hydrochloride</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Adenine Hydrochloride</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways Chart, Metabolomics, Nucleotide</t>
-        </is>
+          <t>Lactic acid is an &amp;alpha; hydroxyl carboxylic acid produced from pyruvate by the enzyme lactate dehydrogenase (LDH). Lactate is one of the main components of Ringer&amp;prime;s lactate or lactated Ringer&amp;prime;s solution. It is a fermentation acid from milk or carbohydrates.</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v/>
       </c>
       <c r="W19" t="n">
         <v/>
@@ -3468,7 +3466,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0210042780</t>
+          <t>0210090450</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -3516,22 +3514,22 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>POTASSIUM TELLURITE, 100 G</t>
+          <t>OLEOYL COENZYME A, DIPOTASSIUM SALT, 50 MG</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Potassium Tellurite</t>
+          <t>Oleoyl Coenzyme A Dipotassium Salt</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Potassium Tellurite</t>
+          <t>Oleoyl Coenzyme A Dipotassium Salt</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Materials Science, Metal and Ceramic Science, Potassium Salts, Salts</t>
+          <t>Biochemicals and Reagents, Cell Biology, Coenzyme A and Other Acyl Transfer Reagents, Cofactors, Enzymes, Inhibitors, and Substrates, Esters, Fatty Acid Metabolism, Fatty Acids and conjugates, Fatty Acyls, Fatty acyl CoAs, Lipid, Lipid Library, Lipids, Metabolic Libraries, Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways Chart, Metabolomics, Unsaturated Fatty Acids and Derivatives</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -3601,7 +3599,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0210082410</t>
+          <t>0210137980</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -3649,21 +3647,23 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>DL- LACTIC ACID (LITHIUM SALT), 10 G</t>
+          <t>CHOLESTERYL HYDROGEN SUCCINATE, 100 G</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Cholesteryl Hydrogen Succinate</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Lactic acid is an &amp;alpha; hydroxyl carboxylic acid produced from pyruvate by the enzyme lactate dehydrogenase (LDH). Lactate is one of the main components of Ringer&amp;prime;s lactate or lactated Ringer&amp;prime;s solution. It is a fermentation acid from milk or carbohydrates.</t>
-        </is>
-      </c>
-      <c r="V21" t="n">
-        <v/>
+          <t>Cholesteryl Hydrogen Succinate</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Cholesteric, Liquid Crystals, Materials Science, Organic and Printed Electronics</t>
+        </is>
       </c>
       <c r="W21" t="n">
         <v/>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0210090450</t>
+          <t>0210192780</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3780,22 +3780,22 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>OLEOYL COENZYME A, DIPOTASSIUM SALT, 50 MG</t>
+          <t>HEPPS, 100 G</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Oleoyl Coenzyme A Dipotassium Salt</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Oleoyl Coenzyme A Dipotassium Salt</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Cell Biology, Coenzyme A and Other Acyl Transfer Reagents, Cofactors, Enzymes, Inhibitors, and Substrates, Esters, Fatty Acid Metabolism, Fatty Acids and conjugates, Fatty Acyls, Fatty acyl CoAs, Lipid, Lipid Library, Lipids, Metabolic Libraries, Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways Chart, Metabolomics, Unsaturated Fatty Acids and Derivatives</t>
+          <t>Biological Buffers, Good’s Buffers</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0210137980</t>
+          <t>0210192783</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3913,22 +3913,22 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>CHOLESTERYL HYDROGEN SUCCINATE, 100 G</t>
+          <t>HEPPS, 250 G</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Cholesteryl Hydrogen Succinate</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Cholesteryl Hydrogen Succinate</t>
+          <t>Hepps</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Cholesteric, Liquid Crystals, Materials Science, Organic and Printed Electronics</t>
+          <t>Biological Buffers, Good’s Buffers</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0210192780</t>
+          <t>0210192791</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>HEPPS, 100 G</t>
+          <t>HEPPS, 1 KG</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Biological Buffers, Goodâ€™s Buffers</t>
+          <t>Biological Buffers, Good’s Buffers</t>
         </is>
       </c>
       <c r="W24" t="n">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0210192783</t>
+          <t>0210225610</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4179,22 +4179,22 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>HEPPS, 250 G</t>
+          <t>Α-D-(+)-MELIBIOSE MONOHYDRATE, 10 G</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>α-D-(+)-Melibiose Monohydrate</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>α-D-(+)-Melibiose Monohydrate</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Biological Buffers, Goodâ€™s Buffers</t>
+          <t>Biochemicals and Reagents, Carbohydrates, Disaccharide, Metabolic Libraries, Metabolomics</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0210192791</t>
+          <t>0210225625</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4312,22 +4312,22 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>HEPPS, 1 KG</t>
+          <t>Α-D-(+)-MELIBIOSE MONOHYDRATE, 25 G</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>α-D-(+)-Melibiose Monohydrate</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Hepps</t>
+          <t>α-D-(+)-Melibiose Monohydrate</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Biological Buffers, Goodâ€™s Buffers</t>
+          <t>Biochemicals and Reagents, Carbohydrates, Disaccharide, Metabolic Libraries, Metabolomics</t>
         </is>
       </c>
       <c r="W26" t="n">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0210225610</t>
+          <t>0210226091</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4445,22 +4445,22 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-MELIBIOSE MONOHYDRATE, 10 G</t>
+          <t>MENADIONE SODIUM BISULFITE, TRIHYDRATE, 1 KG</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-Melibiose Monohydrate</t>
+          <t>Menadione Sodium Bisulfite Trihydrate</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-Melibiose Monohydrate</t>
+          <t>Menadione Sodium Bisulfite Trihydrate</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Carbohydrates, Disaccharide, Metabolic Libraries, Metabolomics</t>
+          <t>Antibiotics, Antibiotics A to Z, Antibiotics G-M, Approved Therapeutics/Drug Candidates, Bioactive Small Molecules, Biochemicals and Reagents, Cell Biology, Cell Signaling and Neuroscience, Cell Stress, Eli Lilly, M, Nitric Oxide and Cell Stress, Oxidative Stress Proteins and Reagents</t>
         </is>
       </c>
       <c r="W27" t="n">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0210225625</t>
+          <t>0210237190</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4578,23 +4578,21 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-MELIBIOSE MONOHYDRATE, 25 G</t>
+          <t>MUCIC ACID, 500 G</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-Melibiose Monohydrate</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>Î±-D-(+)-Melibiose Monohydrate</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Biochemicals and Reagents, Carbohydrates, Disaccharide, Metabolic Libraries, Metabolomics</t>
-        </is>
+          <t>Purity: 90-95%Sequestrant for metal ions.</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v/>
       </c>
       <c r="W28" t="n">
         <v/>
@@ -4663,7 +4661,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0210226091</t>
+          <t>0210245090</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4711,22 +4709,22 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>MENADIONE SODIUM BISULFITE, TRIHYDRATE, 1 KG</t>
+          <t>NINHYDRIN, MONOHYDRATE, 500 G</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Menadione Sodium Bisulfite Trihydrate</t>
+          <t>Ninhydrin Monohydrate</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Menadione Sodium Bisulfite Trihydrate</t>
+          <t>Ninhydrin Monohydrate</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Antibiotics, Antibiotics A to Z, Antibiotics G-M, Approved Therapeutics/Drug Candidates, Bioactive Small Molecules, Biochemicals and Reagents, Cell Biology, Cell Signaling and Neuroscience, Cell Stress, Eli Lilly, M, Nitric Oxide and Cell Stress, Oxidative Stress Proteins and Reagents</t>
+          <t>Amino Acid Analysis, Biochemicals and Reagents, Detection Products for Amino Acid Analysis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Peptide Analysis and Characterization, Peptides, Reagent Grade, Research Essentials</t>
         </is>
       </c>
       <c r="W29" t="n">
@@ -4796,7 +4794,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0210237190</t>
+          <t>0210280825</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4844,21 +4842,23 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>MUCIC ACID, 500 G</t>
+          <t>RESORCINOL, 25 G</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>Purity: 90-95%Sequestrant for metal ions.</t>
-        </is>
-      </c>
-      <c r="V30" t="n">
-        <v/>
+          <t>Resorcinol</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Building Blocks, Chemical Synthesis, Organic Building Blocks, Oxygen Compounds, Polyols</t>
+        </is>
       </c>
       <c r="W30" t="n">
         <v/>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0210245090</t>
+          <t>0210280890</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4975,22 +4975,22 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>NINHYDRIN, MONOHYDRATE, 500 G</t>
+          <t>RESORCINOL, 500 G</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Ninhydrin Monohydrate</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Ninhydrin Monohydrate</t>
+          <t>Resorcinol</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Amino Acid Analysis, Biochemicals and Reagents, Detection Products for Amino Acid Analysis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Peptide Analysis and Characterization, Peptides, Reagent Grade, Research Essentials</t>
+          <t>Building Blocks, Chemical Synthesis, Organic Building Blocks, Oxygen Compounds, Polyols</t>
         </is>
       </c>
       <c r="W31" t="n">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0210280825</t>
+          <t>02102897.5</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -5108,22 +5108,22 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>RESORCINOL, 25 G</t>
+          <t>CHOLIC ACID, SODIUM SALT, ≥98.5%, 500 G</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Cholic Acid Sodium Salt</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Cholic Acid Sodium Salt</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Building Blocks, Chemical Synthesis, Organic Building Blocks, Oxygen Compounds, Polyols</t>
+          <t>Anionic Detergents, Antigen-Vaccine Preparation, Bile Salts, Bile acids and Derivatives, Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents by Applications, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Diagnostic Applications, Drug Delivery-Liposomes, Electrophoresis Chromatography, Enzymology, Lipids, Membrane Protein Solubilization, Molecular Biology, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Proteins and Derivatives, Proteomics, Research Essentials, Sterol Lipids</t>
         </is>
       </c>
       <c r="W32" t="n">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0210280890</t>
+          <t>0210301205</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -5241,22 +5241,22 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>RESORCINOL, 500 G</t>
+          <t>TETRACYCLINE, 5 G</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Tetracycline</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Resorcinol</t>
+          <t>Tetracycline</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Building Blocks, Chemical Synthesis, Organic Building Blocks, Oxygen Compounds, Polyols</t>
+          <t>Analytical Standards, Analytical/Chromatography, Antibacterial, Antibiotics, Cell Biology, ,Genetic Marker Selection, Interferes with Protein Synthesis, Mechanism of Action, Method Specific, Neats, Spectrum of Activity, Tetracyclines</t>
         </is>
       </c>
       <c r="W33" t="n">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>02102897.5</t>
+          <t>0210371250</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -5374,22 +5374,22 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>CHOLIC ACID, SODIUM SALT, 98.5%, 500 G</t>
+          <t>ALBUMIN, HUMAN, 30% SOLUTION, 50 ML</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>Cholic Acid Sodium Salt</t>
+          <t>Albumin, 30% Solution</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Cholic Acid Sodium Salt</t>
+          <t>Albumin, 30% Solution</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Anionic Detergents, Antigen-Vaccine Preparation, Bile Salts, Bile acids and Derivatives, Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents by Applications, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Diagnostic Applications, Drug Delivery-Liposomes, Electrophoresis Chromatography, Enzymology, Lipids, Membrane Protein Solubilization, Molecular Biology, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Proteins and Derivatives, Proteomics, Research Essentials, Sterol Lipids</t>
+          <t>Albumin, Biochemicals and Reagents, Human Serum Albumins, Proteins and Derivatives</t>
         </is>
       </c>
       <c r="W34" t="n">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0210301205</t>
+          <t>0210488691</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -5507,22 +5507,22 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>TETRACYCLINE, 5 G</t>
+          <t>IRISH MOSS (CARRAGEENAN), 1 KG</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>Tetracycline</t>
+          <t>Irish Moss (Carrageenan)</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>Tetracycline</t>
+          <t>Irish Moss (Carrageenan)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Analytical Standards, Analytical/Chromatography, Antibacterial, Antibiotics, Cell Biology, ,Genetic Marker Selection, Interferes with Protein Synthesis, Mechanism of Action, Method Specific, Neats, Spectrum of Activity, Tetracyclines</t>
+          <t>Biochemicals and Reagents, Carbohydrates, Fiber and Prebiotics,Functional Foods, Nutrition Research, Polysaccharide, Soluble Fiber, Including Prebiotics</t>
         </is>
       </c>
       <c r="W35" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0210371250</t>
+          <t>0210563301</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -5640,22 +5640,22 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>ALBUMIN, HUMAN, 30% SOLUTION, 50 ML</t>
+          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 1 G</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>Albumin, 30% Solution</t>
+          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>Albumin, 30% Solution</t>
+          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Albumin, Biochemicals and Reagents, Human Serum Albumins, Proteins and Derivatives</t>
+          <t>Biochemicals and Reagents, Fluorescent Indicators and Probes, Fluorescent Probes, Labels, Particles and Stains, Hematology and Histology, Lipophilic and Membrane Probes, Stains &amp; Dyes</t>
         </is>
       </c>
       <c r="W36" t="n">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0210488691</t>
+          <t>0210563310</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -5773,22 +5773,22 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>IRISH MOSS (CARRAGEENAN), 1 KG</t>
+          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 10 G</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>Irish Moss (Carrageenan)</t>
+          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Irish Moss (Carrageenan)</t>
+          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Carbohydrates, Fiber and Prebiotics,Functional Foods, Nutrition Research, Polysaccharide, Soluble Fiber, Including Prebiotics</t>
+          <t>Biochemicals and Reagents, Fluorescent Indicators and Probes, Fluorescent Probes, Labels, Particles and Stains, Hematology and Histology, Lipophilic and Membrane Probes, Stains &amp; Dyes</t>
         </is>
       </c>
       <c r="W37" t="n">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0210563301</t>
+          <t>0210563325</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 1 G</t>
+          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 25 G</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0210563310</t>
+          <t>02150156.5</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -6039,22 +6039,22 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 10 G</t>
+          <t>SODIUM POTASSIUM TARTRATE TETRAHYDRATE, 500 G</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
+          <t>Sodium Potassium Tartrate Tetrahydrate</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
+          <t>Sodium Potassium Tartrate Tetrahydrate</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Fluorescent Indicators and Probes, Fluorescent Probes, Labels, Particles and Stains, Hematology and Histology, Lipophilic and Membrane Probes, Stains &amp; Dyes</t>
+          <t>Biochemicals and Reagents, Chelators</t>
         </is>
       </c>
       <c r="W39" t="n">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0210563325</t>
+          <t>0215047783</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -6172,22 +6172,22 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>8-ANILINO-1-NAPHTHALENE SULFONIC ACID, 25 G</t>
+          <t>BLASTICIDIN S HYDROCHLORIDE, PHYTOPURE;, 250 MG</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
+          <t>CAS Number: 9041-93-4</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>8-Anilino-1-Naphthalene Sulfonic Acid</t>
+          <t>Broad spectrum nucleoside antibiotic. Inhibits protein synthesis in prokaryotic and eukaryotic organisms. Suitable for selection of cells carrying plasmids conferring blasticidin resistance.</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Fluorescent Indicators and Probes, Fluorescent Probes, Labels, Particles and Stains, Hematology and Histology, Lipophilic and Membrane Probes, Stains &amp; Dyes</t>
+          <t>9041-93-4, 150477</t>
         </is>
       </c>
       <c r="W40" t="n">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>02150156.5</t>
+          <t>0215082501</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -6305,22 +6305,22 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>SODIUM POTASSIUM TARTRATE TETRAHYDRATE, 500 G</t>
+          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 1 G</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>Sodium Potassium Tartrate Tetrahydrate</t>
+          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>Sodium Potassium Tartrate Tetrahydrate</t>
+          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Chelators</t>
+          <t>Biochemicals and Reagents, Colorimetric, Detection, Detection Substrates, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Immunohistochemistry, Peroxidase, Powders, Stains and Dyes, Western Blotting</t>
         </is>
       </c>
       <c r="W41" t="n">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0215047783</t>
+          <t>0215082505</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -6438,22 +6438,22 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>BLASTICIDIN S HYDROCHLORIDE, PHYTOPURE;, 250 MG</t>
+          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 5 G</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>CAS Number: 9041-93-4</t>
+          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>Broad spectrum nucleoside antibiotic. Inhibits protein synthesis in prokaryotic and eukaryotic organisms. Suitable for selection of cells carrying plasmids conferring blasticidin resistance.</t>
+          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>9041-93-4, 150477</t>
+          <t>Biochemicals and Reagents, Colorimetric, Detection, Detection Substrates, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Immunohistochemistry, Peroxidase, Powders, Stains and Dyes, Western Blotting</t>
         </is>
       </c>
       <c r="W42" t="n">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0215082501</t>
+          <t>0215082510</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 1 G</t>
+          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 10 G</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0215082505</t>
+          <t>02151187.1</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -6704,22 +6704,22 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 5 G</t>
+          <t>GLUCOSE-6-PHOSPHATE DEHYDROGENASE, ≥400 U/MG SOLID, 100 U</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
+          <t>Glucose-6-Phosphate Dehydrogenase</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
+          <t>Glucose-6-Phosphate Dehydrogenase</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Colorimetric, Detection, Detection Substrates, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Immunohistochemistry, Peroxidase, Powders, Stains and Dyes, Western Blotting</t>
+          <t>Inhibitors and Substrates, Enzymes, Biochemicals, Oxidoreductases</t>
         </is>
       </c>
       <c r="W44" t="n">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0215082510</t>
+          <t>02151187.5</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -6837,22 +6837,22 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>3,3-DIAMINOBENZIDINE TETRAHYDROCHLORIDE, 10 G</t>
+          <t>GLUCOSE-6-PHOSPHATE DEHYDROGENASE, ≥400 U/MG SOLID, 500 U</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
+          <t>Glucose-6-Phosphate Dehydrogenase</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>3,3-Diaminobenzidine Tetrahydrochloride</t>
+          <t>Glucose-6-Phosphate Dehydrogenase</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Colorimetric, Detection, Detection Substrates, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Immunohistochemistry, Peroxidase, Powders, Stains and Dyes, Western Blotting</t>
+          <t>Inhibitors and Substrates, Enzymes, Biochemicals, Oxidoreductases</t>
         </is>
       </c>
       <c r="W45" t="n">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>02151187.1</t>
+          <t>0215139383</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -6970,22 +6970,22 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>GLUCOSE-6-PHOSPHATE DEHYDROGENASE, 400 U/MG SOLID, 100 U</t>
+          <t>Α-KETOGLUTARIC ACID, DISODIUM SALT, DIHYDRATE, 250 G</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>Glucose-6-Phosphate Dehydrogenase</t>
+          <t>α-Ketoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>Glucose-6-Phosphate Dehydrogenase</t>
+          <t>α-Ketoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Inhibitors and Substrates, Enzymes, Biochemicals, Oxidoreductases</t>
+          <t>Building Blocks, Carbonyl Compounds, Carboxylic Acid Salts, Chemical Synthesis, Organic Building Blocks</t>
         </is>
       </c>
       <c r="W46" t="n">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>02151187.5</t>
+          <t>0215139390</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -7103,22 +7103,22 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>GLUCOSE-6-PHOSPHATE DEHYDROGENASE, 400 U/MG SOLID, 500 KU</t>
+          <t>Α-KETOGLUTARIC ACID, DISODIUM SALT, DIHYDRATE, 500 G</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>Glucose-6-Phosphate Dehydrogenase</t>
+          <t>α-Ketoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>Glucose-6-Phosphate Dehydrogenase</t>
+          <t>α-Ketoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Inhibitors and Substrates, Enzymes, Biochemicals, Oxidoreductases</t>
+          <t>Building Blocks, Carbonyl Compounds, Carboxylic Acid Salts, Chemical Synthesis, Organic Building Blocks</t>
         </is>
       </c>
       <c r="W47" t="n">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0215139383</t>
+          <t>0215156180</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -7236,22 +7236,22 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Î±-KETOGLUTARIC ACID, DISODIUM SALT, DIHYDRATE, 250 G</t>
+          <t>LITHIUM BROMIDE, 100 G</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Building Blocks, Carbonyl Compounds, Carboxylic Acid Salts, Chemical Synthesis, Organic Building Blocks</t>
+          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Reagent Plus, Research Essentials</t>
         </is>
       </c>
       <c r="W48" t="n">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0215139390</t>
+          <t>0215156190</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -7369,22 +7369,22 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Î±-KETOGLUTARIC ACID, DISODIUM SALT, DIHYDRATE, 500 G</t>
+          <t>LITHIUM BROMIDE, 500 G</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Lithium Bromide</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Building Blocks, Carbonyl Compounds, Carboxylic Acid Salts, Chemical Synthesis, Organic Building Blocks</t>
+          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Reagent Plus, Research Essentials</t>
         </is>
       </c>
       <c r="W49" t="n">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0215156180</t>
+          <t>0215156191</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>LITHIUM BROMIDE, 100 G</t>
+          <t>LITHIUM BROMIDE, 1 KG</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0215156190</t>
+          <t>0215186401</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -7635,22 +7635,22 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>LITHIUM BROMIDE, 500 G</t>
+          <t>PHORBOL-12-MYRISTATE-13-ACETATE, &gt;99%, 1 MG</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>Phorbol-12-Myristate-13-Acetate</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>Phorbol-12-Myristate-13-Acetate</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Reagent Plus, Research Essentials</t>
+          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
         </is>
       </c>
       <c r="W51" t="n">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0215156191</t>
+          <t>0215186405</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -7768,22 +7768,22 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>LITHIUM BROMIDE, 1 KG</t>
+          <t>PHORBOL-12-MYRISTATE-13-ACETATE, &gt;99%, 5 MG</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>Phorbol-12-Myristate-13-Acetate</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Lithium Bromide</t>
+          <t>Phorbol-12-Myristate-13-Acetate</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Reagent Plus, Research Essentials</t>
+          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
         </is>
       </c>
       <c r="W52" t="n">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0215186401</t>
+          <t>02151944.2</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -7901,22 +7901,22 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>PHORBOL-12-MYRISTATE-13-ACETATE, &gt;99%, 1 MG</t>
+          <t>POTASSIUM CHLORIDE, &gt;99%, 250 G</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>Phorbol-12-Myristate-13-Acetate</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Phorbol-12-Myristate-13-Acetate</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
+          <t>Biological Buffers</t>
         </is>
       </c>
       <c r="W53" t="n">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0215186405</t>
+          <t>02151944.5</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -8034,22 +8034,22 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>PHORBOL-12-MYRISTATE-13-ACETATE, &gt;99%, 5 MG</t>
+          <t>POTASSIUM CHLORIDE, &gt;99%, 500 G</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>Phorbol-12-Myristate-13-Acetate</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Phorbol-12-Myristate-13-Acetate</t>
+          <t>Potassium Chloride</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
+          <t>Biological Buffers</t>
         </is>
       </c>
       <c r="W54" t="n">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>02151944.2</t>
+          <t>0215194405</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>POTASSIUM CHLORIDE, &gt;99%, 250 G</t>
+          <t>POTASSIUM CHLORIDE, &gt;99%, 5 KG</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -8252,7 +8252,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>02151944.5</t>
+          <t>0215233591</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -8300,22 +8300,22 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>POTASSIUM CHLORIDE, &gt;99%, 500 G</t>
+          <t>TRANSFERRIN, BOVINE (HOLO), 1 G</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>Bovine Transferrin is chromatographically purified from New Zealand-sourced bovine plasma in an ISO quality system assuring complete traceability and consistent high quality. Transferrin (HOLO) is an iron-rich product supplied as a heat-treated, lyophilised powder.</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>Bovine Transferrin is chromatographically purified from New Zealand-sourced bovine plasma in an ISO quality system assuring complete traceability and consistent high quality. Transferrin (HOLO) is an iron-rich product supplied as a heat-treated, lyophilised powder.</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Biological Buffers</t>
+          <t>Albumins and Transport Proteins, Cell Culture, Reagents and Supplements, Transferrins and Transferrin Replacements</t>
         </is>
       </c>
       <c r="W56" t="n">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0215194405</t>
+          <t>0215245525</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -8433,23 +8433,21 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>POTASSIUM CHLORIDE, &gt;99%, 5 KG</t>
+          <t>MOPSO, SODIUM SALT , 25 G</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>Potassium Chloride</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Biological Buffers</t>
-        </is>
+          <t>MOPSO sodium salt is a zwitterionic aminosulfonate buffer that is very similar in structure to MOPS (3-morpholinopropanesulfonic acid), differing by the presence of a hydroxyl group on C-2 of the propane moiety.</t>
+        </is>
+      </c>
+      <c r="V57" t="n">
+        <v/>
       </c>
       <c r="W57" t="n">
         <v/>
@@ -8518,7 +8516,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0215233591</t>
+          <t>0215245610</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -8566,22 +8564,22 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>TRANSFERRIN, BOVINE (HOLO), 1 G</t>
+          <t>PIPES SESQUISODIUM SALT, 10 G</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>Bovine Transferrin is chromatographically purified from New Zealand-sourced bovine plasma in an ISO quality system assuring complete traceability and consistent high quality. Transferrin (HOLO) is an iron-rich product supplied as a heat-treated, lyophilised powder.</t>
+          <t>Pipes Sesquisodium Salt</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>Bovine Transferrin is chromatographically purified from New Zealand-sourced bovine plasma in an ISO quality system assuring complete traceability and consistent high quality. Transferrin (HOLO) is an iron-rich product supplied as a heat-treated, lyophilised powder.</t>
+          <t>Pipes Sesquisodium Salt</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Albumins and Transport Proteins, Cell Culture, Reagents and Supplements, Transferrins and Transferrin Replacements</t>
+          <t>Biological Buffers, Good’s Buffers</t>
         </is>
       </c>
       <c r="W58" t="n">
@@ -8651,7 +8649,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0215245525</t>
+          <t>0215250305</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -8699,7 +8697,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>MOPSO, SODIUM SALT , 25 G</t>
+          <t>BROMOCRESOL GREEN, 5 G</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
@@ -8709,7 +8707,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>MOPSO sodium salt is a zwitterionic aminosulfonate buffer that is very similar in structure to MOPS (3-morpholinopropanesulfonic acid), differing by the presence of a hydroxyl group on C-2 of the propane moiety.</t>
+          <t>Bromocresol Green is a dye of the triphenylmethane family (triarylmethane dyes). It binds quantitatively with human albumin forming an intense blue-green complex with an absorbance maximum at 628 nm.</t>
         </is>
       </c>
       <c r="V59" t="n">
@@ -8782,7 +8780,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0215245610</t>
+          <t>0215250625</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -8830,23 +8828,21 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>PIPES SESQUISODIUM SALT, 10 G</t>
+          <t>BROMOPHENOL BLUE, SODIUM SALT, 25 G</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>Pipes Sesquisodium Salt</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Pipes Sesquisodium Salt</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Biological Buffers, Goodâ€™s Buffers</t>
-        </is>
+          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
+        </is>
+      </c>
+      <c r="V60" t="n">
+        <v/>
       </c>
       <c r="W60" t="n">
         <v/>
@@ -8915,7 +8911,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0215250305</t>
+          <t>0215250650</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -8963,7 +8959,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>BROMOCRESOL GREEN, 5 G</t>
+          <t>BROMOPHENOL BLUE, SODIUM SALT, 50 G</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -8973,7 +8969,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>Bromocresol Green is a dye of the triphenylmethane family (triarylmethane dyes). It binds quantitatively with human albumin forming an intense blue-green complex with an absorbance maximum at 628 nm.</t>
+          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
         </is>
       </c>
       <c r="V61" t="n">
@@ -9046,7 +9042,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0215250625</t>
+          <t>0215252191</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -9094,21 +9090,23 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>BROMOPHENOL BLUE, SODIUM SALT, 25 G</t>
+          <t>ETHYLENEDIAMINE, TETRAACETIC ACID, 1 KG</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Ethylenediamine Tetraacetic Acid</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
-        </is>
-      </c>
-      <c r="V62" t="n">
-        <v/>
+          <t>Ethylenediamine Tetraacetic Acid</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Biochemicals and Reagents, Biological Buffers, Calcium Chelators, Calcium Signaling Research Tools, Cell Biology, Cell Culture, Cell Dissociation, Cell Signaling and Neuroscience, Chelators, Bioreagents, Dissociation, Enzyme Inhibitors, Ethylenediaminetetraacetic acid (EDTA) and EDTA Solutions, Inorganic Salts</t>
+        </is>
       </c>
       <c r="W62" t="n">
         <v/>
@@ -9177,7 +9175,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0215250650</t>
+          <t>0215255280</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -9225,21 +9223,23 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>BROMOPHENOL BLUE, SODIUM SALT, 50 G</t>
+          <t>OXALIC ACID, DIHYDRATE, 100 G</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Oxalic Acid Dihydrate</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
-        </is>
-      </c>
-      <c r="V63" t="n">
-        <v/>
+          <t>Oxalic Acid Dihydrate</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>ACS Grade, Building Blocks, Carbonyl Compounds, Carboxylic Acids, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Organic Building Blocks,</t>
+        </is>
       </c>
       <c r="W63" t="n">
         <v/>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0215252191</t>
+          <t>0215263880</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -9356,22 +9356,22 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>ETHYLENEDIAMINE, TETRAACETIC ACID, 1 KG</t>
+          <t>INDIGO CARMINE, 100 G</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>Ethylenediamine Tetraacetic Acid</t>
+          <t>Indigo Carmine</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Ethylenediamine Tetraacetic Acid</t>
+          <t>Indigo Carmine</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Biological Buffers, Calcium Chelators, Calcium Signaling Research Tools, Cell Biology, Cell Culture, Cell Dissociation, Cell Signaling and Neuroscience, Chelators, Bioreagents, Dissociation, Enzyme Inhibitors, Ethylenediaminetetraacetic acid (EDTA) and EDTA Solutions, Inorganic Salts</t>
+          <t>Hematology and Histology, Stains &amp; Dyes,Stains and Dyes</t>
         </is>
       </c>
       <c r="W64" t="n">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0215255280</t>
+          <t>0215268105</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -9489,23 +9489,21 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>OXALIC ACID, DIHYDRATE, 100 G</t>
+          <t>TEMPO, CATALYTIC OXIDANT, 5 G</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>Oxalic Acid Dihydrate</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Oxalic Acid Dihydrate</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>ACS Grade, Building Blocks, Carbonyl Compounds, Carboxylic Acids, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Organic Building Blocks,</t>
-        </is>
+          <t>TEMPO reacts preferentially with carbon-centered radicals.</t>
+        </is>
+      </c>
+      <c r="V65" t="n">
+        <v/>
       </c>
       <c r="W65" t="n">
         <v/>
@@ -9574,7 +9572,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0215263880</t>
+          <t>0215268125</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -9622,23 +9620,21 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>INDIGO CARMINE, 100 G</t>
+          <t>TEMPO, CATALYTIC OXIDANT, 25 G</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>Indigo Carmine</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Indigo Carmine</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>Hematology and Histology, Stains &amp; Dyes,Stains and Dyes</t>
-        </is>
+          <t>TEMPO reacts preferentially with carbon-centered radicals.</t>
+        </is>
+      </c>
+      <c r="V66" t="n">
+        <v/>
       </c>
       <c r="W66" t="n">
         <v/>
@@ -9707,7 +9703,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0215268105</t>
+          <t>0215269090</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -9755,21 +9751,23 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>TEMPO, CATALYTIC OXIDANT, 5 G</t>
+          <t>POLY-L-LYSINE HYDROBROMIDE, 500 MG</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Poly-L-lysine is a nonspecific attachment factor for cells useful in promoting cell adhesion to solid substrates.</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>TEMPO reacts preferentially with carbon-centered radicals.</t>
-        </is>
-      </c>
-      <c r="V67" t="n">
-        <v/>
+          <t>Poly-L-Lysine Hydrochloride</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Amino Acids, Biochemicals and Reagents, Homopolymers, Polyamino Acids</t>
+        </is>
       </c>
       <c r="W67" t="n">
         <v/>
@@ -9838,7 +9836,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0215268125</t>
+          <t>0215394601</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -9886,17 +9884,17 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>TEMPO, CATALYTIC OXIDANT, 25 G</t>
+          <t>STACHYOSE, TETRAHYDRATE, 1 MG</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Stachyose Tetrahydrate</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>TEMPO reacts preferentially with carbon-centered radicals.</t>
+          <t>Stachyose Tetrahydrate</t>
         </is>
       </c>
       <c r="V68" t="n">
@@ -9969,7 +9967,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0215269090</t>
+          <t>0215394680</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -10017,23 +10015,21 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>POLY-L-LYSINE HYDROBROMIDE, 500 MG</t>
+          <t>STACHYOSE, TETRAHYDRATE, 100 MG</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>Poly-L-lysine is a nonspecific attachment factor for cells useful in promoting cell adhesion to solid substrates.</t>
+          <t>Stachyose Tetrahydrate</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>Poly-L-Lysine Hydrochloride</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>Amino Acids, Biochemicals and Reagents, Homopolymers, Polyamino Acids</t>
-        </is>
+          <t>Stachyose Tetrahydrate</t>
+        </is>
+      </c>
+      <c r="V69" t="n">
+        <v/>
       </c>
       <c r="W69" t="n">
         <v/>
@@ -10102,7 +10098,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0215394601</t>
+          <t>0215394690</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -10150,7 +10146,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>STACHYOSE, TETRAHYDRATE, 1 MG</t>
+          <t>STACHYOSE, TETRAHYDRATE, 500 MG</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -10233,7 +10229,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0215394680</t>
+          <t>0215394691</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -10281,7 +10277,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>STACHYOSE, TETRAHYDRATE, 100 MG</t>
+          <t>STACHYOSE, TETRAHYDRATE, 1 G</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -10364,7 +10360,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0215394690</t>
+          <t>02154263.2</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -10412,21 +10408,23 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>STACHYOSE, TETRAHYDRATE, 500 MG</t>
+          <t>BUMETANIDE, 250 MG</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
+          <t>Bumetanide</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
-        </is>
-      </c>
-      <c r="V72" t="n">
-        <v/>
+          <t>Bumetanide</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Approved Therapeutics/Drug Candidates, B, Bioactive Small Molecules, Cell Biology, Cell Signaling and Neuroscience, Ion Channels, Ion Pump Inhibitors, Monovalent Ion Channels, Roche, Validus, Voltage-gated Ion Channels</t>
+        </is>
       </c>
       <c r="W72" t="n">
         <v/>
@@ -10495,7 +10493,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0215394691</t>
+          <t>0215457180</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -10543,21 +10541,23 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>STACHYOSE, TETRAHYDRATE, 1 G</t>
+          <t>EPIDERMAL GROWTH FACTOR, HUMAN, RECOMBINANT, ≥98%, 100 ΜG</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
+          <t>Epidermal Growth Factor, Human, Recombinant</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Stachyose Tetrahydrate</t>
-        </is>
-      </c>
-      <c r="V73" t="n">
-        <v/>
+          <t>Epidermal Growth Factor, Human, Recombinant</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Cell Biology, Cytokines, Growth Factors and Chemokines for Stem Cell Differentiation, Growth Factors, Embryonic Stem Cell Biology Growth Factors, Mesenchymal Stem Cell Biology, Stem Cell Biology, Stem Cell Differentiation, Stem Cell Expansion</t>
+        </is>
       </c>
       <c r="W73" t="n">
         <v/>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>02154263.2</t>
+          <t>0215485580</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -10674,22 +10674,22 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>BUMETANIDE, 250 MG</t>
+          <t>BIEBRICH SCARLET, 100 G</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>Bumetanide</t>
+          <t>Biebrich Scarlet</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Bumetanide</t>
+          <t>Biebrich Scarlet</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Approved Therapeutics/Drug Candidates, B, Bioactive Small Molecules, Cell Biology, Cell Signaling and Neuroscience, Ion Channels, Ion Pump Inhibitors, Monovalent Ion Channels, Roche, Validus, Voltage-gated Ion Channels</t>
+          <t>Cell Biology, Hematology and Histology, Stains and Dyes</t>
         </is>
       </c>
       <c r="W74" t="n">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0215457180</t>
+          <t>0215624380</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -10807,22 +10807,22 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>EPIDERMAL GROWTH FACTOR, HUMAN, RECOMBINANT, 98%, 100 G</t>
+          <t>PHOSPHOTUNGSTIC ACID, HYDRATE, 100 G</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>Epidermal Growth Factor, Human, Recombinant</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Epidermal Growth Factor, Human, Recombinant</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Cell Biology, Cytokines, Growth Factors and Chemokines for Stem Cell Differentiation, Growth Factors, Embryonic Stem Cell Biology Growth Factors, Mesenchymal Stem Cell Biology, Stem Cell Biology, Stem Cell Differentiation, Stem Cell Expansion</t>
+          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Research Essentials</t>
         </is>
       </c>
       <c r="W75" t="n">
@@ -10892,7 +10892,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0215485580</t>
+          <t>0215624383</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -10940,22 +10940,22 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>BIEBRICH SCARLET, 100 G</t>
+          <t>PHOSPHOTUNGSTIC ACID, HYDRATE, 250 G</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>Biebrich Scarlet</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Biebrich Scarlet</t>
+          <t>Phosphotungstic Acid Hydrate</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Cell Biology, Hematology and Histology, Stains and Dyes</t>
+          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Research Essentials</t>
         </is>
       </c>
       <c r="W76" t="n">
@@ -11025,7 +11025,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0215624380</t>
+          <t>0215653480</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -11073,22 +11073,22 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>PHOSPHOTUNGSTIC ACID, HYDRATE, 100 G</t>
+          <t>TRANSFER RIBONUCLEIC ACID, 100 U</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Research Essentials</t>
+          <t>Biochemicals and Reagents, Nucleotides, Oligonucleotides, DNA, and RNA</t>
         </is>
       </c>
       <c r="W77" t="n">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0215624383</t>
+          <t>0215653494</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -11206,22 +11206,22 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>PHOSPHOTUNGSTIC ACID, HYDRATE, 250 G</t>
+          <t>TRANSFER RIBONUCLEIC ACID, 5 KU</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>Phosphotungstic Acid Hydrate</t>
+          <t>Transfer Ribonucleic Acid</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Essential Chemicals, Inorganic Salts, Solutions and Reagents, Research Essentials</t>
+          <t>Biochemicals and Reagents, Nucleotides, Oligonucleotides, DNA, and RNA</t>
         </is>
       </c>
       <c r="W78" t="n">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0215653480</t>
+          <t>0215878283</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -11339,22 +11339,22 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>TRANSFER RIBONUCLEIC ACID, 100 U</t>
+          <t>G418 DISULFATE, PHYTOPURE;, 250 MG</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>CAS Number: 108321-42-2</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria, yeast, higher plants, mammalian cells, protozoans and helminths. It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture.</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Nucleotides, Oligonucleotides, DNA, and RNA</t>
+          <t>108321-42-2, 158782</t>
         </is>
       </c>
       <c r="W79" t="n">
@@ -11424,7 +11424,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0215653494</t>
+          <t>0215878291</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -11472,22 +11472,22 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>TRANSFER RIBONUCLEIC ACID, 5 KU</t>
+          <t>G418 DISULFATE, PHYTOPURE;,  1 G</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>CAS Number: 108321-42-2</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>Transfer Ribonucleic Acid</t>
+          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria, yeast, higher plants, mammalian cells, protozoans and helminths. It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture.</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Nucleotides, Oligonucleotides, DNA, and RNA</t>
+          <t>108321-42-2, 158782</t>
         </is>
       </c>
       <c r="W80" t="n">
@@ -11557,7 +11557,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0215878283</t>
+          <t>0215878294</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>G418 DISULFATE, PHYTOPURE;, 250 MG</t>
+          <t>G418 DISULFATE, PHYTOPURE;, 5 G</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
@@ -11690,7 +11690,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0215878291</t>
+          <t>0215985925</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -11738,22 +11738,22 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>G418 DISULFATE, PHYTOPURE;,  1 G</t>
+          <t>ALDOLASE, 25 MG</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>CAS Number: 108321-42-2</t>
+          <t>Aldolase</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria, yeast, higher plants, mammalian cells, protozoans and helminths. It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture.</t>
+          <t>Aldolase</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>108321-42-2, 158782</t>
+          <t>Lyases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, Glycolysis, Glycolysis Enzymes, Metabolic Pathways, Metabolomics, Organic Synthesis</t>
         </is>
       </c>
       <c r="W82" t="n">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0215878294</t>
+          <t>0219014505</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -11871,22 +11871,22 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>G418 DISULFATE, PHYTOPURE;, 5 G</t>
+          <t>AMOXICILLIN, 5 G</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>CAS Number: 108321-42-2</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>G418 is an aminoglycoside related to Gentamicin and is toxic to bacteria, yeast, higher plants, mammalian cells, protozoans and helminths. It blocks polypeptide synthesis in both prokaryotic and eukaryotic cells and is useful for selection of genetically engineered eukarytoic cells in culture.</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>108321-42-2, 158782</t>
+          <t>Antibacterial, Antibiotics,Chemical Structure Class, Interferes with Cell Wall Synthesis, Mechanism of Action, Penicillins and Cephalosporins (beta-Lactams), Spectrum of Activity</t>
         </is>
       </c>
       <c r="W83" t="n">
@@ -11956,7 +11956,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0215985925</t>
+          <t>0219014510</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -12004,22 +12004,22 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>ALDOLASE, 25 MG</t>
+          <t>AMOXICILLIN, 10 G</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>Aldolase</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Aldolase</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Lyases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, Glycolysis, Glycolysis Enzymes, Metabolic Pathways, Metabolomics, Organic Synthesis</t>
+          <t>Antibacterial, Antibiotics,Chemical Structure Class, Interferes with Cell Wall Synthesis, Mechanism of Action, Penicillins and Cephalosporins (beta-Lactams), Spectrum of Activity</t>
         </is>
       </c>
       <c r="W84" t="n">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0219014505</t>
+          <t>0219021605</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -12137,22 +12137,22 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>AMOXICILLIN, 5 G</t>
+          <t>IBUPROFEN, 5 G</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Ibuprofen</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Ibuprofen</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Antibacterial, Antibiotics,Chemical Structure Class, Interferes with Cell Wall Synthesis, Mechanism of Action, Penicillins and Cephalosporins (beta-Lactams), Spectrum of Activity</t>
+          <t>Bioactive Small Molecules, Cell Biology, Bioreagents, Enzyme Inhibitors, Pharmacopoeia, Research Essentials</t>
         </is>
       </c>
       <c r="W85" t="n">
@@ -12222,7 +12222,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0219014510</t>
+          <t>0219023791</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -12270,22 +12270,22 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>AMOXICILLIN, 10 G</t>
+          <t>D-(+)-MALTOSE MONOHYDRATE, ~99%, 1 KG</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>D-(+)-Maltose Monohydrate</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>D-(+)-Maltose Monohydrate</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Antibacterial, Antibiotics,Chemical Structure Class, Interferes with Cell Wall Synthesis, Mechanism of Action, Penicillins and Cephalosporins (beta-Lactams), Spectrum of Activity</t>
+          <t>Carbohydrates, Bioreagents, Metabolic Libraries, Metabolomics, Research Essentials</t>
         </is>
       </c>
       <c r="W86" t="n">
@@ -12355,7 +12355,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0219021605</t>
+          <t>02190277.1</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -12403,22 +12403,22 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>IBUPROFEN, 5 G</t>
+          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 100 MG</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>Ibuprofen</t>
+          <t>3,3',5,5'-Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>Ibuprofen</t>
+          <t>3,3',5,5'-Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Bioactive Small Molecules, Cell Biology, Bioreagents, Enzyme Inhibitors, Pharmacopoeia, Research Essentials</t>
+          <t>Amines, Building Blocks, Nitrogen Compounds, Organic Building Blocks</t>
         </is>
       </c>
       <c r="W87" t="n">
@@ -12488,7 +12488,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0219023791</t>
+          <t>0219027701</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -12536,22 +12536,22 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>D-(+)-MALTOSE MONOHYDRATE, ~99%, 1 KG</t>
+          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 1 G</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>D-(+)-Maltose Monohydrate</t>
+          <t>3,3',5,5'-Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>D-(+)-Maltose Monohydrate</t>
+          <t>3,3',5,5'-Tetramethylbenzidine</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Carbohydrates, Bioreagents, Metabolic Libraries, Metabolomics, Research Essentials</t>
+          <t>Amines, Building Blocks, Nitrogen Compounds, Organic Building Blocks</t>
         </is>
       </c>
       <c r="W88" t="n">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>02190277.1</t>
+          <t>0219027705</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -12669,7 +12669,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 100 MG</t>
+          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 5 G</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -12754,7 +12754,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0219027701</t>
+          <t>0219028425</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -12802,22 +12802,22 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 1 G</t>
+          <t>2-THIOBARBITURIC ACID, 25 G</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine</t>
+          <t>2-Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine</t>
+          <t>2-Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Amines, Building Blocks, Nitrogen Compounds, Organic Building Blocks</t>
+          <t>Reagent, Pyrimidines, Quantitate lipopolysaccharides,Determination of N-acetylneuraminic acid</t>
         </is>
       </c>
       <c r="W90" t="n">
@@ -12887,7 +12887,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0219027705</t>
+          <t>0219028480</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -12935,22 +12935,22 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>3,3',5,5'-TETRAMETHYLBENZIDINE, 5 G</t>
+          <t>2-THIOBARBITURIC ACID, 100 G</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine</t>
+          <t>2-Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>3,3',5,5'-Tetramethylbenzidine</t>
+          <t>2-Thiobarbituric Acid</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Amines, Building Blocks, Nitrogen Compounds, Organic Building Blocks</t>
+          <t>Reagent, Pyrimidines, Quantitate lipopolysaccharides,Determination of N-acetylneuraminic acid</t>
         </is>
       </c>
       <c r="W91" t="n">
@@ -13020,7 +13020,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0219028425</t>
+          <t>0219028483</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -13068,7 +13068,7 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>2-THIOBARBITURIC ACID, 25 G</t>
+          <t>2-THIOBARBITURIC ACID, 250 G</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
@@ -13153,7 +13153,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0219028480</t>
+          <t>0219028490</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>2-THIOBARBITURIC ACID, 100 G</t>
+          <t>2-THIOBARBITURIC ACID, 500 G</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
@@ -13286,7 +13286,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0219028483</t>
+          <t>0219052001</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -13334,22 +13334,22 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>2-THIOBARBITURIC ACID, 250 G</t>
+          <t>AZURE B, 1 G</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric Acid</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric Acid</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Reagent, Pyrimidines, Quantitate lipopolysaccharides,Determination of N-acetylneuraminic acid</t>
+          <t>Biochemicals and Reagents, Hematology and Histology, Luminescent compounds/Detection, Stains &amp; Dyes</t>
         </is>
       </c>
       <c r="W94" t="n">
@@ -13419,7 +13419,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0219028490</t>
+          <t>0219052005</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -13467,22 +13467,22 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>2-THIOBARBITURIC ACID, 500 G</t>
+          <t>AZURE B, 5 G</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric Acid</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>2-Thiobarbituric Acid</t>
+          <t>Azure B</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>Reagent, Pyrimidines, Quantitate lipopolysaccharides,Determination of N-acetylneuraminic acid</t>
+          <t>Biochemicals and Reagents, Hematology and Histology, Luminescent compounds/Detection, Stains &amp; Dyes</t>
         </is>
       </c>
       <c r="W95" t="n">
@@ -13552,7 +13552,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0219052001</t>
+          <t>0219151490</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -13600,22 +13600,22 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>AZURE B, 1 G</t>
+          <t>RICINOLEIC ACID, 500 MG</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>Ricinoleic Acid</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>Ricinoleic Acid</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Hematology and Histology, Luminescent compounds/Detection, Stains &amp; Dyes</t>
+          <t>Biochemicals and Reagents, Fatty Acids and conjugates, Unsaturated Fatty Acids and Derivatives</t>
         </is>
       </c>
       <c r="W96" t="n">
@@ -13685,7 +13685,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0219052005</t>
+          <t>0219397180</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -13733,22 +13733,22 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>AZURE B, 5 G</t>
+          <t>TRITON X-114, 100 ML</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>Triton X-114</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Azure B</t>
+          <t>Triton X-114</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Hematology and Histology, Luminescent compounds/Detection, Stains &amp; Dyes</t>
+          <t>Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Electrophoresis Chromatography, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Non-Ionic Detergents, Proteins and Derivatives, Proteomics, Research Essentials</t>
         </is>
       </c>
       <c r="W97" t="n">
@@ -13818,7 +13818,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0219151490</t>
+          <t>0219397183</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -13866,22 +13866,22 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>RICINOLEIC ACID, 500 MG</t>
+          <t>TRITON X-114, 250 ML</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>Ricinoleic Acid</t>
+          <t>Triton X-114</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>Ricinoleic Acid</t>
+          <t>Triton X-114</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Fatty Acids and conjugates, Unsaturated Fatty Acids and Derivatives</t>
+          <t>Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Electrophoresis Chromatography, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Non-Ionic Detergents, Proteins and Derivatives, Proteomics, Research Essentials</t>
         </is>
       </c>
       <c r="W98" t="n">
@@ -13951,7 +13951,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0219397180</t>
+          <t>0219397191</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -13999,7 +13999,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>TRITON X-114, 100 ML</t>
+          <t>TRITON X-114, 1 L</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0219397183</t>
+          <t>0219398880</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -14132,22 +14132,22 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>TRITON X-114, 250 ML</t>
+          <t>AMMONIUM PERSULFATE, MOLECULAR BIOLOGY REAGENT</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>Triton X-114</t>
+          <t>Polymerization catalyst used with TEMED for polyacrylamide gel formation.</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>Triton X-114</t>
+          <t>Ammonium Persulfate</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Electrophoresis Chromatography, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Non-Ionic Detergents, Proteins and Derivatives, Proteomics, Research Essentials</t>
+          <t>Acrylamide, Automated Sequencing, Biochemicals, Chemical Synthesis, Gel Solutions and Reagents, Molecular Biology, Molecular Biology Reagents, Nucleic Acid Electrophoresis, Oxidizing Agents, Sulfur-Based, Synthetic Reagents</t>
         </is>
       </c>
       <c r="W100" t="n">
@@ -14217,7 +14217,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0219397191</t>
+          <t>0219401283</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -14265,23 +14265,21 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>TRITON X-114, 1 L</t>
+          <t>SODIUM ACETATE, 250 G</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>Triton X-114</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>Triton X-114</t>
-        </is>
-      </c>
-      <c r="V101" t="inlineStr">
-        <is>
-          <t>Biochemicals and Reagents, Cell Culture, Cell Lysis and Protein Extraction Reagents, Bioreagents, Detergents, Detergents for Cell Lysis, Detergents for Nanodisc Preparations, Electrophoresis Chromatography, Nanodisc Reagents for Membrane Protein Research, Native Protein Sample Preparation, Non-Ionic Detergents, Proteins and Derivatives, Proteomics, Research Essentials</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V101" t="n">
+        <v/>
       </c>
       <c r="W101" t="n">
         <v/>
@@ -14350,7 +14348,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0219398880</t>
+          <t>0219401291</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -14398,23 +14396,21 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>AMMONIUM PERSULFATE, MOLECULAR BIOLOGY REAGENT</t>
+          <t>SODIUM ACETATE, 1 KG</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>Polymerization catalyst used with TEMED for polyacrylamide gel formation.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>Ammonium Persulfate</t>
-        </is>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>Acrylamide, Automated Sequencing, Biochemicals, Chemical Synthesis, Gel Solutions and Reagents, Molecular Biology, Molecular Biology Reagents, Nucleic Acid Electrophoresis, Oxidizing Agents, Sulfur-Based, Synthetic Reagents</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V102" t="n">
+        <v/>
       </c>
       <c r="W102" t="n">
         <v/>
@@ -14483,7 +14479,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0219401283</t>
+          <t>0219405780</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -14531,21 +14527,23 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>SODIUM ACETATE, 250 G</t>
+          <t>HYDROGEN PEROXIDE, 100 ML</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Hydrogen Peroxide</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V103" t="n">
-        <v/>
+          <t>Hydrogen Peroxide</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>ACS Grade, Acids &amp; Bases, Bioactive Small Molecules, Blocking Sera and Reagents, Cell Biology, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Life Science Reagents for Immunohistochemistry (IHC), Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Western Blotting, Oxidizing Agents, Peroxides, Research Essentials, Synthetic Reagents</t>
+        </is>
       </c>
       <c r="W103" t="n">
         <v/>
@@ -14614,7 +14612,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0219401291</t>
+          <t>0219405790</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -14662,21 +14660,23 @@
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>SODIUM ACETATE, 1 KG</t>
+          <t>HYDROGEN PEROXIDE, 500 ML</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Hydrogen Peroxide</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V104" t="n">
-        <v/>
+          <t>Hydrogen Peroxide</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>ACS Grade, Acids &amp; Bases, Bioactive Small Molecules, Blocking Sera and Reagents, Cell Biology, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Life Science Reagents for Immunohistochemistry (IHC), Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Western Blotting, Oxidizing Agents, Peroxides, Research Essentials, Synthetic Reagents</t>
+        </is>
       </c>
       <c r="W104" t="n">
         <v/>
@@ -14745,7 +14745,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0219405780</t>
+          <t>0219455794</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -14793,22 +14793,22 @@
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>HYDROGEN PEROXIDE, 100 ML</t>
+          <t>TRIS, CELL CULTURE REAGENT, ≥99.95%, 5 KG</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide</t>
+          <t>Tris</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide</t>
+          <t>Tris</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>ACS Grade, Acids &amp; Bases, Bioactive Small Molecules, Blocking Sera and Reagents, Cell Biology, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Life Science Reagents for Immunohistochemistry (IHC), Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Western Blotting, Oxidizing Agents, Peroxides, Research Essentials, Synthetic Reagents</t>
+          <t>BioReagent Buffers, Buffer Salts, Buffered Salt Solutions, BBuffers Salts, Buffers A to Z, Bioreagents, Good’s Buffers, Life Science Reagents for Cell Culture, Life Science Reagents for Cloning, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Research Essentials</t>
         </is>
       </c>
       <c r="W105" t="n">
@@ -14878,7 +14878,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0219405790</t>
+          <t>0219455891</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -14926,22 +14926,22 @@
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>HYDROGEN PEROXIDE, 500 ML</t>
+          <t>TRIS HYDROCHLORIDE, CELL CULTURE REAGENT, ≥99%, 1 KG</t>
         </is>
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide</t>
+          <t>Tris Hydrochloride</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>Hydrogen Peroxide</t>
+          <t>Tris Hydrochloride</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>ACS Grade, Acids &amp; Bases, Bioactive Small Molecules, Blocking Sera and Reagents, Cell Biology, Chemical Synthesis, Essential Chemicals, Inorganic Salts, Solutions and Reagents, Life Science Reagents for Immunohistochemistry (IHC), Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Western Blotting, Oxidizing Agents, Peroxides, Research Essentials, Synthetic Reagents</t>
+          <t>Apoptosis and Cell Cycle, BioReagent Buffers, Biological Buffers, Buffer Salts, Buffered Salt Solutions, Cell Biology, Cell Signaling and Neuroscience, Bioreagents, Good’s Buffers, Life Science Reagents for Cell Culture, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Other Apoptosis Related Reagents, Research Essentials</t>
         </is>
       </c>
       <c r="W106" t="n">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0219455794</t>
+          <t>0219464180</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -15059,23 +15059,21 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>TRIS, CELL CULTURE REAGENT, 99.95%, 5 KG</t>
+          <t>CITRIC ACID, 100 G</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>Tris</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>Tris</t>
-        </is>
-      </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>BioReagent Buffers, Buffer Salts, Buffered Salt Solutions, BBuffers Salts, Buffers A to Z, Bioreagents, Goodâ€™s Buffers, Life Science Reagents for Cell Culture, Life Science Reagents for Cloning, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Research Essentials</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V107" t="n">
+        <v/>
       </c>
       <c r="W107" t="n">
         <v/>
@@ -15144,7 +15142,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0219455891</t>
+          <t>0219467925</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -15192,22 +15190,22 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>TRIS HYDROCHLORIDE, CELL CULTURE REAGENT, 99%, 1 KG</t>
+          <t>GLUTATHIONE REDUCED, CELL CULTURE REAGENT, ≥98%, 25 G</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>Tris Hydrochloride</t>
+          <t>Glutathione Reduced</t>
         </is>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>Tris Hydrochloride</t>
+          <t>Glutathione Reduced</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>Apoptosis and Cell Cycle, BioReagent Buffers, Biological Buffers, Buffer Salts, Buffered Salt Solutions, Cell Biology, Cell Signaling and Neuroscience, Bioreagents, Goodâ€™s Buffers, Life Science Reagents for Cell Culture, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Other Apoptosis Related Reagents, Research Essentials</t>
+          <t>Substrates, Oxidative Stress Proteins, Nutrition Research, Metabolites and cofactors on metabolic pathways chart, Functional foods, Enzymes, Inhibitors, Enzymes, Cell Biology, Application Index, Amino Acids, Allium Sativum.</t>
         </is>
       </c>
       <c r="W108" t="n">
@@ -15277,7 +15275,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0219464180</t>
+          <t>0219468105</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -15325,21 +15323,23 @@
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>CITRIC ACID, 100 G</t>
+          <t>GLYCINE, CELL CULTURE REAGENT, 5 KG</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Glycine</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V109" t="n">
-        <v/>
+          <t>Glycine</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>Reagents, Cell culture, Biochemicals, Amino Acids, Vitamins</t>
+        </is>
       </c>
       <c r="W109" t="n">
         <v/>
@@ -15408,7 +15408,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0219467925</t>
+          <t>0219468901</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -15456,22 +15456,22 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>GLUTATHIONE REDUCED, CELL CULTURE REAGENT, 98%, 25 G</t>
+          <t>L-ISOLEUCINE, 1 G</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>Glutathione Reduced</t>
+          <t>L-Isoleucine</t>
         </is>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>Glutathione Reduced</t>
+          <t>L-Isoleucine</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>Substrates, Oxidative Stress Proteins, Nutrition Research, Metabolites and cofactors on metabolic pathways chart, Functional foods, Enzymes, Inhibitors, Enzymes, Cell Biology, Application Index, Amino Acids, Allium Sativum.</t>
+          <t>Aloe Vera, Amino Acid Derivatives, Amino Acid Library,Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Culture, Chemical Biology, Chemical Synthesis, Life Science Reagents for Cell Culture, Peptide Chemistry, Pharmacopoeial Amino Acids, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, SILAC, Stable Isotopes, Unlabeled Amino Acids</t>
         </is>
       </c>
       <c r="W110" t="n">
@@ -15541,7 +15541,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0219468105</t>
+          <t>0219468925</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -15589,22 +15589,22 @@
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>GLYCINE, CELL CULTURE REAGENT, 5 KG</t>
+          <t>L-ISOLEUCINE, 25 G</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>Glycine</t>
+          <t>L-Isoleucine</t>
         </is>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>Glycine</t>
+          <t>L-Isoleucine</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>Reagents, Cell culture, Biochemicals, Amino Acids, Vitamins</t>
+          <t>Aloe Vera, Amino Acid Derivatives, Amino Acid Library,Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Culture, Chemical Biology, Chemical Synthesis, Life Science Reagents for Cell Culture, Peptide Chemistry, Pharmacopoeial Amino Acids, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, SILAC, Stable Isotopes, Unlabeled Amino Acids</t>
         </is>
       </c>
       <c r="W111" t="n">
@@ -15674,7 +15674,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0219468901</t>
+          <t>0219468980</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -15722,7 +15722,7 @@
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>L-ISOLEUCINE, 1 G</t>
+          <t>L-ISOLEUCINE, 100 G</t>
         </is>
       </c>
       <c r="T112" t="inlineStr">
@@ -15807,7 +15807,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0219468925</t>
+          <t>0219472891</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -15855,22 +15855,22 @@
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>L-ISOLEUCINE, 25 G</t>
+          <t>L-PROLINE, CELL CULTURE REAGENT, ≥99%, 1 KG</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>L-Isoleucine</t>
+          <t>L-Proline</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>L-Isoleucine</t>
+          <t>L-Proline</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>Aloe Vera, Amino Acid Derivatives, Amino Acid Library,Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Culture, Chemical Biology, Chemical Synthesis, Life Science Reagents for Cell Culture, Peptide Chemistry, Pharmacopoeial Amino Acids, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, SILAC, Stable Isotopes, Unlabeled Amino Acids</t>
+          <t>Allium cepa (Onion), Allium sativum (Garlic), Aloe Vera, Amino Acid, Amino Acid Derivatives, Chemical Synthesis, Cichorium intybus (Chicory), Functional Foods, Ginkgo biloba, Humulus lupulus (Hops), Linum usitatissimum (Flax), Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways, Metabolomics, Nutrition Research, Panax ginseng, Peptide Chemistry, Phenylalanine, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, Research Essentials, Zingiber officinale (Ginger)</t>
         </is>
       </c>
       <c r="W113" t="n">
@@ -15940,7 +15940,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0219468980</t>
+          <t>0219474190</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -15988,22 +15988,22 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>L-ISOLEUCINE, 100 G</t>
+          <t>SODIUM SELENITE, 500 G</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>L-Isoleucine</t>
+          <t>Sodium Selenite</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>L-Isoleucine</t>
+          <t>Sodium Selenite</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>Aloe Vera, Amino Acid Derivatives, Amino Acid Library,Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Culture, Chemical Biology, Chemical Synthesis, Life Science Reagents for Cell Culture, Peptide Chemistry, Pharmacopoeial Amino Acids, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, SILAC, Stable Isotopes, Unlabeled Amino Acids</t>
+          <t>Antioxidant, Chemical Synthesis, Functional Foods, Inorganic Salts, Nutrition Research, Sodium, Synthetic Reagents</t>
         </is>
       </c>
       <c r="W114" t="n">
@@ -16073,7 +16073,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0219472891</t>
+          <t>02194742.5</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -16121,22 +16121,22 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>L-PROLINE, CELL CULTURE REAGENT, 99%, 1 KG</t>
+          <t>D-SORBITOL, ANHYDROUS, CELL CULTURE REAGENT, ≥98%, 500 G</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>L-Proline</t>
+          <t>D-Sorbitol</t>
         </is>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>L-Proline</t>
+          <t>D-Sorbitol</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>Allium cepa (Onion), Allium sativum (Garlic), Aloe Vera, Amino Acid, Amino Acid Derivatives, Chemical Synthesis, Cichorium intybus (Chicory), Functional Foods, Ginkgo biloba, Humulus lupulus (Hops), Linum usitatissimum (Flax), Metabolic Pathways, Metabolites and Cofactors on the Metabolic Pathways, Metabolomics, Nutrition Research, Panax ginseng, Peptide Chemistry, Phenylalanine, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, Research Essentials, Zingiber officinale (Ginger)</t>
+          <t>Carbohydrate Chemistry, Carbohydrate Derivatives, Carbohydrates, Cell Biology, Chemical Biology, Chemical Synthesis, Core Bioreagents, Functional Foods, Nutrition Research, Research Essentials, Simple sugars</t>
         </is>
       </c>
       <c r="W115" t="n">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0219474190</t>
+          <t>0219480425</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -16254,22 +16254,22 @@
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>SODIUM SELENITE, 500 G</t>
+          <t>PHORBOL 12-MYRISTATE 13-ACETATE, MOLECULAR BIOLOGY REAGENT, ~99%, 25 MG</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>Sodium Selenite</t>
+          <t>Phorbol 12-Myristate 13-Acetate</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>Sodium Selenite</t>
+          <t>Phorbol 12-Myristate 13-Acetate</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>Antioxidant, Chemical Synthesis, Functional Foods, Inorganic Salts, Nutrition Research, Sodium, Synthetic Reagents</t>
+          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
         </is>
       </c>
       <c r="W116" t="n">
@@ -16339,7 +16339,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>02194742.5</t>
+          <t>0219485102</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -16387,7 +16387,7 @@
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>D-SORBITOL, ANHYDROUS, CELL CULTURE REAGENT, 98%, 500 G</t>
+          <t>D-SORBITOL, MOLECULAR BIOLOGY REAGENT, ≥98%, 2 KG</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
@@ -16402,7 +16402,7 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>Carbohydrate Chemistry, Carbohydrate Derivatives, Carbohydrates, Cell Biology, Chemical Biology, Chemical Synthesis, Core Bioreagents, Functional Foods, Nutrition Research, Research Essentials, Simple sugars</t>
+          <t>Biochemicals, Biochemicals and Reagents, Carbohydrate Chemistry, Carbohydrate Derivatives, Carbohydrates,Carbohydrates A to Z, Carbohydrates D-F, Cell Biology, Chemical Biology, Chemical Synthesis, Core Bioreagents, Density Gradient Media, General Reagents, Hematology and Histology, Life Science Reagents for Cloning, Life Science Reagents for PCR, Molecular Biology, Molecular Biology Reagents, Monosaccharide, Polyhydric alcohols, Research Essentials</t>
         </is>
       </c>
       <c r="W117" t="n">
@@ -16472,7 +16472,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0219480425</t>
+          <t>02195074.1</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -16520,22 +16520,22 @@
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>PHORBOL 12-MYRISTATE 13-ACETATE, MOLECULAR BIOLOGY REAGENT, ~99%, 25 MG</t>
+          <t>BORIC ACID, 100 G</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>Phorbol 12-Myristate 13-Acetate</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>Phorbol 12-Myristate 13-Acetate</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>Bioactive Small Molecules, Biochemicals, Cell Biology, Molecular Biology, Molecular Biology Reagents</t>
+          <t>Biochemicals, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffer salts, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Expression and Purification, Molecular Biology, Molecular Biology Reagents, Research Essentials</t>
         </is>
       </c>
       <c r="W118" t="n">
@@ -16605,7 +16605,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0219485102</t>
+          <t>0219507401</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -16653,22 +16653,22 @@
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>D-SORBITOL, MOLECULAR BIOLOGY REAGENT, 98%, 2 KG</t>
+          <t>BORIC ACID, 1 KG</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>D-Sorbitol</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>D-Sorbitol</t>
+          <t>Boric Acid</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>Biochemicals, Biochemicals and Reagents, Carbohydrate Chemistry, Carbohydrate Derivatives, Carbohydrates,Carbohydrates A to Z, Carbohydrates D-F, Cell Biology, Chemical Biology, Chemical Synthesis, Core Bioreagents, Density Gradient Media, General Reagents, Hematology and Histology, Life Science Reagents for Cloning, Life Science Reagents for PCR, Molecular Biology, Molecular Biology Reagents, Monosaccharide, Polyhydric alcohols, Research Essentials</t>
+          <t>Biochemicals, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffer salts, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Expression and Purification, Molecular Biology, Molecular Biology Reagents, Research Essentials</t>
         </is>
       </c>
       <c r="W119" t="n">
@@ -16738,7 +16738,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>02195074.1</t>
+          <t>0219507405</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -16786,7 +16786,7 @@
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>BORIC ACID, 100 G</t>
+          <t>BORIC ACID, 5 KG</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
@@ -16871,7 +16871,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>0219507401</t>
+          <t>0219519901</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -16919,22 +16919,22 @@
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>BORIC ACID, 1 KG</t>
+          <t>GLUTARALDEHYDE, 25% AQUEOUS SOLUTION, 1 ML</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>Glutaraldehyde Solution</t>
         </is>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>Glutaraldehyde Solution</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>Biochemicals, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffer salts, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Expression and Purification, Molecular Biology, Molecular Biology Reagents, Research Essentials</t>
+          <t>Aldehydes, Biochemicals and Reagents, Building Blocks, Carbohydrates, Carbonyl Compounds, Chemical Synthesis, Core Bioreagents, Fixatives, Hematology and Histology, Life Science Reagents for Immunohistochemistry (IHC), Monosaccharide, Organic Building Blocks, Research Essentials, Tissue Processing</t>
         </is>
       </c>
       <c r="W121" t="n">
@@ -17004,7 +17004,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>0219507405</t>
+          <t>0219521380</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -17052,22 +17052,22 @@
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>BORIC ACID, 5 KG</t>
+          <t>GUANOSINE-5′-TRIPHOSPHATE DISODIUM SALT,≥95%, 100 MG</t>
         </is>
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>Guanosine-5′-Triphosphate Disodium Salt</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>Boric Acid</t>
+          <t>Guanosine-5′-Triphosphate Disodium Salt</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>Biochemicals, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffer salts, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Expression and Purification, Molecular Biology, Molecular Biology Reagents, Research Essentials</t>
+          <t>Substrates by Enzyme, Reagents, Nucleoside phosphate donors, Metabolic Pathways, G Proteins and Cyclic nucleotides, Inhibitors and Substrates, Cofactors, Cell Signaling and Neuroscience, Cell Biology, Biochemicals</t>
         </is>
       </c>
       <c r="W122" t="n">
@@ -17137,7 +17137,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0219519901</t>
+          <t>0219525410</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -17185,22 +17185,22 @@
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>GLUTARALDEHYDE, 25% AQUEOUS SOLUTION, 1 ML</t>
+          <t>SEPHADEX G-26, 10 G</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>Glutaraldehyde Solution</t>
+          <t>Sephadex G-25</t>
         </is>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>Glutaraldehyde Solution</t>
+          <t>Sephadex G-25</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>Aldehydes, Biochemicals and Reagents, Building Blocks, Carbohydrates, Carbonyl Compounds, Chemical Synthesis, Core Bioreagents, Fixatives, Hematology and Histology, Life Science Reagents for Immunohistochemistry (IHC), Monosaccharide, Organic Building Blocks, Research Essentials, Tissue Processing</t>
+          <t>195254; 02195254</t>
         </is>
       </c>
       <c r="W123" t="n">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>0219521380</t>
+          <t>0219525412</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -17306,35 +17306,23 @@
       <c r="P124" t="n">
         <v/>
       </c>
-      <c r="Q124" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>GUANOSINE-5€²-TRIPHOSPHATE DISODIUM SALT,95%, 100 MG</t>
-        </is>
-      </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>Guanosine-5â€²-Triphosphate Disodium Salt</t>
-        </is>
-      </c>
-      <c r="U124" t="inlineStr">
-        <is>
-          <t>Guanosine-5â€²-Triphosphate Disodium Salt</t>
-        </is>
-      </c>
-      <c r="V124" t="inlineStr">
-        <is>
-          <t>Substrates by Enzyme, Reagents, Nucleoside phosphate donors, Metabolic Pathways, G Proteins and Cyclic nucleotides, Inhibitors and Substrates, Cofactors, Cell Signaling and Neuroscience, Cell Biology, Biochemicals</t>
-        </is>
+      <c r="Q124" t="n">
+        <v/>
+      </c>
+      <c r="R124" t="n">
+        <v/>
+      </c>
+      <c r="S124" t="n">
+        <v/>
+      </c>
+      <c r="T124" t="n">
+        <v/>
+      </c>
+      <c r="U124" t="n">
+        <v/>
+      </c>
+      <c r="V124" t="n">
+        <v/>
       </c>
       <c r="W124" t="n">
         <v/>
@@ -17403,7 +17391,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0219525410</t>
+          <t>0219525450</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -17451,7 +17439,7 @@
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>SEPHADEX G-26, 10 G</t>
+          <t>SEPHADEX G-27, 50 G</t>
         </is>
       </c>
       <c r="T125" t="inlineStr">
@@ -17536,7 +17524,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0219525412</t>
+          <t>0219941001</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -17572,23 +17560,35 @@
       <c r="P126" t="n">
         <v/>
       </c>
-      <c r="Q126" t="n">
-        <v/>
-      </c>
-      <c r="R126" t="n">
-        <v/>
-      </c>
-      <c r="S126" t="n">
-        <v/>
-      </c>
-      <c r="T126" t="n">
-        <v/>
-      </c>
-      <c r="U126" t="n">
-        <v/>
-      </c>
-      <c r="V126" t="n">
-        <v/>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>MP Biomedical</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 1 G</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>Alkaline Phosphatase, Biochemicals and Reagents, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Substrates by Enzyme</t>
+        </is>
       </c>
       <c r="W126" t="n">
         <v/>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0219525450</t>
+          <t>0219941005</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -17705,22 +17705,22 @@
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>SEPHADEX G-27, 50 G</t>
+          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 5 G</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>Sephadex G-25</t>
+          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>Sephadex G-25</t>
+          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>195254; 02195254</t>
+          <t>Alkaline Phosphatase, Biochemicals and Reagents, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Substrates by Enzyme</t>
         </is>
       </c>
       <c r="W127" t="n">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0219941001</t>
+          <t>0219941010</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -17838,7 +17838,7 @@
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 1 G</t>
+          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 10 G</t>
         </is>
       </c>
       <c r="T128" t="inlineStr">
@@ -17923,7 +17923,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0219941005</t>
+          <t>0219951805</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -17971,22 +17971,22 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 5 G</t>
+          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 5 UNITS</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>Alkaline Phosphatase, Biochemicals and Reagents, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Substrates by Enzyme</t>
+          <t>Oxidoreductases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, General Metabolic Enzymes, Metabolomics, Nucleic Acid Metabolism</t>
         </is>
       </c>
       <c r="W129" t="n">
@@ -18056,7 +18056,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0219941010</t>
+          <t>0219951825</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -18104,22 +18104,22 @@
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>1-NAPHTHYL PHOSPHATE, MONOSODIUM SALT, MONOHYDRATE, 10 G</t>
+          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 25 UNITS</t>
         </is>
       </c>
       <c r="T130" t="inlineStr">
         <is>
-          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>1-Naphthyl Phosphate Monosodium Salt Monohydrate</t>
+          <t>Xanthine Oxidase</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>Alkaline Phosphatase, Biochemicals and Reagents, Enzyme Substrates, Enzymes, Inhibitors, and Substrates, Substrates by Enzyme</t>
+          <t>Oxidoreductases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, General Metabolic Enzymes, Metabolomics, Nucleic Acid Metabolism</t>
         </is>
       </c>
       <c r="W130" t="n">
@@ -18189,7 +18189,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0219951805</t>
+          <t>0219951850</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -18237,7 +18237,7 @@
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 5 UNITS</t>
+          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 50 UNITS</t>
         </is>
       </c>
       <c r="T131" t="inlineStr">
@@ -18322,7 +18322,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0219951825</t>
+          <t>0219960880</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -18370,22 +18370,22 @@
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 25 UNITS</t>
+          <t>L-GLUTAMINE, USP, 100 G</t>
         </is>
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>L-Glutamine</t>
         </is>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>L-Glutamine</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>Oxidoreductases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, General Metabolic Enzymes, Metabolomics, Nucleic Acid Metabolism</t>
+          <t>Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Amino acids, Bioactives/Supplements, Biochemicals and Reagents, Cell Biology, Cell Culture, Functional Foods, G, General Reagents, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Libraries, Metabolomics, Nutrition Research, Reagents and Supplements, Research Essentials, Stem Cell Biology, Stem Cell Isolation</t>
         </is>
       </c>
       <c r="W132" t="n">
@@ -18455,7 +18455,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0219951850</t>
+          <t>0219960890</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -18503,22 +18503,22 @@
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>XANTHINE OXIDASE FROM BUTTERMILK, 1 - 4 U/MG PROTEIN, 50 UNITS</t>
+          <t>L-GLUTAMINE, USP, 500 G</t>
         </is>
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>L-Glutamine</t>
         </is>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>Xanthine Oxidase</t>
+          <t>L-Glutamine</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>Oxidoreductases, Biochemicals and Reagents, Enzymes, Inhibitors, and Substrates, General Metabolic Enzymes, Metabolomics, Nucleic Acid Metabolism</t>
+          <t>Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Amino acids, Bioactives/Supplements, Biochemicals and Reagents, Cell Biology, Cell Culture, Functional Foods, G, General Reagents, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Libraries, Metabolomics, Nutrition Research, Reagents and Supplements, Research Essentials, Stem Cell Biology, Stem Cell Isolation</t>
         </is>
       </c>
       <c r="W133" t="n">
@@ -18588,7 +18588,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0219960880</t>
+          <t>0219960891</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -18636,7 +18636,7 @@
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>L-GLUTAMINE, USP, 100 G</t>
+          <t>L-GLUTAMINE, USP, 1 KG</t>
         </is>
       </c>
       <c r="T134" t="inlineStr">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0219960890</t>
+          <t>0230008406</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -18769,22 +18769,22 @@
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>L-GLUTAMINE, USP, 500 G</t>
+          <t>ETHYL ACETATE, 6 X 1 L</t>
         </is>
       </c>
       <c r="T135" t="inlineStr">
         <is>
-          <t>L-Glutamine</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>L-Glutamine</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Amino acids, Bioactives/Supplements, Biochemicals and Reagents, Cell Biology, Cell Culture, Functional Foods, G, General Reagents, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Libraries, Metabolomics, Nutrition Research, Reagents and Supplements, Research Essentials, Stem Cell Biology, Stem Cell Isolation</t>
+          <t>Analytical Reagents, Analytical/Chromatography, Chromatography Reagents &amp; Solvents, Ethyl Acetate, Solvents</t>
         </is>
       </c>
       <c r="W135" t="n">
@@ -18854,7 +18854,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0219960891</t>
+          <t>0230008416</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -18902,22 +18902,22 @@
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>L-GLUTAMINE, USP, 1 KG</t>
+          <t>ETHYL ACETATE, 4 X 4 L</t>
         </is>
       </c>
       <c r="T136" t="inlineStr">
         <is>
-          <t>L-Glutamine</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>L-Glutamine</t>
+          <t>Ethyl Acetate</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>Amino Acids, Amino Acids &amp; Vitamins, Amino Acids and Vitamins, Amino acids, Bioactives/Supplements, Biochemicals and Reagents, Cell Biology, Cell Culture, Functional Foods, G, General Reagents, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Libraries, Metabolomics, Nutrition Research, Reagents and Supplements, Research Essentials, Stem Cell Biology, Stem Cell Isolation</t>
+          <t>Analytical Reagents, Analytical/Chromatography, Chromatography Reagents &amp; Solvents, Ethyl Acetate, Solvents</t>
         </is>
       </c>
       <c r="W136" t="n">
@@ -18987,7 +18987,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>0230008406</t>
+          <t>03AFC13805</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -19035,22 +19035,22 @@
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>ETHYL ACETATE, 6 X 1 L</t>
+          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 5 MG</t>
         </is>
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
         </is>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>Analytical Reagents, Analytical/Chromatography, Chromatography Reagents &amp; Solvents, Ethyl Acetate, Solvents</t>
+          <t>Substrate, Caspase-3, CPP-32, Assay of caspase-3,7</t>
         </is>
       </c>
       <c r="W137" t="n">
@@ -19120,7 +19120,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>0230008416</t>
+          <t>03AFC13810</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -19168,22 +19168,22 @@
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>ETHYL ACETATE, 4 X 4 L</t>
+          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 10 MG</t>
         </is>
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
         </is>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>Ethyl Acetate</t>
+          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>Analytical Reagents, Analytical/Chromatography, Chromatography Reagents &amp; Solvents, Ethyl Acetate, Solvents</t>
+          <t>Substrate, Caspase-3, CPP-32, Assay of caspase-3,7</t>
         </is>
       </c>
       <c r="W138" t="n">
@@ -19253,7 +19253,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>03AFC13805</t>
+          <t>03AFC13825</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -19301,7 +19301,7 @@
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 5 MG</t>
+          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 25 MG</t>
         </is>
       </c>
       <c r="T139" t="inlineStr">
@@ -19386,7 +19386,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>03AFC13810</t>
+          <t>03AFC15605</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -19434,23 +19434,21 @@
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 10 MG</t>
+          <t>AC-TRP-GLU-HIS-ASP-7-AMINO-4-T, 5 MG</t>
         </is>
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
-        </is>
-      </c>
-      <c r="V140" t="inlineStr">
-        <is>
-          <t>Substrate, Caspase-3, CPP-32, Assay of caspase-3,7</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V140" t="n">
+        <v/>
       </c>
       <c r="W140" t="n">
         <v/>
@@ -19519,7 +19517,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>03AFC13825</t>
+          <t>03SB00705</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -19567,23 +19565,21 @@
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>AC-ASP-GLU-VAL-ASP-7-AMINO-4-TRIFLUOROMETHYLCOUMARIN, 25 MG</t>
+          <t>Z-GLY-ARG-THIOBENZYL ESTER, 5 MG</t>
         </is>
       </c>
       <c r="T141" t="inlineStr">
         <is>
-          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
+          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
         </is>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>Ac-Asp-Glu-Val-Asp-7-Amino-4-Trifluoromethylcoumarin</t>
-        </is>
-      </c>
-      <c r="V141" t="inlineStr">
-        <is>
-          <t>Substrate, Caspase-3, CPP-32, Assay of caspase-3,7</t>
-        </is>
+          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
+        </is>
+      </c>
+      <c r="V141" t="n">
+        <v/>
       </c>
       <c r="W141" t="n">
         <v/>
@@ -19652,7 +19648,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>03AFC15605</t>
+          <t>03SB00710</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -19700,17 +19696,17 @@
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>AC-TRP-GLU-HIS-ASP-7-AMINO-4-T, 5 MG</t>
+          <t>Z-GLY-ARG-THIOBENZYL ESTER, 10 MG</t>
         </is>
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
         </is>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
         </is>
       </c>
       <c r="V142" t="n">
@@ -19783,7 +19779,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>03SB00705</t>
+          <t>04800681</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -19831,21 +19827,23 @@
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>Z-GLY-ARG-THIOBENZYL ESTER, 5 MG</t>
+          <t>CITRIC ACID, 1 KG</t>
         </is>
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
+          <t>Citric Acid</t>
         </is>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
-        </is>
-      </c>
-      <c r="V143" t="n">
-        <v/>
+          <t>Citric Acid</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>Allium cepa (Onion), Berberis sp., Bioactive Small Molecules, Biochemicals and Reagents, Biological Buffers, Cell Biology, Cell Culture, Chelators, Cichorium intybus (Chicory), Citrus aurantium (Seville orange), Euphorbia sp, Ginkgo biloba, Nutrition Research, Other Biochemical, Panax ginseng, Phytochemicals by Chemical Classification, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, Sambucus nigra (Elderberry), Vaccinium macrocarpon (Cranberry), Vaccinium myrtillus (Bilberry)</t>
+        </is>
       </c>
       <c r="W143" t="n">
         <v/>
@@ -19914,7 +19912,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>03SB00710</t>
+          <t>04805732</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -19962,17 +19960,17 @@
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>Z-GLY-ARG-THIOBENZYL ESTER, 10 MG</t>
+          <t>BROMOPHENOL BLUE, SODIUM SALT, 10 G</t>
         </is>
       </c>
       <c r="T144" t="inlineStr">
         <is>
-          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>Z-Gly-Arg-Thiobenzyl Ester</t>
+          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
         </is>
       </c>
       <c r="V144" t="n">
@@ -20045,7 +20043,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>04800681</t>
+          <t>04806443</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -20093,23 +20091,21 @@
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>CITRIC ACID, 1 KG</t>
+          <t>2-MERCAPTOETHANOL, ELECTROPHORESIS GRADE,  25 G</t>
         </is>
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t>Citric Acid</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>Citric Acid</t>
-        </is>
-      </c>
-      <c r="V145" t="inlineStr">
-        <is>
-          <t>Allium cepa (Onion), Berberis sp., Bioactive Small Molecules, Biochemicals and Reagents, Biological Buffers, Cell Biology, Cell Culture, Chelators, Cichorium intybus (Chicory), Citrus aurantium (Seville orange), Euphorbia sp, Ginkgo biloba, Nutrition Research, Other Biochemical, Panax ginseng, Phytochemicals by Chemical Classification, Phytochemicals by Plant (Food/Spice/Herb), Reagents and Supplements, Sambucus nigra (Elderberry), Vaccinium macrocarpon (Cranberry), Vaccinium myrtillus (Bilberry)</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V145" t="n">
+        <v/>
       </c>
       <c r="W145" t="n">
         <v/>
@@ -20178,7 +20174,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>04805732</t>
+          <t>04807410</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -20226,21 +20222,23 @@
       </c>
       <c r="S146" t="inlineStr">
         <is>
-          <t>BROMOPHENOL BLUE, SODIUM SALT, 10 G</t>
+          <t>TRICINE, 25 G</t>
         </is>
       </c>
       <c r="T146" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tricine</t>
         </is>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>Bromophenol blue migrates at approximately the same rate as 300-500bp DNA in agarose gel and at the buffer front in protein polyacrylamide gels.</t>
-        </is>
-      </c>
-      <c r="V146" t="n">
-        <v/>
+          <t>Tricine</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>BioReagent Buffers, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffers Salts, Good’s Buffers, Life Science Reagents for PCR, Life Science Reagents for Western Blotting, Research Essentials</t>
+        </is>
       </c>
       <c r="W146" t="n">
         <v/>
@@ -20309,7 +20307,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>04806443</t>
+          <t>04821616</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -20357,21 +20355,23 @@
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>2-MERCAPTOETHANOL, ELECTROPHORESIS GRADE,  25 G</t>
+          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 25 G</t>
         </is>
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
         </is>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V147" t="n">
-        <v/>
+          <t>Coomassie Brilliant Blue R-250</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
+        </is>
       </c>
       <c r="W147" t="n">
         <v/>
@@ -20440,7 +20440,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>04807410</t>
+          <t>04821624</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -20488,22 +20488,22 @@
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>TRICINE, 25 G</t>
+          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 10 G</t>
         </is>
       </c>
       <c r="T148" t="inlineStr">
         <is>
-          <t>Tricine</t>
+          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
         </is>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>Tricine</t>
+          <t>Coomassie Brilliant Blue R-250</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>BioReagent Buffers, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffers Salts, Goodâ€™s Buffers, Life Science Reagents for PCR, Life Science Reagents for Western Blotting, Research Essentials</t>
+          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
         </is>
       </c>
       <c r="W148" t="n">
@@ -20573,7 +20573,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>04808873</t>
+          <t>04821636</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -20621,22 +20621,22 @@
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>GLYCINE, ELECTROPHORESIS GRADE, 250 G</t>
+          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 100 G</t>
         </is>
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>Glycine for use in electrophresis buffers.</t>
+          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
         </is>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>Glycine</t>
+          <t>Coomassie Brilliant Blue R-250</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>Protein Electrophoresis, Proteomics, Research Essentials,SDS-PAGE, Western Blotting, Amino Acids, Bioactive Small Molecules, Buffers,Buffers and Reagents, Buffers, Reagents, &amp; Stains,Cell Biology, General Reagents,Life Science Reagents for Protein Electrophoresis,Life Science Reagents for Western Blotting,</t>
+          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
         </is>
       </c>
       <c r="W149" t="n">
@@ -20706,7 +20706,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>04821616</t>
+          <t>04821915</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -20754,23 +20754,21 @@
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 25 G</t>
+          <t>WATER, DNASE, RNASE-FREE, 1 L</t>
         </is>
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250</t>
-        </is>
-      </c>
-      <c r="V150" t="inlineStr">
-        <is>
-          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
-        </is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="V150" t="n">
+        <v/>
       </c>
       <c r="W150" t="n">
         <v/>
@@ -20839,7 +20837,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>04821624</t>
+          <t>04821932</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -20887,22 +20885,22 @@
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 10 G</t>
+          <t>WATER, DNASE, RNASE-FREE, 500 ML</t>
         </is>
       </c>
       <c r="T151" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
+          <t>Biochemicals, Biochemicals and Reagents, Biological Buffers, Buffers A to Z, Bioreagents, Gene Expression &amp; Analysis, General Reagents, Life Science Reagents for Cloning, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Molecular Biology, Molecular Biology Reagents, Plant Biotechnology, Plant Molecular Biology, Plant Nucleic Acid Purification, Reagents, Research Essentials, Solvent by Type, Solvents, Water and Water Solutions, cDNA Labeling</t>
         </is>
       </c>
       <c r="W151" t="n">
@@ -20972,7 +20970,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>04821636</t>
+          <t>04822521</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -21020,23 +21018,21 @@
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>COOMASSIE BRILLIANT BLUE R-250, ELECTROPHORESIS GRADE, 100 G</t>
+          <t>TRIS-GLYCINE NATIVE RUNNING BUFFER, 1 L</t>
         </is>
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250 stain for use in protein gel staining.</t>
+          <t>Running buffer for protein electophoresis.</t>
         </is>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>Coomassie Brilliant Blue R-250</t>
-        </is>
-      </c>
-      <c r="V152" t="inlineStr">
-        <is>
-          <t>Cell Biology, Hematology and Histology, Stains &amp; Dyes, A to Z, Stains and Dyes</t>
-        </is>
+          <t>Premixed liquid 10X concentrate. Contains 0.25M TRIS base, 1.92M Glycine, pH 8.5. Provides excellent separation of native large molecular weight proteins on TRIS-glycine polyacrylamide gels.</t>
+        </is>
+      </c>
+      <c r="V152" t="n">
+        <v/>
       </c>
       <c r="W152" t="n">
         <v/>
@@ -21105,7 +21101,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>04821915</t>
+          <t>07WS1075</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -21153,17 +21149,17 @@
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>WATER, DNASE, RNASE-FREE, 1 L</t>
+          <t>POSITIVE DISPLACEMENT PIPETTE, 10-100 ΜL</t>
         </is>
       </c>
       <c r="T153" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Pipettes well suited for liquids with high densities, viscosities or vapor pressures. To be used with Positive displacement pipette tips, 10-100 µL (catalog number 07DP1035)</t>
         </is>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Problem-free pipetting of problem Liquids: it specially suited for liquids with high densities, viscosities or vapor pressures. Given the disposable capillaries and pistons, positive displacement absolutely eliminates cross-contamination from aerosols, sa</t>
         </is>
       </c>
       <c r="V153" t="n">
@@ -21236,7 +21232,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>04821932</t>
+          <t>08320961</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -21284,22 +21280,22 @@
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>WATER, DNASE, RNASE-FREE, 500 ML</t>
+          <t>CELLULASE Y-C (FROM TRICHODERMA VIRIDE), 10 G</t>
         </is>
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Cellulase Y-C enzyme retains very high filter paper decomposing activity and showed an appreciable amount of hemicellulase. Actually, this enzyme removed cell walls from plant tissues in shorter incubation period without loss of biological activity of the materials.</t>
         </is>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Cellulase Y-C enzyme retains very high filter paper decomposing activity and showed an appreciable amount of hemicellulase. Actually, this enzyme removed cell walls from plant tissues in shorter incubation period without loss of biological activity of the materials.</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>Biochemicals, Biochemicals and Reagents, Biological Buffers, Buffers A to Z, Bioreagents, Gene Expression &amp; Analysis, General Reagents, Life Science Reagents for Cloning, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Molecular Biology, Molecular Biology Reagents, Plant Biotechnology, Plant Molecular Biology, Plant Nucleic Acid Purification, Reagents, Research Essentials, Solvent by Type, Solvents, Water and Water Solutions, cDNA Labeling</t>
+          <t>Biochemicals and Reagents, Carbohydrate Hydrolysis, Carbohydrate hydrolysis PTM analysis, Cellulase, Cellulase, Lyticase, Laminanrinase, Cellulose, &amp;beta;-Glucans and Lichenen, Cellulases with Mixtures of Activities, Cellulose Hydrolysis, Complex Carbohydrate Analysis, Enzymatic Cell Lysis and Protoplast Preparation, Enzymes for Alternative Energy Research, Enzymes for Lignocellulosic Ethanol Research, Enzymes, Inhibitors, and Substrates, Plant</t>
         </is>
       </c>
       <c r="W154" t="n">
@@ -21369,7 +21365,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>04822252</t>
+          <t>0855034</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -21417,17 +21413,17 @@
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>LAEMMLI SDS SAMPLE BUFFER, 4X, 50 ML</t>
+          <t>ANTI-HUMAN COMPLEMENT C4 GOAT IGG FRACTION, 2 ML</t>
         </is>
       </c>
       <c r="T155" t="inlineStr">
         <is>
-          <t>Sample loading buffer for protein gel electrophoresis.</t>
+          <t>Lyophilized goat IgG fraction to human complement C4 and buffer salts.</t>
         </is>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>Premixed liquid 4X concentrate. Contains 250mM TRIS-HCl (pH6.8), 8% SDS, 40% glycerol, and 0.02% bromophenol blue. For protein sample preparation in the Laemmli SDS-PAGE system, without reducing the disulfide linkages.</t>
+          <t>Product is the lyophilized powder of goat IgG fraction to human complement C4 and buffer salts.</t>
         </is>
       </c>
       <c r="V155" t="n">
@@ -21500,7 +21496,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>04822261</t>
+          <t>0855285</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -21548,17 +21544,17 @@
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>LAEMMLI SDS SAMPLE BUFFER, 6X, 25 ML</t>
+          <t>ANTI-BOVINE ALBUMIN RABBIT IGG FRACTION, PEROXIDASE-CONJUGATED, 2 ML</t>
         </is>
       </c>
       <c r="T156" t="inlineStr">
         <is>
-          <t>Sample loading buffer for protein gel electrophoresis.</t>
+          <t>Lyophilized horseradish peroxidase (HRP)-conjugated rabbit IgG fraction to bovine albumin and buffer salts.</t>
         </is>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>Premixed liquid 6X concentrate. Contains 375mM TRIS-HCl (pH6.8), 9% SDS, 50% glycerol, and 0.03% bromophenol blue. For protein sample preparation in the Laemmli SDS-PAGE system, without reducing the disulfide linkages.</t>
+          <t>Product is the lyophilized powder of horseradish peroxidase (HRP)-conjugated rabbit IgG fraction to bovine albumin and buffer salts.</t>
         </is>
       </c>
       <c r="V156" t="n">
@@ -21631,7 +21627,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>04822471</t>
+          <t>0855306</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -21679,17 +21675,17 @@
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>TAE BUFFER (10X), 1 L</t>
+          <t>ANTI-CHICKEN RED BLOOD CELLS RABBIT IGG FRACTION , 5 ML</t>
         </is>
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Lyophilized rabbit IgG fraction to chicken red blood cells and buffer salts.</t>
         </is>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>Premixed liquid 10X concentrate. Contains 0.4M TRIS base, 0.4M Acetate, 10mM EDTA, pH 8.0. Used in agarose electrophoresis for separation of nucleic acids, DNA and RNA. Has lower buffer capacity than TBE but double-stranded DNA runs faster in TAE buffer.</t>
+          <t>Product is the lyophilized powder of rabbit IgG fraction to chicken red blood cells and buffer salts.</t>
         </is>
       </c>
       <c r="V157" t="n">
@@ -21762,7 +21758,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>04822521</t>
+          <t>0855557</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -21810,17 +21806,17 @@
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>TRIS-GLYCINE NATIVE RUNNING BUFFER, 1 L</t>
+          <t>ANTI-MOUSE COMPLEMENT C3 GOAT IGG FRACTION, PEROXIDASE-CONJUGATED , 2 ML</t>
         </is>
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>Running buffer for protein electophoresis.</t>
+          <t>Lyophilized horseradish peroxidase (HRP)-conjugated goat IgG fraction to mouse complement C3 and buffer salts.</t>
         </is>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>Premixed liquid 10X concentrate. Contains 0.25M TRIS base, 1.92M Glycine, pH 8.5. Provides excellent separation of native large molecular weight proteins on TRIS-glycine polyacrylamide gels.</t>
+          <t>Product is the lyophilized powder of horseradish peroxidase (HRP)-conjugated goat IgG fraction to mouse complement C3 and buffer salts.</t>
         </is>
       </c>
       <c r="V158" t="n">
@@ -21893,7 +21889,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>07WS1075</t>
+          <t>0855828</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -21941,21 +21937,23 @@
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>POSITIVE DISPLACEMENT PIPETTE, 10-100 ΜL</t>
+          <t>FREUND'S COMPLETE ADJUVANT, 50 ML</t>
         </is>
       </c>
       <c r="T159" t="inlineStr">
         <is>
-          <t>Pipettes well suited for liquids with high densities, viscosities or vapor pressures. To be used with Positive displacement pipette tips, 10-100 µL (catalog number 07DP1035)</t>
+          <t>Product is a mixture containing mineral oil, Arlacel A, and heat-killed Mycobacterium butyricum: Freund's Complete Adjuvant. Components are thoroughly mixed in controlled proportions and autoclaved prior to being vialed.</t>
         </is>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>Problem-free pipetting of problem Liquids: it specially suited for liquids with high densities, viscosities or vapor pressures. Given the disposable capillaries and pistons, positive displacement absolutely eliminates cross-contamination from aerosols, sa</t>
-        </is>
-      </c>
-      <c r="V159" t="n">
-        <v/>
+          <t>Product is a mixture containing mineral oil, Arlacel A, and heat-killed Mycobacterium butyricum: Freund's Complete Adjuvant. Components are thoroughly mixed in controlled proportions and autoclaved prior to being vialed.</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>Adjuvant emulsions, Adjuvants, Antibodies, Antibody Purification and Characterization, Cell Culture, Supplementary Products, Vaccine Adjuvants, Vaccine Production</t>
+        </is>
       </c>
       <c r="W159" t="n">
         <v/>
@@ -22024,7 +22022,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>08320961</t>
+          <t>0855838</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -22072,23 +22070,21 @@
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>CELLULASE Y-C (FROM TRICHODERMA VIRIDE), 10 G</t>
+          <t>GAMMA GLOBULIN, HUMAN, PURIFIED,  100 MG</t>
         </is>
       </c>
       <c r="T160" t="inlineStr">
         <is>
-          <t>Cellulase Y-C enzyme retains very high filter paper decomposing activity and showed an appreciable amount of hemicellulase. Actually, this enzyme removed cell walls from plant tissues in shorter incubation period without loss of biological activity of the materials.</t>
+          <t>Lyophilized human gamma globulin with buffer salts.</t>
         </is>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>Cellulase Y-C enzyme retains very high filter paper decomposing activity and showed an appreciable amount of hemicellulase. Actually, this enzyme removed cell walls from plant tissues in shorter incubation period without loss of biological activity of the materials.</t>
-        </is>
-      </c>
-      <c r="V160" t="inlineStr">
-        <is>
-          <t>Biochemicals and Reagents, Carbohydrate Hydrolysis, Carbohydrate hydrolysis PTM analysis, Cellulase, Cellulase, Lyticase, Laminanrinase, Cellulose, &amp;beta;-Glucans and Lichenen, Cellulases with Mixtures of Activities, Cellulose Hydrolysis, Complex Carbohydrate Analysis, Enzymatic Cell Lysis and Protoplast Preparation, Enzymes for Alternative Energy Research, Enzymes for Lignocellulosic Ethanol Research, Enzymes, Inhibitors, and Substrates, Plant</t>
-        </is>
+          <t>Product is the lyophilized powder of human gamma globulin and buffer salts.</t>
+        </is>
+      </c>
+      <c r="V160" t="n">
+        <v/>
       </c>
       <c r="W160" t="n">
         <v/>
@@ -22157,7 +22153,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>0855034</t>
+          <t>0856960</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -22205,17 +22201,17 @@
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>ANTI-HUMAN COMPLEMENT C4 GOAT IGG FRACTION, 2 ML</t>
+          <t>ANTI-HUMAN IGM (5FC MU) GOAT AFFINITY-PURIFIED F(AB')2 FRAGMENT, 1 MG</t>
         </is>
       </c>
       <c r="T161" t="inlineStr">
         <is>
-          <t>Lyophilized goat IgG fraction to human complement C4 and buffer salts.</t>
+          <t>Goat affinity purified F(ab')2 fragments to human IgM (5Fc µ) and buffer salts.</t>
         </is>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of goat IgG fraction to human complement C4 and buffer salts.</t>
+          <t>: Product is goat affinity purified F(ab')2 fragments to human IgM (5Fc µ) and buffer salts. The affinity purified F(ab')2 fragment is prepared from the specific goat IgG fraction by limited digestion with pepsin and solid phase absorption. The resulting affinity purified F(ab')2 fragment is dialyzed into 0.02M sodium phosphate, 0.14M sodium chloride, pH 7.3, adjusted to standard titer, filtered through a 0.22 µm filter, and vialed.</t>
         </is>
       </c>
       <c r="V161" t="n">
@@ -22288,7 +22284,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>0855285</t>
+          <t>08649011</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -22336,17 +22332,17 @@
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>ANTI-BOVINE ALBUMIN RABBIT IGG FRACTION, PEROXIDASE-CONJUGATED, 2 ML</t>
+          <t>MOUSE IMMUNOGLOBULIN REFERENCE SERUM, 1 ML</t>
         </is>
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>Lyophilized horseradish peroxidase (HRP)-conjugated rabbit IgG fraction to bovine albumin and buffer salts.</t>
+          <t>This product is pooled from outbred adult male and female ICR/Swiss Webster mice.</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of horseradish peroxidase (HRP)-conjugated rabbit IgG fraction to bovine albumin and buffer salts.</t>
+          <t>This product is pooled from outbred adult male and female ICR/Swiss Webster mice. The immunoglobulin levels, except IgE, are determined by radial immunodiffusion. The IgE level is obtained by addition of monoclonal IgE (Anti-DNP, Code No. 630122).&lt;br&gt;See Rat and Mouse Immunoglobulin Reference Sera in the Immunobiologicals section for immunoglobulin values.</t>
         </is>
       </c>
       <c r="V162" t="n">
@@ -22419,7 +22415,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>0855306</t>
+          <t>08687402</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -22467,17 +22463,17 @@
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>ANTI-CHICKEN RED BLOOD CELLS RABBIT IGG FRACTION , 5 ML</t>
+          <t>ANTI-GFP, MOUSE MONOCLONAL ANTIBODY, WITH BSA, 1 MG</t>
         </is>
       </c>
       <c r="T163" t="inlineStr">
         <is>
-          <t>Lyophilized rabbit IgG fraction to chicken red blood cells and buffer salts.</t>
+          <t>Mouse IgG2a monoclonal antibody (mAb) against GFP (clone 3E6)  that recognizes the native form of the Green Fluorescent Protein (GFP), GFP variants and GFP-fusion proteins.</t>
         </is>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of rabbit IgG fraction to chicken red blood cells and buffer salts.</t>
+          <t>Anti-GFP, Clone 3E6, is a mouse IgG2a monoclonal antibody (mAb) that recognizes the native form of the Green Fluorescent Protein (GFP), GFP variants and GFP-fusion proteins.</t>
         </is>
       </c>
       <c r="V163" t="n">
@@ -22550,7 +22546,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>0855557</t>
+          <t>08691102</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -22598,17 +22594,17 @@
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>ANTI-MOUSE COMPLEMENT C3 GOAT IGG FRACTION, PEROXIDASE-CONJUGATED , 2 ML</t>
+          <t>ANTI-GLIAL FIBRILLARY ACIDIC PROTEIN (GFAP) MOUSE MONOCLONAL ANTIBODY, 0.5 ML</t>
         </is>
       </c>
       <c r="T164" t="inlineStr">
         <is>
-          <t>Lyophilized horseradish peroxidase (HRP)-conjugated goat IgG fraction to mouse complement C3 and buffer salts.</t>
+          <t>Mouse IgG1 monoclonal antibody to glial fibrillary acidic protein.</t>
         </is>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of horseradish peroxidase (HRP)-conjugated goat IgG fraction to mouse complement C3 and buffer salts.</t>
+          <t>Product is a mouse monoclonal antibody, isotype IgG1, that reacts with Glial Fibrillary Acidic Protein.</t>
         </is>
       </c>
       <c r="V164" t="n">
@@ -22681,7 +22677,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>0855828</t>
+          <t>08771121</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -22729,23 +22725,21 @@
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>FREUND'S COMPLETE ADJUVANT, 50 ML</t>
+          <t>TUBULIN, PURIFIED FROM BOVINE BRAIN</t>
         </is>
       </c>
       <c r="T165" t="inlineStr">
         <is>
-          <t>Product is a mixture containing mineral oil, Arlacel A, and heat-killed Mycobacterium butyricum: Freund's Complete Adjuvant. Components are thoroughly mixed in controlled proportions and autoclaved prior to being vialed.</t>
+          <t>A heterodimer composed of &amp;alpha;- and &amp;beta;- tubulin of 55 kDa (molecular weight &amp;#8773;110 kDa).</t>
         </is>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>Product is a mixture containing mineral oil, Arlacel A, and heat-killed Mycobacterium butyricum: Freund's Complete Adjuvant. Components are thoroughly mixed in controlled proportions and autoclaved prior to being vialed.</t>
-        </is>
-      </c>
-      <c r="V165" t="inlineStr">
-        <is>
-          <t>Adjuvant emulsions, Adjuvants, Antibodies, Antibody Purification and Characterization, Cell Culture, Supplementary Products, Vaccine Adjuvants, Vaccine Production</t>
-        </is>
+          <t>Purified bovine brain tubulin protein supplied in liquid form at 10 mg/mL in 80 mM PIPES buffer containing 1 mM EGTA, 1 mM GTP, pH 6.8 and 10% glycerol. It is a heterodimer composed of &amp;alpha;- and &amp;beta;- tubulin of 55 kDa (molecular weight &amp;#8773;110 kDa). Polymerization occurs forming microtubules of 25 nm in diameter and average 1650 heterodimers per &amp;#181;m in length. One unit of tubulin is defined as 5.0 mg of purified protein (as determined by the method of Bradford: Bradford, M., Analytical Biochemistry 72, 248, 1976).</t>
+        </is>
+      </c>
+      <c r="V165" t="n">
+        <v/>
       </c>
       <c r="W165" t="n">
         <v/>
@@ -22814,7 +22808,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>0855838</t>
+          <t>08771151</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -22862,17 +22856,17 @@
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>GAMMA GLOBULIN, HUMAN, PURIFIED,  100 MG</t>
+          <t>TUBULIN, PORCINE, 99% PURE, 1 MG</t>
         </is>
       </c>
       <c r="T166" t="inlineStr">
         <is>
-          <t>Lyophilized human gamma globulin with buffer salts.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>Product is the lyophilized powder of human gamma globulin and buffer salts.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V166" t="n">
@@ -22945,7 +22939,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>0856960</t>
+          <t>08791501</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -22993,21 +22987,23 @@
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>ANTI-HUMAN IGM (5FC MU) GOAT AFFINITY-PURIFIED F(AB')2 FRAGMENT, 1 MG</t>
+          <t>PHYTOHEMAGGLUTININ, PHASEOLUS VULGARIS, 25 MG</t>
         </is>
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>Goat affinity purified F(ab')2 fragments to human IgM (5Fc µ) and buffer salts.</t>
+          <t>Crude Phaseolus vulgaris-P lectin (PHA-P) from the Red Kidney Bean. Phytohemagglutinin PHA agglutinates the erythrocytes of all human blood groups as well as those of rabbit, dog, cat, mouse, sheep, and guinea pig. The optimal amount of PHA required for the agglutination of erythrocytes varies with the blood from different individuals.</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>: Product is goat affinity purified F(ab')2 fragments to human IgM (5Fc µ) and buffer salts. The affinity purified F(ab')2 fragment is prepared from the specific goat IgG fraction by limited digestion with pepsin and solid phase absorption. The resulting affinity purified F(ab')2 fragment is dialyzed into 0.02M sodium phosphate, 0.14M sodium chloride, pH 7.3, adjusted to standard titer, filtered through a 0.22 µm filter, and vialed.</t>
-        </is>
-      </c>
-      <c r="V167" t="n">
-        <v/>
+          <t>Crude Phaseolus vulgaris-P lectin (PHA-P) from the Red Kidney Bean. Phytohemagglutinin PHA agglutinates the erythrocytes of all human blood groups as well as those of rabbit, dog, cat, mouse, sheep, and guinea pig. The optimal amount of PHA required for the agglutination of erythrocytes varies with the blood from different individuals.</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>791501; 08791501</t>
+        </is>
       </c>
       <c r="W167" t="n">
         <v/>
@@ -23076,7 +23072,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>08649011</t>
+          <t>08820361</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -23124,21 +23120,23 @@
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>MOUSE IMMUNOGLOBULIN REFERENCE SERUM, 1 ML</t>
+          <t>THROMBIN, BOVINE, 96.87 NIH U/MG DRY WEIGHT, 5 X 2 KU</t>
         </is>
       </c>
       <c r="T168" t="inlineStr">
         <is>
-          <t>This product is pooled from outbred adult male and female ICR/Swiss Webster mice.</t>
+          <t>Thrombin is the final coagulation protease in regard to hemostasis, promoting both procoagulant and anticoagulant effects.</t>
         </is>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>This product is pooled from outbred adult male and female ICR/Swiss Webster mice. The immunoglobulin levels, except IgE, are determined by radial immunodiffusion. The IgE level is obtained by addition of monoclonal IgE (Anti-DNP, Code No. 630122).&lt;br&gt;See Rat and Mouse Immunoglobulin Reference Sera in the Immunobiologicals section for immunoglobulin values.</t>
-        </is>
-      </c>
-      <c r="V168" t="n">
-        <v/>
+          <t>Thrombin is the final coagulation protease in regard to hemostasis, promoting both procoagulant and anticoagulant effects.</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>Biochemicals and Reagents, Inhibitors, and Substrates, Proteases, Proteases Protein Sequencing, Proteases for Recombinant Protein Fusion Tag Cleavage, Proteolytic Enzymes, Proteolytic Enzymes and Substrates, Selective Proteolytic Enzymes, Serum Proteins and Related Enzymes, Serum Related Enzymes, Thrombin</t>
+        </is>
       </c>
       <c r="W168" t="n">
         <v/>
@@ -23207,7 +23205,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>08687402</t>
+          <t>08840533</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -23255,21 +23253,23 @@
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>ANTI-GFP, MOUSE MONOCLONAL ANTIBODY, WITH BSA, 1 MG</t>
+          <t>ALBUMIN, BOVINE, COHN FRACTION V,&gt; 96%,  100 G</t>
         </is>
       </c>
       <c r="T169" t="inlineStr">
         <is>
-          <t>Mouse IgG2a monoclonal antibody (mAb) against GFP (clone 3E6)  that recognizes the native form of the Green Fluorescent Protein (GFP), GFP variants and GFP-fusion proteins.</t>
+          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
         </is>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>Anti-GFP, Clone 3E6, is a mouse IgG2a monoclonal antibody (mAb) that recognizes the native form of the Green Fluorescent Protein (GFP), GFP variants and GFP-fusion proteins.</t>
-        </is>
-      </c>
-      <c r="V169" t="n">
-        <v/>
+          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>Albumin, Albumins and Transport Proteins, Albumins by Application, Apoptosis and Cell Cycle, Biochemicals and Reagents, Bovine Serum Albumins, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Ethanol Fractionated, For Cell Culture, Life Science Reagents for Cell Culture, Other Apoptosis Related Reagents, Proteins and Derivatives, Proteins and Peptides, Reagents and Supplements</t>
+        </is>
       </c>
       <c r="W169" t="n">
         <v/>
@@ -23338,7 +23338,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>08691102</t>
+          <t>08840533</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -23386,21 +23386,23 @@
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>ANTI-GLIAL FIBRILLARY ACIDIC PROTEIN (GFAP) MOUSE MONOCLONAL ANTIBODY, 0.5 ML</t>
+          <t>ALBUMIN, BOVINE, COHN FRACTION V,&gt; 96%,  100 G</t>
         </is>
       </c>
       <c r="T170" t="inlineStr">
         <is>
-          <t>Mouse IgG1 monoclonal antibody to glial fibrillary acidic protein.</t>
+          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
         </is>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>Product is a mouse monoclonal antibody, isotype IgG1, that reacts with Glial Fibrillary Acidic Protein.</t>
-        </is>
-      </c>
-      <c r="V170" t="n">
-        <v/>
+          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>Albumin, Albumins and Transport Proteins, Albumins by Application, Apoptosis and Cell Cycle, Biochemicals and Reagents, Bovine Serum Albumins, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Ethanol Fractionated, For Cell Culture, Life Science Reagents for Cell Culture, Other Apoptosis Related Reagents, Proteins and Derivatives, Proteins and Peptides, Reagents and Supplements</t>
+        </is>
       </c>
       <c r="W170" t="n">
         <v/>
@@ -23469,7 +23471,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>08771121</t>
+          <t>091003122</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -23517,17 +23519,17 @@
       </c>
       <c r="S171" t="inlineStr">
         <is>
-          <t>TUBULIN, PURIFIED FROM BOVINE BRAIN</t>
+          <t>BASAL MEDIUM EAGLE (MODIFIED) WITH HANK'S SALTS (HBME) WITH L-GLUTAMINE W/O SODIUM CARBONATE, 10 L</t>
         </is>
       </c>
       <c r="T171" t="inlineStr">
         <is>
-          <t>A heterodimer composed of &amp;alpha;- and &amp;beta;- tubulin of 55 kDa (molecular weight &amp;#8773;110 kDa).</t>
+          <t>Basal Medium Eagle (BME) is one of the most commonly used ynthetic basal medium for supporting the growth of many different mammalian cells</t>
         </is>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>Purified bovine brain tubulin protein supplied in liquid form at 10 mg/mL in 80 mM PIPES buffer containing 1 mM EGTA, 1 mM GTP, pH 6.8 and 10% glycerol. It is a heterodimer composed of &amp;alpha;- and &amp;beta;- tubulin of 55 kDa (molecular weight &amp;#8773;110 kDa). Polymerization occurs forming microtubules of 25 nm in diameter and average 1650 heterodimers per &amp;#181;m in length. One unit of tubulin is defined as 5.0 mg of purified protein (as determined by the method of Bradford: Bradford, M., Analytical Biochemistry 72, 248, 1976).</t>
+          <t>Basal Medium Eagle (BME) is one of the most commonly used of all cell culture media. This medium is the result of numerous studies from the late 1950's analyzing the nutrient requirements and other components essential for the growth of cells in culture. Traditionally, BME has been used in studies to measure the growth response of normal (WI-38) and transformed (HeLa) cells in monolayer culture. BME may be used for a broad variety of cell lines when properly supplemented.</t>
         </is>
       </c>
       <c r="V171" t="n">
@@ -23600,7 +23602,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>08771151</t>
+          <t>091005360</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -23648,17 +23650,17 @@
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t>TUBULIN, PORCINE, 99% PURE, 1 MG</t>
+          <t>LB BROTH, MILLER, 1 KG</t>
         </is>
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
         </is>
       </c>
       <c r="V172" t="n">
@@ -23731,7 +23733,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>08791501</t>
+          <t>091005361</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -23779,23 +23781,21 @@
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>PHYTOHEMAGGLUTININ, PHASEOLUS VULGARIS, 25 MG</t>
+          <t>LB BROTH, MILLER, 5 KG</t>
         </is>
       </c>
       <c r="T173" t="inlineStr">
         <is>
-          <t>Crude Phaseolus vulgaris-P lectin (PHA-P) from the Red Kidney Bean. Phytohemagglutinin PHA agglutinates the erythrocytes of all human blood groups as well as those of rabbit, dog, cat, mouse, sheep, and guinea pig. The optimal amount of PHA required for the agglutination of erythrocytes varies with the blood from different individuals.</t>
+          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
         </is>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>Crude Phaseolus vulgaris-P lectin (PHA-P) from the Red Kidney Bean. Phytohemagglutinin PHA agglutinates the erythrocytes of all human blood groups as well as those of rabbit, dog, cat, mouse, sheep, and guinea pig. The optimal amount of PHA required for the agglutination of erythrocytes varies with the blood from different individuals.</t>
-        </is>
-      </c>
-      <c r="V173" t="inlineStr">
-        <is>
-          <t>791501; 08791501</t>
-        </is>
+          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
+        </is>
+      </c>
+      <c r="V173" t="n">
+        <v/>
       </c>
       <c r="W173" t="n">
         <v/>
@@ -23864,7 +23864,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>08820361</t>
+          <t>091006017</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -23912,23 +23912,21 @@
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>THROMBIN, BOVINE, 96.87 NIH U/MG DRY WEIGHT, 5 X 2 KU</t>
+          <t>MACCONKEY AGAR, 500 G</t>
         </is>
       </c>
       <c r="T174" t="inlineStr">
         <is>
-          <t>Thrombin is the final coagulation protease in regard to hemostasis, promoting both procoagulant and anticoagulant effects.</t>
+          <t>Medium used  for the isolation of enteric bacilli based on the fermentation of lactose.</t>
         </is>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>Thrombin is the final coagulation protease in regard to hemostasis, promoting both procoagulant and anticoagulant effects.</t>
-        </is>
-      </c>
-      <c r="V174" t="inlineStr">
-        <is>
-          <t>Biochemicals and Reagents, Inhibitors, and Substrates, Proteases, Proteases Protein Sequencing, Proteases for Recombinant Protein Fusion Tag Cleavage, Proteolytic Enzymes, Proteolytic Enzymes and Substrates, Selective Proteolytic Enzymes, Serum Proteins and Related Enzymes, Serum Related Enzymes, Thrombin</t>
-        </is>
+          <t>A preparation for the isolation of enteric bacilli based on the fermentation of lactose.</t>
+        </is>
+      </c>
+      <c r="V174" t="n">
+        <v/>
       </c>
       <c r="W174" t="n">
         <v/>
@@ -23997,7 +23995,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>08840533</t>
+          <t>091006817</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -24045,22 +24043,22 @@
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>ALBUMIN, BOVINE, COHN FRACTION V,&gt; 96%,  100 G</t>
+          <t>MALT EXTRACT AGAR (MEA), 500 G</t>
         </is>
       </c>
       <c r="T175" t="inlineStr">
         <is>
-          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
+          <t>General purpose growth media to isolate and cultivate yeasts and molds from a wide range of sample sources.</t>
         </is>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
+          <t>Malt Extract Agar has been used for years to cultivate fungi and yeast cultures in the sugar industry, in the manufacturing of syrups, soft drinks, and other drinks. It is also recommended in conjunction with other specific media which are included in this manual. A medium for the isolation and enumeration of yeasts and molds. It can be used in cultivation of the strains for microbiological vitamin assays.</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>Albumin, Albumins and Transport Proteins, Albumins by Application, Apoptosis and Cell Cycle, Biochemicals and Reagents, Bovine Serum Albumins, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Ethanol Fractionated, For Cell Culture, Life Science Reagents for Cell Culture, Other Apoptosis Related Reagents, Proteins and Derivatives, Proteins and Peptides, Reagents and Supplements</t>
+          <t>All Dairy Media (alphabetical), All Food Control Media (alphabetical), All Solid Media/Agars, Aspergillus, Candida, Clinical Media, Dairy Culture Media for Yeasts and Molds, Media, Media by Application, Media by Microorganism, Media for Dairy Industry, Media for Food Control, Media for Fruits and Vegetable, Media for Sour Vegetables, Vinegar, Media for Water Control, Media for Water Control (General), Microbiology, Molds Yeasts (General Media), Selective by Low pH, Selective by low pH, Soil/Agriculture/Environmental Media, Zygosaccharmyces</t>
         </is>
       </c>
       <c r="W175" t="n">
@@ -24130,7 +24128,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>08840533</t>
+          <t>091020122</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -24178,23 +24176,21 @@
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>ALBUMIN, BOVINE, COHN FRACTION V,&gt; 96%,  100 G</t>
+          <t>MEDIUM 199 WITH EARLE'S SALT (E199), POWDER, WITH L-GLUTAMINE, W/O SODIUM BICARBONATE, 10 L</t>
         </is>
       </c>
       <c r="T176" t="inlineStr">
         <is>
-          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
+          <t>Completely defined nutritional source for cell culture. Medium 199 is available in either Earle's or Hanks' salts.</t>
         </is>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>Albumins are a group of acidic proteins which occur plentifully in the body fluids and tissues of mammals and in some plant seeds.</t>
-        </is>
-      </c>
-      <c r="V176" t="inlineStr">
-        <is>
-          <t>Albumin, Albumins and Transport Proteins, Albumins by Application, Apoptosis and Cell Cycle, Biochemicals and Reagents, Bovine Serum Albumins, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Ethanol Fractionated, For Cell Culture, Life Science Reagents for Cell Culture, Other Apoptosis Related Reagents, Proteins and Derivatives, Proteins and Peptides, Reagents and Supplements</t>
-        </is>
+          <t>Medium 199, originally described by Morgan and his colleagues (1950), is a completely defined nutritional source for cell culture. Their investigations demonstrated that cell growth could be measured in this medium. It has broad species applicability including the culturing of non-transformed cell types. It may be used for vaccine production and the in vitro cultivation of rat lens tissues and primary mouse pancreatic epithelial explants. It is available in either Earle's or Hanks' salts.</t>
+        </is>
+      </c>
+      <c r="V176" t="n">
+        <v/>
       </c>
       <c r="W176" t="n">
         <v/>
@@ -24263,7 +24259,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>091003122</t>
+          <t>091213454</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -24311,17 +24307,17 @@
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>BASAL MEDIUM EAGLE (MODIFIED) WITH HANK'S SALTS (HBME) WITH L-GLUTAMINE W/O SODIUM CARBONATE, 10 L</t>
+          <t>MINIMUM ESSENTIAL MEDIUM EAGLE (MODIFIED) (1X) WITH HANK'S SALTS, 20 MM HEPES, W/O L-GLUTAMINE, SODIUM BICARBONATE, 500 ML</t>
         </is>
       </c>
       <c r="T177" t="inlineStr">
         <is>
-          <t>Basal Medium Eagle (BME) is one of the most commonly used ynthetic basal medium for supporting the growth of many different mammalian cells</t>
+          <t>Cell culture media. MP Bio offers MEM with either Earle's or Hanks' salts.</t>
         </is>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>Basal Medium Eagle (BME) is one of the most commonly used of all cell culture media. This medium is the result of numerous studies from the late 1950's analyzing the nutrient requirements and other components essential for the growth of cells in culture. Traditionally, BME has been used in studies to measure the growth response of normal (WI-38) and transformed (HeLa) cells in monolayer culture. BME may be used for a broad variety of cell lines when properly supplemented.</t>
+          <t>MEM, originally prepared by Harry Eagle, is one of the most popular cell culture media. Upon his attempts to cultivate normal mammalian fibroblasts and certain HeLa cell subtypes, it was revealed that the nutritional needs of these cell types could not be met by BME. Further studies led to the development of MEM incorporating specific modifications such as higher amino acid concentrations for the cultivation of fastidious cells. MP's MEM may be used to support the growth of cells in monolayers, in suspension and wide variety of other cell types with proper supplementation. MP offers MEM with either Earle's or Hanks' salts.</t>
         </is>
       </c>
       <c r="V177" t="n">
@@ -24394,7 +24390,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>091005360</t>
+          <t>091233454</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -24442,21 +24438,23 @@
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>LB BROTH, MILLER, 1 KG</t>
+          <t>DULBECCO'S MODIFIED EAGLE'S MEDIUM (DMEM) (1X SOLUTION) WITH 20 MM HEPES, W/O L-GLUTAMINE OR SODIUM BICARBONATE, 500 ML</t>
         </is>
       </c>
       <c r="T178" t="inlineStr">
         <is>
-          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
+          <t>Also known as DME, Dulbecco's Modified Eagle's Medium is the most widely used modification of Eagle's Basal Medium (BME).</t>
         </is>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
-        </is>
-      </c>
-      <c r="V178" t="n">
-        <v/>
+          <t>Also known as DME, Dulbecco's Modified Eagle's Medium is the most widely used modification of Eagle's Basal Medium (BME). DMEM contains four times greater concentration of amino acids, vitamins and supplementary components. The original formulation calls for 1000 mg/L of glucose, which was first employed to support the polyoma virus in primary and secondary embryonic mouse cultures. For optimal culturing of other cell types, a modification of 4500 mg/L glucose is available from MP.</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>Cell Biology, Cell Culture, Classic Media and Salts, Classical Media, Culture, Dulbecco&amp;rsquo;s Media, Dulbecco&amp;rsquo;s Modified Eagle&amp;rsquo;s Medium (DMEM), General Stem Cell Biology, Stem Cell Biology, Stem Cell Expansion, Stem Cell Isolation</t>
+        </is>
       </c>
       <c r="W178" t="n">
         <v/>
@@ -24525,7 +24523,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>091005361</t>
+          <t>091670246</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -24573,21 +24571,23 @@
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>LB BROTH, MILLER, 5 KG</t>
+          <t>PEN-STREP (10000 IU/ML, 10 MG/ML), 20 ML</t>
         </is>
       </c>
       <c r="T179" t="inlineStr">
         <is>
-          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
+          <t>Double antibiotic solution containing 10,000 units/mL of penicillin and 10,000 µg/mL of streptomycin.</t>
         </is>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>For the cultivation, propagation and maintenance of E. coli , B. subtilis, S. choleraesuis, C. glutamicum and other bacteria for molecular biology applications. Contains 10 g/liter sodium chloride.</t>
-        </is>
-      </c>
-      <c r="V179" t="n">
-        <v/>
+          <t>The antibiotics penicillin and streptomycin are used to prevent bacterial contamination of cell cultures due to their effective combined action against gram-positive and gram-negative bacteria. This solution contains 10,000 units/mL of penicillin and 10,000 µg/mL of streptomycin.</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>Antibacterial, Antibiotic Solutions, Antibiotics, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Biology, Cell Culture, Core Bioreagents, Culture, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Labeling, Reagents and Supplements, Research Essentials, Spectrum of Activity, Stable Isotopes, Stem Cell Biology, Stem Cell Differentiation, Stem Cell Expansion</t>
+        </is>
       </c>
       <c r="W179" t="n">
         <v/>
@@ -24656,7 +24656,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>091006017</t>
+          <t>091676245</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -24704,21 +24704,23 @@
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>MACCONKEY AGAR, 500 G</t>
+          <t>GENTAMICIN SULFATE, 50 MG/ML, 10 ML</t>
         </is>
       </c>
       <c r="T180" t="inlineStr">
         <is>
-          <t>Medium used  for the isolation of enteric bacilli based on the fermentation of lactose.</t>
+          <t>Gentamicin is an aminoglycoside antibiotic complex that&amp;nbsp;inhibits the growth of a wide variety of Gram-positive and Gram-negative microorganisms, including strains resistant to tetracycline, chloramphenicol, kanamycin, and colistin, particularly strains of Pseudomonas, Proteus, Staphylococcus, and Streptococcus. It is effective against mycoplasma as well.</t>
         </is>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>A preparation for the isolation of enteric bacilli based on the fermentation of lactose.</t>
-        </is>
-      </c>
-      <c r="V180" t="n">
-        <v/>
+          <t>Gentamicin Reagent Solution is effective against gram-positive and gram-negative bacteria, as well as mycoplasma.</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>A - K, Aminoglycosides, Analytical/Chromatography, Antibacterial, Antibiotic powders, Antibiotics, Antibiotics A to Z, Antibiotics G-M, Antibiotics by Application, Bioactive Small Molecules, Biochemicals and Reagents, Cell Biology, Cell Culture, Chemical Structure Class, Core Bioreagents, G, Genetic Marker Selection, Interferes with Protein Synthesis, Mechanism of Action, Pharmacopoeia, Pharmacopoeia A-Z, Pharmacopoeial Antibiotics, Reagents and Supplements, Research Essentials, Spectrum of Activity</t>
+        </is>
       </c>
       <c r="W180" t="n">
         <v/>
@@ -24787,7 +24789,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>091006817</t>
+          <t>092001344</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -24835,23 +24837,21 @@
       </c>
       <c r="S181" t="inlineStr">
         <is>
-          <t>MALT EXTRACT AGAR (MEA), 500 G</t>
+          <t>ITS PREMIX SOLUTION, 5 ML</t>
         </is>
       </c>
       <c r="T181" t="inlineStr">
         <is>
-          <t>General purpose growth media to isolate and cultivate yeasts and molds from a wide range of sample sources.</t>
+          <t>ITS Premix stimulates cell proliferation while decreasing substantially the serum requirements for culture of many cell types. Contains 0.5 mg/ml insulin from bovine pancreas, 0.5 mg/ml human transferrin (substantially iron-free) and 0.5 µg/ml sodium selenite. Prepared in Earle's balanced Salt Solution (EBSS) without phenol red. Sterile-filtered.</t>
         </is>
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>Malt Extract Agar has been used for years to cultivate fungi and yeast cultures in the sugar industry, in the manufacturing of syrups, soft drinks, and other drinks. It is also recommended in conjunction with other specific media which are included in this manual. A medium for the isolation and enumeration of yeasts and molds. It can be used in cultivation of the strains for microbiological vitamin assays.</t>
-        </is>
-      </c>
-      <c r="V181" t="inlineStr">
-        <is>
-          <t>All Dairy Media (alphabetical), All Food Control Media (alphabetical), All Solid Media/Agars, Aspergillus, Candida, Clinical Media, Dairy Culture Media for Yeasts and Molds, Media, Media by Application, Media by Microorganism, Media for Dairy Industry, Media for Food Control, Media for Fruits and Vegetable, Media for Sour Vegetables, Vinegar, Media for Water Control, Media for Water Control (General), Microbiology, Molds Yeasts (General Media), Selective by Low pH, Selective by low pH, Soil/Agriculture/Environmental Media, Zygosaccharmyces</t>
-        </is>
+          <t>ITS Premix will stimulate cell proliferation while decreasing substantially the serum requirements for culture of many cell types as diverse, for example, as contractile rat heart cells and human colon mucosal epithelial cells. Basal media supplemented with ITS Premix and as little as 2% Fetal Bovine Serum support proliferation of many diploid and heteroploid cell lines at rates equivalent to those obtained with 10% serum. Contains 0.5 mg/ml insulin from bovine pancreas, 0.5 mg/ml human transferrin (substantially iron-free) and 0.5 ug/ml sodium selenite. Prepared in Earle's balanced Salt Solution (EBSS) without phenol red. Sterile-filtered.</t>
+        </is>
+      </c>
+      <c r="V181" t="n">
+        <v/>
       </c>
       <c r="W181" t="n">
         <v/>
@@ -24920,7 +24920,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>091020122</t>
+          <t>092633020</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -24968,17 +24968,17 @@
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>MEDIUM 199 WITH EARLE'S SALT (E199), POWDER, WITH L-GLUTAMINE, W/O SODIUM BICARBONATE, 10 L</t>
+          <t>MURASHIGE AND SKOOG PLANT SALT MIXTURE W/O AGAR, 10 X 1 L</t>
         </is>
       </c>
       <c r="T182" t="inlineStr">
         <is>
-          <t>Completely defined nutritional source for cell culture. Medium 199 is available in either Earle's or Hanks' salts.</t>
+          <t>Murashige and Skoog basal salt medium for plants growth and plant tissue culture.</t>
         </is>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>Medium 199, originally described by Morgan and his colleagues (1950), is a completely defined nutritional source for cell culture. Their investigations demonstrated that cell growth could be measured in this medium. It has broad species applicability including the culturing of non-transformed cell types. It may be used for vaccine production and the in vitro cultivation of rat lens tissues and primary mouse pancreatic epithelial explants. It is available in either Earle's or Hanks' salts.</t>
+          <t>Murashige and Skoog Medium contains Murashige and Skoog salts, as well as a mixture of vitamins. This modification of the original formula does not contain agar. Murashige and Skoog Medium is widely used plant tissue culture growth medium. It has been proven effective in the culture of tissue derived from moncotyledons and dicotyledons. This medium, originally formulated to support tobacco callus, has been used to support callus initiation and growth, the growth of cells in suspension culture and the regeneration of shoots and plantlets from explants. More recently, it has been used for micropropagation of ornamental, vegetable and fruit plants in research and commercial enterprises.</t>
         </is>
       </c>
       <c r="V182" t="n">
@@ -25051,7 +25051,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>091213454</t>
+          <t>092910154</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -25099,21 +25099,23 @@
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>MINIMUM ESSENTIAL MEDIUM EAGLE (MODIFIED) (1X) WITH HANK'S SALTS, 20 MM HEPES, W/O L-GLUTAMINE, SODIUM BICARBONATE, 500 ML</t>
+          <t>FETAL BOVINE SERUM (FBS), SOUTH-AMERICAN ORIGIN, 500 ML</t>
         </is>
       </c>
       <c r="T183" t="inlineStr">
         <is>
-          <t>Cell culture media. MP Bio offers MEM with either Earle's or Hanks' salts.</t>
+          <t>Fetal Bovine Serum (FBS) is produced to the highest standards to ensure product performance and safety with minimal risk and lot-to-lot variability. MP Biomedicals system of vertical integration provides certainty of the South American origin and traceability of this FBS.</t>
         </is>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>MEM, originally prepared by Harry Eagle, is one of the most popular cell culture media. Upon his attempts to cultivate normal mammalian fibroblasts and certain HeLa cell subtypes, it was revealed that the nutritional needs of these cell types could not be met by BME. Further studies led to the development of MEM incorporating specific modifications such as higher amino acid concentrations for the cultivation of fastidious cells. MP's MEM may be used to support the growth of cells in monolayers, in suspension and wide variety of other cell types with proper supplementation. MP offers MEM with either Earle's or Hanks' salts.</t>
-        </is>
-      </c>
-      <c r="V183" t="n">
-        <v/>
+          <t>Fetal Bovine Serum (FBS) is the growth supplement of choice for cell culture due to its high level of nutrients. Most cell types and cell culture systems will benefit from the inclusion of FBS in growth media. It is produced to the highest standards to ensure product performance and safety with minimal risk and lot-to-lot variability. MP Biomedicals system of vertical integration provides certainty of the South American origin and traceability of this FBS.&lt;/p&gt;&lt;br&gt;&lt;p&gt;Final Filter Size: 0.1&amp;micro;m x 3&lt;/p&gt;&lt;br&gt;&lt;p&gt;Sterility: All sera are tested for the absence of aerobic and anaerobic bacteria, fungi, yeast and Mycoplasma absence&lt;/p&gt;&lt;br&gt;&lt;p&gt;Virus Tested: Bovine Viral Diarrhoea (BVD); Cytopathogenic agents, e.g. Infectious Bovine Rhinotracheitis (IBR) / BHV-1; Hemadsorbing agents, e.g. Parainfluenza Type 3 (P13)&lt;/p&gt;&lt;br&gt;&lt;p&gt;Endotoxin: &lt; 30 EU/mL&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>apoptosis and cell cycle,cell biology,cell culture,cell signaling,neuroscience,core bioreagents,fetal bovine serum,fbs,animal sera,general reagents,reagents,reagents for transfection,apoptosis related reagents,serum</t>
+        </is>
       </c>
       <c r="W183" t="n">
         <v/>
@@ -25182,7 +25184,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>091233454</t>
+          <t>092916749</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -25230,22 +25232,22 @@
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>DULBECCO'S MODIFIED EAGLE'S MEDIUM (DMEM) (1X SOLUTION) WITH 20 MM HEPES, W/O L-GLUTAMINE OR SODIUM BICARBONATE, 500 ML</t>
+          <t>CELLECT FETAL BOVINE SERUM, GOLD, US ORIGIN, 100 ML</t>
         </is>
       </c>
       <c r="T184" t="inlineStr">
         <is>
-          <t>Also known as DME, Dulbecco's Modified Eagle's Medium is the most widely used modification of Eagle's Basal Medium (BME).</t>
+          <t>Superior fetal bovine serum for hybridoma cloning. Sterilized via filtration through multiple 0.1 micron filters.</t>
         </is>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>Also known as DME, Dulbecco's Modified Eagle's Medium is the most widely used modification of Eagle's Basal Medium (BME). DMEM contains four times greater concentration of amino acids, vitamins and supplementary components. The original formulation calls for 1000 mg/L of glucose, which was first employed to support the polyoma virus in primary and secondary embryonic mouse cultures. For optimal culturing of other cell types, a modification of 4500 mg/L glucose is available from MP.</t>
+          <t>CELLect&amp;trade; Gold is collected from a U.S.D.A. regulated and monitored abattoir by technicians who work "on-site" where the fetal blood is aseptically collected via cardiac puncture. This raw material is transported to the production facility where it undergoes sterilization via filtration through multiple 0.1 micron filters. The care and diligence taken in handling the fetal serum minimizes cell lysis and other detrimental factors thereby reducing possible lysozyme and hemoglobin contamination. This translates into increased performance in the final product. It is superior for hybridoma cloning. It is supplied sterile, with no detectable mycoplasma or viral infection. Serum is an extremely complex mixture of many small and large biomolecules with different, physiologically balanced growth-promoting and growth inhibiting activities.</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>Cell Biology, Cell Culture, Classic Media and Salts, Classical Media, Culture, Dulbecco&amp;rsquo;s Media, Dulbecco&amp;rsquo;s Modified Eagle&amp;rsquo;s Medium (DMEM), General Stem Cell Biology, Stem Cell Biology, Stem Cell Expansion, Stem Cell Isolation</t>
+          <t>Apoptosis and Cell Cycle, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Core Bioreagents, Fetal Bovine Serum (FBS), Fetal Bovine Serum (FBS) and Other Animal Sera, General Reagents, Hybridoma Platform, Hybridoma Sera and Sera Substitutes, Life Science Reagents for Cell Culture, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Media / Serum, Other Apoptosis Related Reagents, Research Essentials, Serum, Serum-free Media</t>
         </is>
       </c>
       <c r="W184" t="n">
@@ -25315,7 +25317,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>091670246</t>
+          <t>092916754</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -25363,22 +25365,22 @@
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t>PEN-STREP (10000 IU/ML, 10 MG/ML), 20 ML</t>
+          <t>CELLECT FETAL BOVINE SERUM, GOLD, US ORIGIN, 500 ML</t>
         </is>
       </c>
       <c r="T185" t="inlineStr">
         <is>
-          <t>Double antibiotic solution containing 10,000 units/mL of penicillin and 10,000 µg/mL of streptomycin.</t>
+          <t>Superior fetal bovine serum for hybridoma cloning. Sterilized via filtration through multiple 0.1 micron filters.</t>
         </is>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>The antibiotics penicillin and streptomycin are used to prevent bacterial contamination of cell cultures due to their effective combined action against gram-positive and gram-negative bacteria. This solution contains 10,000 units/mL of penicillin and 10,000 µg/mL of streptomycin.</t>
+          <t>CELLect&amp;trade; Gold is collected from a U.S.D.A. regulated and monitored abattoir by technicians who work "on-site" where the fetal blood is aseptically collected via cardiac puncture. This raw material is transported to the production facility where it undergoes sterilization via filtration through multiple 0.1 micron filters. The care and diligence taken in handling the fetal serum minimizes cell lysis and other detrimental factors thereby reducing possible lysozyme and hemoglobin contamination. This translates into increased performance in the final product. It is superior for hybridoma cloning. It is supplied sterile, with no detectable mycoplasma or viral infection. Serum is an extremely complex mixture of many small and large biomolecules with different, physiologically balanced growth-promoting and growth inhibiting activities.</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>Antibacterial, Antibiotic Solutions, Antibiotics, Biochemicals and Reagents, Biomolecular Mass Spectrometry, Cell Biology, Cell Culture, Core Bioreagents, Culture, General Stem Cell Biology, Life Science Reagents for Cell Culture, Life Science Reagents for RNAi, Metabolic Labeling, Reagents and Supplements, Research Essentials, Spectrum of Activity, Stable Isotopes, Stem Cell Biology, Stem Cell Differentiation, Stem Cell Expansion</t>
+          <t>Apoptosis and Cell Cycle, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Core Bioreagents, Fetal Bovine Serum (FBS), Fetal Bovine Serum (FBS) and Other Animal Sera, General Reagents, Hybridoma Platform, Hybridoma Sera and Sera Substitutes, Life Science Reagents for Cell Culture, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Media / Serum, Other Apoptosis Related Reagents, Research Essentials, Serum, Serum-free Media</t>
         </is>
       </c>
       <c r="W185" t="n">
@@ -25448,7 +25450,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>091676245</t>
+          <t>092917654</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -25496,23 +25498,21 @@
       </c>
       <c r="S186" t="inlineStr">
         <is>
-          <t>GENTAMICIN SULFATE, 50 MG/ML, 10 ML</t>
+          <t>CELLMAXX; FETAL BOVINE SERUM, NEW ZEALAND ORIGIN, 500 ML</t>
         </is>
       </c>
       <c r="T186" t="inlineStr">
         <is>
-          <t>Gentamicin is an aminoglycoside antibiotic complex that&amp;nbsp;inhibits the growth of a wide variety of Gram-positive and Gram-negative microorganisms, including strains resistant to tetracycline, chloramphenicol, kanamycin, and colistin, particularly strains of Pseudomonas, Proteus, Staphylococcus, and Streptococcus. It is effective against mycoplasma as well.</t>
+          <t>CellMaxx FBS comes from the pristine grasslands of New Zealand where the cattle are tracked throughout their life and has never had BSE or FMD meaning it has the lowest possible viral risk.</t>
         </is>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>Gentamicin Reagent Solution is effective against gram-positive and gram-negative bacteria, as well as mycoplasma.</t>
-        </is>
-      </c>
-      <c r="V186" t="inlineStr">
-        <is>
-          <t>A - K, Aminoglycosides, Analytical/Chromatography, Antibacterial, Antibiotic powders, Antibiotics, Antibiotics A to Z, Antibiotics G-M, Antibiotics by Application, Bioactive Small Molecules, Biochemicals and Reagents, Cell Biology, Cell Culture, Chemical Structure Class, Core Bioreagents, G, Genetic Marker Selection, Interferes with Protein Synthesis, Mechanism of Action, Pharmacopoeia, Pharmacopoeia A-Z, Pharmacopoeial Antibiotics, Reagents and Supplements, Research Essentials, Spectrum of Activity</t>
-        </is>
+          <t>&lt;p&gt;Fetal Bovine Serum (FBS) is the growth supplement of choice in cell culture due to its high level of nutrients. This CellMaxx FBS comes from the pristine grasslands of New Zealand where the cattle are tracked throughout their life and has never had BSE or FMD meaning it has the lowest possible viral risk. It is produced to the highest standards to ensure product performance and viral safety while maintaining minimal lot-to-lot variability. Each lot is tested in MBDK, hybridoma, MRC-5 and Vero cell lines for growth promotion. The absence of ten viruses is confirmed according to 9CFR.&lt;br&gt;Endotoxin: 5IU/ mL&lt;br&gt;IgG: 400 mg/ L&lt;br&gt;Hemoglobin: &lt;18 mg/ mL&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="V186" t="n">
+        <v/>
       </c>
       <c r="W186" t="n">
         <v/>
@@ -25581,7 +25581,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>092001344</t>
+          <t>113066132</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -25629,17 +25629,17 @@
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>ITS PREMIX SOLUTION, 5 ML</t>
+          <t>CASEIN PEPTONE, 1 KG</t>
         </is>
       </c>
       <c r="T187" t="inlineStr">
         <is>
-          <t>ITS Premix stimulates cell proliferation while decreasing substantially the serum requirements for culture of many cell types. Contains 0.5 mg/ml insulin from bovine pancreas, 0.5 mg/ml human transferrin (substantially iron-free) and 0.5 µg/ml sodium selenite. Prepared in Earle's balanced Salt Solution (EBSS) without phenol red. Sterile-filtered.</t>
+          <t>Casein Peptone, Type I. Casein Peptone is supplemented to microbiological growth media.</t>
         </is>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>ITS Premix will stimulate cell proliferation while decreasing substantially the serum requirements for culture of many cell types as diverse, for example, as contractile rat heart cells and human colon mucosal epithelial cells. Basal media supplemented with ITS Premix and as little as 2% Fetal Bovine Serum support proliferation of many diploid and heteroploid cell lines at rates equivalent to those obtained with 10% serum. Contains 0.5 mg/ml insulin from bovine pancreas, 0.5 mg/ml human transferrin (substantially iron-free) and 0.5 ug/ml sodium selenite. Prepared in Earle's balanced Salt Solution (EBSS) without phenol red. Sterile-filtered.</t>
+          <t>Casein Peptone, Type I.</t>
         </is>
       </c>
       <c r="V187" t="n">
@@ -25712,7 +25712,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>092633020</t>
+          <t>113070044</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -25760,17 +25760,17 @@
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>MURASHIGE AND SKOOG PLANT SALT MIXTURE W/O AGAR, 10 X 1 L</t>
+          <t>SM BUFFER (STERILE SOLUTION), 500 ML</t>
         </is>
       </c>
       <c r="T188" t="inlineStr">
         <is>
-          <t>Murashige and Skoog basal salt medium for plants growth and plant tissue culture.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>Murashige and Skoog Medium contains Murashige and Skoog salts, as well as a mixture of vitamins. This modification of the original formula does not contain agar. Murashige and Skoog Medium is widely used plant tissue culture growth medium. It has been proven effective in the culture of tissue derived from moncotyledons and dicotyledons. This medium, originally formulated to support tobacco callus, has been used to support callus initiation and growth, the growth of cells in suspension culture and the regeneration of shoots and plantlets from explants. More recently, it has been used for micropropagation of ornamental, vegetable and fruit plants in research and commercial enterprises.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V188" t="n">
@@ -25843,7 +25843,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>092910154</t>
+          <t>113100132</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -25891,23 +25891,21 @@
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>FETAL BOVINE SERUM (FBS), SOUTH-AMERICAN ORIGIN, 500 ML</t>
+          <t>CIRCLEGROW AGAR, 908 G</t>
         </is>
       </c>
       <c r="T189" t="inlineStr">
         <is>
-          <t>Fetal Bovine Serum (FBS) is produced to the highest standards to ensure product performance and safety with minimal risk and lot-to-lot variability. MP Biomedicals system of vertical integration provides certainty of the South American origin and traceability of this FBS.</t>
+          <t>Circlegrow agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
         </is>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>Fetal Bovine Serum (FBS) is the growth supplement of choice for cell culture due to its high level of nutrients. Most cell types and cell culture systems will benefit from the inclusion of FBS in growth media. It is produced to the highest standards to ensure product performance and safety with minimal risk and lot-to-lot variability. MP Biomedicals system of vertical integration provides certainty of the South American origin and traceability of this FBS.&lt;/p&gt;&lt;br&gt;&lt;p&gt;Final Filter Size: 0.1&amp;micro;m x 3&lt;/p&gt;&lt;br&gt;&lt;p&gt;Sterility: All sera are tested for the absence of aerobic and anaerobic bacteria, fungi, yeast and Mycoplasma absence&lt;/p&gt;&lt;br&gt;&lt;p&gt;Virus Tested: Bovine Viral Diarrhoea (BVD); Cytopathogenic agents, e.g. Infectious Bovine Rhinotracheitis (IBR) / BHV-1; Hemadsorbing agents, e.g. Parainfluenza Type 3 (P13)&lt;/p&gt;&lt;br&gt;&lt;p&gt;Endotoxin: &lt; 30 EU/mL&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="V189" t="inlineStr">
-        <is>
-          <t>apoptosis and cell cycle,cell biology,cell culture,cell signaling,neuroscience,core bioreagents,fetal bovine serum,fbs,animal sera,general reagents,reagents,reagents for transfection,apoptosis related reagents,serum</t>
-        </is>
+          <t>CIRCLEGROW™ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
+        </is>
+      </c>
+      <c r="V189" t="n">
+        <v/>
       </c>
       <c r="W189" t="n">
         <v/>
@@ -25976,7 +25974,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>092916749</t>
+          <t>113100142</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -26024,23 +26022,21 @@
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>CELLECT FETAL BOVINE SERUM, GOLD, US ORIGIN, 100 ML</t>
+          <t>CIRCLEGROW AGAR, 2.3 KG</t>
         </is>
       </c>
       <c r="T190" t="inlineStr">
         <is>
-          <t>Superior fetal bovine serum for hybridoma cloning. Sterilized via filtration through multiple 0.1 micron filters.</t>
+          <t>Circlegrow agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
         </is>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>CELLect&amp;trade; Gold is collected from a U.S.D.A. regulated and monitored abattoir by technicians who work "on-site" where the fetal blood is aseptically collected via cardiac puncture. This raw material is transported to the production facility where it undergoes sterilization via filtration through multiple 0.1 micron filters. The care and diligence taken in handling the fetal serum minimizes cell lysis and other detrimental factors thereby reducing possible lysozyme and hemoglobin contamination. This translates into increased performance in the final product. It is superior for hybridoma cloning. It is supplied sterile, with no detectable mycoplasma or viral infection. Serum is an extremely complex mixture of many small and large biomolecules with different, physiologically balanced growth-promoting and growth inhibiting activities.</t>
-        </is>
-      </c>
-      <c r="V190" t="inlineStr">
-        <is>
-          <t>Apoptosis and Cell Cycle, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Core Bioreagents, Fetal Bovine Serum (FBS), Fetal Bovine Serum (FBS) and Other Animal Sera, General Reagents, Hybridoma Platform, Hybridoma Sera and Sera Substitutes, Life Science Reagents for Cell Culture, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Media / Serum, Other Apoptosis Related Reagents, Research Essentials, Serum, Serum-free Media</t>
-        </is>
+          <t>CIRCLEGROW™ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
+        </is>
+      </c>
+      <c r="V190" t="n">
+        <v/>
       </c>
       <c r="W190" t="n">
         <v/>
@@ -26109,7 +26105,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>092916754</t>
+          <t>113301100</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -26157,23 +26153,21 @@
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t>CELLECT FETAL BOVINE SERUM, GOLD, US ORIGIN, 500 ML</t>
+          <t>AGROBACTERIUM TRANSFORMATION KIT, 25 PREPS</t>
         </is>
       </c>
       <c r="T191" t="inlineStr">
         <is>
-          <t>Superior fetal bovine serum for hybridoma cloning. Sterilized via filtration through multiple 0.1 micron filters.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>CELLect&amp;trade; Gold is collected from a U.S.D.A. regulated and monitored abattoir by technicians who work "on-site" where the fetal blood is aseptically collected via cardiac puncture. This raw material is transported to the production facility where it undergoes sterilization via filtration through multiple 0.1 micron filters. The care and diligence taken in handling the fetal serum minimizes cell lysis and other detrimental factors thereby reducing possible lysozyme and hemoglobin contamination. This translates into increased performance in the final product. It is superior for hybridoma cloning. It is supplied sterile, with no detectable mycoplasma or viral infection. Serum is an extremely complex mixture of many small and large biomolecules with different, physiologically balanced growth-promoting and growth inhibiting activities.</t>
-        </is>
-      </c>
-      <c r="V191" t="inlineStr">
-        <is>
-          <t>Apoptosis and Cell Cycle, Cell Biology, Cell Culture, Cell Signaling and Neuroscience, Core Bioreagents, Fetal Bovine Serum (FBS), Fetal Bovine Serum (FBS) and Other Animal Sera, General Reagents, Hybridoma Platform, Hybridoma Sera and Sera Substitutes, Life Science Reagents for Cell Culture, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Media / Serum, Other Apoptosis Related Reagents, Research Essentials, Serum, Serum-free Media</t>
-        </is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V191" t="n">
+        <v/>
       </c>
       <c r="W191" t="n">
         <v/>
@@ -26242,7 +26236,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>092917654</t>
+          <t>114026932</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -26290,17 +26284,17 @@
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>CELLMAXX; FETAL BOVINE SERUM, NEW ZEALAND ORIGIN, 500 ML</t>
+          <t>DOBA WITH 2% GALACTOSE, 1% RAFFINOSE, 1 KG</t>
         </is>
       </c>
       <c r="T192" t="inlineStr">
         <is>
-          <t>CellMaxx FBS comes from the pristine grasslands of New Zealand where the cattle are tracked throughout their life and has never had BSE or FMD meaning it has the lowest possible viral risk.</t>
+          <t>DOB 2% Galactose, 1% Raffinose allows for preparation of a custom synthetic defined yeast media and includes a complete yeast nitrogen base (YNB) composed of buffering salts, vitamins and trace elements, with Galactose and Raffinose as the carbon source and Agar.</t>
         </is>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Fetal Bovine Serum (FBS) is the growth supplement of choice in cell culture due to its high level of nutrients. This CellMaxx FBS comes from the pristine grasslands of New Zealand where the cattle are tracked throughout their life and has never had BSE or FMD meaning it has the lowest possible viral risk. It is produced to the highest standards to ensure product performance and viral safety while maintaining minimal lot-to-lot variability. Each lot is tested in MBDK, hybridoma, MRC-5 and Vero cell lines for growth promotion. The absence of ten viruses is confirmed according to 9CFR.&lt;br&gt;Endotoxin: 5IU/ mL&lt;br&gt;IgG: 400 mg/ L&lt;br&gt;Hemoglobin: &lt;18 mg/ mL&lt;/p&gt;</t>
+          <t>DOB 2% Galactose, 1% Raffinose allows for preparation of a custom synthetic defined yeast media and includes a complete yeast nitrogen base (YNB) composed of buffering salts, vitamins and trace elements, with Galactose and Raffinose as the carbon source and Agar.</t>
         </is>
       </c>
       <c r="V192" t="n">
@@ -26373,7 +26367,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>113066132</t>
+          <t>114029622</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -26421,17 +26415,17 @@
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>CASEIN PEPTONE, 1 KG</t>
+          <t>YNB W/O AMMONIUM SULFATE, W/O POTASSIUM PHOSPHATE, 454 G</t>
         </is>
       </c>
       <c r="T193" t="inlineStr">
         <is>
-          <t>Casein Peptone, Type I. Casein Peptone is supplemented to microbiological growth media.</t>
+          <t>Yeast Nitrogen Base is available with or without ammonium sulfate. YNB is composed of salts, vitamins and trace elements. Some component dropouts are available. To make your own synthetic defined yeast media, start with the YNB of your choice, add a carbon source, the appropriate amino acids, and agar if necessary. Bulk powder, easily weighed to make custom batch sizes</t>
         </is>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>Casein Peptone, Type I.</t>
+          <t>YNB is available with or without ammonium sulfate. YNB is composed of salts, vitamins and trace elements. Some component dropouts are available. To make your own synthetic defined yeast media, start with the YNB of your choice, add a carbon source, the appropriate amino acids, and agar if necessary.</t>
         </is>
       </c>
       <c r="V193" t="n">
@@ -26504,7 +26498,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>113070044</t>
+          <t>114420122</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -26552,17 +26546,17 @@
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>SM BUFFER (STERILE SOLUTION), 500 ML</t>
+          <t>SC-TRP-URA, 30 G</t>
         </is>
       </c>
       <c r="T194" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Dropout SC aminoacid mixture formulation (without L-Tryptophan, Uracil) for S. cerevisiae growth media. Also known as Hopkins Mixture and is available in complete and dropout formulations.</t>
         </is>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Double dropout formulation (without L-Tryptophan and Uracil) of Synthetic Complete Supplement Mixture (SC) of amino acids for S. cerevisiae growth media. Also known as Hopkins Mixture and is available in complete and dropout formulations.</t>
         </is>
       </c>
       <c r="V194" t="n">
@@ -26635,7 +26629,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>113100132</t>
+          <t>116002554</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -26683,17 +26677,17 @@
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>CIRCLEGROW AGAR, 908 G</t>
+          <t>SPRING FOR FP24</t>
         </is>
       </c>
       <c r="T195" t="inlineStr">
         <is>
-          <t>Circlegrow agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
+          <t>FastPrep-24 parts and accessories.</t>
         </is>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>CIRCLEGROWâ„¢ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V195" t="n">
@@ -26766,7 +26760,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>113100142</t>
+          <t>116550900</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -26814,17 +26808,17 @@
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>CIRCLEGROW AGAR, 2.3 KG</t>
+          <t>FASTGLYCOPROTEIN ISOLATION KIT, WGA RESIN, 1 KIT, 10 PREPS</t>
         </is>
       </c>
       <c r="T196" t="inlineStr">
         <is>
-          <t>Circlegrow agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
+          <t>Kit for the isolation of glycoprotein from complex protein mixtures including animal and plant tissue, cultured cells as well as microbe and insect, using the lectin Wheat Germ Agglutinin (WGA) immobilized on agarose.</t>
         </is>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>CIRCLEGROWâ„¢ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V196" t="n">
@@ -26897,7 +26891,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>113301100</t>
+          <t>116914801</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -26945,7 +26939,7 @@
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>AGROBACTERIUM TRANSFORMATION KIT, 25 PREPS</t>
+          <t>4MM GLASS BEADS</t>
         </is>
       </c>
       <c r="T197" t="inlineStr">
@@ -27028,7 +27022,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>114026932</t>
+          <t>116950000</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -27076,17 +27070,17 @@
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>DOBA WITH 2% GALACTOSE, 1% RAFFINOSE, 1 KG</t>
+          <t>50 ML CONICAL TUBES, PACK OF 25</t>
         </is>
       </c>
       <c r="T198" t="inlineStr">
         <is>
-          <t>DOB 2% Galactose, 1% Raffinose allows for preparation of a custom synthetic defined yeast media and includes a complete yeast nitrogen base (YNB) composed of buffering salts, vitamins and trace elements, with Galactose and Raffinose as the carbon source and Agar.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>DOB 2% Galactose, 1% Raffinose allows for preparation of a custom synthetic defined yeast media and includes a complete yeast nitrogen base (YNB) composed of buffering salts, vitamins and trace elements, with Galactose and Raffinose as the carbon source and Agar.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V198" t="n">
@@ -27159,7 +27153,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>114029622</t>
+          <t>116954100</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -27207,21 +27201,23 @@
       </c>
       <c r="S199" t="inlineStr">
         <is>
-          <t>YNB W/O AMMONIUM SULFATE, W/O POTASSIUM PHOSPHATE, 454 G</t>
+          <t>BIGPREP;; LYSING MATRIX E, PACK OF 100</t>
         </is>
       </c>
       <c r="T199" t="inlineStr">
         <is>
-          <t>Yeast Nitrogen Base is available with or without ammonium sulfate. YNB is composed of salts, vitamins and trace elements. Some component dropouts are available. To make your own synthetic defined yeast media, start with the YNB of your choice, add a carbon source, the appropriate amino acids, and agar if necessary. Bulk powder, easily weighed to make custom batch sizes</t>
+          <t>Primarily used for environmental samples such as soil, sludge, wastewater and feces.</t>
         </is>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>YNB is available with or without ammonium sulfate. YNB is composed of salts, vitamins and trace elements. Some component dropouts are available. To make your own synthetic defined yeast media, start with the YNB of your choice, add a carbon source, the appropriate amino acids, and agar if necessary.</t>
-        </is>
-      </c>
-      <c r="V199" t="n">
-        <v/>
+          <t>Lysing Matrix E 50 mL Tube contains 1.4 ceramic spheres, 0.1 mm silica spheres and 25, 4 mm glass beads. Will not bind nucleic acids. Ideal for use on FastPrep&amp;reg; Instruments and any other homogenizer, grinder or bead-beating device.</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>extraction, purification, sample preparation, 50 mL tubes, ceramic beads, zirconium oxide spheres, glass spheres, silica spheres, dna purification, rna purification, plant tissue, soil, environmental samples, sludge, wastewater, feces</t>
+        </is>
       </c>
       <c r="W199" t="n">
         <v/>
@@ -27290,7 +27286,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>114420122</t>
+          <t>116990100</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -27338,21 +27334,23 @@
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>SC-TRP-URA, 30 G</t>
+          <t>REPLACEMENT O-RINGS FOR METAL LYSING TUBE, 2 ML, 50 EACH</t>
         </is>
       </c>
       <c r="T200" t="inlineStr">
         <is>
-          <t>Dropout SC aminoacid mixture formulation (without L-Tryptophan, Uracil) for S. cerevisiae growth media. Also known as Hopkins Mixture and is available in complete and dropout formulations.</t>
+          <t>Replacement teflon o-ring used in the cap of a SS Lysing Matrix tube to provide a leak-proof closure.</t>
         </is>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>Double dropout formulation (without L-Tryptophan and Uracil) of Synthetic Complete Supplement Mixture (SC) of amino acids for S. cerevisiae growth media. Also known as Hopkins Mixture and is available in complete and dropout formulations.</t>
-        </is>
-      </c>
-      <c r="V200" t="n">
-        <v/>
+          <t>Replacement o-rings made of teflon designed to be inserted in the cap of the metal Lysing Matrix tubes to provide a leak-proof closure.</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>plastic o-ring, lysing tube o-ring</t>
+        </is>
       </c>
       <c r="W200" t="n">
         <v/>
@@ -27421,7 +27419,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>115065010</t>
+          <t>11AGAH0100</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -27469,21 +27467,23 @@
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>SCREW CAP, BLUE, FOR 2 ML LYSING MATRIX TUBES, PACK OF 5000</t>
+          <t>AGAROSE, MOLECULAR BIOLOGY GRADE, 100 G</t>
         </is>
       </c>
       <c r="T201" t="inlineStr">
         <is>
-          <t>Caps for 2 mL screw cap tubes. For use on FastPrep instruments or any bead beater.</t>
+          <t>Agarose optimal for analytical and preparative purpose. It is a very low electroendosmosis agarose. Provides superior separation. Ideal for plasmide preparation, PCR fragment analysis as well as cloning.</t>
         </is>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>Blue Caps fit 2 mL screw cap tubes and are ideal for high-speed sample preparation instruments.</t>
-        </is>
-      </c>
-      <c r="V201" t="n">
-        <v/>
+          <t>Standard agarose is a purified linear galactan hydrocolloid isolated from agar or agar-bearing marine algae with an Electroendoosmosis (EEO) value of 0.12 making it an essential component in chemical separation techniques.</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>CMV,Cytomegalovirus,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
+        </is>
       </c>
       <c r="W201" t="n">
         <v/>
@@ -27552,7 +27552,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>115067010</t>
+          <t>11BIAC2902</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -27600,21 +27600,23 @@
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>SCREW CAP, GREEN, FOR 2 ML LYSING MATRIX TUBES, PACK OF 5000</t>
+          <t>40% (W/V) ACRYLAMIDE-BIS-ACRYL 29:1 SOLUTION, 1 L</t>
         </is>
       </c>
       <c r="T202" t="inlineStr">
         <is>
-          <t>Caps for 2 mL screw cap tubes. For use on FastPrep instruments or any bead beater.</t>
+          <t>Convenient ready-to-use solutions of 4X high quality acrylamide for molecular biology, and NN&amp;rsquo;-methylenebisacrylamide in deonised water. Concentration is based on the total weight of both the acrylamide and bis-acrylamide.</t>
         </is>
       </c>
       <c r="U202" t="inlineStr">
         <is>
-          <t>Green Caps fit 2 mL screw cap tubes and are ideal for high-speed sample preparation instruments.</t>
-        </is>
-      </c>
-      <c r="V202" t="n">
-        <v/>
+          <t>Acrylamide/Bis-acrylamide 29:1 is convenient ready-to-use solutions of 4X crystalized high quality acrylamide for molecular biology, and NN&amp;rsquo;-Methylenebisacrylamide in deonised water. Premixed 19:1 liquid solution eliminates the need to weigh toxic acrylamide and bis-acrylamide. The concentration is based on the total weight of both the acrylamide and bis-acrylamide.</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>Bordetella Pertussis,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
+        </is>
       </c>
       <c r="W202" t="n">
         <v/>
@@ -27683,7 +27685,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>116002505</t>
+          <t>11EPHSP025</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -27731,17 +27733,17 @@
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>BOWL, 1 EACH</t>
+          <t>SUREPRIME DNA POLYMERASE, 250 U</t>
         </is>
       </c>
       <c r="T203" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Chemically modified hot-start Taq DNA polymerase that delivers highly specific amplification.</t>
         </is>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SurePRIME™ DNA Polymerase is a thermostable polymerase that is suitable for all PCR applications requiring “hot start” conditions.</t>
         </is>
       </c>
       <c r="V203" t="n">
@@ -27814,7 +27816,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>116002509</t>
+          <t>11FORMD002</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -27862,21 +27864,23 @@
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>LOCK PINS FOR DOME LOCKING</t>
+          <t>FORMAMIDE DEIONIZED, 500 ML</t>
         </is>
       </c>
       <c r="T204" t="inlineStr">
         <is>
-          <t>Replacement locking pins  for FastPrep-24 Classic dome.</t>
+          <t>Deionized Formamide for use in molecular biology and as a denaturing agent for nucleic acids in gel electrophoresis or hybridization experiments.</t>
         </is>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V204" t="n">
-        <v/>
+          <t>Deionized Formamide is used in molecular biology and a denaturing agent for nucleic acids in gel electrophoresis orr hybridization experiments. In the latter case the role of formamide is to decrease the temperature necessary for the reassociation of complementary nucleic acids.</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>hsCRP,High Sensitivity C-reactive Protein,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
+        </is>
       </c>
       <c r="W204" t="n">
         <v/>
@@ -27945,7 +27949,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>116002515</t>
+          <t>11NTATP100</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -27993,12 +27997,12 @@
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>RUBBER SHOE</t>
+          <t>DATP (25 ΜM)</t>
         </is>
       </c>
       <c r="T205" t="inlineStr">
         <is>
-          <t>Replacement part for FastPrep-24.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U205" t="inlineStr">
@@ -28076,7 +28080,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>116002516</t>
+          <t>11NTCTP100</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -28124,7 +28128,7 @@
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>FUSE 6.3 AMP-UL, PACK OF 4</t>
+          <t>DCTP (25 ΜM)</t>
         </is>
       </c>
       <c r="T206" t="inlineStr">
@@ -28207,7 +28211,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>116002519</t>
+          <t>11NTGTP100</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -28255,7 +28259,7 @@
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>3-PIN FLAT AC CORD-FOR USA</t>
+          <t>DGTP (25 ΜM)</t>
         </is>
       </c>
       <c r="T207" t="inlineStr">
@@ -28338,7 +28342,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>116002554</t>
+          <t>11NTTTP100</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -28386,12 +28390,12 @@
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>SPRING FOR FP24</t>
+          <t>DTTP (25 ΜM)</t>
         </is>
       </c>
       <c r="T208" t="inlineStr">
         <is>
-          <t>FastPrep-24 parts and accessories.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U208" t="inlineStr">
@@ -28469,7 +28473,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>116550900</t>
+          <t>11RIST1373</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -28517,12 +28521,12 @@
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>FASTGLYCOPROTEIN ISOLATION KIT, WGA RESIN, 1 KIT, 10 PREPS</t>
+          <t>PROTEINASE K, &gt;30 MANSON U/MG, 100 MG</t>
         </is>
       </c>
       <c r="T209" t="inlineStr">
         <is>
-          <t>Kit for the isolation of glycoprotein from complex protein mixtures including animal and plant tissue, cultured cells as well as microbe and insect, using the lectin Wheat Germ Agglutinin (WGA) immobilized on agarose.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U209" t="inlineStr">
@@ -28530,8 +28534,10 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="V209" t="n">
-        <v/>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>Toxoplasma gondii,Toxoplasmosis,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
+        </is>
       </c>
       <c r="W209" t="n">
         <v/>
@@ -28582,1985 +28588,6 @@
         <v/>
       </c>
       <c r="AM209" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v/>
-      </c>
-      <c r="B210" t="n">
-        <v/>
-      </c>
-      <c r="C210" t="n">
-        <v/>
-      </c>
-      <c r="D210" t="n">
-        <v/>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>116914801</t>
-        </is>
-      </c>
-      <c r="F210" t="n">
-        <v/>
-      </c>
-      <c r="G210" t="n">
-        <v/>
-      </c>
-      <c r="H210" t="n">
-        <v/>
-      </c>
-      <c r="I210" t="n">
-        <v/>
-      </c>
-      <c r="J210" t="n">
-        <v/>
-      </c>
-      <c r="K210" t="n">
-        <v/>
-      </c>
-      <c r="L210" t="n">
-        <v/>
-      </c>
-      <c r="M210" t="n">
-        <v/>
-      </c>
-      <c r="N210" t="n">
-        <v/>
-      </c>
-      <c r="O210" t="n">
-        <v/>
-      </c>
-      <c r="P210" t="n">
-        <v/>
-      </c>
-      <c r="Q210" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R210" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S210" t="inlineStr">
-        <is>
-          <t>4MM GLASS BEADS</t>
-        </is>
-      </c>
-      <c r="T210" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U210" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V210" t="n">
-        <v/>
-      </c>
-      <c r="W210" t="n">
-        <v/>
-      </c>
-      <c r="X210" t="n">
-        <v/>
-      </c>
-      <c r="Y210" t="n">
-        <v/>
-      </c>
-      <c r="Z210" t="n">
-        <v/>
-      </c>
-      <c r="AA210" t="n">
-        <v/>
-      </c>
-      <c r="AB210" t="n">
-        <v/>
-      </c>
-      <c r="AC210" t="n">
-        <v/>
-      </c>
-      <c r="AD210" t="n">
-        <v/>
-      </c>
-      <c r="AE210" t="n">
-        <v/>
-      </c>
-      <c r="AF210" t="n">
-        <v/>
-      </c>
-      <c r="AG210" t="n">
-        <v/>
-      </c>
-      <c r="AH210" t="n">
-        <v/>
-      </c>
-      <c r="AI210" t="n">
-        <v/>
-      </c>
-      <c r="AJ210" t="n">
-        <v/>
-      </c>
-      <c r="AK210" t="n">
-        <v/>
-      </c>
-      <c r="AL210" t="n">
-        <v/>
-      </c>
-      <c r="AM210" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v/>
-      </c>
-      <c r="B211" t="n">
-        <v/>
-      </c>
-      <c r="C211" t="n">
-        <v/>
-      </c>
-      <c r="D211" t="n">
-        <v/>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>116950000</t>
-        </is>
-      </c>
-      <c r="F211" t="n">
-        <v/>
-      </c>
-      <c r="G211" t="n">
-        <v/>
-      </c>
-      <c r="H211" t="n">
-        <v/>
-      </c>
-      <c r="I211" t="n">
-        <v/>
-      </c>
-      <c r="J211" t="n">
-        <v/>
-      </c>
-      <c r="K211" t="n">
-        <v/>
-      </c>
-      <c r="L211" t="n">
-        <v/>
-      </c>
-      <c r="M211" t="n">
-        <v/>
-      </c>
-      <c r="N211" t="n">
-        <v/>
-      </c>
-      <c r="O211" t="n">
-        <v/>
-      </c>
-      <c r="P211" t="n">
-        <v/>
-      </c>
-      <c r="Q211" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R211" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S211" t="inlineStr">
-        <is>
-          <t>50 ML CONICAL TUBES, PACK OF 25</t>
-        </is>
-      </c>
-      <c r="T211" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U211" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V211" t="n">
-        <v/>
-      </c>
-      <c r="W211" t="n">
-        <v/>
-      </c>
-      <c r="X211" t="n">
-        <v/>
-      </c>
-      <c r="Y211" t="n">
-        <v/>
-      </c>
-      <c r="Z211" t="n">
-        <v/>
-      </c>
-      <c r="AA211" t="n">
-        <v/>
-      </c>
-      <c r="AB211" t="n">
-        <v/>
-      </c>
-      <c r="AC211" t="n">
-        <v/>
-      </c>
-      <c r="AD211" t="n">
-        <v/>
-      </c>
-      <c r="AE211" t="n">
-        <v/>
-      </c>
-      <c r="AF211" t="n">
-        <v/>
-      </c>
-      <c r="AG211" t="n">
-        <v/>
-      </c>
-      <c r="AH211" t="n">
-        <v/>
-      </c>
-      <c r="AI211" t="n">
-        <v/>
-      </c>
-      <c r="AJ211" t="n">
-        <v/>
-      </c>
-      <c r="AK211" t="n">
-        <v/>
-      </c>
-      <c r="AL211" t="n">
-        <v/>
-      </c>
-      <c r="AM211" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v/>
-      </c>
-      <c r="B212" t="n">
-        <v/>
-      </c>
-      <c r="C212" t="n">
-        <v/>
-      </c>
-      <c r="D212" t="n">
-        <v/>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>116954100</t>
-        </is>
-      </c>
-      <c r="F212" t="n">
-        <v/>
-      </c>
-      <c r="G212" t="n">
-        <v/>
-      </c>
-      <c r="H212" t="n">
-        <v/>
-      </c>
-      <c r="I212" t="n">
-        <v/>
-      </c>
-      <c r="J212" t="n">
-        <v/>
-      </c>
-      <c r="K212" t="n">
-        <v/>
-      </c>
-      <c r="L212" t="n">
-        <v/>
-      </c>
-      <c r="M212" t="n">
-        <v/>
-      </c>
-      <c r="N212" t="n">
-        <v/>
-      </c>
-      <c r="O212" t="n">
-        <v/>
-      </c>
-      <c r="P212" t="n">
-        <v/>
-      </c>
-      <c r="Q212" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R212" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S212" t="inlineStr">
-        <is>
-          <t>BIGPREP;; LYSING MATRIX E, PACK OF 100</t>
-        </is>
-      </c>
-      <c r="T212" t="inlineStr">
-        <is>
-          <t>Primarily used for environmental samples such as soil, sludge, wastewater and feces.</t>
-        </is>
-      </c>
-      <c r="U212" t="inlineStr">
-        <is>
-          <t>Lysing Matrix E 50 mL Tube contains 1.4 ceramic spheres, 0.1 mm silica spheres and 25, 4 mm glass beads. Will not bind nucleic acids. Ideal for use on FastPrep&amp;reg; Instruments and any other homogenizer, grinder or bead-beating device.</t>
-        </is>
-      </c>
-      <c r="V212" t="inlineStr">
-        <is>
-          <t>extraction, purification, sample preparation, 50 mL tubes, ceramic beads, zirconium oxide spheres, glass spheres, silica spheres, dna purification, rna purification, plant tissue, soil, environmental samples, sludge, wastewater, feces</t>
-        </is>
-      </c>
-      <c r="W212" t="n">
-        <v/>
-      </c>
-      <c r="X212" t="n">
-        <v/>
-      </c>
-      <c r="Y212" t="n">
-        <v/>
-      </c>
-      <c r="Z212" t="n">
-        <v/>
-      </c>
-      <c r="AA212" t="n">
-        <v/>
-      </c>
-      <c r="AB212" t="n">
-        <v/>
-      </c>
-      <c r="AC212" t="n">
-        <v/>
-      </c>
-      <c r="AD212" t="n">
-        <v/>
-      </c>
-      <c r="AE212" t="n">
-        <v/>
-      </c>
-      <c r="AF212" t="n">
-        <v/>
-      </c>
-      <c r="AG212" t="n">
-        <v/>
-      </c>
-      <c r="AH212" t="n">
-        <v/>
-      </c>
-      <c r="AI212" t="n">
-        <v/>
-      </c>
-      <c r="AJ212" t="n">
-        <v/>
-      </c>
-      <c r="AK212" t="n">
-        <v/>
-      </c>
-      <c r="AL212" t="n">
-        <v/>
-      </c>
-      <c r="AM212" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v/>
-      </c>
-      <c r="B213" t="n">
-        <v/>
-      </c>
-      <c r="C213" t="n">
-        <v/>
-      </c>
-      <c r="D213" t="n">
-        <v/>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>116990100</t>
-        </is>
-      </c>
-      <c r="F213" t="n">
-        <v/>
-      </c>
-      <c r="G213" t="n">
-        <v/>
-      </c>
-      <c r="H213" t="n">
-        <v/>
-      </c>
-      <c r="I213" t="n">
-        <v/>
-      </c>
-      <c r="J213" t="n">
-        <v/>
-      </c>
-      <c r="K213" t="n">
-        <v/>
-      </c>
-      <c r="L213" t="n">
-        <v/>
-      </c>
-      <c r="M213" t="n">
-        <v/>
-      </c>
-      <c r="N213" t="n">
-        <v/>
-      </c>
-      <c r="O213" t="n">
-        <v/>
-      </c>
-      <c r="P213" t="n">
-        <v/>
-      </c>
-      <c r="Q213" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R213" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S213" t="inlineStr">
-        <is>
-          <t>REPLACEMENT O-RINGS FOR METAL LYSING TUBE, 2 ML, 50 EACH</t>
-        </is>
-      </c>
-      <c r="T213" t="inlineStr">
-        <is>
-          <t>Replacement teflon o-ring used in the cap of a SS Lysing Matrix tube to provide a leak-proof closure.</t>
-        </is>
-      </c>
-      <c r="U213" t="inlineStr">
-        <is>
-          <t>Replacement o-rings made of teflon designed to be inserted in the cap of the metal Lysing Matrix tubes to provide a leak-proof closure.</t>
-        </is>
-      </c>
-      <c r="V213" t="inlineStr">
-        <is>
-          <t>plastic o-ring, lysing tube o-ring</t>
-        </is>
-      </c>
-      <c r="W213" t="n">
-        <v/>
-      </c>
-      <c r="X213" t="n">
-        <v/>
-      </c>
-      <c r="Y213" t="n">
-        <v/>
-      </c>
-      <c r="Z213" t="n">
-        <v/>
-      </c>
-      <c r="AA213" t="n">
-        <v/>
-      </c>
-      <c r="AB213" t="n">
-        <v/>
-      </c>
-      <c r="AC213" t="n">
-        <v/>
-      </c>
-      <c r="AD213" t="n">
-        <v/>
-      </c>
-      <c r="AE213" t="n">
-        <v/>
-      </c>
-      <c r="AF213" t="n">
-        <v/>
-      </c>
-      <c r="AG213" t="n">
-        <v/>
-      </c>
-      <c r="AH213" t="n">
-        <v/>
-      </c>
-      <c r="AI213" t="n">
-        <v/>
-      </c>
-      <c r="AJ213" t="n">
-        <v/>
-      </c>
-      <c r="AK213" t="n">
-        <v/>
-      </c>
-      <c r="AL213" t="n">
-        <v/>
-      </c>
-      <c r="AM213" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v/>
-      </c>
-      <c r="B214" t="n">
-        <v/>
-      </c>
-      <c r="C214" t="n">
-        <v/>
-      </c>
-      <c r="D214" t="n">
-        <v/>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>11AGAH0100</t>
-        </is>
-      </c>
-      <c r="F214" t="n">
-        <v/>
-      </c>
-      <c r="G214" t="n">
-        <v/>
-      </c>
-      <c r="H214" t="n">
-        <v/>
-      </c>
-      <c r="I214" t="n">
-        <v/>
-      </c>
-      <c r="J214" t="n">
-        <v/>
-      </c>
-      <c r="K214" t="n">
-        <v/>
-      </c>
-      <c r="L214" t="n">
-        <v/>
-      </c>
-      <c r="M214" t="n">
-        <v/>
-      </c>
-      <c r="N214" t="n">
-        <v/>
-      </c>
-      <c r="O214" t="n">
-        <v/>
-      </c>
-      <c r="P214" t="n">
-        <v/>
-      </c>
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R214" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t>AGAROSE, MOLECULAR BIOLOGY GRADE, 100 G</t>
-        </is>
-      </c>
-      <c r="T214" t="inlineStr">
-        <is>
-          <t>Agarose optimal for analytical and preparative purpose. It is a very low electroendosmosis agarose. Provides superior separation. Ideal for plasmide preparation, PCR fragment analysis as well as cloning.</t>
-        </is>
-      </c>
-      <c r="U214" t="inlineStr">
-        <is>
-          <t>Standard agarose is a purified linear galactan hydrocolloid isolated from agar or agar-bearing marine algae with an Electroendoosmosis (EEO) value of 0.12 making it an essential component in chemical separation techniques.</t>
-        </is>
-      </c>
-      <c r="V214" t="inlineStr">
-        <is>
-          <t>CMV,Cytomegalovirus,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
-        </is>
-      </c>
-      <c r="W214" t="n">
-        <v/>
-      </c>
-      <c r="X214" t="n">
-        <v/>
-      </c>
-      <c r="Y214" t="n">
-        <v/>
-      </c>
-      <c r="Z214" t="n">
-        <v/>
-      </c>
-      <c r="AA214" t="n">
-        <v/>
-      </c>
-      <c r="AB214" t="n">
-        <v/>
-      </c>
-      <c r="AC214" t="n">
-        <v/>
-      </c>
-      <c r="AD214" t="n">
-        <v/>
-      </c>
-      <c r="AE214" t="n">
-        <v/>
-      </c>
-      <c r="AF214" t="n">
-        <v/>
-      </c>
-      <c r="AG214" t="n">
-        <v/>
-      </c>
-      <c r="AH214" t="n">
-        <v/>
-      </c>
-      <c r="AI214" t="n">
-        <v/>
-      </c>
-      <c r="AJ214" t="n">
-        <v/>
-      </c>
-      <c r="AK214" t="n">
-        <v/>
-      </c>
-      <c r="AL214" t="n">
-        <v/>
-      </c>
-      <c r="AM214" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v/>
-      </c>
-      <c r="B215" t="n">
-        <v/>
-      </c>
-      <c r="C215" t="n">
-        <v/>
-      </c>
-      <c r="D215" t="n">
-        <v/>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>11BIAC2902</t>
-        </is>
-      </c>
-      <c r="F215" t="n">
-        <v/>
-      </c>
-      <c r="G215" t="n">
-        <v/>
-      </c>
-      <c r="H215" t="n">
-        <v/>
-      </c>
-      <c r="I215" t="n">
-        <v/>
-      </c>
-      <c r="J215" t="n">
-        <v/>
-      </c>
-      <c r="K215" t="n">
-        <v/>
-      </c>
-      <c r="L215" t="n">
-        <v/>
-      </c>
-      <c r="M215" t="n">
-        <v/>
-      </c>
-      <c r="N215" t="n">
-        <v/>
-      </c>
-      <c r="O215" t="n">
-        <v/>
-      </c>
-      <c r="P215" t="n">
-        <v/>
-      </c>
-      <c r="Q215" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R215" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t>40% (W/V) ACRYLAMIDE-BIS-ACRYL 29:1 SOLUTION, 1 L</t>
-        </is>
-      </c>
-      <c r="T215" t="inlineStr">
-        <is>
-          <t>Convenient ready-to-use solutions of 4X high quality acrylamide for molecular biology, and NN&amp;rsquo;-methylenebisacrylamide in deonised water. Concentration is based on the total weight of both the acrylamide and bis-acrylamide.</t>
-        </is>
-      </c>
-      <c r="U215" t="inlineStr">
-        <is>
-          <t>Acrylamide/Bis-acrylamide 29:1 is convenient ready-to-use solutions of 4X crystalized high quality acrylamide for molecular biology, and NN&amp;rsquo;-Methylenebisacrylamide in deonised water. Premixed 19:1 liquid solution eliminates the need to weigh toxic acrylamide and bis-acrylamide. The concentration is based on the total weight of both the acrylamide and bis-acrylamide.</t>
-        </is>
-      </c>
-      <c r="V215" t="inlineStr">
-        <is>
-          <t>Bordetella Pertussis,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
-        </is>
-      </c>
-      <c r="W215" t="n">
-        <v/>
-      </c>
-      <c r="X215" t="n">
-        <v/>
-      </c>
-      <c r="Y215" t="n">
-        <v/>
-      </c>
-      <c r="Z215" t="n">
-        <v/>
-      </c>
-      <c r="AA215" t="n">
-        <v/>
-      </c>
-      <c r="AB215" t="n">
-        <v/>
-      </c>
-      <c r="AC215" t="n">
-        <v/>
-      </c>
-      <c r="AD215" t="n">
-        <v/>
-      </c>
-      <c r="AE215" t="n">
-        <v/>
-      </c>
-      <c r="AF215" t="n">
-        <v/>
-      </c>
-      <c r="AG215" t="n">
-        <v/>
-      </c>
-      <c r="AH215" t="n">
-        <v/>
-      </c>
-      <c r="AI215" t="n">
-        <v/>
-      </c>
-      <c r="AJ215" t="n">
-        <v/>
-      </c>
-      <c r="AK215" t="n">
-        <v/>
-      </c>
-      <c r="AL215" t="n">
-        <v/>
-      </c>
-      <c r="AM215" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v/>
-      </c>
-      <c r="B216" t="n">
-        <v/>
-      </c>
-      <c r="C216" t="n">
-        <v/>
-      </c>
-      <c r="D216" t="n">
-        <v/>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>11EPHSP025</t>
-        </is>
-      </c>
-      <c r="F216" t="n">
-        <v/>
-      </c>
-      <c r="G216" t="n">
-        <v/>
-      </c>
-      <c r="H216" t="n">
-        <v/>
-      </c>
-      <c r="I216" t="n">
-        <v/>
-      </c>
-      <c r="J216" t="n">
-        <v/>
-      </c>
-      <c r="K216" t="n">
-        <v/>
-      </c>
-      <c r="L216" t="n">
-        <v/>
-      </c>
-      <c r="M216" t="n">
-        <v/>
-      </c>
-      <c r="N216" t="n">
-        <v/>
-      </c>
-      <c r="O216" t="n">
-        <v/>
-      </c>
-      <c r="P216" t="n">
-        <v/>
-      </c>
-      <c r="Q216" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R216" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S216" t="inlineStr">
-        <is>
-          <t>SUREPRIME DNA POLYMERASE, 250 U</t>
-        </is>
-      </c>
-      <c r="T216" t="inlineStr">
-        <is>
-          <t>Chemically modified hot-start Taq DNA polymerase that delivers highly specific amplification.</t>
-        </is>
-      </c>
-      <c r="U216" t="inlineStr">
-        <is>
-          <t>SurePRIMEâ„¢ DNA Polymerase is a thermostable polymerase that is suitable for all PCR applications requiring â€œhot startâ€ conditions.</t>
-        </is>
-      </c>
-      <c r="V216" t="n">
-        <v/>
-      </c>
-      <c r="W216" t="n">
-        <v/>
-      </c>
-      <c r="X216" t="n">
-        <v/>
-      </c>
-      <c r="Y216" t="n">
-        <v/>
-      </c>
-      <c r="Z216" t="n">
-        <v/>
-      </c>
-      <c r="AA216" t="n">
-        <v/>
-      </c>
-      <c r="AB216" t="n">
-        <v/>
-      </c>
-      <c r="AC216" t="n">
-        <v/>
-      </c>
-      <c r="AD216" t="n">
-        <v/>
-      </c>
-      <c r="AE216" t="n">
-        <v/>
-      </c>
-      <c r="AF216" t="n">
-        <v/>
-      </c>
-      <c r="AG216" t="n">
-        <v/>
-      </c>
-      <c r="AH216" t="n">
-        <v/>
-      </c>
-      <c r="AI216" t="n">
-        <v/>
-      </c>
-      <c r="AJ216" t="n">
-        <v/>
-      </c>
-      <c r="AK216" t="n">
-        <v/>
-      </c>
-      <c r="AL216" t="n">
-        <v/>
-      </c>
-      <c r="AM216" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v/>
-      </c>
-      <c r="B217" t="n">
-        <v/>
-      </c>
-      <c r="C217" t="n">
-        <v/>
-      </c>
-      <c r="D217" t="n">
-        <v/>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>11FORMD002</t>
-        </is>
-      </c>
-      <c r="F217" t="n">
-        <v/>
-      </c>
-      <c r="G217" t="n">
-        <v/>
-      </c>
-      <c r="H217" t="n">
-        <v/>
-      </c>
-      <c r="I217" t="n">
-        <v/>
-      </c>
-      <c r="J217" t="n">
-        <v/>
-      </c>
-      <c r="K217" t="n">
-        <v/>
-      </c>
-      <c r="L217" t="n">
-        <v/>
-      </c>
-      <c r="M217" t="n">
-        <v/>
-      </c>
-      <c r="N217" t="n">
-        <v/>
-      </c>
-      <c r="O217" t="n">
-        <v/>
-      </c>
-      <c r="P217" t="n">
-        <v/>
-      </c>
-      <c r="Q217" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R217" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S217" t="inlineStr">
-        <is>
-          <t>FORMAMIDE DEIONIZED, 500 ML</t>
-        </is>
-      </c>
-      <c r="T217" t="inlineStr">
-        <is>
-          <t>Deionized Formamide for use in molecular biology and as a denaturing agent for nucleic acids in gel electrophoresis or hybridization experiments.</t>
-        </is>
-      </c>
-      <c r="U217" t="inlineStr">
-        <is>
-          <t>Deionized Formamide is used in molecular biology and a denaturing agent for nucleic acids in gel electrophoresis orr hybridization experiments. In the latter case the role of formamide is to decrease the temperature necessary for the reassociation of complementary nucleic acids.</t>
-        </is>
-      </c>
-      <c r="V217" t="inlineStr">
-        <is>
-          <t>hsCRP,High Sensitivity C-reactive Protein,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
-        </is>
-      </c>
-      <c r="W217" t="n">
-        <v/>
-      </c>
-      <c r="X217" t="n">
-        <v/>
-      </c>
-      <c r="Y217" t="n">
-        <v/>
-      </c>
-      <c r="Z217" t="n">
-        <v/>
-      </c>
-      <c r="AA217" t="n">
-        <v/>
-      </c>
-      <c r="AB217" t="n">
-        <v/>
-      </c>
-      <c r="AC217" t="n">
-        <v/>
-      </c>
-      <c r="AD217" t="n">
-        <v/>
-      </c>
-      <c r="AE217" t="n">
-        <v/>
-      </c>
-      <c r="AF217" t="n">
-        <v/>
-      </c>
-      <c r="AG217" t="n">
-        <v/>
-      </c>
-      <c r="AH217" t="n">
-        <v/>
-      </c>
-      <c r="AI217" t="n">
-        <v/>
-      </c>
-      <c r="AJ217" t="n">
-        <v/>
-      </c>
-      <c r="AK217" t="n">
-        <v/>
-      </c>
-      <c r="AL217" t="n">
-        <v/>
-      </c>
-      <c r="AM217" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v/>
-      </c>
-      <c r="B218" t="n">
-        <v/>
-      </c>
-      <c r="C218" t="n">
-        <v/>
-      </c>
-      <c r="D218" t="n">
-        <v/>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>11INSC0106</t>
-        </is>
-      </c>
-      <c r="F218" t="n">
-        <v/>
-      </c>
-      <c r="G218" t="n">
-        <v/>
-      </c>
-      <c r="H218" t="n">
-        <v/>
-      </c>
-      <c r="I218" t="n">
-        <v/>
-      </c>
-      <c r="J218" t="n">
-        <v/>
-      </c>
-      <c r="K218" t="n">
-        <v/>
-      </c>
-      <c r="L218" t="n">
-        <v/>
-      </c>
-      <c r="M218" t="n">
-        <v/>
-      </c>
-      <c r="N218" t="n">
-        <v/>
-      </c>
-      <c r="O218" t="n">
-        <v/>
-      </c>
-      <c r="P218" t="n">
-        <v/>
-      </c>
-      <c r="Q218" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R218" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S218" t="inlineStr">
-        <is>
-          <t>AUTORADIOGRAPHY CASSETTE, 35 X 43, 14 X 17 CM</t>
-        </is>
-      </c>
-      <c r="T218" t="inlineStr">
-        <is>
-          <t>Specially designed for Southern and Northern applications. MP Bio cassettes can be used at temperatures as low as -80°C. The high quality materials used in manufacturing these cassettes insure outstanding durability.</t>
-        </is>
-      </c>
-      <c r="U218" t="inlineStr">
-        <is>
-          <t>Specially selected for molecular biology applications. MP Bio cassettes are designed for use at temperatures as low as -80°C. The high quality materials used in manufacturing these cassettes insure outsatnading durability.</t>
-        </is>
-      </c>
-      <c r="V218" t="inlineStr">
-        <is>
-          <t>Cortisol,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
-        </is>
-      </c>
-      <c r="W218" t="n">
-        <v/>
-      </c>
-      <c r="X218" t="n">
-        <v/>
-      </c>
-      <c r="Y218" t="n">
-        <v/>
-      </c>
-      <c r="Z218" t="n">
-        <v/>
-      </c>
-      <c r="AA218" t="n">
-        <v/>
-      </c>
-      <c r="AB218" t="n">
-        <v/>
-      </c>
-      <c r="AC218" t="n">
-        <v/>
-      </c>
-      <c r="AD218" t="n">
-        <v/>
-      </c>
-      <c r="AE218" t="n">
-        <v/>
-      </c>
-      <c r="AF218" t="n">
-        <v/>
-      </c>
-      <c r="AG218" t="n">
-        <v/>
-      </c>
-      <c r="AH218" t="n">
-        <v/>
-      </c>
-      <c r="AI218" t="n">
-        <v/>
-      </c>
-      <c r="AJ218" t="n">
-        <v/>
-      </c>
-      <c r="AK218" t="n">
-        <v/>
-      </c>
-      <c r="AL218" t="n">
-        <v/>
-      </c>
-      <c r="AM218" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v/>
-      </c>
-      <c r="B219" t="n">
-        <v/>
-      </c>
-      <c r="C219" t="n">
-        <v/>
-      </c>
-      <c r="D219" t="n">
-        <v/>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>11INSI6301</t>
-        </is>
-      </c>
-      <c r="F219" t="n">
-        <v/>
-      </c>
-      <c r="G219" t="n">
-        <v/>
-      </c>
-      <c r="H219" t="n">
-        <v/>
-      </c>
-      <c r="I219" t="n">
-        <v/>
-      </c>
-      <c r="J219" t="n">
-        <v/>
-      </c>
-      <c r="K219" t="n">
-        <v/>
-      </c>
-      <c r="L219" t="n">
-        <v/>
-      </c>
-      <c r="M219" t="n">
-        <v/>
-      </c>
-      <c r="N219" t="n">
-        <v/>
-      </c>
-      <c r="O219" t="n">
-        <v/>
-      </c>
-      <c r="P219" t="n">
-        <v/>
-      </c>
-      <c r="Q219" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R219" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S219" t="inlineStr">
-        <is>
-          <t>THERMAL PAPER STANDARD, 5 ROLLS</t>
-        </is>
-      </c>
-      <c r="T219" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U219" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V219" t="n">
-        <v/>
-      </c>
-      <c r="W219" t="n">
-        <v/>
-      </c>
-      <c r="X219" t="n">
-        <v/>
-      </c>
-      <c r="Y219" t="n">
-        <v/>
-      </c>
-      <c r="Z219" t="n">
-        <v/>
-      </c>
-      <c r="AA219" t="n">
-        <v/>
-      </c>
-      <c r="AB219" t="n">
-        <v/>
-      </c>
-      <c r="AC219" t="n">
-        <v/>
-      </c>
-      <c r="AD219" t="n">
-        <v/>
-      </c>
-      <c r="AE219" t="n">
-        <v/>
-      </c>
-      <c r="AF219" t="n">
-        <v/>
-      </c>
-      <c r="AG219" t="n">
-        <v/>
-      </c>
-      <c r="AH219" t="n">
-        <v/>
-      </c>
-      <c r="AI219" t="n">
-        <v/>
-      </c>
-      <c r="AJ219" t="n">
-        <v/>
-      </c>
-      <c r="AK219" t="n">
-        <v/>
-      </c>
-      <c r="AL219" t="n">
-        <v/>
-      </c>
-      <c r="AM219" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v/>
-      </c>
-      <c r="B220" t="n">
-        <v/>
-      </c>
-      <c r="C220" t="n">
-        <v/>
-      </c>
-      <c r="D220" t="n">
-        <v/>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>11NTATP100</t>
-        </is>
-      </c>
-      <c r="F220" t="n">
-        <v/>
-      </c>
-      <c r="G220" t="n">
-        <v/>
-      </c>
-      <c r="H220" t="n">
-        <v/>
-      </c>
-      <c r="I220" t="n">
-        <v/>
-      </c>
-      <c r="J220" t="n">
-        <v/>
-      </c>
-      <c r="K220" t="n">
-        <v/>
-      </c>
-      <c r="L220" t="n">
-        <v/>
-      </c>
-      <c r="M220" t="n">
-        <v/>
-      </c>
-      <c r="N220" t="n">
-        <v/>
-      </c>
-      <c r="O220" t="n">
-        <v/>
-      </c>
-      <c r="P220" t="n">
-        <v/>
-      </c>
-      <c r="Q220" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R220" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S220" t="inlineStr">
-        <is>
-          <t>DATP (25 ΜM)</t>
-        </is>
-      </c>
-      <c r="T220" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U220" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V220" t="n">
-        <v/>
-      </c>
-      <c r="W220" t="n">
-        <v/>
-      </c>
-      <c r="X220" t="n">
-        <v/>
-      </c>
-      <c r="Y220" t="n">
-        <v/>
-      </c>
-      <c r="Z220" t="n">
-        <v/>
-      </c>
-      <c r="AA220" t="n">
-        <v/>
-      </c>
-      <c r="AB220" t="n">
-        <v/>
-      </c>
-      <c r="AC220" t="n">
-        <v/>
-      </c>
-      <c r="AD220" t="n">
-        <v/>
-      </c>
-      <c r="AE220" t="n">
-        <v/>
-      </c>
-      <c r="AF220" t="n">
-        <v/>
-      </c>
-      <c r="AG220" t="n">
-        <v/>
-      </c>
-      <c r="AH220" t="n">
-        <v/>
-      </c>
-      <c r="AI220" t="n">
-        <v/>
-      </c>
-      <c r="AJ220" t="n">
-        <v/>
-      </c>
-      <c r="AK220" t="n">
-        <v/>
-      </c>
-      <c r="AL220" t="n">
-        <v/>
-      </c>
-      <c r="AM220" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v/>
-      </c>
-      <c r="B221" t="n">
-        <v/>
-      </c>
-      <c r="C221" t="n">
-        <v/>
-      </c>
-      <c r="D221" t="n">
-        <v/>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>11NTCTP100</t>
-        </is>
-      </c>
-      <c r="F221" t="n">
-        <v/>
-      </c>
-      <c r="G221" t="n">
-        <v/>
-      </c>
-      <c r="H221" t="n">
-        <v/>
-      </c>
-      <c r="I221" t="n">
-        <v/>
-      </c>
-      <c r="J221" t="n">
-        <v/>
-      </c>
-      <c r="K221" t="n">
-        <v/>
-      </c>
-      <c r="L221" t="n">
-        <v/>
-      </c>
-      <c r="M221" t="n">
-        <v/>
-      </c>
-      <c r="N221" t="n">
-        <v/>
-      </c>
-      <c r="O221" t="n">
-        <v/>
-      </c>
-      <c r="P221" t="n">
-        <v/>
-      </c>
-      <c r="Q221" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R221" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S221" t="inlineStr">
-        <is>
-          <t>DCTP (25 ΜM)</t>
-        </is>
-      </c>
-      <c r="T221" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U221" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V221" t="n">
-        <v/>
-      </c>
-      <c r="W221" t="n">
-        <v/>
-      </c>
-      <c r="X221" t="n">
-        <v/>
-      </c>
-      <c r="Y221" t="n">
-        <v/>
-      </c>
-      <c r="Z221" t="n">
-        <v/>
-      </c>
-      <c r="AA221" t="n">
-        <v/>
-      </c>
-      <c r="AB221" t="n">
-        <v/>
-      </c>
-      <c r="AC221" t="n">
-        <v/>
-      </c>
-      <c r="AD221" t="n">
-        <v/>
-      </c>
-      <c r="AE221" t="n">
-        <v/>
-      </c>
-      <c r="AF221" t="n">
-        <v/>
-      </c>
-      <c r="AG221" t="n">
-        <v/>
-      </c>
-      <c r="AH221" t="n">
-        <v/>
-      </c>
-      <c r="AI221" t="n">
-        <v/>
-      </c>
-      <c r="AJ221" t="n">
-        <v/>
-      </c>
-      <c r="AK221" t="n">
-        <v/>
-      </c>
-      <c r="AL221" t="n">
-        <v/>
-      </c>
-      <c r="AM221" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v/>
-      </c>
-      <c r="B222" t="n">
-        <v/>
-      </c>
-      <c r="C222" t="n">
-        <v/>
-      </c>
-      <c r="D222" t="n">
-        <v/>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>11NTGTP100</t>
-        </is>
-      </c>
-      <c r="F222" t="n">
-        <v/>
-      </c>
-      <c r="G222" t="n">
-        <v/>
-      </c>
-      <c r="H222" t="n">
-        <v/>
-      </c>
-      <c r="I222" t="n">
-        <v/>
-      </c>
-      <c r="J222" t="n">
-        <v/>
-      </c>
-      <c r="K222" t="n">
-        <v/>
-      </c>
-      <c r="L222" t="n">
-        <v/>
-      </c>
-      <c r="M222" t="n">
-        <v/>
-      </c>
-      <c r="N222" t="n">
-        <v/>
-      </c>
-      <c r="O222" t="n">
-        <v/>
-      </c>
-      <c r="P222" t="n">
-        <v/>
-      </c>
-      <c r="Q222" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R222" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S222" t="inlineStr">
-        <is>
-          <t>DGTP (25 ΜM)</t>
-        </is>
-      </c>
-      <c r="T222" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U222" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V222" t="n">
-        <v/>
-      </c>
-      <c r="W222" t="n">
-        <v/>
-      </c>
-      <c r="X222" t="n">
-        <v/>
-      </c>
-      <c r="Y222" t="n">
-        <v/>
-      </c>
-      <c r="Z222" t="n">
-        <v/>
-      </c>
-      <c r="AA222" t="n">
-        <v/>
-      </c>
-      <c r="AB222" t="n">
-        <v/>
-      </c>
-      <c r="AC222" t="n">
-        <v/>
-      </c>
-      <c r="AD222" t="n">
-        <v/>
-      </c>
-      <c r="AE222" t="n">
-        <v/>
-      </c>
-      <c r="AF222" t="n">
-        <v/>
-      </c>
-      <c r="AG222" t="n">
-        <v/>
-      </c>
-      <c r="AH222" t="n">
-        <v/>
-      </c>
-      <c r="AI222" t="n">
-        <v/>
-      </c>
-      <c r="AJ222" t="n">
-        <v/>
-      </c>
-      <c r="AK222" t="n">
-        <v/>
-      </c>
-      <c r="AL222" t="n">
-        <v/>
-      </c>
-      <c r="AM222" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v/>
-      </c>
-      <c r="B223" t="n">
-        <v/>
-      </c>
-      <c r="C223" t="n">
-        <v/>
-      </c>
-      <c r="D223" t="n">
-        <v/>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>11NTTTP100</t>
-        </is>
-      </c>
-      <c r="F223" t="n">
-        <v/>
-      </c>
-      <c r="G223" t="n">
-        <v/>
-      </c>
-      <c r="H223" t="n">
-        <v/>
-      </c>
-      <c r="I223" t="n">
-        <v/>
-      </c>
-      <c r="J223" t="n">
-        <v/>
-      </c>
-      <c r="K223" t="n">
-        <v/>
-      </c>
-      <c r="L223" t="n">
-        <v/>
-      </c>
-      <c r="M223" t="n">
-        <v/>
-      </c>
-      <c r="N223" t="n">
-        <v/>
-      </c>
-      <c r="O223" t="n">
-        <v/>
-      </c>
-      <c r="P223" t="n">
-        <v/>
-      </c>
-      <c r="Q223" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R223" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S223" t="inlineStr">
-        <is>
-          <t>DTTP (25 M)</t>
-        </is>
-      </c>
-      <c r="T223" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U223" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V223" t="n">
-        <v/>
-      </c>
-      <c r="W223" t="n">
-        <v/>
-      </c>
-      <c r="X223" t="n">
-        <v/>
-      </c>
-      <c r="Y223" t="n">
-        <v/>
-      </c>
-      <c r="Z223" t="n">
-        <v/>
-      </c>
-      <c r="AA223" t="n">
-        <v/>
-      </c>
-      <c r="AB223" t="n">
-        <v/>
-      </c>
-      <c r="AC223" t="n">
-        <v/>
-      </c>
-      <c r="AD223" t="n">
-        <v/>
-      </c>
-      <c r="AE223" t="n">
-        <v/>
-      </c>
-      <c r="AF223" t="n">
-        <v/>
-      </c>
-      <c r="AG223" t="n">
-        <v/>
-      </c>
-      <c r="AH223" t="n">
-        <v/>
-      </c>
-      <c r="AI223" t="n">
-        <v/>
-      </c>
-      <c r="AJ223" t="n">
-        <v/>
-      </c>
-      <c r="AK223" t="n">
-        <v/>
-      </c>
-      <c r="AL223" t="n">
-        <v/>
-      </c>
-      <c r="AM223" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v/>
-      </c>
-      <c r="B224" t="n">
-        <v/>
-      </c>
-      <c r="C224" t="n">
-        <v/>
-      </c>
-      <c r="D224" t="n">
-        <v/>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>11RIST1373</t>
-        </is>
-      </c>
-      <c r="F224" t="n">
-        <v/>
-      </c>
-      <c r="G224" t="n">
-        <v/>
-      </c>
-      <c r="H224" t="n">
-        <v/>
-      </c>
-      <c r="I224" t="n">
-        <v/>
-      </c>
-      <c r="J224" t="n">
-        <v/>
-      </c>
-      <c r="K224" t="n">
-        <v/>
-      </c>
-      <c r="L224" t="n">
-        <v/>
-      </c>
-      <c r="M224" t="n">
-        <v/>
-      </c>
-      <c r="N224" t="n">
-        <v/>
-      </c>
-      <c r="O224" t="n">
-        <v/>
-      </c>
-      <c r="P224" t="n">
-        <v/>
-      </c>
-      <c r="Q224" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="R224" t="inlineStr">
-        <is>
-          <t>MP Biomedical</t>
-        </is>
-      </c>
-      <c r="S224" t="inlineStr">
-        <is>
-          <t>PROTEINASE K, &gt;30 MANSON U/MG, 100 MG</t>
-        </is>
-      </c>
-      <c r="T224" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U224" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V224" t="inlineStr">
-        <is>
-          <t>Toxoplasma gondii,Toxoplasmosis,ELISA,EIA,Enzyme Immunoassay,Enzyme-linked Immunosorbent Assay</t>
-        </is>
-      </c>
-      <c r="W224" t="n">
-        <v/>
-      </c>
-      <c r="X224" t="n">
-        <v/>
-      </c>
-      <c r="Y224" t="n">
-        <v/>
-      </c>
-      <c r="Z224" t="n">
-        <v/>
-      </c>
-      <c r="AA224" t="n">
-        <v/>
-      </c>
-      <c r="AB224" t="n">
-        <v/>
-      </c>
-      <c r="AC224" t="n">
-        <v/>
-      </c>
-      <c r="AD224" t="n">
-        <v/>
-      </c>
-      <c r="AE224" t="n">
-        <v/>
-      </c>
-      <c r="AF224" t="n">
-        <v/>
-      </c>
-      <c r="AG224" t="n">
-        <v/>
-      </c>
-      <c r="AH224" t="n">
-        <v/>
-      </c>
-      <c r="AI224" t="n">
-        <v/>
-      </c>
-      <c r="AJ224" t="n">
-        <v/>
-      </c>
-      <c r="AK224" t="n">
-        <v/>
-      </c>
-      <c r="AL224" t="n">
-        <v/>
-      </c>
-      <c r="AM224" t="n">
         <v/>
       </c>
     </row>

--- a/outputs/enrichment_outputs/vwr_enrichment_output.xlsx
+++ b/outputs/enrichment_outputs/vwr_enrichment_output.xlsx
@@ -3795,7 +3795,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Biological Buffers, Good’s Buffers</t>
+          <t>Biological Buffers, Goodâ€™s Buffers</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Biological Buffers, Good’s Buffers</t>
+          <t>Biological Buffers, Goodâ€™s Buffers</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Biological Buffers, Good’s Buffers</t>
+          <t>Biological Buffers, Goodâ€™s Buffers</t>
         </is>
       </c>
       <c r="W24" t="n">
@@ -4179,17 +4179,17 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Α-D-(+)-MELIBIOSE MONOHYDRATE, 10 G</t>
+          <t>Î±-D-(+)-MELIBIOSE MONOHYDRATE, 10 G</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>α-D-(+)-Melibiose Monohydrate</t>
+          <t>Î±-D-(+)-Melibiose Monohydrate</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>α-D-(+)-Melibiose Monohydrate</t>
+          <t>Î±-D-(+)-Melibiose Monohydrate</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -4312,17 +4312,17 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Α-D-(+)-MELIBIOSE MONOHYDRATE, 25 G</t>
+          <t>Î±-D-(+)-MELIBIOSE MONOHYDRATE, 25 G</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>α-D-(+)-Melibiose Monohydrate</t>
+          <t>Î±-D-(+)-Melibiose Monohydrate</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>α-D-(+)-Melibiose Monohydrate</t>
+          <t>Î±-D-(+)-Melibiose Monohydrate</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>CHOLIC ACID, SODIUM SALT, ≥98.5%, 500 G</t>
+          <t>CHOLIC ACID, SODIUM SALT, 98.5%, 500 G</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>GLUCOSE-6-PHOSPHATE DEHYDROGENASE, ≥400 U/MG SOLID, 100 U</t>
+          <t>GLUCOSE-6-PHOSPHATE DEHYDROGENASE, 400 U/MG SOLID, 100 U</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>GLUCOSE-6-PHOSPHATE DEHYDROGENASE, ≥400 U/MG SOLID, 500 U</t>
+          <t>GLUCOSE-6-PHOSPHATE DEHYDROGENASE, 400 U/MG SOLID, 500 KU</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -6970,17 +6970,17 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Α-KETOGLUTARIC ACID, DISODIUM SALT, DIHYDRATE, 250 G</t>
+          <t>Î±-KETOGLUTARIC ACID, DISODIUM SALT, DIHYDRATE, 250 G</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>α-Ketoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>α-Ketoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -7103,17 +7103,17 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Α-KETOGLUTARIC ACID, DISODIUM SALT, DIHYDRATE, 500 G</t>
+          <t>Î±-KETOGLUTARIC ACID, DISODIUM SALT, DIHYDRATE, 500 G</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>α-Ketoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>α-Ketoglutaric Acid Disodium Salt Dihydrate</t>
+          <t>Î±-Ketoglutaric Acid Disodium Salt Dihydrate</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Biological Buffers, Good’s Buffers</t>
+          <t>Biological Buffers, Goodâ€™s Buffers</t>
         </is>
       </c>
       <c r="W58" t="n">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>EPIDERMAL GROWTH FACTOR, HUMAN, RECOMBINANT, ≥98%, 100 ΜG</t>
+          <t>EPIDERMAL GROWTH FACTOR, HUMAN, RECOMBINANT, 98%, 100 G</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
@@ -14793,7 +14793,7 @@
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>TRIS, CELL CULTURE REAGENT, ≥99.95%, 5 KG</t>
+          <t>TRIS, CELL CULTURE REAGENT, 99.95%, 5 KG</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
@@ -14808,7 +14808,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>BioReagent Buffers, Buffer Salts, Buffered Salt Solutions, BBuffers Salts, Buffers A to Z, Bioreagents, Good’s Buffers, Life Science Reagents for Cell Culture, Life Science Reagents for Cloning, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Research Essentials</t>
+          <t>BioReagent Buffers, Buffer Salts, Buffered Salt Solutions, BBuffers Salts, Buffers A to Z, Bioreagents, Goodâ€™s Buffers, Life Science Reagents for Cell Culture, Life Science Reagents for Cloning, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for PCR, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Research Essentials</t>
         </is>
       </c>
       <c r="W105" t="n">
@@ -14926,7 +14926,7 @@
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>TRIS HYDROCHLORIDE, CELL CULTURE REAGENT, ≥99%, 1 KG</t>
+          <t>TRIS HYDROCHLORIDE, CELL CULTURE REAGENT, 99%, 1 KG</t>
         </is>
       </c>
       <c r="T106" t="inlineStr">
@@ -14941,7 +14941,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>Apoptosis and Cell Cycle, BioReagent Buffers, Biological Buffers, Buffer Salts, Buffered Salt Solutions, Cell Biology, Cell Signaling and Neuroscience, Bioreagents, Good’s Buffers, Life Science Reagents for Cell Culture, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Other Apoptosis Related Reagents, Research Essentials</t>
+          <t>Apoptosis and Cell Cycle, BioReagent Buffers, Biological Buffers, Buffer Salts, Buffered Salt Solutions, Cell Biology, Cell Signaling and Neuroscience, Bioreagents, Goodâ€™s Buffers, Life Science Reagents for Cell Culture, Life Science Reagents for DNA/RNA Electrophoresis, Life Science Reagents for Northern and Southern Blotting, Life Science Reagents for Nucleic Acid Purification, Life Science Reagents for Protein Electrophoresis, Life Science Reagents for Protein Expression and Purification, Life Science Reagents for RNAi, Life Science Reagents for Transfection, Life Science Reagents for Western Blotting, Other Apoptosis Related Reagents, Research Essentials</t>
         </is>
       </c>
       <c r="W106" t="n">
@@ -15190,7 +15190,7 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>GLUTATHIONE REDUCED, CELL CULTURE REAGENT, ≥98%, 25 G</t>
+          <t>GLUTATHIONE REDUCED, CELL CULTURE REAGENT, 98%, 25 G</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
@@ -15855,7 +15855,7 @@
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>L-PROLINE, CELL CULTURE REAGENT, ≥99%, 1 KG</t>
+          <t>L-PROLINE, CELL CULTURE REAGENT, 99%, 1 KG</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
@@ -16121,7 +16121,7 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>D-SORBITOL, ANHYDROUS, CELL CULTURE REAGENT, ≥98%, 500 G</t>
+          <t>D-SORBITOL, ANHYDROUS, CELL CULTURE REAGENT, 98%, 500 G</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
@@ -16387,7 +16387,7 @@
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>D-SORBITOL, MOLECULAR BIOLOGY REAGENT, ≥98%, 2 KG</t>
+          <t>D-SORBITOL, MOLECULAR BIOLOGY REAGENT, 98%, 2 KG</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
@@ -17052,17 +17052,17 @@
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>GUANOSINE-5′-TRIPHOSPHATE DISODIUM SALT,≥95%, 100 MG</t>
+          <t>GUANOSINE-5€²-TRIPHOSPHATE DISODIUM SALT,95%, 100 MG</t>
         </is>
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>Guanosine-5′-Triphosphate Disodium Salt</t>
+          <t>Guanosine-5â€²-Triphosphate Disodium Salt</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>Guanosine-5′-Triphosphate Disodium Salt</t>
+          <t>Guanosine-5â€²-Triphosphate Disodium Salt</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
@@ -20237,7 +20237,7 @@
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>BioReagent Buffers, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffers Salts, Good’s Buffers, Life Science Reagents for PCR, Life Science Reagents for Western Blotting, Research Essentials</t>
+          <t>BioReagent Buffers, Biological Buffers, Buffers / Buffer Salts, Buffers / Buffers Salts, Goodâ€™s Buffers, Life Science Reagents for PCR, Life Science Reagents for Western Blotting, Research Essentials</t>
         </is>
       </c>
       <c r="W146" t="n">
@@ -25901,7 +25901,7 @@
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>CIRCLEGROW™ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
+          <t>CIRCLEGROWâ„¢ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
         </is>
       </c>
       <c r="V189" t="n">
@@ -26032,7 +26032,7 @@
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>CIRCLEGROW™ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
+          <t>CIRCLEGROWâ„¢ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
         </is>
       </c>
       <c r="V190" t="n">
@@ -27743,7 +27743,7 @@
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>SurePRIME™ DNA Polymerase is a thermostable polymerase that is suitable for all PCR applications requiring “hot start” conditions.</t>
+          <t>SurePRIMEâ„¢ DNA Polymerase is a thermostable polymerase that is suitable for all PCR applications requiring â€œhot startâ€ conditions.</t>
         </is>
       </c>
       <c r="V203" t="n">
@@ -28390,7 +28390,7 @@
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>DTTP (25 ΜM)</t>
+          <t>DTTP (25 M)</t>
         </is>
       </c>
       <c r="T208" t="inlineStr">
